--- a/03_Arbeitsjournal/Logfile.xlsx
+++ b/03_Arbeitsjournal/Logfile.xlsx
@@ -12,9 +12,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="56">
+  <si>
+    <t>Kategorien</t>
+  </si>
   <si>
     <t>Christian</t>
+  </si>
+  <si>
+    <t>Zeit Christian</t>
+  </si>
+  <si>
+    <t>Zeit Remo</t>
+  </si>
+  <si>
+    <t>Projektmanagement</t>
   </si>
   <si>
     <t>Remo</t>
@@ -35,19 +47,16 @@
     <t xml:space="preserve">Datum </t>
   </si>
   <si>
-    <t>Kategorien</t>
+    <t>Wissenserwerb</t>
   </si>
   <si>
-    <t>Zeit Christian</t>
-  </si>
-  <si>
-    <t>Zeit Remo</t>
-  </si>
-  <si>
-    <t>Projektmanagement</t>
+    <t>Programmierung</t>
   </si>
   <si>
     <t>Kickoff</t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
   </si>
   <si>
     <t>Teammeeting</t>
@@ -56,7 +65,7 @@
     <t>Vorbereitung Requirement-Workshop</t>
   </si>
   <si>
-    <t>Wissenserwerb</t>
+    <t>Design</t>
   </si>
   <si>
     <t>Kundenmeeting "Requirement-Workshop</t>
@@ -65,19 +74,13 @@
     <t>Nachbearbeitung Kundenmeeting</t>
   </si>
   <si>
-    <t>Programmierung</t>
+    <t>TOTAL</t>
   </si>
   <si>
     <t>SPECCHIO versuchen aufzusetzen in Eclipse</t>
   </si>
   <si>
-    <t>Dokumentation</t>
-  </si>
-  <si>
     <t>Statusbericht Nr. 1, Korrespondenz mit Kunde</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
   </si>
   <si>
     <t>Pflichtenheft</t>
@@ -130,6 +133,54 @@
   <si>
     <t>Logfile, Kundenkorrespondenz</t>
   </si>
+  <si>
+    <t>Vorbereitung Kundenmeeting Review Release 0.1</t>
+  </si>
+  <si>
+    <t>Überlegungen zur Informationsarchitektur / Design, Balsamiq Wireframe</t>
+  </si>
+  <si>
+    <t>Kundenmeeting Review Release 0.1</t>
+  </si>
+  <si>
+    <t>Informationen zum Deploymentprozess auf einem Glassfish-Server sammeln.</t>
+  </si>
+  <si>
+    <t>Dokumention zum Deployment-Prozess auf Glassfish-Server erstellen.</t>
+  </si>
+  <si>
+    <t>war-File erstellen von Release 0.1 und an Kunde senden für Test. Inklusive Dokumentation und weiteren Hinweisen zum Vorgehen.</t>
+  </si>
+  <si>
+    <t>Protokoll von Kundenmeeting vom 3.11.15 verfassen und versenden</t>
+  </si>
+  <si>
+    <t>Protokoll überprüfen</t>
+  </si>
+  <si>
+    <t>Wireframe zu neuer Suche mit Dropdown in Balsamiq erstellen</t>
+  </si>
+  <si>
+    <t>Neues Projekt / Workspace aufsetzen</t>
+  </si>
+  <si>
+    <t>Change Request zur geänderten Prefix-Suche mit Dropdown-Menüs erstellen und Anforderungsliste entsprechend anpassen.</t>
+  </si>
+  <si>
+    <t>Suche / API Schnittstelle / MVC-Struktur / etc.</t>
+  </si>
+  <si>
+    <t>Lynda.com: Tutorial zu JSF</t>
+  </si>
+  <si>
+    <t>Suche</t>
+  </si>
+  <si>
+    <t>Sprint Planning erstellen aufgrund neuem Review Termin vom 30.11.2016</t>
+  </si>
+  <si>
+    <t>Detailplanung und Fortschritt in Kanban-Board aktualisieren</t>
+  </si>
 </sst>
 </file>
 
@@ -139,7 +190,7 @@
     <numFmt numFmtId="164" formatCode="dd.mm.yy"/>
     <numFmt numFmtId="165" formatCode="d.m.yy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -152,8 +203,12 @@
     <font>
       <name val="Arial"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,6 +227,12 @@
         <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -186,12 +247,6 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -201,6 +256,12 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -230,30 +291,30 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -271,11 +332,14 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -303,422 +367,422 @@
     <col customWidth="1" min="1" max="1" width="15.29"/>
     <col customWidth="1" min="2" max="2" width="14.29"/>
     <col customWidth="1" min="3" max="3" width="19.43"/>
-    <col customWidth="1" min="4" max="4" width="38.71"/>
+    <col customWidth="1" min="4" max="4" width="50.14"/>
     <col customWidth="1" min="7" max="7" width="19.43"/>
     <col customWidth="1" min="8" max="8" width="52.71"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7">
+        <v>42625.0</v>
+      </c>
+      <c r="B3" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="7">
+        <v>42625.0</v>
+      </c>
+      <c r="F3" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5">
-        <v>42625.0</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="H3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="7">
+        <v>42633.0</v>
+      </c>
+      <c r="B4" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="7">
+        <v>42633.0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="7">
+        <v>42635.0</v>
+      </c>
+      <c r="B5" s="8">
         <v>2.0</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="5">
-        <v>42625.0</v>
-      </c>
-      <c r="F3" s="7">
+      <c r="C5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="7">
+        <v>42635.0</v>
+      </c>
+      <c r="F5" s="8">
         <v>2.0</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="5">
-        <v>42633.0</v>
-      </c>
-      <c r="B4" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="5">
-        <v>42633.0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="5">
+      <c r="G5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="7">
         <v>42635.0</v>
       </c>
-      <c r="B5" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="B6" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="7">
         <v>42635.0</v>
       </c>
-      <c r="F5" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="5">
+      <c r="F6" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="7">
         <v>42635.0</v>
       </c>
-      <c r="B6" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="B7" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="7">
         <v>42635.0</v>
       </c>
-      <c r="F6" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="5">
-        <v>42635.0</v>
-      </c>
-      <c r="B7" s="7">
+      <c r="F7" s="8">
         <v>1.0</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="5">
-        <v>42635.0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>1.0</v>
-      </c>
       <c r="G7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="I7" s="9"/>
     </row>
     <row r="8">
-      <c r="A8" s="5"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="10"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="5">
+      <c r="D8" s="4"/>
+      <c r="E8" s="7">
         <v>42638.0</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="8">
         <v>1.0</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>18</v>
+        <v>4</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="I8" s="9"/>
     </row>
     <row r="9">
-      <c r="A9" s="5">
+      <c r="A9" s="7">
         <v>42642.0</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="8">
         <v>3.0</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="5">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="7">
         <v>42642.0</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="8">
         <v>3.0</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="I9" s="9"/>
     </row>
     <row r="10">
-      <c r="A10" s="5">
+      <c r="A10" s="7">
         <v>42645.0</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="8">
         <v>1.0</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="5">
+        <v>4</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="7">
         <v>42645.0</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="8">
         <v>2.0</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>18</v>
+        <v>4</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
     </row>
     <row r="11">
-      <c r="A11" s="5">
+      <c r="A11" s="7">
         <v>42645.0</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="8">
         <v>0.5</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="5">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="7">
         <v>42649.0</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="8">
         <v>1.0</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>23</v>
+        <v>4</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
     </row>
     <row r="12">
-      <c r="A12" s="5">
+      <c r="A12" s="7">
         <v>42648.0</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="8">
         <v>6.0</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>22</v>
+        <v>4</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="2"/>
+      <c r="H12" s="4"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
     </row>
     <row r="13">
-      <c r="A13" s="5">
+      <c r="A13" s="7">
         <v>42650.0</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="8">
         <v>2.5</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="5">
+        <v>4</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="7">
         <v>42650.0</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="8">
         <v>2.5</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>24</v>
+        <v>4</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5">
+      <c r="A14" s="7">
         <v>42650.0</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="8">
         <v>1.0</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>25</v>
+        <v>4</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="2"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15">
       <c r="A15" s="13">
         <v>42653.0</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="8">
         <v>2.0</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>26</v>
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="E15" s="13">
         <v>42653.0</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="8">
         <v>0.5</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>27</v>
+        <v>4</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5">
+      <c r="A16" s="7">
         <v>42654.0</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="8">
         <v>1.0</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>28</v>
+        <v>4</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="2"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17">
-      <c r="A17" s="5">
+      <c r="A17" s="7">
         <v>42655.0</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="8">
         <v>2.0</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>29</v>
+        <v>4</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="2"/>
+      <c r="H17" s="4"/>
     </row>
     <row r="18">
-      <c r="A18" s="5"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="10"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="2"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="13">
         <v>42656.0</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="8">
         <v>3.0</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19">
@@ -729,10 +793,10 @@
         <v>1.0</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>31</v>
+        <v>4</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="E19" s="13">
         <v>42657.0</v>
@@ -741,10 +805,10 @@
         <v>1.0</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I19" s="14"/>
     </row>
@@ -756,10 +820,10 @@
         <v>0.5</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="E20" s="13">
         <v>42657.0</v>
@@ -768,10 +832,10 @@
         <v>0.5</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I20" s="14"/>
     </row>
@@ -779,6272 +843,6434 @@
       <c r="A21" s="13">
         <v>42657.0</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="8">
         <v>1.0</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>32</v>
+        <v>4</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="E21" s="13">
         <v>42657.0</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="8">
         <v>4.0</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="10"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="2"/>
+      <c r="D22" s="4"/>
       <c r="E22" s="13">
         <v>42658.0</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="8">
         <v>2.0</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="13">
         <v>42659.0</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="8">
         <v>2.0</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>33</v>
+        <v>4</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="E23" s="13">
         <v>42659.0</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="8">
         <v>2.0</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="13"/>
-      <c r="B24" s="7"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="2"/>
+      <c r="D24" s="4"/>
       <c r="E24" s="13">
         <v>42661.0</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="8">
         <v>3.0</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="10"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="2"/>
+      <c r="D25" s="4"/>
       <c r="E25" s="13">
         <v>42670.0</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="8">
         <v>2.0</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>35</v>
+        <v>12</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="13">
         <v>42671.0</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="8">
         <v>4.0</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>36</v>
+        <v>12</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="E26" s="13">
         <v>42671.0</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="8">
         <v>4.0</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>37</v>
+        <v>12</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="13">
         <v>42673.0</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="8">
         <v>0.5</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>38</v>
+        <v>4</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="9"/>
-      <c r="H27" s="2"/>
+      <c r="H27" s="4"/>
     </row>
     <row r="28">
-      <c r="B28" s="10"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="2"/>
+      <c r="A28" s="7">
+        <v>42677.0</v>
+      </c>
+      <c r="B28" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>40</v>
+      </c>
       <c r="F28" s="10"/>
       <c r="G28" s="9"/>
-      <c r="H28" s="2"/>
+      <c r="H28" s="4"/>
     </row>
     <row r="29">
-      <c r="B29" s="10"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="2"/>
+      <c r="A29" s="13">
+        <v>42677.0</v>
+      </c>
+      <c r="B29" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="F29" s="10"/>
       <c r="G29" s="9"/>
-      <c r="H29" s="2"/>
+      <c r="H29" s="4"/>
     </row>
     <row r="30">
-      <c r="B30" s="10"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="2"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="2"/>
+      <c r="A30" s="13">
+        <v>42677.0</v>
+      </c>
+      <c r="B30" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="13">
+        <v>42677.0</v>
+      </c>
+      <c r="F30" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="31">
-      <c r="B31" s="10"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="2"/>
+      <c r="A31" s="13">
+        <v>42678.0</v>
+      </c>
+      <c r="B31" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="F31" s="10"/>
       <c r="G31" s="9"/>
-      <c r="H31" s="2"/>
+      <c r="H31" s="4"/>
     </row>
     <row r="32">
-      <c r="B32" s="10"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="2"/>
+      <c r="A32" s="13">
+        <v>42678.0</v>
+      </c>
+      <c r="B32" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="F32" s="10"/>
       <c r="G32" s="9"/>
-      <c r="H32" s="2"/>
+      <c r="H32" s="4"/>
     </row>
     <row r="33">
-      <c r="B33" s="10"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="2"/>
+      <c r="A33" s="13">
+        <v>42678.0</v>
+      </c>
+      <c r="B33" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="F33" s="10"/>
       <c r="G33" s="9"/>
-      <c r="H33" s="2"/>
+      <c r="H33" s="4"/>
     </row>
     <row r="34">
-      <c r="B34" s="10"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="2"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="2"/>
+      <c r="A34" s="13">
+        <v>42680.0</v>
+      </c>
+      <c r="B34" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="13">
+        <v>42680.0</v>
+      </c>
+      <c r="F34" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="35">
-      <c r="B35" s="10"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="2"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="2"/>
+      <c r="A35" s="13">
+        <v>42685.0</v>
+      </c>
+      <c r="B35" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="13">
+        <v>42685.0</v>
+      </c>
+      <c r="F35" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="36">
-      <c r="B36" s="10"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="2"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="2"/>
+      <c r="A36" s="13">
+        <v>42685.0</v>
+      </c>
+      <c r="B36" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="13">
+        <v>42685.0</v>
+      </c>
+      <c r="F36" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="37">
-      <c r="B37" s="10"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="2"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="2"/>
+      <c r="A37" s="13">
+        <v>42685.0</v>
+      </c>
+      <c r="B37" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="13">
+        <v>42686.0</v>
+      </c>
+      <c r="F37" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="38">
-      <c r="B38" s="10"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="2"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="2"/>
+      <c r="A38" s="13">
+        <v>42689.0</v>
+      </c>
+      <c r="B38" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="13">
+        <v>42687.0</v>
+      </c>
+      <c r="F38" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="39">
-      <c r="B39" s="10"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="2"/>
+      <c r="A39" s="13">
+        <v>42689.0</v>
+      </c>
+      <c r="B39" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="F39" s="10"/>
       <c r="G39" s="9"/>
-      <c r="H39" s="2"/>
+      <c r="H39" s="4"/>
     </row>
     <row r="40">
       <c r="B40" s="10"/>
       <c r="C40" s="9"/>
-      <c r="D40" s="2"/>
+      <c r="D40" s="4"/>
       <c r="F40" s="10"/>
       <c r="G40" s="9"/>
-      <c r="H40" s="2"/>
+      <c r="H40" s="4"/>
     </row>
     <row r="41">
       <c r="B41" s="10"/>
       <c r="C41" s="9"/>
-      <c r="D41" s="2"/>
+      <c r="D41" s="4"/>
       <c r="F41" s="10"/>
       <c r="G41" s="9"/>
-      <c r="H41" s="2"/>
+      <c r="H41" s="4"/>
     </row>
     <row r="42">
       <c r="B42" s="10"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="2"/>
+      <c r="D42" s="4"/>
       <c r="F42" s="10"/>
       <c r="G42" s="9"/>
-      <c r="H42" s="2"/>
+      <c r="H42" s="4"/>
     </row>
     <row r="43">
       <c r="B43" s="10"/>
       <c r="C43" s="9"/>
-      <c r="D43" s="2"/>
+      <c r="D43" s="4"/>
       <c r="F43" s="10"/>
       <c r="G43" s="9"/>
-      <c r="H43" s="2"/>
+      <c r="H43" s="4"/>
     </row>
     <row r="44">
       <c r="B44" s="10"/>
       <c r="C44" s="9"/>
-      <c r="D44" s="2"/>
+      <c r="D44" s="4"/>
       <c r="F44" s="10"/>
       <c r="G44" s="9"/>
-      <c r="H44" s="2"/>
+      <c r="H44" s="4"/>
     </row>
     <row r="45">
       <c r="B45" s="10"/>
       <c r="C45" s="9"/>
-      <c r="D45" s="2"/>
+      <c r="D45" s="4"/>
       <c r="F45" s="10"/>
       <c r="G45" s="9"/>
-      <c r="H45" s="2"/>
+      <c r="H45" s="4"/>
     </row>
     <row r="46">
       <c r="B46" s="10"/>
       <c r="C46" s="9"/>
-      <c r="D46" s="2"/>
+      <c r="D46" s="4"/>
       <c r="F46" s="10"/>
       <c r="G46" s="9"/>
-      <c r="H46" s="2"/>
+      <c r="H46" s="4"/>
     </row>
     <row r="47">
       <c r="B47" s="10"/>
       <c r="C47" s="9"/>
-      <c r="D47" s="2"/>
+      <c r="D47" s="4"/>
       <c r="F47" s="10"/>
       <c r="G47" s="9"/>
-      <c r="H47" s="2"/>
+      <c r="H47" s="4"/>
     </row>
     <row r="48">
       <c r="B48" s="10"/>
       <c r="C48" s="9"/>
-      <c r="D48" s="2"/>
+      <c r="D48" s="4"/>
       <c r="F48" s="10"/>
       <c r="G48" s="9"/>
-      <c r="H48" s="2"/>
+      <c r="H48" s="4"/>
     </row>
     <row r="49">
       <c r="B49" s="10"/>
       <c r="C49" s="9"/>
-      <c r="D49" s="2"/>
+      <c r="D49" s="4"/>
       <c r="F49" s="10"/>
       <c r="G49" s="9"/>
-      <c r="H49" s="2"/>
+      <c r="H49" s="4"/>
     </row>
     <row r="50">
       <c r="B50" s="10"/>
       <c r="C50" s="9"/>
-      <c r="D50" s="2"/>
+      <c r="D50" s="4"/>
       <c r="F50" s="10"/>
       <c r="G50" s="9"/>
-      <c r="H50" s="2"/>
+      <c r="H50" s="4"/>
     </row>
     <row r="51">
       <c r="B51" s="10"/>
       <c r="C51" s="9"/>
-      <c r="D51" s="2"/>
+      <c r="D51" s="4"/>
       <c r="F51" s="10"/>
       <c r="G51" s="9"/>
-      <c r="H51" s="2"/>
+      <c r="H51" s="4"/>
     </row>
     <row r="52">
       <c r="B52" s="10"/>
       <c r="C52" s="9"/>
-      <c r="D52" s="2"/>
+      <c r="D52" s="4"/>
       <c r="F52" s="10"/>
       <c r="G52" s="9"/>
-      <c r="H52" s="2"/>
+      <c r="H52" s="4"/>
     </row>
     <row r="53">
       <c r="B53" s="10"/>
       <c r="C53" s="9"/>
-      <c r="D53" s="2"/>
+      <c r="D53" s="4"/>
       <c r="F53" s="10"/>
       <c r="G53" s="9"/>
-      <c r="H53" s="2"/>
+      <c r="H53" s="4"/>
     </row>
     <row r="54">
       <c r="B54" s="10"/>
       <c r="C54" s="9"/>
-      <c r="D54" s="2"/>
+      <c r="D54" s="4"/>
       <c r="F54" s="10"/>
       <c r="G54" s="9"/>
-      <c r="H54" s="2"/>
+      <c r="H54" s="4"/>
     </row>
     <row r="55">
       <c r="B55" s="10"/>
       <c r="C55" s="9"/>
-      <c r="D55" s="2"/>
+      <c r="D55" s="4"/>
       <c r="F55" s="10"/>
       <c r="G55" s="9"/>
-      <c r="H55" s="2"/>
+      <c r="H55" s="4"/>
     </row>
     <row r="56">
       <c r="B56" s="10"/>
       <c r="C56" s="9"/>
-      <c r="D56" s="2"/>
+      <c r="D56" s="4"/>
       <c r="F56" s="10"/>
       <c r="G56" s="9"/>
-      <c r="H56" s="2"/>
+      <c r="H56" s="4"/>
     </row>
     <row r="57">
       <c r="B57" s="10"/>
       <c r="C57" s="9"/>
-      <c r="D57" s="2"/>
+      <c r="D57" s="4"/>
       <c r="F57" s="10"/>
       <c r="G57" s="9"/>
-      <c r="H57" s="2"/>
+      <c r="H57" s="4"/>
     </row>
     <row r="58">
       <c r="B58" s="10"/>
       <c r="C58" s="9"/>
-      <c r="D58" s="2"/>
+      <c r="D58" s="4"/>
       <c r="F58" s="10"/>
       <c r="G58" s="9"/>
-      <c r="H58" s="2"/>
+      <c r="H58" s="4"/>
     </row>
     <row r="59">
       <c r="B59" s="10"/>
       <c r="C59" s="9"/>
-      <c r="D59" s="2"/>
+      <c r="D59" s="4"/>
       <c r="F59" s="10"/>
       <c r="G59" s="9"/>
-      <c r="H59" s="2"/>
+      <c r="H59" s="4"/>
     </row>
     <row r="60">
       <c r="B60" s="10"/>
       <c r="C60" s="9"/>
-      <c r="D60" s="2"/>
+      <c r="D60" s="4"/>
       <c r="F60" s="10"/>
       <c r="G60" s="9"/>
-      <c r="H60" s="2"/>
+      <c r="H60" s="4"/>
     </row>
     <row r="61">
       <c r="B61" s="10"/>
       <c r="C61" s="9"/>
-      <c r="D61" s="2"/>
+      <c r="D61" s="4"/>
       <c r="F61" s="10"/>
       <c r="G61" s="9"/>
-      <c r="H61" s="2"/>
+      <c r="H61" s="4"/>
     </row>
     <row r="62">
       <c r="B62" s="10"/>
       <c r="C62" s="9"/>
-      <c r="D62" s="2"/>
+      <c r="D62" s="4"/>
       <c r="F62" s="10"/>
       <c r="G62" s="9"/>
-      <c r="H62" s="2"/>
+      <c r="H62" s="4"/>
     </row>
     <row r="63">
       <c r="B63" s="10"/>
       <c r="C63" s="9"/>
-      <c r="D63" s="2"/>
+      <c r="D63" s="4"/>
       <c r="F63" s="10"/>
       <c r="G63" s="9"/>
-      <c r="H63" s="2"/>
+      <c r="H63" s="4"/>
     </row>
     <row r="64">
       <c r="B64" s="10"/>
       <c r="C64" s="9"/>
-      <c r="D64" s="2"/>
+      <c r="D64" s="4"/>
       <c r="F64" s="10"/>
       <c r="G64" s="9"/>
-      <c r="H64" s="2"/>
+      <c r="H64" s="4"/>
     </row>
     <row r="65">
       <c r="B65" s="10"/>
       <c r="C65" s="9"/>
-      <c r="D65" s="2"/>
+      <c r="D65" s="4"/>
       <c r="F65" s="10"/>
       <c r="G65" s="9"/>
-      <c r="H65" s="2"/>
+      <c r="H65" s="4"/>
     </row>
     <row r="66">
       <c r="B66" s="10"/>
       <c r="C66" s="9"/>
-      <c r="D66" s="2"/>
+      <c r="D66" s="4"/>
       <c r="F66" s="10"/>
       <c r="G66" s="9"/>
-      <c r="H66" s="2"/>
+      <c r="H66" s="4"/>
     </row>
     <row r="67">
       <c r="B67" s="10"/>
       <c r="C67" s="9"/>
-      <c r="D67" s="2"/>
+      <c r="D67" s="4"/>
       <c r="F67" s="10"/>
       <c r="G67" s="9"/>
-      <c r="H67" s="2"/>
+      <c r="H67" s="4"/>
     </row>
     <row r="68">
       <c r="B68" s="10"/>
       <c r="C68" s="9"/>
-      <c r="D68" s="2"/>
+      <c r="D68" s="4"/>
       <c r="F68" s="10"/>
       <c r="G68" s="9"/>
-      <c r="H68" s="2"/>
+      <c r="H68" s="4"/>
     </row>
     <row r="69">
       <c r="B69" s="10"/>
       <c r="C69" s="9"/>
-      <c r="D69" s="2"/>
+      <c r="D69" s="4"/>
       <c r="F69" s="10"/>
       <c r="G69" s="9"/>
-      <c r="H69" s="2"/>
+      <c r="H69" s="4"/>
     </row>
     <row r="70">
       <c r="B70" s="10"/>
       <c r="C70" s="9"/>
-      <c r="D70" s="2"/>
+      <c r="D70" s="4"/>
       <c r="F70" s="10"/>
       <c r="G70" s="9"/>
-      <c r="H70" s="2"/>
+      <c r="H70" s="4"/>
     </row>
     <row r="71">
       <c r="B71" s="10"/>
       <c r="C71" s="9"/>
-      <c r="D71" s="2"/>
+      <c r="D71" s="4"/>
       <c r="F71" s="10"/>
       <c r="G71" s="9"/>
-      <c r="H71" s="2"/>
+      <c r="H71" s="4"/>
     </row>
     <row r="72">
       <c r="B72" s="10"/>
       <c r="C72" s="9"/>
-      <c r="D72" s="2"/>
+      <c r="D72" s="4"/>
       <c r="F72" s="10"/>
       <c r="G72" s="9"/>
-      <c r="H72" s="2"/>
+      <c r="H72" s="4"/>
     </row>
     <row r="73">
       <c r="B73" s="10"/>
       <c r="C73" s="9"/>
-      <c r="D73" s="2"/>
+      <c r="D73" s="4"/>
       <c r="F73" s="10"/>
       <c r="G73" s="9"/>
-      <c r="H73" s="2"/>
+      <c r="H73" s="4"/>
     </row>
     <row r="74">
       <c r="B74" s="10"/>
       <c r="C74" s="9"/>
-      <c r="D74" s="2"/>
+      <c r="D74" s="4"/>
       <c r="F74" s="10"/>
       <c r="G74" s="9"/>
-      <c r="H74" s="2"/>
+      <c r="H74" s="4"/>
     </row>
     <row r="75">
       <c r="B75" s="10"/>
       <c r="C75" s="9"/>
-      <c r="D75" s="2"/>
+      <c r="D75" s="4"/>
       <c r="F75" s="10"/>
       <c r="G75" s="9"/>
-      <c r="H75" s="2"/>
+      <c r="H75" s="4"/>
     </row>
     <row r="76">
       <c r="B76" s="10"/>
       <c r="C76" s="9"/>
-      <c r="D76" s="2"/>
+      <c r="D76" s="4"/>
       <c r="F76" s="10"/>
       <c r="G76" s="9"/>
-      <c r="H76" s="2"/>
+      <c r="H76" s="4"/>
     </row>
     <row r="77">
       <c r="B77" s="10"/>
       <c r="C77" s="9"/>
-      <c r="D77" s="2"/>
+      <c r="D77" s="4"/>
       <c r="F77" s="10"/>
       <c r="G77" s="9"/>
-      <c r="H77" s="2"/>
+      <c r="H77" s="4"/>
     </row>
     <row r="78">
       <c r="B78" s="10"/>
       <c r="C78" s="9"/>
-      <c r="D78" s="2"/>
+      <c r="D78" s="4"/>
       <c r="F78" s="10"/>
       <c r="G78" s="9"/>
-      <c r="H78" s="2"/>
+      <c r="H78" s="4"/>
     </row>
     <row r="79">
       <c r="B79" s="10"/>
       <c r="C79" s="9"/>
-      <c r="D79" s="2"/>
+      <c r="D79" s="4"/>
       <c r="F79" s="10"/>
       <c r="G79" s="9"/>
-      <c r="H79" s="2"/>
+      <c r="H79" s="4"/>
     </row>
     <row r="80">
       <c r="B80" s="10"/>
       <c r="C80" s="9"/>
-      <c r="D80" s="2"/>
+      <c r="D80" s="4"/>
       <c r="F80" s="10"/>
       <c r="G80" s="9"/>
-      <c r="H80" s="2"/>
+      <c r="H80" s="4"/>
     </row>
     <row r="81">
       <c r="B81" s="10"/>
       <c r="C81" s="9"/>
-      <c r="D81" s="2"/>
+      <c r="D81" s="4"/>
       <c r="F81" s="10"/>
       <c r="G81" s="9"/>
-      <c r="H81" s="2"/>
+      <c r="H81" s="4"/>
     </row>
     <row r="82">
       <c r="B82" s="10"/>
       <c r="C82" s="9"/>
-      <c r="D82" s="2"/>
+      <c r="D82" s="4"/>
       <c r="F82" s="10"/>
       <c r="G82" s="9"/>
-      <c r="H82" s="2"/>
+      <c r="H82" s="4"/>
     </row>
     <row r="83">
       <c r="B83" s="10"/>
       <c r="C83" s="9"/>
-      <c r="D83" s="2"/>
+      <c r="D83" s="4"/>
       <c r="F83" s="10"/>
       <c r="G83" s="9"/>
-      <c r="H83" s="2"/>
+      <c r="H83" s="4"/>
     </row>
     <row r="84">
       <c r="B84" s="10"/>
       <c r="C84" s="9"/>
-      <c r="D84" s="2"/>
+      <c r="D84" s="4"/>
       <c r="F84" s="10"/>
       <c r="G84" s="9"/>
-      <c r="H84" s="2"/>
+      <c r="H84" s="4"/>
     </row>
     <row r="85">
       <c r="B85" s="10"/>
       <c r="C85" s="9"/>
-      <c r="D85" s="2"/>
+      <c r="D85" s="4"/>
       <c r="F85" s="10"/>
       <c r="G85" s="9"/>
-      <c r="H85" s="2"/>
+      <c r="H85" s="4"/>
     </row>
     <row r="86">
       <c r="B86" s="10"/>
       <c r="C86" s="9"/>
-      <c r="D86" s="2"/>
+      <c r="D86" s="4"/>
       <c r="F86" s="10"/>
       <c r="G86" s="9"/>
-      <c r="H86" s="2"/>
+      <c r="H86" s="4"/>
     </row>
     <row r="87">
       <c r="B87" s="10"/>
       <c r="C87" s="9"/>
-      <c r="D87" s="2"/>
+      <c r="D87" s="4"/>
       <c r="F87" s="10"/>
       <c r="G87" s="9"/>
-      <c r="H87" s="2"/>
+      <c r="H87" s="4"/>
     </row>
     <row r="88">
       <c r="B88" s="10"/>
       <c r="C88" s="9"/>
-      <c r="D88" s="2"/>
+      <c r="D88" s="4"/>
       <c r="F88" s="10"/>
       <c r="G88" s="9"/>
-      <c r="H88" s="2"/>
+      <c r="H88" s="4"/>
     </row>
     <row r="89">
       <c r="B89" s="10"/>
       <c r="C89" s="9"/>
-      <c r="D89" s="2"/>
+      <c r="D89" s="4"/>
       <c r="F89" s="10"/>
       <c r="G89" s="9"/>
-      <c r="H89" s="2"/>
+      <c r="H89" s="4"/>
     </row>
     <row r="90">
       <c r="B90" s="10"/>
       <c r="C90" s="9"/>
-      <c r="D90" s="2"/>
+      <c r="D90" s="4"/>
       <c r="F90" s="10"/>
       <c r="G90" s="9"/>
-      <c r="H90" s="2"/>
+      <c r="H90" s="4"/>
     </row>
     <row r="91">
       <c r="B91" s="10"/>
       <c r="C91" s="9"/>
-      <c r="D91" s="2"/>
+      <c r="D91" s="4"/>
       <c r="F91" s="10"/>
       <c r="G91" s="9"/>
-      <c r="H91" s="2"/>
+      <c r="H91" s="4"/>
     </row>
     <row r="92">
       <c r="B92" s="10"/>
       <c r="C92" s="9"/>
-      <c r="D92" s="2"/>
+      <c r="D92" s="4"/>
       <c r="F92" s="10"/>
       <c r="G92" s="9"/>
-      <c r="H92" s="2"/>
+      <c r="H92" s="4"/>
     </row>
     <row r="93">
       <c r="B93" s="10"/>
       <c r="C93" s="9"/>
-      <c r="D93" s="2"/>
+      <c r="D93" s="4"/>
       <c r="F93" s="10"/>
       <c r="G93" s="9"/>
-      <c r="H93" s="2"/>
+      <c r="H93" s="4"/>
     </row>
     <row r="94">
       <c r="B94" s="10"/>
       <c r="C94" s="9"/>
-      <c r="D94" s="2"/>
+      <c r="D94" s="4"/>
       <c r="F94" s="10"/>
       <c r="G94" s="9"/>
-      <c r="H94" s="2"/>
+      <c r="H94" s="4"/>
     </row>
     <row r="95">
       <c r="B95" s="10"/>
       <c r="C95" s="9"/>
-      <c r="D95" s="2"/>
+      <c r="D95" s="4"/>
       <c r="F95" s="10"/>
       <c r="G95" s="9"/>
-      <c r="H95" s="2"/>
+      <c r="H95" s="4"/>
     </row>
     <row r="96">
       <c r="B96" s="10"/>
       <c r="C96" s="9"/>
-      <c r="D96" s="2"/>
+      <c r="D96" s="4"/>
       <c r="F96" s="10"/>
       <c r="G96" s="9"/>
-      <c r="H96" s="2"/>
+      <c r="H96" s="4"/>
     </row>
     <row r="97">
       <c r="B97" s="10"/>
       <c r="C97" s="9"/>
-      <c r="D97" s="2"/>
+      <c r="D97" s="4"/>
       <c r="F97" s="10"/>
       <c r="G97" s="9"/>
-      <c r="H97" s="2"/>
+      <c r="H97" s="4"/>
     </row>
     <row r="98">
       <c r="B98" s="10"/>
       <c r="C98" s="9"/>
-      <c r="D98" s="2"/>
+      <c r="D98" s="4"/>
       <c r="F98" s="10"/>
       <c r="G98" s="9"/>
-      <c r="H98" s="2"/>
+      <c r="H98" s="4"/>
     </row>
     <row r="99">
       <c r="B99" s="10"/>
       <c r="C99" s="9"/>
-      <c r="D99" s="2"/>
+      <c r="D99" s="4"/>
       <c r="F99" s="10"/>
       <c r="G99" s="9"/>
-      <c r="H99" s="2"/>
+      <c r="H99" s="4"/>
     </row>
     <row r="100">
       <c r="B100" s="10"/>
       <c r="C100" s="9"/>
-      <c r="D100" s="2"/>
+      <c r="D100" s="4"/>
       <c r="F100" s="10"/>
       <c r="G100" s="9"/>
-      <c r="H100" s="2"/>
+      <c r="H100" s="4"/>
     </row>
     <row r="101">
       <c r="B101" s="10"/>
       <c r="C101" s="9"/>
-      <c r="D101" s="2"/>
+      <c r="D101" s="4"/>
       <c r="F101" s="10"/>
       <c r="G101" s="9"/>
-      <c r="H101" s="2"/>
+      <c r="H101" s="4"/>
     </row>
     <row r="102">
       <c r="B102" s="10"/>
       <c r="C102" s="9"/>
-      <c r="D102" s="2"/>
+      <c r="D102" s="4"/>
       <c r="F102" s="10"/>
       <c r="G102" s="9"/>
-      <c r="H102" s="2"/>
+      <c r="H102" s="4"/>
     </row>
     <row r="103">
       <c r="B103" s="10"/>
       <c r="C103" s="9"/>
-      <c r="D103" s="2"/>
+      <c r="D103" s="4"/>
       <c r="F103" s="10"/>
       <c r="G103" s="9"/>
-      <c r="H103" s="2"/>
+      <c r="H103" s="4"/>
     </row>
     <row r="104">
       <c r="B104" s="10"/>
       <c r="C104" s="9"/>
-      <c r="D104" s="2"/>
+      <c r="D104" s="4"/>
       <c r="F104" s="10"/>
       <c r="G104" s="9"/>
-      <c r="H104" s="2"/>
+      <c r="H104" s="4"/>
     </row>
     <row r="105">
       <c r="B105" s="10"/>
       <c r="C105" s="9"/>
-      <c r="D105" s="2"/>
+      <c r="D105" s="4"/>
       <c r="F105" s="10"/>
       <c r="G105" s="9"/>
-      <c r="H105" s="2"/>
+      <c r="H105" s="4"/>
     </row>
     <row r="106">
       <c r="B106" s="10"/>
       <c r="C106" s="9"/>
-      <c r="D106" s="2"/>
+      <c r="D106" s="4"/>
       <c r="F106" s="10"/>
       <c r="G106" s="9"/>
-      <c r="H106" s="2"/>
+      <c r="H106" s="4"/>
     </row>
     <row r="107">
       <c r="B107" s="10"/>
       <c r="C107" s="9"/>
-      <c r="D107" s="2"/>
+      <c r="D107" s="4"/>
       <c r="F107" s="10"/>
       <c r="G107" s="9"/>
-      <c r="H107" s="2"/>
+      <c r="H107" s="4"/>
     </row>
     <row r="108">
       <c r="B108" s="10"/>
       <c r="C108" s="9"/>
-      <c r="D108" s="2"/>
+      <c r="D108" s="4"/>
       <c r="F108" s="10"/>
       <c r="G108" s="9"/>
-      <c r="H108" s="2"/>
+      <c r="H108" s="4"/>
     </row>
     <row r="109">
       <c r="B109" s="10"/>
       <c r="C109" s="9"/>
-      <c r="D109" s="2"/>
+      <c r="D109" s="4"/>
       <c r="F109" s="10"/>
       <c r="G109" s="9"/>
-      <c r="H109" s="2"/>
+      <c r="H109" s="4"/>
     </row>
     <row r="110">
       <c r="B110" s="10"/>
       <c r="C110" s="9"/>
-      <c r="D110" s="2"/>
+      <c r="D110" s="4"/>
       <c r="F110" s="10"/>
       <c r="G110" s="9"/>
-      <c r="H110" s="2"/>
+      <c r="H110" s="4"/>
     </row>
     <row r="111">
       <c r="B111" s="10"/>
       <c r="C111" s="9"/>
-      <c r="D111" s="2"/>
+      <c r="D111" s="4"/>
       <c r="F111" s="10"/>
       <c r="G111" s="9"/>
-      <c r="H111" s="2"/>
+      <c r="H111" s="4"/>
     </row>
     <row r="112">
       <c r="B112" s="10"/>
       <c r="C112" s="9"/>
-      <c r="D112" s="2"/>
+      <c r="D112" s="4"/>
       <c r="F112" s="10"/>
       <c r="G112" s="9"/>
-      <c r="H112" s="2"/>
+      <c r="H112" s="4"/>
     </row>
     <row r="113">
       <c r="B113" s="10"/>
       <c r="C113" s="9"/>
-      <c r="D113" s="2"/>
+      <c r="D113" s="4"/>
       <c r="F113" s="10"/>
       <c r="G113" s="9"/>
-      <c r="H113" s="2"/>
+      <c r="H113" s="4"/>
     </row>
     <row r="114">
       <c r="B114" s="10"/>
       <c r="C114" s="9"/>
-      <c r="D114" s="2"/>
+      <c r="D114" s="4"/>
       <c r="F114" s="10"/>
       <c r="G114" s="9"/>
-      <c r="H114" s="2"/>
+      <c r="H114" s="4"/>
     </row>
     <row r="115">
       <c r="B115" s="10"/>
       <c r="C115" s="9"/>
-      <c r="D115" s="2"/>
+      <c r="D115" s="4"/>
       <c r="F115" s="10"/>
       <c r="G115" s="9"/>
-      <c r="H115" s="2"/>
+      <c r="H115" s="4"/>
     </row>
     <row r="116">
       <c r="B116" s="10"/>
       <c r="C116" s="9"/>
-      <c r="D116" s="2"/>
+      <c r="D116" s="4"/>
       <c r="F116" s="10"/>
       <c r="G116" s="9"/>
-      <c r="H116" s="2"/>
+      <c r="H116" s="4"/>
     </row>
     <row r="117">
       <c r="B117" s="10"/>
       <c r="C117" s="9"/>
-      <c r="D117" s="2"/>
+      <c r="D117" s="4"/>
       <c r="F117" s="10"/>
       <c r="G117" s="9"/>
-      <c r="H117" s="2"/>
+      <c r="H117" s="4"/>
     </row>
     <row r="118">
       <c r="B118" s="10"/>
       <c r="C118" s="9"/>
-      <c r="D118" s="2"/>
+      <c r="D118" s="4"/>
       <c r="F118" s="10"/>
       <c r="G118" s="9"/>
-      <c r="H118" s="2"/>
+      <c r="H118" s="4"/>
     </row>
     <row r="119">
       <c r="B119" s="10"/>
       <c r="C119" s="9"/>
-      <c r="D119" s="2"/>
+      <c r="D119" s="4"/>
       <c r="F119" s="10"/>
       <c r="G119" s="9"/>
-      <c r="H119" s="2"/>
+      <c r="H119" s="4"/>
     </row>
     <row r="120">
       <c r="B120" s="10"/>
       <c r="C120" s="9"/>
-      <c r="D120" s="2"/>
+      <c r="D120" s="4"/>
       <c r="F120" s="10"/>
       <c r="G120" s="9"/>
-      <c r="H120" s="2"/>
+      <c r="H120" s="4"/>
     </row>
     <row r="121">
       <c r="B121" s="10"/>
       <c r="C121" s="9"/>
-      <c r="D121" s="2"/>
+      <c r="D121" s="4"/>
       <c r="F121" s="10"/>
       <c r="G121" s="9"/>
-      <c r="H121" s="2"/>
+      <c r="H121" s="4"/>
     </row>
     <row r="122">
       <c r="B122" s="10"/>
       <c r="C122" s="9"/>
-      <c r="D122" s="2"/>
+      <c r="D122" s="4"/>
       <c r="F122" s="10"/>
       <c r="G122" s="9"/>
-      <c r="H122" s="2"/>
+      <c r="H122" s="4"/>
     </row>
     <row r="123">
       <c r="B123" s="10"/>
       <c r="C123" s="9"/>
-      <c r="D123" s="2"/>
+      <c r="D123" s="4"/>
       <c r="F123" s="10"/>
       <c r="G123" s="9"/>
-      <c r="H123" s="2"/>
+      <c r="H123" s="4"/>
     </row>
     <row r="124">
       <c r="B124" s="10"/>
       <c r="C124" s="9"/>
-      <c r="D124" s="2"/>
+      <c r="D124" s="4"/>
       <c r="F124" s="10"/>
       <c r="G124" s="9"/>
-      <c r="H124" s="2"/>
+      <c r="H124" s="4"/>
     </row>
     <row r="125">
       <c r="B125" s="10"/>
       <c r="C125" s="9"/>
-      <c r="D125" s="2"/>
+      <c r="D125" s="4"/>
       <c r="F125" s="10"/>
       <c r="G125" s="9"/>
-      <c r="H125" s="2"/>
+      <c r="H125" s="4"/>
     </row>
     <row r="126">
       <c r="B126" s="10"/>
       <c r="C126" s="9"/>
-      <c r="D126" s="2"/>
+      <c r="D126" s="4"/>
       <c r="F126" s="10"/>
       <c r="G126" s="9"/>
-      <c r="H126" s="2"/>
+      <c r="H126" s="4"/>
     </row>
     <row r="127">
       <c r="B127" s="10"/>
       <c r="C127" s="9"/>
-      <c r="D127" s="2"/>
+      <c r="D127" s="4"/>
       <c r="F127" s="10"/>
       <c r="G127" s="9"/>
-      <c r="H127" s="2"/>
+      <c r="H127" s="4"/>
     </row>
     <row r="128">
       <c r="B128" s="10"/>
       <c r="C128" s="9"/>
-      <c r="D128" s="2"/>
+      <c r="D128" s="4"/>
       <c r="F128" s="10"/>
       <c r="G128" s="9"/>
-      <c r="H128" s="2"/>
+      <c r="H128" s="4"/>
     </row>
     <row r="129">
       <c r="B129" s="10"/>
       <c r="C129" s="9"/>
-      <c r="D129" s="2"/>
+      <c r="D129" s="4"/>
       <c r="F129" s="10"/>
       <c r="G129" s="9"/>
-      <c r="H129" s="2"/>
+      <c r="H129" s="4"/>
     </row>
     <row r="130">
       <c r="B130" s="10"/>
       <c r="C130" s="9"/>
-      <c r="D130" s="2"/>
+      <c r="D130" s="4"/>
       <c r="F130" s="10"/>
       <c r="G130" s="9"/>
-      <c r="H130" s="2"/>
+      <c r="H130" s="4"/>
     </row>
     <row r="131">
       <c r="B131" s="10"/>
       <c r="C131" s="9"/>
-      <c r="D131" s="2"/>
+      <c r="D131" s="4"/>
       <c r="F131" s="10"/>
       <c r="G131" s="9"/>
-      <c r="H131" s="2"/>
+      <c r="H131" s="4"/>
     </row>
     <row r="132">
       <c r="B132" s="10"/>
       <c r="C132" s="9"/>
-      <c r="D132" s="2"/>
+      <c r="D132" s="4"/>
       <c r="F132" s="10"/>
       <c r="G132" s="9"/>
-      <c r="H132" s="2"/>
+      <c r="H132" s="4"/>
     </row>
     <row r="133">
       <c r="B133" s="10"/>
       <c r="C133" s="9"/>
-      <c r="D133" s="2"/>
+      <c r="D133" s="4"/>
       <c r="F133" s="10"/>
       <c r="G133" s="9"/>
-      <c r="H133" s="2"/>
+      <c r="H133" s="4"/>
     </row>
     <row r="134">
       <c r="B134" s="10"/>
       <c r="C134" s="9"/>
-      <c r="D134" s="2"/>
+      <c r="D134" s="4"/>
       <c r="F134" s="10"/>
       <c r="G134" s="9"/>
-      <c r="H134" s="2"/>
+      <c r="H134" s="4"/>
     </row>
     <row r="135">
       <c r="B135" s="10"/>
       <c r="C135" s="9"/>
-      <c r="D135" s="2"/>
+      <c r="D135" s="4"/>
       <c r="F135" s="10"/>
       <c r="G135" s="9"/>
-      <c r="H135" s="2"/>
+      <c r="H135" s="4"/>
     </row>
     <row r="136">
       <c r="B136" s="10"/>
       <c r="C136" s="9"/>
-      <c r="D136" s="2"/>
+      <c r="D136" s="4"/>
       <c r="F136" s="10"/>
       <c r="G136" s="9"/>
-      <c r="H136" s="2"/>
+      <c r="H136" s="4"/>
     </row>
     <row r="137">
       <c r="B137" s="10"/>
       <c r="C137" s="9"/>
-      <c r="D137" s="2"/>
+      <c r="D137" s="4"/>
       <c r="F137" s="10"/>
       <c r="G137" s="9"/>
-      <c r="H137" s="2"/>
+      <c r="H137" s="4"/>
     </row>
     <row r="138">
       <c r="B138" s="10"/>
       <c r="C138" s="9"/>
-      <c r="D138" s="2"/>
+      <c r="D138" s="4"/>
       <c r="F138" s="10"/>
       <c r="G138" s="9"/>
-      <c r="H138" s="2"/>
+      <c r="H138" s="4"/>
     </row>
     <row r="139">
       <c r="B139" s="10"/>
       <c r="C139" s="9"/>
-      <c r="D139" s="2"/>
+      <c r="D139" s="4"/>
       <c r="F139" s="10"/>
       <c r="G139" s="9"/>
-      <c r="H139" s="2"/>
+      <c r="H139" s="4"/>
     </row>
     <row r="140">
       <c r="B140" s="10"/>
       <c r="C140" s="9"/>
-      <c r="D140" s="2"/>
+      <c r="D140" s="4"/>
       <c r="F140" s="10"/>
       <c r="G140" s="9"/>
-      <c r="H140" s="2"/>
+      <c r="H140" s="4"/>
     </row>
     <row r="141">
       <c r="B141" s="10"/>
       <c r="C141" s="9"/>
-      <c r="D141" s="2"/>
+      <c r="D141" s="4"/>
       <c r="F141" s="10"/>
       <c r="G141" s="9"/>
-      <c r="H141" s="2"/>
+      <c r="H141" s="4"/>
     </row>
     <row r="142">
       <c r="B142" s="10"/>
       <c r="C142" s="9"/>
-      <c r="D142" s="2"/>
+      <c r="D142" s="4"/>
       <c r="F142" s="10"/>
       <c r="G142" s="9"/>
-      <c r="H142" s="2"/>
+      <c r="H142" s="4"/>
     </row>
     <row r="143">
       <c r="B143" s="10"/>
       <c r="C143" s="9"/>
-      <c r="D143" s="2"/>
+      <c r="D143" s="4"/>
       <c r="F143" s="10"/>
       <c r="G143" s="9"/>
-      <c r="H143" s="2"/>
+      <c r="H143" s="4"/>
     </row>
     <row r="144">
       <c r="B144" s="10"/>
       <c r="C144" s="9"/>
-      <c r="D144" s="2"/>
+      <c r="D144" s="4"/>
       <c r="F144" s="10"/>
       <c r="G144" s="9"/>
-      <c r="H144" s="2"/>
+      <c r="H144" s="4"/>
     </row>
     <row r="145">
       <c r="B145" s="10"/>
       <c r="C145" s="9"/>
-      <c r="D145" s="2"/>
+      <c r="D145" s="4"/>
       <c r="F145" s="10"/>
       <c r="G145" s="9"/>
-      <c r="H145" s="2"/>
+      <c r="H145" s="4"/>
     </row>
     <row r="146">
       <c r="B146" s="10"/>
       <c r="C146" s="9"/>
-      <c r="D146" s="2"/>
+      <c r="D146" s="4"/>
       <c r="F146" s="10"/>
       <c r="G146" s="9"/>
-      <c r="H146" s="2"/>
+      <c r="H146" s="4"/>
     </row>
     <row r="147">
       <c r="B147" s="10"/>
       <c r="C147" s="9"/>
-      <c r="D147" s="2"/>
+      <c r="D147" s="4"/>
       <c r="F147" s="10"/>
       <c r="G147" s="9"/>
-      <c r="H147" s="2"/>
+      <c r="H147" s="4"/>
     </row>
     <row r="148">
       <c r="B148" s="10"/>
       <c r="C148" s="9"/>
-      <c r="D148" s="2"/>
+      <c r="D148" s="4"/>
       <c r="F148" s="10"/>
       <c r="G148" s="9"/>
-      <c r="H148" s="2"/>
+      <c r="H148" s="4"/>
     </row>
     <row r="149">
       <c r="B149" s="10"/>
       <c r="C149" s="9"/>
-      <c r="D149" s="2"/>
+      <c r="D149" s="4"/>
       <c r="F149" s="10"/>
       <c r="G149" s="9"/>
-      <c r="H149" s="2"/>
+      <c r="H149" s="4"/>
     </row>
     <row r="150">
       <c r="B150" s="10"/>
       <c r="C150" s="9"/>
-      <c r="D150" s="2"/>
+      <c r="D150" s="4"/>
       <c r="F150" s="10"/>
       <c r="G150" s="9"/>
-      <c r="H150" s="2"/>
+      <c r="H150" s="4"/>
     </row>
     <row r="151">
       <c r="B151" s="10"/>
       <c r="C151" s="9"/>
-      <c r="D151" s="2"/>
+      <c r="D151" s="4"/>
       <c r="F151" s="10"/>
       <c r="G151" s="9"/>
-      <c r="H151" s="2"/>
+      <c r="H151" s="4"/>
     </row>
     <row r="152">
       <c r="B152" s="10"/>
       <c r="C152" s="9"/>
-      <c r="D152" s="2"/>
+      <c r="D152" s="4"/>
       <c r="F152" s="10"/>
       <c r="G152" s="9"/>
-      <c r="H152" s="2"/>
+      <c r="H152" s="4"/>
     </row>
     <row r="153">
       <c r="B153" s="10"/>
       <c r="C153" s="9"/>
-      <c r="D153" s="2"/>
+      <c r="D153" s="4"/>
       <c r="F153" s="10"/>
       <c r="G153" s="9"/>
-      <c r="H153" s="2"/>
+      <c r="H153" s="4"/>
     </row>
     <row r="154">
       <c r="B154" s="10"/>
       <c r="C154" s="9"/>
-      <c r="D154" s="2"/>
+      <c r="D154" s="4"/>
       <c r="F154" s="10"/>
       <c r="G154" s="9"/>
-      <c r="H154" s="2"/>
+      <c r="H154" s="4"/>
     </row>
     <row r="155">
       <c r="B155" s="10"/>
       <c r="C155" s="9"/>
-      <c r="D155" s="2"/>
+      <c r="D155" s="4"/>
       <c r="F155" s="10"/>
       <c r="G155" s="9"/>
-      <c r="H155" s="2"/>
+      <c r="H155" s="4"/>
     </row>
     <row r="156">
       <c r="B156" s="10"/>
       <c r="C156" s="9"/>
-      <c r="D156" s="2"/>
+      <c r="D156" s="4"/>
       <c r="F156" s="10"/>
       <c r="G156" s="9"/>
-      <c r="H156" s="2"/>
+      <c r="H156" s="4"/>
     </row>
     <row r="157">
       <c r="B157" s="10"/>
       <c r="C157" s="9"/>
-      <c r="D157" s="2"/>
+      <c r="D157" s="4"/>
       <c r="F157" s="10"/>
       <c r="G157" s="9"/>
-      <c r="H157" s="2"/>
+      <c r="H157" s="4"/>
     </row>
     <row r="158">
       <c r="B158" s="10"/>
       <c r="C158" s="9"/>
-      <c r="D158" s="2"/>
+      <c r="D158" s="4"/>
       <c r="F158" s="10"/>
       <c r="G158" s="9"/>
-      <c r="H158" s="2"/>
+      <c r="H158" s="4"/>
     </row>
     <row r="159">
       <c r="B159" s="10"/>
       <c r="C159" s="9"/>
-      <c r="D159" s="2"/>
+      <c r="D159" s="4"/>
       <c r="F159" s="10"/>
       <c r="G159" s="9"/>
-      <c r="H159" s="2"/>
+      <c r="H159" s="4"/>
     </row>
     <row r="160">
       <c r="B160" s="10"/>
       <c r="C160" s="9"/>
-      <c r="D160" s="2"/>
+      <c r="D160" s="4"/>
       <c r="F160" s="10"/>
       <c r="G160" s="9"/>
-      <c r="H160" s="2"/>
+      <c r="H160" s="4"/>
     </row>
     <row r="161">
       <c r="B161" s="10"/>
       <c r="C161" s="9"/>
-      <c r="D161" s="2"/>
+      <c r="D161" s="4"/>
       <c r="F161" s="10"/>
       <c r="G161" s="9"/>
-      <c r="H161" s="2"/>
+      <c r="H161" s="4"/>
     </row>
     <row r="162">
       <c r="B162" s="10"/>
       <c r="C162" s="9"/>
-      <c r="D162" s="2"/>
+      <c r="D162" s="4"/>
       <c r="F162" s="10"/>
       <c r="G162" s="9"/>
-      <c r="H162" s="2"/>
+      <c r="H162" s="4"/>
     </row>
     <row r="163">
       <c r="B163" s="10"/>
       <c r="C163" s="9"/>
-      <c r="D163" s="2"/>
+      <c r="D163" s="4"/>
       <c r="F163" s="10"/>
       <c r="G163" s="9"/>
-      <c r="H163" s="2"/>
+      <c r="H163" s="4"/>
     </row>
     <row r="164">
       <c r="B164" s="10"/>
       <c r="C164" s="9"/>
-      <c r="D164" s="2"/>
+      <c r="D164" s="4"/>
       <c r="F164" s="10"/>
       <c r="G164" s="9"/>
-      <c r="H164" s="2"/>
+      <c r="H164" s="4"/>
     </row>
     <row r="165">
       <c r="B165" s="10"/>
       <c r="C165" s="9"/>
-      <c r="D165" s="2"/>
+      <c r="D165" s="4"/>
       <c r="F165" s="10"/>
       <c r="G165" s="9"/>
-      <c r="H165" s="2"/>
+      <c r="H165" s="4"/>
     </row>
     <row r="166">
       <c r="B166" s="10"/>
       <c r="C166" s="9"/>
-      <c r="D166" s="2"/>
+      <c r="D166" s="4"/>
       <c r="F166" s="10"/>
       <c r="G166" s="9"/>
-      <c r="H166" s="2"/>
+      <c r="H166" s="4"/>
     </row>
     <row r="167">
       <c r="B167" s="10"/>
       <c r="C167" s="9"/>
-      <c r="D167" s="2"/>
+      <c r="D167" s="4"/>
       <c r="F167" s="10"/>
       <c r="G167" s="9"/>
-      <c r="H167" s="2"/>
+      <c r="H167" s="4"/>
     </row>
     <row r="168">
       <c r="B168" s="10"/>
       <c r="C168" s="9"/>
-      <c r="D168" s="2"/>
+      <c r="D168" s="4"/>
       <c r="F168" s="10"/>
       <c r="G168" s="9"/>
-      <c r="H168" s="2"/>
+      <c r="H168" s="4"/>
     </row>
     <row r="169">
       <c r="B169" s="10"/>
       <c r="C169" s="9"/>
-      <c r="D169" s="2"/>
+      <c r="D169" s="4"/>
       <c r="F169" s="10"/>
       <c r="G169" s="9"/>
-      <c r="H169" s="2"/>
+      <c r="H169" s="4"/>
     </row>
     <row r="170">
       <c r="B170" s="10"/>
       <c r="C170" s="9"/>
-      <c r="D170" s="2"/>
+      <c r="D170" s="4"/>
       <c r="F170" s="10"/>
       <c r="G170" s="9"/>
-      <c r="H170" s="2"/>
+      <c r="H170" s="4"/>
     </row>
     <row r="171">
       <c r="B171" s="10"/>
       <c r="C171" s="9"/>
-      <c r="D171" s="2"/>
+      <c r="D171" s="4"/>
       <c r="F171" s="10"/>
       <c r="G171" s="9"/>
-      <c r="H171" s="2"/>
+      <c r="H171" s="4"/>
     </row>
     <row r="172">
       <c r="B172" s="10"/>
       <c r="C172" s="9"/>
-      <c r="D172" s="2"/>
+      <c r="D172" s="4"/>
       <c r="F172" s="10"/>
       <c r="G172" s="9"/>
-      <c r="H172" s="2"/>
+      <c r="H172" s="4"/>
     </row>
     <row r="173">
       <c r="B173" s="10"/>
       <c r="C173" s="9"/>
-      <c r="D173" s="2"/>
+      <c r="D173" s="4"/>
       <c r="F173" s="10"/>
       <c r="G173" s="9"/>
-      <c r="H173" s="2"/>
+      <c r="H173" s="4"/>
     </row>
     <row r="174">
       <c r="B174" s="10"/>
       <c r="C174" s="9"/>
-      <c r="D174" s="2"/>
+      <c r="D174" s="4"/>
       <c r="F174" s="10"/>
       <c r="G174" s="9"/>
-      <c r="H174" s="2"/>
+      <c r="H174" s="4"/>
     </row>
     <row r="175">
       <c r="B175" s="10"/>
       <c r="C175" s="9"/>
-      <c r="D175" s="2"/>
+      <c r="D175" s="4"/>
       <c r="F175" s="10"/>
       <c r="G175" s="9"/>
-      <c r="H175" s="2"/>
+      <c r="H175" s="4"/>
     </row>
     <row r="176">
       <c r="B176" s="10"/>
       <c r="C176" s="9"/>
-      <c r="D176" s="2"/>
+      <c r="D176" s="4"/>
       <c r="F176" s="10"/>
       <c r="G176" s="9"/>
-      <c r="H176" s="2"/>
+      <c r="H176" s="4"/>
     </row>
     <row r="177">
       <c r="B177" s="10"/>
       <c r="C177" s="9"/>
-      <c r="D177" s="2"/>
+      <c r="D177" s="4"/>
       <c r="F177" s="10"/>
       <c r="G177" s="9"/>
-      <c r="H177" s="2"/>
+      <c r="H177" s="4"/>
     </row>
     <row r="178">
       <c r="B178" s="10"/>
       <c r="C178" s="9"/>
-      <c r="D178" s="2"/>
+      <c r="D178" s="4"/>
       <c r="F178" s="10"/>
       <c r="G178" s="9"/>
-      <c r="H178" s="2"/>
+      <c r="H178" s="4"/>
     </row>
     <row r="179">
       <c r="B179" s="10"/>
       <c r="C179" s="9"/>
-      <c r="D179" s="2"/>
+      <c r="D179" s="4"/>
       <c r="F179" s="10"/>
       <c r="G179" s="9"/>
-      <c r="H179" s="2"/>
+      <c r="H179" s="4"/>
     </row>
     <row r="180">
       <c r="B180" s="10"/>
       <c r="C180" s="9"/>
-      <c r="D180" s="2"/>
+      <c r="D180" s="4"/>
       <c r="F180" s="10"/>
       <c r="G180" s="9"/>
-      <c r="H180" s="2"/>
+      <c r="H180" s="4"/>
     </row>
     <row r="181">
       <c r="B181" s="10"/>
       <c r="C181" s="9"/>
-      <c r="D181" s="2"/>
+      <c r="D181" s="4"/>
       <c r="F181" s="10"/>
       <c r="G181" s="9"/>
-      <c r="H181" s="2"/>
+      <c r="H181" s="4"/>
     </row>
     <row r="182">
       <c r="B182" s="10"/>
       <c r="C182" s="9"/>
-      <c r="D182" s="2"/>
+      <c r="D182" s="4"/>
       <c r="F182" s="10"/>
       <c r="G182" s="9"/>
-      <c r="H182" s="2"/>
+      <c r="H182" s="4"/>
     </row>
     <row r="183">
       <c r="B183" s="10"/>
       <c r="C183" s="9"/>
-      <c r="D183" s="2"/>
+      <c r="D183" s="4"/>
       <c r="F183" s="10"/>
       <c r="G183" s="9"/>
-      <c r="H183" s="2"/>
+      <c r="H183" s="4"/>
     </row>
     <row r="184">
       <c r="B184" s="10"/>
       <c r="C184" s="9"/>
-      <c r="D184" s="2"/>
+      <c r="D184" s="4"/>
       <c r="F184" s="10"/>
       <c r="G184" s="9"/>
-      <c r="H184" s="2"/>
+      <c r="H184" s="4"/>
     </row>
     <row r="185">
       <c r="B185" s="10"/>
       <c r="C185" s="9"/>
-      <c r="D185" s="2"/>
+      <c r="D185" s="4"/>
       <c r="F185" s="10"/>
       <c r="G185" s="9"/>
-      <c r="H185" s="2"/>
+      <c r="H185" s="4"/>
     </row>
     <row r="186">
       <c r="B186" s="10"/>
       <c r="C186" s="9"/>
-      <c r="D186" s="2"/>
+      <c r="D186" s="4"/>
       <c r="F186" s="10"/>
       <c r="G186" s="9"/>
-      <c r="H186" s="2"/>
+      <c r="H186" s="4"/>
     </row>
     <row r="187">
       <c r="B187" s="10"/>
       <c r="C187" s="9"/>
-      <c r="D187" s="2"/>
+      <c r="D187" s="4"/>
       <c r="F187" s="10"/>
       <c r="G187" s="9"/>
-      <c r="H187" s="2"/>
+      <c r="H187" s="4"/>
     </row>
     <row r="188">
       <c r="B188" s="10"/>
       <c r="C188" s="9"/>
-      <c r="D188" s="2"/>
+      <c r="D188" s="4"/>
       <c r="F188" s="10"/>
       <c r="G188" s="9"/>
-      <c r="H188" s="2"/>
+      <c r="H188" s="4"/>
     </row>
     <row r="189">
       <c r="B189" s="10"/>
       <c r="C189" s="9"/>
-      <c r="D189" s="2"/>
+      <c r="D189" s="4"/>
       <c r="F189" s="10"/>
       <c r="G189" s="9"/>
-      <c r="H189" s="2"/>
+      <c r="H189" s="4"/>
     </row>
     <row r="190">
       <c r="B190" s="10"/>
       <c r="C190" s="9"/>
-      <c r="D190" s="2"/>
+      <c r="D190" s="4"/>
       <c r="F190" s="10"/>
       <c r="G190" s="9"/>
-      <c r="H190" s="2"/>
+      <c r="H190" s="4"/>
     </row>
     <row r="191">
       <c r="B191" s="10"/>
       <c r="C191" s="9"/>
-      <c r="D191" s="2"/>
+      <c r="D191" s="4"/>
       <c r="F191" s="10"/>
       <c r="G191" s="9"/>
-      <c r="H191" s="2"/>
+      <c r="H191" s="4"/>
     </row>
     <row r="192">
       <c r="B192" s="10"/>
       <c r="C192" s="9"/>
-      <c r="D192" s="2"/>
+      <c r="D192" s="4"/>
       <c r="F192" s="10"/>
       <c r="G192" s="9"/>
-      <c r="H192" s="2"/>
+      <c r="H192" s="4"/>
     </row>
     <row r="193">
       <c r="B193" s="10"/>
       <c r="C193" s="9"/>
-      <c r="D193" s="2"/>
+      <c r="D193" s="4"/>
       <c r="F193" s="10"/>
       <c r="G193" s="9"/>
-      <c r="H193" s="2"/>
+      <c r="H193" s="4"/>
     </row>
     <row r="194">
       <c r="B194" s="10"/>
       <c r="C194" s="9"/>
-      <c r="D194" s="2"/>
+      <c r="D194" s="4"/>
       <c r="F194" s="10"/>
       <c r="G194" s="9"/>
-      <c r="H194" s="2"/>
+      <c r="H194" s="4"/>
     </row>
     <row r="195">
       <c r="B195" s="10"/>
       <c r="C195" s="9"/>
-      <c r="D195" s="2"/>
+      <c r="D195" s="4"/>
       <c r="F195" s="10"/>
       <c r="G195" s="9"/>
-      <c r="H195" s="2"/>
+      <c r="H195" s="4"/>
     </row>
     <row r="196">
       <c r="B196" s="10"/>
       <c r="C196" s="9"/>
-      <c r="D196" s="2"/>
+      <c r="D196" s="4"/>
       <c r="F196" s="10"/>
       <c r="G196" s="9"/>
-      <c r="H196" s="2"/>
+      <c r="H196" s="4"/>
     </row>
     <row r="197">
       <c r="B197" s="10"/>
       <c r="C197" s="9"/>
-      <c r="D197" s="2"/>
+      <c r="D197" s="4"/>
       <c r="F197" s="10"/>
       <c r="G197" s="9"/>
-      <c r="H197" s="2"/>
+      <c r="H197" s="4"/>
     </row>
     <row r="198">
       <c r="B198" s="10"/>
       <c r="C198" s="9"/>
-      <c r="D198" s="2"/>
+      <c r="D198" s="4"/>
       <c r="F198" s="10"/>
       <c r="G198" s="9"/>
-      <c r="H198" s="2"/>
+      <c r="H198" s="4"/>
     </row>
     <row r="199">
       <c r="B199" s="10"/>
       <c r="C199" s="9"/>
-      <c r="D199" s="2"/>
+      <c r="D199" s="4"/>
       <c r="F199" s="10"/>
       <c r="G199" s="9"/>
-      <c r="H199" s="2"/>
+      <c r="H199" s="4"/>
     </row>
     <row r="200">
       <c r="B200" s="10"/>
       <c r="C200" s="9"/>
-      <c r="D200" s="2"/>
+      <c r="D200" s="4"/>
       <c r="F200" s="10"/>
       <c r="G200" s="9"/>
-      <c r="H200" s="2"/>
+      <c r="H200" s="4"/>
     </row>
     <row r="201">
       <c r="B201" s="10"/>
-      <c r="D201" s="2"/>
+      <c r="D201" s="4"/>
       <c r="F201" s="10"/>
-      <c r="H201" s="2"/>
+      <c r="H201" s="4"/>
     </row>
     <row r="202">
       <c r="B202" s="10"/>
-      <c r="D202" s="2"/>
+      <c r="D202" s="4"/>
       <c r="F202" s="10"/>
-      <c r="H202" s="2"/>
+      <c r="H202" s="4"/>
     </row>
     <row r="203">
       <c r="B203" s="10"/>
-      <c r="D203" s="2"/>
+      <c r="D203" s="4"/>
       <c r="F203" s="10"/>
-      <c r="H203" s="2"/>
+      <c r="H203" s="4"/>
     </row>
     <row r="204">
       <c r="B204" s="10"/>
-      <c r="D204" s="2"/>
+      <c r="D204" s="4"/>
       <c r="F204" s="10"/>
-      <c r="H204" s="2"/>
+      <c r="H204" s="4"/>
     </row>
     <row r="205">
       <c r="B205" s="10"/>
-      <c r="D205" s="2"/>
+      <c r="D205" s="4"/>
       <c r="F205" s="10"/>
-      <c r="H205" s="2"/>
+      <c r="H205" s="4"/>
     </row>
     <row r="206">
       <c r="B206" s="10"/>
-      <c r="D206" s="2"/>
+      <c r="D206" s="4"/>
       <c r="F206" s="10"/>
-      <c r="H206" s="2"/>
+      <c r="H206" s="4"/>
     </row>
     <row r="207">
       <c r="B207" s="10"/>
-      <c r="D207" s="2"/>
+      <c r="D207" s="4"/>
       <c r="F207" s="10"/>
-      <c r="H207" s="2"/>
+      <c r="H207" s="4"/>
     </row>
     <row r="208">
       <c r="B208" s="10"/>
-      <c r="D208" s="2"/>
+      <c r="D208" s="4"/>
       <c r="F208" s="10"/>
-      <c r="H208" s="2"/>
+      <c r="H208" s="4"/>
     </row>
     <row r="209">
       <c r="B209" s="10"/>
-      <c r="D209" s="2"/>
+      <c r="D209" s="4"/>
       <c r="F209" s="10"/>
-      <c r="H209" s="2"/>
+      <c r="H209" s="4"/>
     </row>
     <row r="210">
       <c r="B210" s="10"/>
-      <c r="D210" s="2"/>
+      <c r="D210" s="4"/>
       <c r="F210" s="10"/>
-      <c r="H210" s="2"/>
+      <c r="H210" s="4"/>
     </row>
     <row r="211">
       <c r="B211" s="10"/>
-      <c r="D211" s="2"/>
+      <c r="D211" s="4"/>
       <c r="F211" s="10"/>
-      <c r="H211" s="2"/>
+      <c r="H211" s="4"/>
     </row>
     <row r="212">
       <c r="B212" s="10"/>
-      <c r="D212" s="2"/>
+      <c r="D212" s="4"/>
       <c r="F212" s="10"/>
-      <c r="H212" s="2"/>
+      <c r="H212" s="4"/>
     </row>
     <row r="213">
       <c r="B213" s="10"/>
-      <c r="D213" s="2"/>
+      <c r="D213" s="4"/>
       <c r="F213" s="10"/>
-      <c r="H213" s="2"/>
+      <c r="H213" s="4"/>
     </row>
     <row r="214">
       <c r="B214" s="10"/>
-      <c r="D214" s="2"/>
+      <c r="D214" s="4"/>
       <c r="F214" s="10"/>
-      <c r="H214" s="2"/>
+      <c r="H214" s="4"/>
     </row>
     <row r="215">
       <c r="B215" s="10"/>
-      <c r="D215" s="2"/>
+      <c r="D215" s="4"/>
       <c r="F215" s="10"/>
-      <c r="H215" s="2"/>
+      <c r="H215" s="4"/>
     </row>
     <row r="216">
       <c r="B216" s="10"/>
-      <c r="D216" s="2"/>
+      <c r="D216" s="4"/>
       <c r="F216" s="10"/>
-      <c r="H216" s="2"/>
+      <c r="H216" s="4"/>
     </row>
     <row r="217">
       <c r="B217" s="10"/>
-      <c r="D217" s="2"/>
+      <c r="D217" s="4"/>
       <c r="F217" s="10"/>
-      <c r="H217" s="2"/>
+      <c r="H217" s="4"/>
     </row>
     <row r="218">
       <c r="B218" s="10"/>
-      <c r="D218" s="2"/>
+      <c r="D218" s="4"/>
       <c r="F218" s="10"/>
-      <c r="H218" s="2"/>
+      <c r="H218" s="4"/>
     </row>
     <row r="219">
       <c r="B219" s="10"/>
-      <c r="D219" s="2"/>
+      <c r="D219" s="4"/>
       <c r="F219" s="10"/>
-      <c r="H219" s="2"/>
+      <c r="H219" s="4"/>
     </row>
     <row r="220">
       <c r="B220" s="10"/>
-      <c r="D220" s="2"/>
+      <c r="D220" s="4"/>
       <c r="F220" s="10"/>
-      <c r="H220" s="2"/>
+      <c r="H220" s="4"/>
     </row>
     <row r="221">
       <c r="B221" s="10"/>
-      <c r="D221" s="2"/>
+      <c r="D221" s="4"/>
       <c r="F221" s="10"/>
-      <c r="H221" s="2"/>
+      <c r="H221" s="4"/>
     </row>
     <row r="222">
       <c r="B222" s="10"/>
-      <c r="D222" s="2"/>
+      <c r="D222" s="4"/>
       <c r="F222" s="10"/>
-      <c r="H222" s="2"/>
+      <c r="H222" s="4"/>
     </row>
     <row r="223">
       <c r="B223" s="10"/>
-      <c r="D223" s="2"/>
+      <c r="D223" s="4"/>
       <c r="F223" s="10"/>
-      <c r="H223" s="2"/>
+      <c r="H223" s="4"/>
     </row>
     <row r="224">
       <c r="B224" s="10"/>
-      <c r="D224" s="2"/>
+      <c r="D224" s="4"/>
       <c r="F224" s="10"/>
-      <c r="H224" s="2"/>
+      <c r="H224" s="4"/>
     </row>
     <row r="225">
       <c r="B225" s="10"/>
-      <c r="D225" s="2"/>
+      <c r="D225" s="4"/>
       <c r="F225" s="10"/>
-      <c r="H225" s="2"/>
+      <c r="H225" s="4"/>
     </row>
     <row r="226">
       <c r="B226" s="10"/>
-      <c r="D226" s="2"/>
+      <c r="D226" s="4"/>
       <c r="F226" s="10"/>
-      <c r="H226" s="2"/>
+      <c r="H226" s="4"/>
     </row>
     <row r="227">
       <c r="B227" s="10"/>
-      <c r="D227" s="2"/>
+      <c r="D227" s="4"/>
       <c r="F227" s="10"/>
-      <c r="H227" s="2"/>
+      <c r="H227" s="4"/>
     </row>
     <row r="228">
       <c r="B228" s="10"/>
-      <c r="D228" s="2"/>
+      <c r="D228" s="4"/>
       <c r="F228" s="10"/>
-      <c r="H228" s="2"/>
+      <c r="H228" s="4"/>
     </row>
     <row r="229">
       <c r="B229" s="10"/>
-      <c r="D229" s="2"/>
+      <c r="D229" s="4"/>
       <c r="F229" s="10"/>
-      <c r="H229" s="2"/>
+      <c r="H229" s="4"/>
     </row>
     <row r="230">
       <c r="B230" s="10"/>
-      <c r="D230" s="2"/>
+      <c r="D230" s="4"/>
       <c r="F230" s="10"/>
-      <c r="H230" s="2"/>
+      <c r="H230" s="4"/>
     </row>
     <row r="231">
       <c r="B231" s="10"/>
-      <c r="D231" s="2"/>
+      <c r="D231" s="4"/>
       <c r="F231" s="10"/>
-      <c r="H231" s="2"/>
+      <c r="H231" s="4"/>
     </row>
     <row r="232">
       <c r="B232" s="10"/>
-      <c r="D232" s="2"/>
+      <c r="D232" s="4"/>
       <c r="F232" s="10"/>
-      <c r="H232" s="2"/>
+      <c r="H232" s="4"/>
     </row>
     <row r="233">
       <c r="B233" s="10"/>
-      <c r="D233" s="2"/>
+      <c r="D233" s="4"/>
       <c r="F233" s="10"/>
-      <c r="H233" s="2"/>
+      <c r="H233" s="4"/>
     </row>
     <row r="234">
       <c r="B234" s="10"/>
-      <c r="D234" s="2"/>
+      <c r="D234" s="4"/>
       <c r="F234" s="10"/>
-      <c r="H234" s="2"/>
+      <c r="H234" s="4"/>
     </row>
     <row r="235">
       <c r="B235" s="10"/>
-      <c r="D235" s="2"/>
+      <c r="D235" s="4"/>
       <c r="F235" s="10"/>
-      <c r="H235" s="2"/>
+      <c r="H235" s="4"/>
     </row>
     <row r="236">
       <c r="B236" s="10"/>
-      <c r="D236" s="2"/>
+      <c r="D236" s="4"/>
       <c r="F236" s="10"/>
-      <c r="H236" s="2"/>
+      <c r="H236" s="4"/>
     </row>
     <row r="237">
       <c r="B237" s="10"/>
-      <c r="D237" s="2"/>
+      <c r="D237" s="4"/>
       <c r="F237" s="10"/>
-      <c r="H237" s="2"/>
+      <c r="H237" s="4"/>
     </row>
     <row r="238">
       <c r="B238" s="10"/>
-      <c r="D238" s="2"/>
+      <c r="D238" s="4"/>
       <c r="F238" s="10"/>
-      <c r="H238" s="2"/>
+      <c r="H238" s="4"/>
     </row>
     <row r="239">
       <c r="B239" s="10"/>
-      <c r="D239" s="2"/>
+      <c r="D239" s="4"/>
       <c r="F239" s="10"/>
-      <c r="H239" s="2"/>
+      <c r="H239" s="4"/>
     </row>
     <row r="240">
       <c r="B240" s="10"/>
-      <c r="D240" s="2"/>
+      <c r="D240" s="4"/>
       <c r="F240" s="10"/>
-      <c r="H240" s="2"/>
+      <c r="H240" s="4"/>
     </row>
     <row r="241">
       <c r="B241" s="10"/>
-      <c r="D241" s="2"/>
+      <c r="D241" s="4"/>
       <c r="F241" s="10"/>
-      <c r="H241" s="2"/>
+      <c r="H241" s="4"/>
     </row>
     <row r="242">
       <c r="B242" s="10"/>
-      <c r="D242" s="2"/>
+      <c r="D242" s="4"/>
       <c r="F242" s="10"/>
-      <c r="H242" s="2"/>
+      <c r="H242" s="4"/>
     </row>
     <row r="243">
       <c r="B243" s="10"/>
-      <c r="D243" s="2"/>
+      <c r="D243" s="4"/>
       <c r="F243" s="10"/>
-      <c r="H243" s="2"/>
+      <c r="H243" s="4"/>
     </row>
     <row r="244">
       <c r="B244" s="10"/>
-      <c r="D244" s="2"/>
+      <c r="D244" s="4"/>
       <c r="F244" s="10"/>
-      <c r="H244" s="2"/>
+      <c r="H244" s="4"/>
     </row>
     <row r="245">
       <c r="B245" s="10"/>
-      <c r="D245" s="2"/>
+      <c r="D245" s="4"/>
       <c r="F245" s="10"/>
-      <c r="H245" s="2"/>
+      <c r="H245" s="4"/>
     </row>
     <row r="246">
       <c r="B246" s="10"/>
-      <c r="D246" s="2"/>
+      <c r="D246" s="4"/>
       <c r="F246" s="10"/>
-      <c r="H246" s="2"/>
+      <c r="H246" s="4"/>
     </row>
     <row r="247">
       <c r="B247" s="10"/>
-      <c r="D247" s="2"/>
+      <c r="D247" s="4"/>
       <c r="F247" s="10"/>
-      <c r="H247" s="2"/>
+      <c r="H247" s="4"/>
     </row>
     <row r="248">
       <c r="B248" s="10"/>
-      <c r="D248" s="2"/>
+      <c r="D248" s="4"/>
       <c r="F248" s="10"/>
-      <c r="H248" s="2"/>
+      <c r="H248" s="4"/>
     </row>
     <row r="249">
       <c r="B249" s="10"/>
-      <c r="D249" s="2"/>
+      <c r="D249" s="4"/>
       <c r="F249" s="10"/>
-      <c r="H249" s="2"/>
+      <c r="H249" s="4"/>
     </row>
     <row r="250">
       <c r="B250" s="10"/>
-      <c r="D250" s="2"/>
+      <c r="D250" s="4"/>
       <c r="F250" s="10"/>
-      <c r="H250" s="2"/>
+      <c r="H250" s="4"/>
     </row>
     <row r="251">
       <c r="B251" s="10"/>
-      <c r="D251" s="2"/>
+      <c r="D251" s="4"/>
       <c r="F251" s="10"/>
-      <c r="H251" s="2"/>
+      <c r="H251" s="4"/>
     </row>
     <row r="252">
       <c r="B252" s="10"/>
-      <c r="D252" s="2"/>
+      <c r="D252" s="4"/>
       <c r="F252" s="10"/>
-      <c r="H252" s="2"/>
+      <c r="H252" s="4"/>
     </row>
     <row r="253">
       <c r="B253" s="10"/>
-      <c r="D253" s="2"/>
+      <c r="D253" s="4"/>
       <c r="F253" s="10"/>
-      <c r="H253" s="2"/>
+      <c r="H253" s="4"/>
     </row>
     <row r="254">
       <c r="B254" s="10"/>
-      <c r="D254" s="2"/>
+      <c r="D254" s="4"/>
       <c r="F254" s="10"/>
-      <c r="H254" s="2"/>
+      <c r="H254" s="4"/>
     </row>
     <row r="255">
       <c r="B255" s="10"/>
-      <c r="D255" s="2"/>
+      <c r="D255" s="4"/>
       <c r="F255" s="10"/>
-      <c r="H255" s="2"/>
+      <c r="H255" s="4"/>
     </row>
     <row r="256">
       <c r="B256" s="10"/>
-      <c r="D256" s="2"/>
+      <c r="D256" s="4"/>
       <c r="F256" s="10"/>
-      <c r="H256" s="2"/>
+      <c r="H256" s="4"/>
     </row>
     <row r="257">
       <c r="B257" s="10"/>
-      <c r="D257" s="2"/>
+      <c r="D257" s="4"/>
       <c r="F257" s="10"/>
-      <c r="H257" s="2"/>
+      <c r="H257" s="4"/>
     </row>
     <row r="258">
       <c r="B258" s="10"/>
-      <c r="D258" s="2"/>
+      <c r="D258" s="4"/>
       <c r="F258" s="10"/>
-      <c r="H258" s="2"/>
+      <c r="H258" s="4"/>
     </row>
     <row r="259">
       <c r="B259" s="10"/>
-      <c r="D259" s="2"/>
+      <c r="D259" s="4"/>
       <c r="F259" s="10"/>
-      <c r="H259" s="2"/>
+      <c r="H259" s="4"/>
     </row>
     <row r="260">
       <c r="B260" s="10"/>
-      <c r="D260" s="2"/>
+      <c r="D260" s="4"/>
       <c r="F260" s="10"/>
-      <c r="H260" s="2"/>
+      <c r="H260" s="4"/>
     </row>
     <row r="261">
       <c r="B261" s="10"/>
-      <c r="D261" s="2"/>
+      <c r="D261" s="4"/>
       <c r="F261" s="10"/>
-      <c r="H261" s="2"/>
+      <c r="H261" s="4"/>
     </row>
     <row r="262">
       <c r="B262" s="10"/>
-      <c r="D262" s="2"/>
+      <c r="D262" s="4"/>
       <c r="F262" s="10"/>
-      <c r="H262" s="2"/>
+      <c r="H262" s="4"/>
     </row>
     <row r="263">
       <c r="B263" s="10"/>
-      <c r="D263" s="2"/>
+      <c r="D263" s="4"/>
       <c r="F263" s="10"/>
-      <c r="H263" s="2"/>
+      <c r="H263" s="4"/>
     </row>
     <row r="264">
       <c r="B264" s="10"/>
-      <c r="D264" s="2"/>
+      <c r="D264" s="4"/>
       <c r="F264" s="10"/>
-      <c r="H264" s="2"/>
+      <c r="H264" s="4"/>
     </row>
     <row r="265">
       <c r="B265" s="10"/>
-      <c r="D265" s="2"/>
+      <c r="D265" s="4"/>
       <c r="F265" s="10"/>
-      <c r="H265" s="2"/>
+      <c r="H265" s="4"/>
     </row>
     <row r="266">
       <c r="B266" s="10"/>
-      <c r="D266" s="2"/>
+      <c r="D266" s="4"/>
       <c r="F266" s="10"/>
-      <c r="H266" s="2"/>
+      <c r="H266" s="4"/>
     </row>
     <row r="267">
       <c r="B267" s="10"/>
-      <c r="D267" s="2"/>
+      <c r="D267" s="4"/>
       <c r="F267" s="10"/>
-      <c r="H267" s="2"/>
+      <c r="H267" s="4"/>
     </row>
     <row r="268">
       <c r="B268" s="10"/>
-      <c r="D268" s="2"/>
+      <c r="D268" s="4"/>
       <c r="F268" s="10"/>
-      <c r="H268" s="2"/>
+      <c r="H268" s="4"/>
     </row>
     <row r="269">
       <c r="B269" s="10"/>
-      <c r="D269" s="2"/>
+      <c r="D269" s="4"/>
       <c r="F269" s="10"/>
-      <c r="H269" s="2"/>
+      <c r="H269" s="4"/>
     </row>
     <row r="270">
       <c r="B270" s="10"/>
-      <c r="D270" s="2"/>
+      <c r="D270" s="4"/>
       <c r="F270" s="10"/>
-      <c r="H270" s="2"/>
+      <c r="H270" s="4"/>
     </row>
     <row r="271">
       <c r="B271" s="10"/>
-      <c r="D271" s="2"/>
+      <c r="D271" s="4"/>
       <c r="F271" s="10"/>
-      <c r="H271" s="2"/>
+      <c r="H271" s="4"/>
     </row>
     <row r="272">
       <c r="B272" s="10"/>
-      <c r="D272" s="2"/>
+      <c r="D272" s="4"/>
       <c r="F272" s="10"/>
-      <c r="H272" s="2"/>
+      <c r="H272" s="4"/>
     </row>
     <row r="273">
       <c r="B273" s="10"/>
-      <c r="D273" s="2"/>
+      <c r="D273" s="4"/>
       <c r="F273" s="10"/>
-      <c r="H273" s="2"/>
+      <c r="H273" s="4"/>
     </row>
     <row r="274">
       <c r="B274" s="10"/>
-      <c r="D274" s="2"/>
+      <c r="D274" s="4"/>
       <c r="F274" s="10"/>
-      <c r="H274" s="2"/>
+      <c r="H274" s="4"/>
     </row>
     <row r="275">
       <c r="B275" s="10"/>
-      <c r="D275" s="2"/>
+      <c r="D275" s="4"/>
       <c r="F275" s="10"/>
-      <c r="H275" s="2"/>
+      <c r="H275" s="4"/>
     </row>
     <row r="276">
       <c r="B276" s="10"/>
-      <c r="D276" s="2"/>
+      <c r="D276" s="4"/>
       <c r="F276" s="10"/>
-      <c r="H276" s="2"/>
+      <c r="H276" s="4"/>
     </row>
     <row r="277">
       <c r="B277" s="10"/>
-      <c r="D277" s="2"/>
+      <c r="D277" s="4"/>
       <c r="F277" s="10"/>
-      <c r="H277" s="2"/>
+      <c r="H277" s="4"/>
     </row>
     <row r="278">
       <c r="B278" s="10"/>
-      <c r="D278" s="2"/>
+      <c r="D278" s="4"/>
       <c r="F278" s="10"/>
-      <c r="H278" s="2"/>
+      <c r="H278" s="4"/>
     </row>
     <row r="279">
       <c r="B279" s="10"/>
-      <c r="D279" s="2"/>
+      <c r="D279" s="4"/>
       <c r="F279" s="10"/>
-      <c r="H279" s="2"/>
+      <c r="H279" s="4"/>
     </row>
     <row r="280">
       <c r="B280" s="10"/>
-      <c r="D280" s="2"/>
+      <c r="D280" s="4"/>
       <c r="F280" s="10"/>
-      <c r="H280" s="2"/>
+      <c r="H280" s="4"/>
     </row>
     <row r="281">
       <c r="B281" s="10"/>
-      <c r="D281" s="2"/>
+      <c r="D281" s="4"/>
       <c r="F281" s="10"/>
-      <c r="H281" s="2"/>
+      <c r="H281" s="4"/>
     </row>
     <row r="282">
       <c r="B282" s="10"/>
-      <c r="D282" s="2"/>
+      <c r="D282" s="4"/>
       <c r="F282" s="10"/>
-      <c r="H282" s="2"/>
+      <c r="H282" s="4"/>
     </row>
     <row r="283">
       <c r="B283" s="10"/>
-      <c r="D283" s="2"/>
+      <c r="D283" s="4"/>
       <c r="F283" s="10"/>
-      <c r="H283" s="2"/>
+      <c r="H283" s="4"/>
     </row>
     <row r="284">
       <c r="B284" s="10"/>
-      <c r="D284" s="2"/>
+      <c r="D284" s="4"/>
       <c r="F284" s="10"/>
-      <c r="H284" s="2"/>
+      <c r="H284" s="4"/>
     </row>
     <row r="285">
       <c r="B285" s="10"/>
-      <c r="D285" s="2"/>
+      <c r="D285" s="4"/>
       <c r="F285" s="10"/>
-      <c r="H285" s="2"/>
+      <c r="H285" s="4"/>
     </row>
     <row r="286">
       <c r="B286" s="10"/>
-      <c r="D286" s="2"/>
+      <c r="D286" s="4"/>
       <c r="F286" s="10"/>
-      <c r="H286" s="2"/>
+      <c r="H286" s="4"/>
     </row>
     <row r="287">
       <c r="B287" s="10"/>
-      <c r="D287" s="2"/>
+      <c r="D287" s="4"/>
       <c r="F287" s="10"/>
-      <c r="H287" s="2"/>
+      <c r="H287" s="4"/>
     </row>
     <row r="288">
       <c r="B288" s="10"/>
-      <c r="D288" s="2"/>
+      <c r="D288" s="4"/>
       <c r="F288" s="10"/>
-      <c r="H288" s="2"/>
+      <c r="H288" s="4"/>
     </row>
     <row r="289">
       <c r="B289" s="10"/>
-      <c r="D289" s="2"/>
+      <c r="D289" s="4"/>
       <c r="F289" s="10"/>
-      <c r="H289" s="2"/>
+      <c r="H289" s="4"/>
     </row>
     <row r="290">
       <c r="B290" s="10"/>
-      <c r="D290" s="2"/>
+      <c r="D290" s="4"/>
       <c r="F290" s="10"/>
-      <c r="H290" s="2"/>
+      <c r="H290" s="4"/>
     </row>
     <row r="291">
       <c r="B291" s="10"/>
-      <c r="D291" s="2"/>
+      <c r="D291" s="4"/>
       <c r="F291" s="10"/>
-      <c r="H291" s="2"/>
+      <c r="H291" s="4"/>
     </row>
     <row r="292">
       <c r="B292" s="10"/>
-      <c r="D292" s="2"/>
+      <c r="D292" s="4"/>
       <c r="F292" s="10"/>
-      <c r="H292" s="2"/>
+      <c r="H292" s="4"/>
     </row>
     <row r="293">
       <c r="B293" s="10"/>
-      <c r="D293" s="2"/>
+      <c r="D293" s="4"/>
       <c r="F293" s="10"/>
-      <c r="H293" s="2"/>
+      <c r="H293" s="4"/>
     </row>
     <row r="294">
       <c r="B294" s="10"/>
-      <c r="D294" s="2"/>
+      <c r="D294" s="4"/>
       <c r="F294" s="10"/>
-      <c r="H294" s="2"/>
+      <c r="H294" s="4"/>
     </row>
     <row r="295">
       <c r="B295" s="10"/>
-      <c r="D295" s="2"/>
+      <c r="D295" s="4"/>
       <c r="F295" s="10"/>
-      <c r="H295" s="2"/>
+      <c r="H295" s="4"/>
     </row>
     <row r="296">
       <c r="B296" s="10"/>
-      <c r="D296" s="2"/>
+      <c r="D296" s="4"/>
       <c r="F296" s="10"/>
-      <c r="H296" s="2"/>
+      <c r="H296" s="4"/>
     </row>
     <row r="297">
       <c r="B297" s="10"/>
-      <c r="D297" s="2"/>
+      <c r="D297" s="4"/>
       <c r="F297" s="10"/>
-      <c r="H297" s="2"/>
+      <c r="H297" s="4"/>
     </row>
     <row r="298">
       <c r="B298" s="10"/>
-      <c r="D298" s="2"/>
+      <c r="D298" s="4"/>
       <c r="F298" s="10"/>
-      <c r="H298" s="2"/>
+      <c r="H298" s="4"/>
     </row>
     <row r="299">
       <c r="B299" s="10"/>
-      <c r="D299" s="2"/>
+      <c r="D299" s="4"/>
       <c r="F299" s="10"/>
-      <c r="H299" s="2"/>
+      <c r="H299" s="4"/>
     </row>
     <row r="300">
       <c r="B300" s="10"/>
-      <c r="D300" s="2"/>
+      <c r="D300" s="4"/>
       <c r="F300" s="10"/>
-      <c r="H300" s="2"/>
+      <c r="H300" s="4"/>
     </row>
     <row r="301">
       <c r="B301" s="10"/>
-      <c r="D301" s="2"/>
+      <c r="D301" s="4"/>
       <c r="F301" s="10"/>
-      <c r="H301" s="2"/>
+      <c r="H301" s="4"/>
     </row>
     <row r="302">
       <c r="B302" s="10"/>
-      <c r="D302" s="2"/>
+      <c r="D302" s="4"/>
       <c r="F302" s="10"/>
-      <c r="H302" s="2"/>
+      <c r="H302" s="4"/>
     </row>
     <row r="303">
       <c r="B303" s="10"/>
-      <c r="D303" s="2"/>
+      <c r="D303" s="4"/>
       <c r="F303" s="10"/>
-      <c r="H303" s="2"/>
+      <c r="H303" s="4"/>
     </row>
     <row r="304">
       <c r="B304" s="10"/>
-      <c r="D304" s="2"/>
+      <c r="D304" s="4"/>
       <c r="F304" s="10"/>
-      <c r="H304" s="2"/>
+      <c r="H304" s="4"/>
     </row>
     <row r="305">
       <c r="B305" s="10"/>
-      <c r="D305" s="2"/>
+      <c r="D305" s="4"/>
       <c r="F305" s="10"/>
-      <c r="H305" s="2"/>
+      <c r="H305" s="4"/>
     </row>
     <row r="306">
       <c r="B306" s="10"/>
-      <c r="D306" s="2"/>
+      <c r="D306" s="4"/>
       <c r="F306" s="10"/>
-      <c r="H306" s="2"/>
+      <c r="H306" s="4"/>
     </row>
     <row r="307">
       <c r="B307" s="10"/>
-      <c r="D307" s="2"/>
+      <c r="D307" s="4"/>
       <c r="F307" s="10"/>
-      <c r="H307" s="2"/>
+      <c r="H307" s="4"/>
     </row>
     <row r="308">
       <c r="B308" s="10"/>
-      <c r="D308" s="2"/>
+      <c r="D308" s="4"/>
       <c r="F308" s="10"/>
-      <c r="H308" s="2"/>
+      <c r="H308" s="4"/>
     </row>
     <row r="309">
       <c r="B309" s="10"/>
-      <c r="D309" s="2"/>
+      <c r="D309" s="4"/>
       <c r="F309" s="10"/>
-      <c r="H309" s="2"/>
+      <c r="H309" s="4"/>
     </row>
     <row r="310">
       <c r="B310" s="10"/>
-      <c r="D310" s="2"/>
+      <c r="D310" s="4"/>
       <c r="F310" s="10"/>
-      <c r="H310" s="2"/>
+      <c r="H310" s="4"/>
     </row>
     <row r="311">
       <c r="B311" s="10"/>
-      <c r="D311" s="2"/>
+      <c r="D311" s="4"/>
       <c r="F311" s="10"/>
-      <c r="H311" s="2"/>
+      <c r="H311" s="4"/>
     </row>
     <row r="312">
       <c r="B312" s="10"/>
-      <c r="D312" s="2"/>
+      <c r="D312" s="4"/>
       <c r="F312" s="10"/>
-      <c r="H312" s="2"/>
+      <c r="H312" s="4"/>
     </row>
     <row r="313">
       <c r="B313" s="10"/>
-      <c r="D313" s="2"/>
+      <c r="D313" s="4"/>
       <c r="F313" s="10"/>
-      <c r="H313" s="2"/>
+      <c r="H313" s="4"/>
     </row>
     <row r="314">
       <c r="B314" s="10"/>
-      <c r="D314" s="2"/>
+      <c r="D314" s="4"/>
       <c r="F314" s="10"/>
-      <c r="H314" s="2"/>
+      <c r="H314" s="4"/>
     </row>
     <row r="315">
       <c r="B315" s="10"/>
-      <c r="D315" s="2"/>
+      <c r="D315" s="4"/>
       <c r="F315" s="10"/>
-      <c r="H315" s="2"/>
+      <c r="H315" s="4"/>
     </row>
     <row r="316">
       <c r="B316" s="10"/>
-      <c r="D316" s="2"/>
+      <c r="D316" s="4"/>
       <c r="F316" s="10"/>
-      <c r="H316" s="2"/>
+      <c r="H316" s="4"/>
     </row>
     <row r="317">
       <c r="B317" s="10"/>
-      <c r="D317" s="2"/>
+      <c r="D317" s="4"/>
       <c r="F317" s="10"/>
-      <c r="H317" s="2"/>
+      <c r="H317" s="4"/>
     </row>
     <row r="318">
       <c r="B318" s="10"/>
-      <c r="D318" s="2"/>
+      <c r="D318" s="4"/>
       <c r="F318" s="10"/>
-      <c r="H318" s="2"/>
+      <c r="H318" s="4"/>
     </row>
     <row r="319">
       <c r="B319" s="10"/>
-      <c r="D319" s="2"/>
+      <c r="D319" s="4"/>
       <c r="F319" s="10"/>
-      <c r="H319" s="2"/>
+      <c r="H319" s="4"/>
     </row>
     <row r="320">
       <c r="B320" s="10"/>
-      <c r="D320" s="2"/>
+      <c r="D320" s="4"/>
       <c r="F320" s="10"/>
-      <c r="H320" s="2"/>
+      <c r="H320" s="4"/>
     </row>
     <row r="321">
       <c r="B321" s="10"/>
-      <c r="D321" s="2"/>
+      <c r="D321" s="4"/>
       <c r="F321" s="10"/>
-      <c r="H321" s="2"/>
+      <c r="H321" s="4"/>
     </row>
     <row r="322">
       <c r="B322" s="10"/>
-      <c r="D322" s="2"/>
+      <c r="D322" s="4"/>
       <c r="F322" s="10"/>
-      <c r="H322" s="2"/>
+      <c r="H322" s="4"/>
     </row>
     <row r="323">
       <c r="B323" s="10"/>
-      <c r="D323" s="2"/>
+      <c r="D323" s="4"/>
       <c r="F323" s="10"/>
-      <c r="H323" s="2"/>
+      <c r="H323" s="4"/>
     </row>
     <row r="324">
       <c r="B324" s="10"/>
-      <c r="D324" s="2"/>
+      <c r="D324" s="4"/>
       <c r="F324" s="10"/>
-      <c r="H324" s="2"/>
+      <c r="H324" s="4"/>
     </row>
     <row r="325">
       <c r="B325" s="10"/>
-      <c r="D325" s="2"/>
+      <c r="D325" s="4"/>
       <c r="F325" s="10"/>
-      <c r="H325" s="2"/>
+      <c r="H325" s="4"/>
     </row>
     <row r="326">
       <c r="B326" s="10"/>
-      <c r="D326" s="2"/>
+      <c r="D326" s="4"/>
       <c r="F326" s="10"/>
-      <c r="H326" s="2"/>
+      <c r="H326" s="4"/>
     </row>
     <row r="327">
       <c r="B327" s="10"/>
-      <c r="D327" s="2"/>
+      <c r="D327" s="4"/>
       <c r="F327" s="10"/>
-      <c r="H327" s="2"/>
+      <c r="H327" s="4"/>
     </row>
     <row r="328">
       <c r="B328" s="10"/>
-      <c r="D328" s="2"/>
+      <c r="D328" s="4"/>
       <c r="F328" s="10"/>
-      <c r="H328" s="2"/>
+      <c r="H328" s="4"/>
     </row>
     <row r="329">
       <c r="B329" s="10"/>
-      <c r="D329" s="2"/>
+      <c r="D329" s="4"/>
       <c r="F329" s="10"/>
-      <c r="H329" s="2"/>
+      <c r="H329" s="4"/>
     </row>
     <row r="330">
       <c r="B330" s="10"/>
-      <c r="D330" s="2"/>
+      <c r="D330" s="4"/>
       <c r="F330" s="10"/>
-      <c r="H330" s="2"/>
+      <c r="H330" s="4"/>
     </row>
     <row r="331">
       <c r="B331" s="10"/>
-      <c r="D331" s="2"/>
+      <c r="D331" s="4"/>
       <c r="F331" s="10"/>
-      <c r="H331" s="2"/>
+      <c r="H331" s="4"/>
     </row>
     <row r="332">
       <c r="B332" s="10"/>
-      <c r="D332" s="2"/>
+      <c r="D332" s="4"/>
       <c r="F332" s="10"/>
-      <c r="H332" s="2"/>
+      <c r="H332" s="4"/>
     </row>
     <row r="333">
       <c r="B333" s="10"/>
-      <c r="D333" s="2"/>
+      <c r="D333" s="4"/>
       <c r="F333" s="10"/>
-      <c r="H333" s="2"/>
+      <c r="H333" s="4"/>
     </row>
     <row r="334">
       <c r="B334" s="10"/>
-      <c r="D334" s="2"/>
+      <c r="D334" s="4"/>
       <c r="F334" s="10"/>
-      <c r="H334" s="2"/>
+      <c r="H334" s="4"/>
     </row>
     <row r="335">
       <c r="B335" s="10"/>
-      <c r="D335" s="2"/>
+      <c r="D335" s="4"/>
       <c r="F335" s="10"/>
-      <c r="H335" s="2"/>
+      <c r="H335" s="4"/>
     </row>
     <row r="336">
       <c r="B336" s="10"/>
-      <c r="D336" s="2"/>
+      <c r="D336" s="4"/>
       <c r="F336" s="10"/>
-      <c r="H336" s="2"/>
+      <c r="H336" s="4"/>
     </row>
     <row r="337">
       <c r="B337" s="10"/>
-      <c r="D337" s="2"/>
+      <c r="D337" s="4"/>
       <c r="F337" s="10"/>
-      <c r="H337" s="2"/>
+      <c r="H337" s="4"/>
     </row>
     <row r="338">
       <c r="B338" s="10"/>
-      <c r="D338" s="2"/>
+      <c r="D338" s="4"/>
       <c r="F338" s="10"/>
-      <c r="H338" s="2"/>
+      <c r="H338" s="4"/>
     </row>
     <row r="339">
       <c r="B339" s="10"/>
-      <c r="D339" s="2"/>
+      <c r="D339" s="4"/>
       <c r="F339" s="10"/>
-      <c r="H339" s="2"/>
+      <c r="H339" s="4"/>
     </row>
     <row r="340">
       <c r="B340" s="10"/>
-      <c r="D340" s="2"/>
+      <c r="D340" s="4"/>
       <c r="F340" s="10"/>
-      <c r="H340" s="2"/>
+      <c r="H340" s="4"/>
     </row>
     <row r="341">
       <c r="B341" s="10"/>
-      <c r="D341" s="2"/>
+      <c r="D341" s="4"/>
       <c r="F341" s="10"/>
-      <c r="H341" s="2"/>
+      <c r="H341" s="4"/>
     </row>
     <row r="342">
       <c r="B342" s="10"/>
-      <c r="D342" s="2"/>
+      <c r="D342" s="4"/>
       <c r="F342" s="10"/>
-      <c r="H342" s="2"/>
+      <c r="H342" s="4"/>
     </row>
     <row r="343">
       <c r="B343" s="10"/>
-      <c r="D343" s="2"/>
+      <c r="D343" s="4"/>
       <c r="F343" s="10"/>
-      <c r="H343" s="2"/>
+      <c r="H343" s="4"/>
     </row>
     <row r="344">
       <c r="B344" s="10"/>
-      <c r="D344" s="2"/>
+      <c r="D344" s="4"/>
       <c r="F344" s="10"/>
-      <c r="H344" s="2"/>
+      <c r="H344" s="4"/>
     </row>
     <row r="345">
       <c r="B345" s="10"/>
-      <c r="D345" s="2"/>
+      <c r="D345" s="4"/>
       <c r="F345" s="10"/>
-      <c r="H345" s="2"/>
+      <c r="H345" s="4"/>
     </row>
     <row r="346">
       <c r="B346" s="10"/>
-      <c r="D346" s="2"/>
+      <c r="D346" s="4"/>
       <c r="F346" s="10"/>
-      <c r="H346" s="2"/>
+      <c r="H346" s="4"/>
     </row>
     <row r="347">
       <c r="B347" s="10"/>
-      <c r="D347" s="2"/>
+      <c r="D347" s="4"/>
       <c r="F347" s="10"/>
-      <c r="H347" s="2"/>
+      <c r="H347" s="4"/>
     </row>
     <row r="348">
       <c r="B348" s="10"/>
-      <c r="D348" s="2"/>
+      <c r="D348" s="4"/>
       <c r="F348" s="10"/>
-      <c r="H348" s="2"/>
+      <c r="H348" s="4"/>
     </row>
     <row r="349">
       <c r="B349" s="10"/>
-      <c r="D349" s="2"/>
+      <c r="D349" s="4"/>
       <c r="F349" s="10"/>
-      <c r="H349" s="2"/>
+      <c r="H349" s="4"/>
     </row>
     <row r="350">
       <c r="B350" s="10"/>
-      <c r="D350" s="2"/>
+      <c r="D350" s="4"/>
       <c r="F350" s="10"/>
-      <c r="H350" s="2"/>
+      <c r="H350" s="4"/>
     </row>
     <row r="351">
       <c r="B351" s="10"/>
-      <c r="D351" s="2"/>
+      <c r="D351" s="4"/>
       <c r="F351" s="10"/>
-      <c r="H351" s="2"/>
+      <c r="H351" s="4"/>
     </row>
     <row r="352">
       <c r="B352" s="10"/>
-      <c r="D352" s="2"/>
+      <c r="D352" s="4"/>
       <c r="F352" s="10"/>
-      <c r="H352" s="2"/>
+      <c r="H352" s="4"/>
     </row>
     <row r="353">
       <c r="B353" s="10"/>
-      <c r="D353" s="2"/>
+      <c r="D353" s="4"/>
       <c r="F353" s="10"/>
-      <c r="H353" s="2"/>
+      <c r="H353" s="4"/>
     </row>
     <row r="354">
       <c r="B354" s="10"/>
-      <c r="D354" s="2"/>
+      <c r="D354" s="4"/>
       <c r="F354" s="10"/>
-      <c r="H354" s="2"/>
+      <c r="H354" s="4"/>
     </row>
     <row r="355">
       <c r="B355" s="10"/>
-      <c r="D355" s="2"/>
+      <c r="D355" s="4"/>
       <c r="F355" s="10"/>
-      <c r="H355" s="2"/>
+      <c r="H355" s="4"/>
     </row>
     <row r="356">
       <c r="B356" s="10"/>
-      <c r="D356" s="2"/>
+      <c r="D356" s="4"/>
       <c r="F356" s="10"/>
-      <c r="H356" s="2"/>
+      <c r="H356" s="4"/>
     </row>
     <row r="357">
       <c r="B357" s="10"/>
-      <c r="D357" s="2"/>
+      <c r="D357" s="4"/>
       <c r="F357" s="10"/>
-      <c r="H357" s="2"/>
+      <c r="H357" s="4"/>
     </row>
     <row r="358">
       <c r="B358" s="10"/>
-      <c r="D358" s="2"/>
+      <c r="D358" s="4"/>
       <c r="F358" s="10"/>
-      <c r="H358" s="2"/>
+      <c r="H358" s="4"/>
     </row>
     <row r="359">
       <c r="B359" s="10"/>
-      <c r="D359" s="2"/>
+      <c r="D359" s="4"/>
       <c r="F359" s="10"/>
-      <c r="H359" s="2"/>
+      <c r="H359" s="4"/>
     </row>
     <row r="360">
       <c r="B360" s="10"/>
-      <c r="D360" s="2"/>
+      <c r="D360" s="4"/>
       <c r="F360" s="10"/>
-      <c r="H360" s="2"/>
+      <c r="H360" s="4"/>
     </row>
     <row r="361">
       <c r="B361" s="10"/>
-      <c r="D361" s="2"/>
+      <c r="D361" s="4"/>
       <c r="F361" s="10"/>
-      <c r="H361" s="2"/>
+      <c r="H361" s="4"/>
     </row>
     <row r="362">
       <c r="B362" s="10"/>
-      <c r="D362" s="2"/>
+      <c r="D362" s="4"/>
       <c r="F362" s="10"/>
-      <c r="H362" s="2"/>
+      <c r="H362" s="4"/>
     </row>
     <row r="363">
       <c r="B363" s="10"/>
-      <c r="D363" s="2"/>
+      <c r="D363" s="4"/>
       <c r="F363" s="10"/>
-      <c r="H363" s="2"/>
+      <c r="H363" s="4"/>
     </row>
     <row r="364">
       <c r="B364" s="10"/>
-      <c r="D364" s="2"/>
+      <c r="D364" s="4"/>
       <c r="F364" s="10"/>
-      <c r="H364" s="2"/>
+      <c r="H364" s="4"/>
     </row>
     <row r="365">
       <c r="B365" s="10"/>
-      <c r="D365" s="2"/>
+      <c r="D365" s="4"/>
       <c r="F365" s="10"/>
-      <c r="H365" s="2"/>
+      <c r="H365" s="4"/>
     </row>
     <row r="366">
       <c r="B366" s="10"/>
-      <c r="D366" s="2"/>
+      <c r="D366" s="4"/>
       <c r="F366" s="10"/>
-      <c r="H366" s="2"/>
+      <c r="H366" s="4"/>
     </row>
     <row r="367">
       <c r="B367" s="10"/>
-      <c r="D367" s="2"/>
+      <c r="D367" s="4"/>
       <c r="F367" s="10"/>
-      <c r="H367" s="2"/>
+      <c r="H367" s="4"/>
     </row>
     <row r="368">
       <c r="B368" s="10"/>
-      <c r="D368" s="2"/>
+      <c r="D368" s="4"/>
       <c r="F368" s="10"/>
-      <c r="H368" s="2"/>
+      <c r="H368" s="4"/>
     </row>
     <row r="369">
       <c r="B369" s="10"/>
-      <c r="D369" s="2"/>
+      <c r="D369" s="4"/>
       <c r="F369" s="10"/>
-      <c r="H369" s="2"/>
+      <c r="H369" s="4"/>
     </row>
     <row r="370">
       <c r="B370" s="10"/>
-      <c r="D370" s="2"/>
+      <c r="D370" s="4"/>
       <c r="F370" s="10"/>
-      <c r="H370" s="2"/>
+      <c r="H370" s="4"/>
     </row>
     <row r="371">
       <c r="B371" s="10"/>
-      <c r="D371" s="2"/>
+      <c r="D371" s="4"/>
       <c r="F371" s="10"/>
-      <c r="H371" s="2"/>
+      <c r="H371" s="4"/>
     </row>
     <row r="372">
       <c r="B372" s="10"/>
-      <c r="D372" s="2"/>
+      <c r="D372" s="4"/>
       <c r="F372" s="10"/>
-      <c r="H372" s="2"/>
+      <c r="H372" s="4"/>
     </row>
     <row r="373">
       <c r="B373" s="10"/>
-      <c r="D373" s="2"/>
+      <c r="D373" s="4"/>
       <c r="F373" s="10"/>
-      <c r="H373" s="2"/>
+      <c r="H373" s="4"/>
     </row>
     <row r="374">
       <c r="B374" s="10"/>
-      <c r="D374" s="2"/>
+      <c r="D374" s="4"/>
       <c r="F374" s="10"/>
-      <c r="H374" s="2"/>
+      <c r="H374" s="4"/>
     </row>
     <row r="375">
       <c r="B375" s="10"/>
-      <c r="D375" s="2"/>
+      <c r="D375" s="4"/>
       <c r="F375" s="10"/>
-      <c r="H375" s="2"/>
+      <c r="H375" s="4"/>
     </row>
     <row r="376">
       <c r="B376" s="10"/>
-      <c r="D376" s="2"/>
+      <c r="D376" s="4"/>
       <c r="F376" s="10"/>
-      <c r="H376" s="2"/>
+      <c r="H376" s="4"/>
     </row>
     <row r="377">
       <c r="B377" s="10"/>
-      <c r="D377" s="2"/>
+      <c r="D377" s="4"/>
       <c r="F377" s="10"/>
-      <c r="H377" s="2"/>
+      <c r="H377" s="4"/>
     </row>
     <row r="378">
       <c r="B378" s="10"/>
-      <c r="D378" s="2"/>
+      <c r="D378" s="4"/>
       <c r="F378" s="10"/>
-      <c r="H378" s="2"/>
+      <c r="H378" s="4"/>
     </row>
     <row r="379">
       <c r="B379" s="10"/>
-      <c r="D379" s="2"/>
+      <c r="D379" s="4"/>
       <c r="F379" s="10"/>
-      <c r="H379" s="2"/>
+      <c r="H379" s="4"/>
     </row>
     <row r="380">
       <c r="B380" s="10"/>
-      <c r="D380" s="2"/>
+      <c r="D380" s="4"/>
       <c r="F380" s="10"/>
-      <c r="H380" s="2"/>
+      <c r="H380" s="4"/>
     </row>
     <row r="381">
       <c r="B381" s="10"/>
-      <c r="D381" s="2"/>
+      <c r="D381" s="4"/>
       <c r="F381" s="10"/>
-      <c r="H381" s="2"/>
+      <c r="H381" s="4"/>
     </row>
     <row r="382">
       <c r="B382" s="10"/>
-      <c r="D382" s="2"/>
+      <c r="D382" s="4"/>
       <c r="F382" s="10"/>
-      <c r="H382" s="2"/>
+      <c r="H382" s="4"/>
     </row>
     <row r="383">
       <c r="B383" s="10"/>
-      <c r="D383" s="2"/>
+      <c r="D383" s="4"/>
       <c r="F383" s="10"/>
-      <c r="H383" s="2"/>
+      <c r="H383" s="4"/>
     </row>
     <row r="384">
       <c r="B384" s="10"/>
-      <c r="D384" s="2"/>
+      <c r="D384" s="4"/>
       <c r="F384" s="10"/>
-      <c r="H384" s="2"/>
+      <c r="H384" s="4"/>
     </row>
     <row r="385">
       <c r="B385" s="10"/>
-      <c r="D385" s="2"/>
+      <c r="D385" s="4"/>
       <c r="F385" s="10"/>
-      <c r="H385" s="2"/>
+      <c r="H385" s="4"/>
     </row>
     <row r="386">
       <c r="B386" s="10"/>
-      <c r="D386" s="2"/>
+      <c r="D386" s="4"/>
       <c r="F386" s="10"/>
-      <c r="H386" s="2"/>
+      <c r="H386" s="4"/>
     </row>
     <row r="387">
       <c r="B387" s="10"/>
-      <c r="D387" s="2"/>
+      <c r="D387" s="4"/>
       <c r="F387" s="10"/>
-      <c r="H387" s="2"/>
+      <c r="H387" s="4"/>
     </row>
     <row r="388">
       <c r="B388" s="10"/>
-      <c r="D388" s="2"/>
+      <c r="D388" s="4"/>
       <c r="F388" s="10"/>
-      <c r="H388" s="2"/>
+      <c r="H388" s="4"/>
     </row>
     <row r="389">
       <c r="B389" s="10"/>
-      <c r="D389" s="2"/>
+      <c r="D389" s="4"/>
       <c r="F389" s="10"/>
-      <c r="H389" s="2"/>
+      <c r="H389" s="4"/>
     </row>
     <row r="390">
       <c r="B390" s="10"/>
-      <c r="D390" s="2"/>
+      <c r="D390" s="4"/>
       <c r="F390" s="10"/>
-      <c r="H390" s="2"/>
+      <c r="H390" s="4"/>
     </row>
     <row r="391">
       <c r="B391" s="10"/>
-      <c r="D391" s="2"/>
+      <c r="D391" s="4"/>
       <c r="F391" s="10"/>
-      <c r="H391" s="2"/>
+      <c r="H391" s="4"/>
     </row>
     <row r="392">
       <c r="B392" s="10"/>
-      <c r="D392" s="2"/>
+      <c r="D392" s="4"/>
       <c r="F392" s="10"/>
-      <c r="H392" s="2"/>
+      <c r="H392" s="4"/>
     </row>
     <row r="393">
       <c r="B393" s="10"/>
-      <c r="D393" s="2"/>
+      <c r="D393" s="4"/>
       <c r="F393" s="10"/>
-      <c r="H393" s="2"/>
+      <c r="H393" s="4"/>
     </row>
     <row r="394">
       <c r="B394" s="10"/>
-      <c r="D394" s="2"/>
+      <c r="D394" s="4"/>
       <c r="F394" s="10"/>
-      <c r="H394" s="2"/>
+      <c r="H394" s="4"/>
     </row>
     <row r="395">
       <c r="B395" s="10"/>
-      <c r="D395" s="2"/>
+      <c r="D395" s="4"/>
       <c r="F395" s="10"/>
-      <c r="H395" s="2"/>
+      <c r="H395" s="4"/>
     </row>
     <row r="396">
       <c r="B396" s="10"/>
-      <c r="D396" s="2"/>
+      <c r="D396" s="4"/>
       <c r="F396" s="10"/>
-      <c r="H396" s="2"/>
+      <c r="H396" s="4"/>
     </row>
     <row r="397">
       <c r="B397" s="10"/>
-      <c r="D397" s="2"/>
+      <c r="D397" s="4"/>
       <c r="F397" s="10"/>
-      <c r="H397" s="2"/>
+      <c r="H397" s="4"/>
     </row>
     <row r="398">
       <c r="B398" s="10"/>
-      <c r="D398" s="2"/>
+      <c r="D398" s="4"/>
       <c r="F398" s="10"/>
-      <c r="H398" s="2"/>
+      <c r="H398" s="4"/>
     </row>
     <row r="399">
       <c r="B399" s="10"/>
-      <c r="D399" s="2"/>
+      <c r="D399" s="4"/>
       <c r="F399" s="10"/>
-      <c r="H399" s="2"/>
+      <c r="H399" s="4"/>
     </row>
     <row r="400">
       <c r="B400" s="10"/>
-      <c r="D400" s="2"/>
+      <c r="D400" s="4"/>
       <c r="F400" s="10"/>
-      <c r="H400" s="2"/>
+      <c r="H400" s="4"/>
     </row>
     <row r="401">
       <c r="B401" s="10"/>
-      <c r="D401" s="2"/>
+      <c r="D401" s="4"/>
       <c r="F401" s="10"/>
-      <c r="H401" s="2"/>
+      <c r="H401" s="4"/>
     </row>
     <row r="402">
       <c r="B402" s="10"/>
-      <c r="D402" s="2"/>
+      <c r="D402" s="4"/>
       <c r="F402" s="10"/>
-      <c r="H402" s="2"/>
+      <c r="H402" s="4"/>
     </row>
     <row r="403">
       <c r="B403" s="10"/>
-      <c r="D403" s="2"/>
+      <c r="D403" s="4"/>
       <c r="F403" s="10"/>
-      <c r="H403" s="2"/>
+      <c r="H403" s="4"/>
     </row>
     <row r="404">
       <c r="B404" s="10"/>
-      <c r="D404" s="2"/>
+      <c r="D404" s="4"/>
       <c r="F404" s="10"/>
-      <c r="H404" s="2"/>
+      <c r="H404" s="4"/>
     </row>
     <row r="405">
       <c r="B405" s="10"/>
-      <c r="D405" s="2"/>
+      <c r="D405" s="4"/>
       <c r="F405" s="10"/>
-      <c r="H405" s="2"/>
+      <c r="H405" s="4"/>
     </row>
     <row r="406">
       <c r="B406" s="10"/>
-      <c r="D406" s="2"/>
+      <c r="D406" s="4"/>
       <c r="F406" s="10"/>
-      <c r="H406" s="2"/>
+      <c r="H406" s="4"/>
     </row>
     <row r="407">
       <c r="B407" s="10"/>
-      <c r="D407" s="2"/>
+      <c r="D407" s="4"/>
       <c r="F407" s="10"/>
-      <c r="H407" s="2"/>
+      <c r="H407" s="4"/>
     </row>
     <row r="408">
       <c r="B408" s="10"/>
-      <c r="D408" s="2"/>
+      <c r="D408" s="4"/>
       <c r="F408" s="10"/>
-      <c r="H408" s="2"/>
+      <c r="H408" s="4"/>
     </row>
     <row r="409">
       <c r="B409" s="10"/>
-      <c r="D409" s="2"/>
+      <c r="D409" s="4"/>
       <c r="F409" s="10"/>
-      <c r="H409" s="2"/>
+      <c r="H409" s="4"/>
     </row>
     <row r="410">
       <c r="B410" s="10"/>
-      <c r="D410" s="2"/>
+      <c r="D410" s="4"/>
       <c r="F410" s="10"/>
-      <c r="H410" s="2"/>
+      <c r="H410" s="4"/>
     </row>
     <row r="411">
       <c r="B411" s="10"/>
-      <c r="D411" s="2"/>
+      <c r="D411" s="4"/>
       <c r="F411" s="10"/>
-      <c r="H411" s="2"/>
+      <c r="H411" s="4"/>
     </row>
     <row r="412">
       <c r="B412" s="10"/>
-      <c r="D412" s="2"/>
+      <c r="D412" s="4"/>
       <c r="F412" s="10"/>
-      <c r="H412" s="2"/>
+      <c r="H412" s="4"/>
     </row>
     <row r="413">
       <c r="B413" s="10"/>
-      <c r="D413" s="2"/>
+      <c r="D413" s="4"/>
       <c r="F413" s="10"/>
-      <c r="H413" s="2"/>
+      <c r="H413" s="4"/>
     </row>
     <row r="414">
       <c r="B414" s="10"/>
-      <c r="D414" s="2"/>
+      <c r="D414" s="4"/>
       <c r="F414" s="10"/>
-      <c r="H414" s="2"/>
+      <c r="H414" s="4"/>
     </row>
     <row r="415">
       <c r="B415" s="10"/>
-      <c r="D415" s="2"/>
+      <c r="D415" s="4"/>
       <c r="F415" s="10"/>
-      <c r="H415" s="2"/>
+      <c r="H415" s="4"/>
     </row>
     <row r="416">
       <c r="B416" s="10"/>
-      <c r="D416" s="2"/>
+      <c r="D416" s="4"/>
       <c r="F416" s="10"/>
-      <c r="H416" s="2"/>
+      <c r="H416" s="4"/>
     </row>
     <row r="417">
       <c r="B417" s="10"/>
-      <c r="D417" s="2"/>
+      <c r="D417" s="4"/>
       <c r="F417" s="10"/>
-      <c r="H417" s="2"/>
+      <c r="H417" s="4"/>
     </row>
     <row r="418">
       <c r="B418" s="10"/>
-      <c r="D418" s="2"/>
+      <c r="D418" s="4"/>
       <c r="F418" s="10"/>
-      <c r="H418" s="2"/>
+      <c r="H418" s="4"/>
     </row>
     <row r="419">
       <c r="B419" s="10"/>
-      <c r="D419" s="2"/>
+      <c r="D419" s="4"/>
       <c r="F419" s="10"/>
-      <c r="H419" s="2"/>
+      <c r="H419" s="4"/>
     </row>
     <row r="420">
       <c r="B420" s="10"/>
-      <c r="D420" s="2"/>
+      <c r="D420" s="4"/>
       <c r="F420" s="10"/>
-      <c r="H420" s="2"/>
+      <c r="H420" s="4"/>
     </row>
     <row r="421">
       <c r="B421" s="10"/>
-      <c r="D421" s="2"/>
+      <c r="D421" s="4"/>
       <c r="F421" s="10"/>
-      <c r="H421" s="2"/>
+      <c r="H421" s="4"/>
     </row>
     <row r="422">
       <c r="B422" s="10"/>
-      <c r="D422" s="2"/>
+      <c r="D422" s="4"/>
       <c r="F422" s="10"/>
-      <c r="H422" s="2"/>
+      <c r="H422" s="4"/>
     </row>
     <row r="423">
       <c r="B423" s="10"/>
-      <c r="D423" s="2"/>
+      <c r="D423" s="4"/>
       <c r="F423" s="10"/>
-      <c r="H423" s="2"/>
+      <c r="H423" s="4"/>
     </row>
     <row r="424">
       <c r="B424" s="10"/>
-      <c r="D424" s="2"/>
+      <c r="D424" s="4"/>
       <c r="F424" s="10"/>
-      <c r="H424" s="2"/>
+      <c r="H424" s="4"/>
     </row>
     <row r="425">
       <c r="B425" s="10"/>
-      <c r="D425" s="2"/>
+      <c r="D425" s="4"/>
       <c r="F425" s="10"/>
-      <c r="H425" s="2"/>
+      <c r="H425" s="4"/>
     </row>
     <row r="426">
       <c r="B426" s="10"/>
-      <c r="D426" s="2"/>
+      <c r="D426" s="4"/>
       <c r="F426" s="10"/>
-      <c r="H426" s="2"/>
+      <c r="H426" s="4"/>
     </row>
     <row r="427">
       <c r="B427" s="10"/>
-      <c r="D427" s="2"/>
+      <c r="D427" s="4"/>
       <c r="F427" s="10"/>
-      <c r="H427" s="2"/>
+      <c r="H427" s="4"/>
     </row>
     <row r="428">
       <c r="B428" s="10"/>
-      <c r="D428" s="2"/>
+      <c r="D428" s="4"/>
       <c r="F428" s="10"/>
-      <c r="H428" s="2"/>
+      <c r="H428" s="4"/>
     </row>
     <row r="429">
       <c r="B429" s="10"/>
-      <c r="D429" s="2"/>
+      <c r="D429" s="4"/>
       <c r="F429" s="10"/>
-      <c r="H429" s="2"/>
+      <c r="H429" s="4"/>
     </row>
     <row r="430">
       <c r="B430" s="10"/>
-      <c r="D430" s="2"/>
+      <c r="D430" s="4"/>
       <c r="F430" s="10"/>
-      <c r="H430" s="2"/>
+      <c r="H430" s="4"/>
     </row>
     <row r="431">
       <c r="B431" s="10"/>
-      <c r="D431" s="2"/>
+      <c r="D431" s="4"/>
       <c r="F431" s="10"/>
-      <c r="H431" s="2"/>
+      <c r="H431" s="4"/>
     </row>
     <row r="432">
       <c r="B432" s="10"/>
-      <c r="D432" s="2"/>
+      <c r="D432" s="4"/>
       <c r="F432" s="10"/>
-      <c r="H432" s="2"/>
+      <c r="H432" s="4"/>
     </row>
     <row r="433">
       <c r="B433" s="10"/>
-      <c r="D433" s="2"/>
+      <c r="D433" s="4"/>
       <c r="F433" s="10"/>
-      <c r="H433" s="2"/>
+      <c r="H433" s="4"/>
     </row>
     <row r="434">
       <c r="B434" s="10"/>
-      <c r="D434" s="2"/>
+      <c r="D434" s="4"/>
       <c r="F434" s="10"/>
-      <c r="H434" s="2"/>
+      <c r="H434" s="4"/>
     </row>
     <row r="435">
       <c r="B435" s="10"/>
-      <c r="D435" s="2"/>
+      <c r="D435" s="4"/>
       <c r="F435" s="10"/>
-      <c r="H435" s="2"/>
+      <c r="H435" s="4"/>
     </row>
     <row r="436">
       <c r="B436" s="10"/>
-      <c r="D436" s="2"/>
+      <c r="D436" s="4"/>
       <c r="F436" s="10"/>
-      <c r="H436" s="2"/>
+      <c r="H436" s="4"/>
     </row>
     <row r="437">
       <c r="B437" s="10"/>
-      <c r="D437" s="2"/>
+      <c r="D437" s="4"/>
       <c r="F437" s="10"/>
-      <c r="H437" s="2"/>
+      <c r="H437" s="4"/>
     </row>
     <row r="438">
       <c r="B438" s="10"/>
-      <c r="D438" s="2"/>
+      <c r="D438" s="4"/>
       <c r="F438" s="10"/>
-      <c r="H438" s="2"/>
+      <c r="H438" s="4"/>
     </row>
     <row r="439">
       <c r="B439" s="10"/>
-      <c r="D439" s="2"/>
+      <c r="D439" s="4"/>
       <c r="F439" s="10"/>
-      <c r="H439" s="2"/>
+      <c r="H439" s="4"/>
     </row>
     <row r="440">
       <c r="B440" s="10"/>
-      <c r="D440" s="2"/>
+      <c r="D440" s="4"/>
       <c r="F440" s="10"/>
-      <c r="H440" s="2"/>
+      <c r="H440" s="4"/>
     </row>
     <row r="441">
       <c r="B441" s="10"/>
-      <c r="D441" s="2"/>
+      <c r="D441" s="4"/>
       <c r="F441" s="10"/>
-      <c r="H441" s="2"/>
+      <c r="H441" s="4"/>
     </row>
     <row r="442">
       <c r="B442" s="10"/>
-      <c r="D442" s="2"/>
+      <c r="D442" s="4"/>
       <c r="F442" s="10"/>
-      <c r="H442" s="2"/>
+      <c r="H442" s="4"/>
     </row>
     <row r="443">
       <c r="B443" s="10"/>
-      <c r="D443" s="2"/>
+      <c r="D443" s="4"/>
       <c r="F443" s="10"/>
-      <c r="H443" s="2"/>
+      <c r="H443" s="4"/>
     </row>
     <row r="444">
       <c r="B444" s="10"/>
-      <c r="D444" s="2"/>
+      <c r="D444" s="4"/>
       <c r="F444" s="10"/>
-      <c r="H444" s="2"/>
+      <c r="H444" s="4"/>
     </row>
     <row r="445">
       <c r="B445" s="10"/>
-      <c r="D445" s="2"/>
+      <c r="D445" s="4"/>
       <c r="F445" s="10"/>
-      <c r="H445" s="2"/>
+      <c r="H445" s="4"/>
     </row>
     <row r="446">
       <c r="B446" s="10"/>
-      <c r="D446" s="2"/>
+      <c r="D446" s="4"/>
       <c r="F446" s="10"/>
-      <c r="H446" s="2"/>
+      <c r="H446" s="4"/>
     </row>
     <row r="447">
       <c r="B447" s="10"/>
-      <c r="D447" s="2"/>
+      <c r="D447" s="4"/>
       <c r="F447" s="10"/>
-      <c r="H447" s="2"/>
+      <c r="H447" s="4"/>
     </row>
     <row r="448">
       <c r="B448" s="10"/>
-      <c r="D448" s="2"/>
+      <c r="D448" s="4"/>
       <c r="F448" s="10"/>
-      <c r="H448" s="2"/>
+      <c r="H448" s="4"/>
     </row>
     <row r="449">
       <c r="B449" s="10"/>
-      <c r="D449" s="2"/>
+      <c r="D449" s="4"/>
       <c r="F449" s="10"/>
-      <c r="H449" s="2"/>
+      <c r="H449" s="4"/>
     </row>
     <row r="450">
       <c r="B450" s="10"/>
-      <c r="D450" s="2"/>
+      <c r="D450" s="4"/>
       <c r="F450" s="10"/>
-      <c r="H450" s="2"/>
+      <c r="H450" s="4"/>
     </row>
     <row r="451">
       <c r="B451" s="10"/>
-      <c r="D451" s="2"/>
+      <c r="D451" s="4"/>
       <c r="F451" s="10"/>
-      <c r="H451" s="2"/>
+      <c r="H451" s="4"/>
     </row>
     <row r="452">
       <c r="B452" s="10"/>
-      <c r="D452" s="2"/>
+      <c r="D452" s="4"/>
       <c r="F452" s="10"/>
-      <c r="H452" s="2"/>
+      <c r="H452" s="4"/>
     </row>
     <row r="453">
       <c r="B453" s="10"/>
-      <c r="D453" s="2"/>
+      <c r="D453" s="4"/>
       <c r="F453" s="10"/>
-      <c r="H453" s="2"/>
+      <c r="H453" s="4"/>
     </row>
     <row r="454">
       <c r="B454" s="10"/>
-      <c r="D454" s="2"/>
+      <c r="D454" s="4"/>
       <c r="F454" s="10"/>
-      <c r="H454" s="2"/>
+      <c r="H454" s="4"/>
     </row>
     <row r="455">
       <c r="B455" s="10"/>
-      <c r="D455" s="2"/>
+      <c r="D455" s="4"/>
       <c r="F455" s="10"/>
-      <c r="H455" s="2"/>
+      <c r="H455" s="4"/>
     </row>
     <row r="456">
       <c r="B456" s="10"/>
-      <c r="D456" s="2"/>
+      <c r="D456" s="4"/>
       <c r="F456" s="10"/>
-      <c r="H456" s="2"/>
+      <c r="H456" s="4"/>
     </row>
     <row r="457">
       <c r="B457" s="10"/>
-      <c r="D457" s="2"/>
+      <c r="D457" s="4"/>
       <c r="F457" s="10"/>
-      <c r="H457" s="2"/>
+      <c r="H457" s="4"/>
     </row>
     <row r="458">
       <c r="B458" s="10"/>
-      <c r="D458" s="2"/>
+      <c r="D458" s="4"/>
       <c r="F458" s="10"/>
-      <c r="H458" s="2"/>
+      <c r="H458" s="4"/>
     </row>
     <row r="459">
       <c r="B459" s="10"/>
-      <c r="D459" s="2"/>
+      <c r="D459" s="4"/>
       <c r="F459" s="10"/>
-      <c r="H459" s="2"/>
+      <c r="H459" s="4"/>
     </row>
     <row r="460">
       <c r="B460" s="10"/>
-      <c r="D460" s="2"/>
+      <c r="D460" s="4"/>
       <c r="F460" s="10"/>
-      <c r="H460" s="2"/>
+      <c r="H460" s="4"/>
     </row>
     <row r="461">
       <c r="B461" s="10"/>
-      <c r="D461" s="2"/>
+      <c r="D461" s="4"/>
       <c r="F461" s="10"/>
-      <c r="H461" s="2"/>
+      <c r="H461" s="4"/>
     </row>
     <row r="462">
       <c r="B462" s="10"/>
-      <c r="D462" s="2"/>
+      <c r="D462" s="4"/>
       <c r="F462" s="10"/>
-      <c r="H462" s="2"/>
+      <c r="H462" s="4"/>
     </row>
     <row r="463">
       <c r="B463" s="10"/>
-      <c r="D463" s="2"/>
+      <c r="D463" s="4"/>
       <c r="F463" s="10"/>
-      <c r="H463" s="2"/>
+      <c r="H463" s="4"/>
     </row>
     <row r="464">
       <c r="B464" s="10"/>
-      <c r="D464" s="2"/>
+      <c r="D464" s="4"/>
       <c r="F464" s="10"/>
-      <c r="H464" s="2"/>
+      <c r="H464" s="4"/>
     </row>
     <row r="465">
       <c r="B465" s="10"/>
-      <c r="D465" s="2"/>
+      <c r="D465" s="4"/>
       <c r="F465" s="10"/>
-      <c r="H465" s="2"/>
+      <c r="H465" s="4"/>
     </row>
     <row r="466">
       <c r="B466" s="10"/>
-      <c r="D466" s="2"/>
+      <c r="D466" s="4"/>
       <c r="F466" s="10"/>
-      <c r="H466" s="2"/>
+      <c r="H466" s="4"/>
     </row>
     <row r="467">
       <c r="B467" s="10"/>
-      <c r="D467" s="2"/>
+      <c r="D467" s="4"/>
       <c r="F467" s="10"/>
-      <c r="H467" s="2"/>
+      <c r="H467" s="4"/>
     </row>
     <row r="468">
       <c r="B468" s="10"/>
-      <c r="D468" s="2"/>
+      <c r="D468" s="4"/>
       <c r="F468" s="10"/>
-      <c r="H468" s="2"/>
+      <c r="H468" s="4"/>
     </row>
     <row r="469">
       <c r="B469" s="10"/>
-      <c r="D469" s="2"/>
+      <c r="D469" s="4"/>
       <c r="F469" s="10"/>
-      <c r="H469" s="2"/>
+      <c r="H469" s="4"/>
     </row>
     <row r="470">
       <c r="B470" s="10"/>
-      <c r="D470" s="2"/>
+      <c r="D470" s="4"/>
       <c r="F470" s="10"/>
-      <c r="H470" s="2"/>
+      <c r="H470" s="4"/>
     </row>
     <row r="471">
       <c r="B471" s="10"/>
-      <c r="D471" s="2"/>
+      <c r="D471" s="4"/>
       <c r="F471" s="10"/>
-      <c r="H471" s="2"/>
+      <c r="H471" s="4"/>
     </row>
     <row r="472">
       <c r="B472" s="10"/>
-      <c r="D472" s="2"/>
+      <c r="D472" s="4"/>
       <c r="F472" s="10"/>
-      <c r="H472" s="2"/>
+      <c r="H472" s="4"/>
     </row>
     <row r="473">
       <c r="B473" s="10"/>
-      <c r="D473" s="2"/>
+      <c r="D473" s="4"/>
       <c r="F473" s="10"/>
-      <c r="H473" s="2"/>
+      <c r="H473" s="4"/>
     </row>
     <row r="474">
       <c r="B474" s="10"/>
-      <c r="D474" s="2"/>
+      <c r="D474" s="4"/>
       <c r="F474" s="10"/>
-      <c r="H474" s="2"/>
+      <c r="H474" s="4"/>
     </row>
     <row r="475">
       <c r="B475" s="10"/>
-      <c r="D475" s="2"/>
+      <c r="D475" s="4"/>
       <c r="F475" s="10"/>
-      <c r="H475" s="2"/>
+      <c r="H475" s="4"/>
     </row>
     <row r="476">
       <c r="B476" s="10"/>
-      <c r="D476" s="2"/>
+      <c r="D476" s="4"/>
       <c r="F476" s="10"/>
-      <c r="H476" s="2"/>
+      <c r="H476" s="4"/>
     </row>
     <row r="477">
       <c r="B477" s="10"/>
-      <c r="D477" s="2"/>
+      <c r="D477" s="4"/>
       <c r="F477" s="10"/>
-      <c r="H477" s="2"/>
+      <c r="H477" s="4"/>
     </row>
     <row r="478">
       <c r="B478" s="10"/>
-      <c r="D478" s="2"/>
+      <c r="D478" s="4"/>
       <c r="F478" s="10"/>
-      <c r="H478" s="2"/>
+      <c r="H478" s="4"/>
     </row>
     <row r="479">
       <c r="B479" s="10"/>
-      <c r="D479" s="2"/>
+      <c r="D479" s="4"/>
       <c r="F479" s="10"/>
-      <c r="H479" s="2"/>
+      <c r="H479" s="4"/>
     </row>
     <row r="480">
       <c r="B480" s="10"/>
-      <c r="D480" s="2"/>
+      <c r="D480" s="4"/>
       <c r="F480" s="10"/>
-      <c r="H480" s="2"/>
+      <c r="H480" s="4"/>
     </row>
     <row r="481">
       <c r="B481" s="10"/>
-      <c r="D481" s="2"/>
+      <c r="D481" s="4"/>
       <c r="F481" s="10"/>
-      <c r="H481" s="2"/>
+      <c r="H481" s="4"/>
     </row>
     <row r="482">
       <c r="B482" s="10"/>
-      <c r="D482" s="2"/>
+      <c r="D482" s="4"/>
       <c r="F482" s="10"/>
-      <c r="H482" s="2"/>
+      <c r="H482" s="4"/>
     </row>
     <row r="483">
       <c r="B483" s="10"/>
-      <c r="D483" s="2"/>
+      <c r="D483" s="4"/>
       <c r="F483" s="10"/>
-      <c r="H483" s="2"/>
+      <c r="H483" s="4"/>
     </row>
     <row r="484">
       <c r="B484" s="10"/>
-      <c r="D484" s="2"/>
+      <c r="D484" s="4"/>
       <c r="F484" s="10"/>
-      <c r="H484" s="2"/>
+      <c r="H484" s="4"/>
     </row>
     <row r="485">
       <c r="B485" s="10"/>
-      <c r="D485" s="2"/>
+      <c r="D485" s="4"/>
       <c r="F485" s="10"/>
-      <c r="H485" s="2"/>
+      <c r="H485" s="4"/>
     </row>
     <row r="486">
       <c r="B486" s="10"/>
-      <c r="D486" s="2"/>
+      <c r="D486" s="4"/>
       <c r="F486" s="10"/>
-      <c r="H486" s="2"/>
+      <c r="H486" s="4"/>
     </row>
     <row r="487">
       <c r="B487" s="10"/>
-      <c r="D487" s="2"/>
+      <c r="D487" s="4"/>
       <c r="F487" s="10"/>
-      <c r="H487" s="2"/>
+      <c r="H487" s="4"/>
     </row>
     <row r="488">
       <c r="B488" s="10"/>
-      <c r="D488" s="2"/>
+      <c r="D488" s="4"/>
       <c r="F488" s="10"/>
-      <c r="H488" s="2"/>
+      <c r="H488" s="4"/>
     </row>
     <row r="489">
       <c r="B489" s="10"/>
-      <c r="D489" s="2"/>
+      <c r="D489" s="4"/>
       <c r="F489" s="10"/>
-      <c r="H489" s="2"/>
+      <c r="H489" s="4"/>
     </row>
     <row r="490">
       <c r="B490" s="10"/>
-      <c r="D490" s="2"/>
+      <c r="D490" s="4"/>
       <c r="F490" s="10"/>
-      <c r="H490" s="2"/>
+      <c r="H490" s="4"/>
     </row>
     <row r="491">
       <c r="B491" s="10"/>
-      <c r="D491" s="2"/>
+      <c r="D491" s="4"/>
       <c r="F491" s="10"/>
-      <c r="H491" s="2"/>
+      <c r="H491" s="4"/>
     </row>
     <row r="492">
       <c r="B492" s="10"/>
-      <c r="D492" s="2"/>
+      <c r="D492" s="4"/>
       <c r="F492" s="10"/>
-      <c r="H492" s="2"/>
+      <c r="H492" s="4"/>
     </row>
     <row r="493">
       <c r="B493" s="10"/>
-      <c r="D493" s="2"/>
+      <c r="D493" s="4"/>
       <c r="F493" s="10"/>
-      <c r="H493" s="2"/>
+      <c r="H493" s="4"/>
     </row>
     <row r="494">
       <c r="B494" s="10"/>
-      <c r="D494" s="2"/>
+      <c r="D494" s="4"/>
       <c r="F494" s="10"/>
-      <c r="H494" s="2"/>
+      <c r="H494" s="4"/>
     </row>
     <row r="495">
       <c r="B495" s="10"/>
-      <c r="D495" s="2"/>
+      <c r="D495" s="4"/>
       <c r="F495" s="10"/>
-      <c r="H495" s="2"/>
+      <c r="H495" s="4"/>
     </row>
     <row r="496">
       <c r="B496" s="10"/>
-      <c r="D496" s="2"/>
+      <c r="D496" s="4"/>
       <c r="F496" s="10"/>
-      <c r="H496" s="2"/>
+      <c r="H496" s="4"/>
     </row>
     <row r="497">
       <c r="B497" s="10"/>
-      <c r="D497" s="2"/>
+      <c r="D497" s="4"/>
       <c r="F497" s="10"/>
-      <c r="H497" s="2"/>
+      <c r="H497" s="4"/>
     </row>
     <row r="498">
       <c r="B498" s="10"/>
-      <c r="D498" s="2"/>
+      <c r="D498" s="4"/>
       <c r="F498" s="10"/>
-      <c r="H498" s="2"/>
+      <c r="H498" s="4"/>
     </row>
     <row r="499">
       <c r="B499" s="10"/>
-      <c r="D499" s="2"/>
+      <c r="D499" s="4"/>
       <c r="F499" s="10"/>
-      <c r="H499" s="2"/>
+      <c r="H499" s="4"/>
     </row>
     <row r="500">
       <c r="B500" s="10"/>
-      <c r="D500" s="2"/>
+      <c r="D500" s="4"/>
       <c r="F500" s="10"/>
-      <c r="H500" s="2"/>
+      <c r="H500" s="4"/>
     </row>
     <row r="501">
       <c r="B501" s="10"/>
-      <c r="D501" s="2"/>
+      <c r="D501" s="4"/>
       <c r="F501" s="10"/>
-      <c r="H501" s="2"/>
+      <c r="H501" s="4"/>
     </row>
     <row r="502">
       <c r="B502" s="10"/>
-      <c r="D502" s="2"/>
+      <c r="D502" s="4"/>
       <c r="F502" s="10"/>
-      <c r="H502" s="2"/>
+      <c r="H502" s="4"/>
     </row>
     <row r="503">
       <c r="B503" s="10"/>
-      <c r="D503" s="2"/>
+      <c r="D503" s="4"/>
       <c r="F503" s="10"/>
-      <c r="H503" s="2"/>
+      <c r="H503" s="4"/>
     </row>
     <row r="504">
       <c r="B504" s="10"/>
-      <c r="D504" s="2"/>
+      <c r="D504" s="4"/>
       <c r="F504" s="10"/>
-      <c r="H504" s="2"/>
+      <c r="H504" s="4"/>
     </row>
     <row r="505">
       <c r="B505" s="10"/>
-      <c r="D505" s="2"/>
+      <c r="D505" s="4"/>
       <c r="F505" s="10"/>
-      <c r="H505" s="2"/>
+      <c r="H505" s="4"/>
     </row>
     <row r="506">
       <c r="B506" s="10"/>
-      <c r="D506" s="2"/>
+      <c r="D506" s="4"/>
       <c r="F506" s="10"/>
-      <c r="H506" s="2"/>
+      <c r="H506" s="4"/>
     </row>
     <row r="507">
       <c r="B507" s="10"/>
-      <c r="D507" s="2"/>
+      <c r="D507" s="4"/>
       <c r="F507" s="10"/>
-      <c r="H507" s="2"/>
+      <c r="H507" s="4"/>
     </row>
     <row r="508">
       <c r="B508" s="10"/>
-      <c r="D508" s="2"/>
+      <c r="D508" s="4"/>
       <c r="F508" s="10"/>
-      <c r="H508" s="2"/>
+      <c r="H508" s="4"/>
     </row>
     <row r="509">
       <c r="B509" s="10"/>
-      <c r="D509" s="2"/>
+      <c r="D509" s="4"/>
       <c r="F509" s="10"/>
-      <c r="H509" s="2"/>
+      <c r="H509" s="4"/>
     </row>
     <row r="510">
       <c r="B510" s="10"/>
-      <c r="D510" s="2"/>
+      <c r="D510" s="4"/>
       <c r="F510" s="10"/>
-      <c r="H510" s="2"/>
+      <c r="H510" s="4"/>
     </row>
     <row r="511">
       <c r="B511" s="10"/>
-      <c r="D511" s="2"/>
+      <c r="D511" s="4"/>
       <c r="F511" s="10"/>
-      <c r="H511" s="2"/>
+      <c r="H511" s="4"/>
     </row>
     <row r="512">
       <c r="B512" s="10"/>
-      <c r="D512" s="2"/>
+      <c r="D512" s="4"/>
       <c r="F512" s="10"/>
-      <c r="H512" s="2"/>
+      <c r="H512" s="4"/>
     </row>
     <row r="513">
       <c r="B513" s="10"/>
-      <c r="D513" s="2"/>
+      <c r="D513" s="4"/>
       <c r="F513" s="10"/>
-      <c r="H513" s="2"/>
+      <c r="H513" s="4"/>
     </row>
     <row r="514">
       <c r="B514" s="10"/>
-      <c r="D514" s="2"/>
+      <c r="D514" s="4"/>
       <c r="F514" s="10"/>
-      <c r="H514" s="2"/>
+      <c r="H514" s="4"/>
     </row>
     <row r="515">
       <c r="B515" s="10"/>
-      <c r="D515" s="2"/>
+      <c r="D515" s="4"/>
       <c r="F515" s="10"/>
-      <c r="H515" s="2"/>
+      <c r="H515" s="4"/>
     </row>
     <row r="516">
       <c r="B516" s="10"/>
-      <c r="D516" s="2"/>
+      <c r="D516" s="4"/>
       <c r="F516" s="10"/>
-      <c r="H516" s="2"/>
+      <c r="H516" s="4"/>
     </row>
     <row r="517">
       <c r="B517" s="10"/>
-      <c r="D517" s="2"/>
+      <c r="D517" s="4"/>
       <c r="F517" s="10"/>
-      <c r="H517" s="2"/>
+      <c r="H517" s="4"/>
     </row>
     <row r="518">
       <c r="B518" s="10"/>
-      <c r="D518" s="2"/>
+      <c r="D518" s="4"/>
       <c r="F518" s="10"/>
-      <c r="H518" s="2"/>
+      <c r="H518" s="4"/>
     </row>
     <row r="519">
       <c r="B519" s="10"/>
-      <c r="D519" s="2"/>
+      <c r="D519" s="4"/>
       <c r="F519" s="10"/>
-      <c r="H519" s="2"/>
+      <c r="H519" s="4"/>
     </row>
     <row r="520">
       <c r="B520" s="10"/>
-      <c r="D520" s="2"/>
+      <c r="D520" s="4"/>
       <c r="F520" s="10"/>
-      <c r="H520" s="2"/>
+      <c r="H520" s="4"/>
     </row>
     <row r="521">
       <c r="B521" s="10"/>
-      <c r="D521" s="2"/>
+      <c r="D521" s="4"/>
       <c r="F521" s="10"/>
-      <c r="H521" s="2"/>
+      <c r="H521" s="4"/>
     </row>
     <row r="522">
       <c r="B522" s="10"/>
-      <c r="D522" s="2"/>
+      <c r="D522" s="4"/>
       <c r="F522" s="10"/>
-      <c r="H522" s="2"/>
+      <c r="H522" s="4"/>
     </row>
     <row r="523">
       <c r="B523" s="10"/>
-      <c r="D523" s="2"/>
+      <c r="D523" s="4"/>
       <c r="F523" s="10"/>
-      <c r="H523" s="2"/>
+      <c r="H523" s="4"/>
     </row>
     <row r="524">
       <c r="B524" s="10"/>
-      <c r="D524" s="2"/>
+      <c r="D524" s="4"/>
       <c r="F524" s="10"/>
-      <c r="H524" s="2"/>
+      <c r="H524" s="4"/>
     </row>
     <row r="525">
       <c r="B525" s="10"/>
-      <c r="D525" s="2"/>
+      <c r="D525" s="4"/>
       <c r="F525" s="10"/>
-      <c r="H525" s="2"/>
+      <c r="H525" s="4"/>
     </row>
     <row r="526">
       <c r="B526" s="10"/>
-      <c r="D526" s="2"/>
+      <c r="D526" s="4"/>
       <c r="F526" s="10"/>
-      <c r="H526" s="2"/>
+      <c r="H526" s="4"/>
     </row>
     <row r="527">
       <c r="B527" s="10"/>
-      <c r="D527" s="2"/>
+      <c r="D527" s="4"/>
       <c r="F527" s="10"/>
-      <c r="H527" s="2"/>
+      <c r="H527" s="4"/>
     </row>
     <row r="528">
       <c r="B528" s="10"/>
-      <c r="D528" s="2"/>
+      <c r="D528" s="4"/>
       <c r="F528" s="10"/>
-      <c r="H528" s="2"/>
+      <c r="H528" s="4"/>
     </row>
     <row r="529">
       <c r="B529" s="10"/>
-      <c r="D529" s="2"/>
+      <c r="D529" s="4"/>
       <c r="F529" s="10"/>
-      <c r="H529" s="2"/>
+      <c r="H529" s="4"/>
     </row>
     <row r="530">
       <c r="B530" s="10"/>
-      <c r="D530" s="2"/>
+      <c r="D530" s="4"/>
       <c r="F530" s="10"/>
-      <c r="H530" s="2"/>
+      <c r="H530" s="4"/>
     </row>
     <row r="531">
       <c r="B531" s="10"/>
-      <c r="D531" s="2"/>
+      <c r="D531" s="4"/>
       <c r="F531" s="10"/>
-      <c r="H531" s="2"/>
+      <c r="H531" s="4"/>
     </row>
     <row r="532">
       <c r="B532" s="10"/>
-      <c r="D532" s="2"/>
+      <c r="D532" s="4"/>
       <c r="F532" s="10"/>
-      <c r="H532" s="2"/>
+      <c r="H532" s="4"/>
     </row>
     <row r="533">
       <c r="B533" s="10"/>
-      <c r="D533" s="2"/>
+      <c r="D533" s="4"/>
       <c r="F533" s="10"/>
-      <c r="H533" s="2"/>
+      <c r="H533" s="4"/>
     </row>
     <row r="534">
       <c r="B534" s="10"/>
-      <c r="D534" s="2"/>
+      <c r="D534" s="4"/>
       <c r="F534" s="10"/>
-      <c r="H534" s="2"/>
+      <c r="H534" s="4"/>
     </row>
     <row r="535">
       <c r="B535" s="10"/>
-      <c r="D535" s="2"/>
+      <c r="D535" s="4"/>
       <c r="F535" s="10"/>
-      <c r="H535" s="2"/>
+      <c r="H535" s="4"/>
     </row>
     <row r="536">
       <c r="B536" s="10"/>
-      <c r="D536" s="2"/>
+      <c r="D536" s="4"/>
       <c r="F536" s="10"/>
-      <c r="H536" s="2"/>
+      <c r="H536" s="4"/>
     </row>
     <row r="537">
       <c r="B537" s="10"/>
-      <c r="D537" s="2"/>
+      <c r="D537" s="4"/>
       <c r="F537" s="10"/>
-      <c r="H537" s="2"/>
+      <c r="H537" s="4"/>
     </row>
     <row r="538">
       <c r="B538" s="10"/>
-      <c r="D538" s="2"/>
+      <c r="D538" s="4"/>
       <c r="F538" s="10"/>
-      <c r="H538" s="2"/>
+      <c r="H538" s="4"/>
     </row>
     <row r="539">
       <c r="B539" s="10"/>
-      <c r="D539" s="2"/>
+      <c r="D539" s="4"/>
       <c r="F539" s="10"/>
-      <c r="H539" s="2"/>
+      <c r="H539" s="4"/>
     </row>
     <row r="540">
       <c r="B540" s="10"/>
-      <c r="D540" s="2"/>
+      <c r="D540" s="4"/>
       <c r="F540" s="10"/>
-      <c r="H540" s="2"/>
+      <c r="H540" s="4"/>
     </row>
     <row r="541">
       <c r="B541" s="10"/>
-      <c r="D541" s="2"/>
+      <c r="D541" s="4"/>
       <c r="F541" s="10"/>
-      <c r="H541" s="2"/>
+      <c r="H541" s="4"/>
     </row>
     <row r="542">
       <c r="B542" s="10"/>
-      <c r="D542" s="2"/>
+      <c r="D542" s="4"/>
       <c r="F542" s="10"/>
-      <c r="H542" s="2"/>
+      <c r="H542" s="4"/>
     </row>
     <row r="543">
       <c r="B543" s="10"/>
-      <c r="D543" s="2"/>
+      <c r="D543" s="4"/>
       <c r="F543" s="10"/>
-      <c r="H543" s="2"/>
+      <c r="H543" s="4"/>
     </row>
     <row r="544">
       <c r="B544" s="10"/>
-      <c r="D544" s="2"/>
+      <c r="D544" s="4"/>
       <c r="F544" s="10"/>
-      <c r="H544" s="2"/>
+      <c r="H544" s="4"/>
     </row>
     <row r="545">
       <c r="B545" s="10"/>
-      <c r="D545" s="2"/>
+      <c r="D545" s="4"/>
       <c r="F545" s="10"/>
-      <c r="H545" s="2"/>
+      <c r="H545" s="4"/>
     </row>
     <row r="546">
       <c r="B546" s="10"/>
-      <c r="D546" s="2"/>
+      <c r="D546" s="4"/>
       <c r="F546" s="10"/>
-      <c r="H546" s="2"/>
+      <c r="H546" s="4"/>
     </row>
     <row r="547">
       <c r="B547" s="10"/>
-      <c r="D547" s="2"/>
+      <c r="D547" s="4"/>
       <c r="F547" s="10"/>
-      <c r="H547" s="2"/>
+      <c r="H547" s="4"/>
     </row>
     <row r="548">
       <c r="B548" s="10"/>
-      <c r="D548" s="2"/>
+      <c r="D548" s="4"/>
       <c r="F548" s="10"/>
-      <c r="H548" s="2"/>
+      <c r="H548" s="4"/>
     </row>
     <row r="549">
       <c r="B549" s="10"/>
-      <c r="D549" s="2"/>
+      <c r="D549" s="4"/>
       <c r="F549" s="10"/>
-      <c r="H549" s="2"/>
+      <c r="H549" s="4"/>
     </row>
     <row r="550">
       <c r="B550" s="10"/>
-      <c r="D550" s="2"/>
+      <c r="D550" s="4"/>
       <c r="F550" s="10"/>
-      <c r="H550" s="2"/>
+      <c r="H550" s="4"/>
     </row>
     <row r="551">
       <c r="B551" s="10"/>
-      <c r="D551" s="2"/>
+      <c r="D551" s="4"/>
       <c r="F551" s="10"/>
-      <c r="H551" s="2"/>
+      <c r="H551" s="4"/>
     </row>
     <row r="552">
       <c r="B552" s="10"/>
-      <c r="D552" s="2"/>
+      <c r="D552" s="4"/>
       <c r="F552" s="10"/>
-      <c r="H552" s="2"/>
+      <c r="H552" s="4"/>
     </row>
     <row r="553">
       <c r="B553" s="10"/>
-      <c r="D553" s="2"/>
+      <c r="D553" s="4"/>
       <c r="F553" s="10"/>
-      <c r="H553" s="2"/>
+      <c r="H553" s="4"/>
     </row>
     <row r="554">
       <c r="B554" s="10"/>
-      <c r="D554" s="2"/>
+      <c r="D554" s="4"/>
       <c r="F554" s="10"/>
-      <c r="H554" s="2"/>
+      <c r="H554" s="4"/>
     </row>
     <row r="555">
       <c r="B555" s="10"/>
-      <c r="D555" s="2"/>
+      <c r="D555" s="4"/>
       <c r="F555" s="10"/>
-      <c r="H555" s="2"/>
+      <c r="H555" s="4"/>
     </row>
     <row r="556">
       <c r="B556" s="10"/>
-      <c r="D556" s="2"/>
+      <c r="D556" s="4"/>
       <c r="F556" s="10"/>
-      <c r="H556" s="2"/>
+      <c r="H556" s="4"/>
     </row>
     <row r="557">
       <c r="B557" s="10"/>
-      <c r="D557" s="2"/>
+      <c r="D557" s="4"/>
       <c r="F557" s="10"/>
-      <c r="H557" s="2"/>
+      <c r="H557" s="4"/>
     </row>
     <row r="558">
       <c r="B558" s="10"/>
-      <c r="D558" s="2"/>
+      <c r="D558" s="4"/>
       <c r="F558" s="10"/>
-      <c r="H558" s="2"/>
+      <c r="H558" s="4"/>
     </row>
     <row r="559">
       <c r="B559" s="10"/>
-      <c r="D559" s="2"/>
+      <c r="D559" s="4"/>
       <c r="F559" s="10"/>
-      <c r="H559" s="2"/>
+      <c r="H559" s="4"/>
     </row>
     <row r="560">
       <c r="B560" s="10"/>
-      <c r="D560" s="2"/>
+      <c r="D560" s="4"/>
       <c r="F560" s="10"/>
-      <c r="H560" s="2"/>
+      <c r="H560" s="4"/>
     </row>
     <row r="561">
       <c r="B561" s="10"/>
-      <c r="D561" s="2"/>
+      <c r="D561" s="4"/>
       <c r="F561" s="10"/>
-      <c r="H561" s="2"/>
+      <c r="H561" s="4"/>
     </row>
     <row r="562">
       <c r="B562" s="10"/>
-      <c r="D562" s="2"/>
+      <c r="D562" s="4"/>
       <c r="F562" s="10"/>
-      <c r="H562" s="2"/>
+      <c r="H562" s="4"/>
     </row>
     <row r="563">
       <c r="B563" s="10"/>
-      <c r="D563" s="2"/>
+      <c r="D563" s="4"/>
       <c r="F563" s="10"/>
-      <c r="H563" s="2"/>
+      <c r="H563" s="4"/>
     </row>
     <row r="564">
       <c r="B564" s="10"/>
-      <c r="D564" s="2"/>
+      <c r="D564" s="4"/>
       <c r="F564" s="10"/>
-      <c r="H564" s="2"/>
+      <c r="H564" s="4"/>
     </row>
     <row r="565">
       <c r="B565" s="10"/>
-      <c r="D565" s="2"/>
+      <c r="D565" s="4"/>
       <c r="F565" s="10"/>
-      <c r="H565" s="2"/>
+      <c r="H565" s="4"/>
     </row>
     <row r="566">
       <c r="B566" s="10"/>
-      <c r="D566" s="2"/>
+      <c r="D566" s="4"/>
       <c r="F566" s="10"/>
-      <c r="H566" s="2"/>
+      <c r="H566" s="4"/>
     </row>
     <row r="567">
       <c r="B567" s="10"/>
-      <c r="D567" s="2"/>
+      <c r="D567" s="4"/>
       <c r="F567" s="10"/>
-      <c r="H567" s="2"/>
+      <c r="H567" s="4"/>
     </row>
     <row r="568">
       <c r="B568" s="10"/>
-      <c r="D568" s="2"/>
+      <c r="D568" s="4"/>
       <c r="F568" s="10"/>
-      <c r="H568" s="2"/>
+      <c r="H568" s="4"/>
     </row>
     <row r="569">
       <c r="B569" s="10"/>
-      <c r="D569" s="2"/>
+      <c r="D569" s="4"/>
       <c r="F569" s="10"/>
-      <c r="H569" s="2"/>
+      <c r="H569" s="4"/>
     </row>
     <row r="570">
       <c r="B570" s="10"/>
-      <c r="D570" s="2"/>
+      <c r="D570" s="4"/>
       <c r="F570" s="10"/>
-      <c r="H570" s="2"/>
+      <c r="H570" s="4"/>
     </row>
     <row r="571">
       <c r="B571" s="10"/>
-      <c r="D571" s="2"/>
+      <c r="D571" s="4"/>
       <c r="F571" s="10"/>
-      <c r="H571" s="2"/>
+      <c r="H571" s="4"/>
     </row>
     <row r="572">
       <c r="B572" s="10"/>
-      <c r="D572" s="2"/>
+      <c r="D572" s="4"/>
       <c r="F572" s="10"/>
-      <c r="H572" s="2"/>
+      <c r="H572" s="4"/>
     </row>
     <row r="573">
       <c r="B573" s="10"/>
-      <c r="D573" s="2"/>
+      <c r="D573" s="4"/>
       <c r="F573" s="10"/>
-      <c r="H573" s="2"/>
+      <c r="H573" s="4"/>
     </row>
     <row r="574">
       <c r="B574" s="10"/>
-      <c r="D574" s="2"/>
+      <c r="D574" s="4"/>
       <c r="F574" s="10"/>
-      <c r="H574" s="2"/>
+      <c r="H574" s="4"/>
     </row>
     <row r="575">
       <c r="B575" s="10"/>
-      <c r="D575" s="2"/>
+      <c r="D575" s="4"/>
       <c r="F575" s="10"/>
-      <c r="H575" s="2"/>
+      <c r="H575" s="4"/>
     </row>
     <row r="576">
       <c r="B576" s="10"/>
-      <c r="D576" s="2"/>
+      <c r="D576" s="4"/>
       <c r="F576" s="10"/>
-      <c r="H576" s="2"/>
+      <c r="H576" s="4"/>
     </row>
     <row r="577">
       <c r="B577" s="10"/>
-      <c r="D577" s="2"/>
+      <c r="D577" s="4"/>
       <c r="F577" s="10"/>
-      <c r="H577" s="2"/>
+      <c r="H577" s="4"/>
     </row>
     <row r="578">
       <c r="B578" s="10"/>
-      <c r="D578" s="2"/>
+      <c r="D578" s="4"/>
       <c r="F578" s="10"/>
-      <c r="H578" s="2"/>
+      <c r="H578" s="4"/>
     </row>
     <row r="579">
       <c r="B579" s="10"/>
-      <c r="D579" s="2"/>
+      <c r="D579" s="4"/>
       <c r="F579" s="10"/>
-      <c r="H579" s="2"/>
+      <c r="H579" s="4"/>
     </row>
     <row r="580">
       <c r="B580" s="10"/>
-      <c r="D580" s="2"/>
+      <c r="D580" s="4"/>
       <c r="F580" s="10"/>
-      <c r="H580" s="2"/>
+      <c r="H580" s="4"/>
     </row>
     <row r="581">
       <c r="B581" s="10"/>
-      <c r="D581" s="2"/>
+      <c r="D581" s="4"/>
       <c r="F581" s="10"/>
-      <c r="H581" s="2"/>
+      <c r="H581" s="4"/>
     </row>
     <row r="582">
       <c r="B582" s="10"/>
-      <c r="D582" s="2"/>
+      <c r="D582" s="4"/>
       <c r="F582" s="10"/>
-      <c r="H582" s="2"/>
+      <c r="H582" s="4"/>
     </row>
     <row r="583">
       <c r="B583" s="10"/>
-      <c r="D583" s="2"/>
+      <c r="D583" s="4"/>
       <c r="F583" s="10"/>
-      <c r="H583" s="2"/>
+      <c r="H583" s="4"/>
     </row>
     <row r="584">
       <c r="B584" s="10"/>
-      <c r="D584" s="2"/>
+      <c r="D584" s="4"/>
       <c r="F584" s="10"/>
-      <c r="H584" s="2"/>
+      <c r="H584" s="4"/>
     </row>
     <row r="585">
       <c r="B585" s="10"/>
-      <c r="D585" s="2"/>
+      <c r="D585" s="4"/>
       <c r="F585" s="10"/>
-      <c r="H585" s="2"/>
+      <c r="H585" s="4"/>
     </row>
     <row r="586">
       <c r="B586" s="10"/>
-      <c r="D586" s="2"/>
+      <c r="D586" s="4"/>
       <c r="F586" s="10"/>
-      <c r="H586" s="2"/>
+      <c r="H586" s="4"/>
     </row>
     <row r="587">
       <c r="B587" s="10"/>
-      <c r="D587" s="2"/>
+      <c r="D587" s="4"/>
       <c r="F587" s="10"/>
-      <c r="H587" s="2"/>
+      <c r="H587" s="4"/>
     </row>
     <row r="588">
       <c r="B588" s="10"/>
-      <c r="D588" s="2"/>
+      <c r="D588" s="4"/>
       <c r="F588" s="10"/>
-      <c r="H588" s="2"/>
+      <c r="H588" s="4"/>
     </row>
     <row r="589">
       <c r="B589" s="10"/>
-      <c r="D589" s="2"/>
+      <c r="D589" s="4"/>
       <c r="F589" s="10"/>
-      <c r="H589" s="2"/>
+      <c r="H589" s="4"/>
     </row>
     <row r="590">
       <c r="B590" s="10"/>
-      <c r="D590" s="2"/>
+      <c r="D590" s="4"/>
       <c r="F590" s="10"/>
-      <c r="H590" s="2"/>
+      <c r="H590" s="4"/>
     </row>
     <row r="591">
       <c r="B591" s="10"/>
-      <c r="D591" s="2"/>
+      <c r="D591" s="4"/>
       <c r="F591" s="10"/>
-      <c r="H591" s="2"/>
+      <c r="H591" s="4"/>
     </row>
     <row r="592">
       <c r="B592" s="10"/>
-      <c r="D592" s="2"/>
+      <c r="D592" s="4"/>
       <c r="F592" s="10"/>
-      <c r="H592" s="2"/>
+      <c r="H592" s="4"/>
     </row>
     <row r="593">
       <c r="B593" s="10"/>
-      <c r="D593" s="2"/>
+      <c r="D593" s="4"/>
       <c r="F593" s="10"/>
-      <c r="H593" s="2"/>
+      <c r="H593" s="4"/>
     </row>
     <row r="594">
       <c r="B594" s="10"/>
-      <c r="D594" s="2"/>
+      <c r="D594" s="4"/>
       <c r="F594" s="10"/>
-      <c r="H594" s="2"/>
+      <c r="H594" s="4"/>
     </row>
     <row r="595">
       <c r="B595" s="10"/>
-      <c r="D595" s="2"/>
+      <c r="D595" s="4"/>
       <c r="F595" s="10"/>
-      <c r="H595" s="2"/>
+      <c r="H595" s="4"/>
     </row>
     <row r="596">
       <c r="B596" s="10"/>
-      <c r="D596" s="2"/>
+      <c r="D596" s="4"/>
       <c r="F596" s="10"/>
-      <c r="H596" s="2"/>
+      <c r="H596" s="4"/>
     </row>
     <row r="597">
       <c r="B597" s="10"/>
-      <c r="D597" s="2"/>
+      <c r="D597" s="4"/>
       <c r="F597" s="10"/>
-      <c r="H597" s="2"/>
+      <c r="H597" s="4"/>
     </row>
     <row r="598">
       <c r="B598" s="10"/>
-      <c r="D598" s="2"/>
+      <c r="D598" s="4"/>
       <c r="F598" s="10"/>
-      <c r="H598" s="2"/>
+      <c r="H598" s="4"/>
     </row>
     <row r="599">
       <c r="B599" s="10"/>
-      <c r="D599" s="2"/>
+      <c r="D599" s="4"/>
       <c r="F599" s="10"/>
-      <c r="H599" s="2"/>
+      <c r="H599" s="4"/>
     </row>
     <row r="600">
       <c r="B600" s="10"/>
-      <c r="D600" s="2"/>
+      <c r="D600" s="4"/>
       <c r="F600" s="10"/>
-      <c r="H600" s="2"/>
+      <c r="H600" s="4"/>
     </row>
     <row r="601">
       <c r="B601" s="10"/>
-      <c r="D601" s="2"/>
+      <c r="D601" s="4"/>
       <c r="F601" s="10"/>
-      <c r="H601" s="2"/>
+      <c r="H601" s="4"/>
     </row>
     <row r="602">
       <c r="B602" s="10"/>
-      <c r="D602" s="2"/>
+      <c r="D602" s="4"/>
       <c r="F602" s="10"/>
-      <c r="H602" s="2"/>
+      <c r="H602" s="4"/>
     </row>
     <row r="603">
       <c r="B603" s="10"/>
-      <c r="D603" s="2"/>
+      <c r="D603" s="4"/>
       <c r="F603" s="10"/>
-      <c r="H603" s="2"/>
+      <c r="H603" s="4"/>
     </row>
     <row r="604">
       <c r="B604" s="10"/>
-      <c r="D604" s="2"/>
+      <c r="D604" s="4"/>
       <c r="F604" s="10"/>
-      <c r="H604" s="2"/>
+      <c r="H604" s="4"/>
     </row>
     <row r="605">
       <c r="B605" s="10"/>
-      <c r="D605" s="2"/>
+      <c r="D605" s="4"/>
       <c r="F605" s="10"/>
-      <c r="H605" s="2"/>
+      <c r="H605" s="4"/>
     </row>
     <row r="606">
       <c r="B606" s="10"/>
-      <c r="D606" s="2"/>
+      <c r="D606" s="4"/>
       <c r="F606" s="10"/>
-      <c r="H606" s="2"/>
+      <c r="H606" s="4"/>
     </row>
     <row r="607">
       <c r="B607" s="10"/>
-      <c r="D607" s="2"/>
+      <c r="D607" s="4"/>
       <c r="F607" s="10"/>
-      <c r="H607" s="2"/>
+      <c r="H607" s="4"/>
     </row>
     <row r="608">
       <c r="B608" s="10"/>
-      <c r="D608" s="2"/>
+      <c r="D608" s="4"/>
       <c r="F608" s="10"/>
-      <c r="H608" s="2"/>
+      <c r="H608" s="4"/>
     </row>
     <row r="609">
       <c r="B609" s="10"/>
-      <c r="D609" s="2"/>
+      <c r="D609" s="4"/>
       <c r="F609" s="10"/>
-      <c r="H609" s="2"/>
+      <c r="H609" s="4"/>
     </row>
     <row r="610">
       <c r="B610" s="10"/>
-      <c r="D610" s="2"/>
+      <c r="D610" s="4"/>
       <c r="F610" s="10"/>
-      <c r="H610" s="2"/>
+      <c r="H610" s="4"/>
     </row>
     <row r="611">
       <c r="B611" s="10"/>
-      <c r="D611" s="2"/>
+      <c r="D611" s="4"/>
       <c r="F611" s="10"/>
-      <c r="H611" s="2"/>
+      <c r="H611" s="4"/>
     </row>
     <row r="612">
       <c r="B612" s="10"/>
-      <c r="D612" s="2"/>
+      <c r="D612" s="4"/>
       <c r="F612" s="10"/>
-      <c r="H612" s="2"/>
+      <c r="H612" s="4"/>
     </row>
     <row r="613">
       <c r="B613" s="10"/>
-      <c r="D613" s="2"/>
+      <c r="D613" s="4"/>
       <c r="F613" s="10"/>
-      <c r="H613" s="2"/>
+      <c r="H613" s="4"/>
     </row>
     <row r="614">
       <c r="B614" s="10"/>
-      <c r="D614" s="2"/>
+      <c r="D614" s="4"/>
       <c r="F614" s="10"/>
-      <c r="H614" s="2"/>
+      <c r="H614" s="4"/>
     </row>
     <row r="615">
       <c r="B615" s="10"/>
-      <c r="D615" s="2"/>
+      <c r="D615" s="4"/>
       <c r="F615" s="10"/>
-      <c r="H615" s="2"/>
+      <c r="H615" s="4"/>
     </row>
     <row r="616">
       <c r="B616" s="10"/>
-      <c r="D616" s="2"/>
+      <c r="D616" s="4"/>
       <c r="F616" s="10"/>
-      <c r="H616" s="2"/>
+      <c r="H616" s="4"/>
     </row>
     <row r="617">
       <c r="B617" s="10"/>
-      <c r="D617" s="2"/>
+      <c r="D617" s="4"/>
       <c r="F617" s="10"/>
-      <c r="H617" s="2"/>
+      <c r="H617" s="4"/>
     </row>
     <row r="618">
       <c r="B618" s="10"/>
-      <c r="D618" s="2"/>
+      <c r="D618" s="4"/>
       <c r="F618" s="10"/>
-      <c r="H618" s="2"/>
+      <c r="H618" s="4"/>
     </row>
     <row r="619">
       <c r="B619" s="10"/>
-      <c r="D619" s="2"/>
+      <c r="D619" s="4"/>
       <c r="F619" s="10"/>
-      <c r="H619" s="2"/>
+      <c r="H619" s="4"/>
     </row>
     <row r="620">
       <c r="B620" s="10"/>
-      <c r="D620" s="2"/>
+      <c r="D620" s="4"/>
       <c r="F620" s="10"/>
-      <c r="H620" s="2"/>
+      <c r="H620" s="4"/>
     </row>
     <row r="621">
       <c r="B621" s="10"/>
-      <c r="D621" s="2"/>
+      <c r="D621" s="4"/>
       <c r="F621" s="10"/>
-      <c r="H621" s="2"/>
+      <c r="H621" s="4"/>
     </row>
     <row r="622">
       <c r="B622" s="10"/>
-      <c r="D622" s="2"/>
+      <c r="D622" s="4"/>
       <c r="F622" s="10"/>
-      <c r="H622" s="2"/>
+      <c r="H622" s="4"/>
     </row>
     <row r="623">
       <c r="B623" s="10"/>
-      <c r="D623" s="2"/>
+      <c r="D623" s="4"/>
       <c r="F623" s="10"/>
-      <c r="H623" s="2"/>
+      <c r="H623" s="4"/>
     </row>
     <row r="624">
       <c r="B624" s="10"/>
-      <c r="D624" s="2"/>
+      <c r="D624" s="4"/>
       <c r="F624" s="10"/>
-      <c r="H624" s="2"/>
+      <c r="H624" s="4"/>
     </row>
     <row r="625">
       <c r="B625" s="10"/>
-      <c r="D625" s="2"/>
+      <c r="D625" s="4"/>
       <c r="F625" s="10"/>
-      <c r="H625" s="2"/>
+      <c r="H625" s="4"/>
     </row>
     <row r="626">
       <c r="B626" s="10"/>
-      <c r="D626" s="2"/>
+      <c r="D626" s="4"/>
       <c r="F626" s="10"/>
-      <c r="H626" s="2"/>
+      <c r="H626" s="4"/>
     </row>
     <row r="627">
       <c r="B627" s="10"/>
-      <c r="D627" s="2"/>
+      <c r="D627" s="4"/>
       <c r="F627" s="10"/>
-      <c r="H627" s="2"/>
+      <c r="H627" s="4"/>
     </row>
     <row r="628">
       <c r="B628" s="10"/>
-      <c r="D628" s="2"/>
+      <c r="D628" s="4"/>
       <c r="F628" s="10"/>
-      <c r="H628" s="2"/>
+      <c r="H628" s="4"/>
     </row>
     <row r="629">
       <c r="B629" s="10"/>
-      <c r="D629" s="2"/>
+      <c r="D629" s="4"/>
       <c r="F629" s="10"/>
-      <c r="H629" s="2"/>
+      <c r="H629" s="4"/>
     </row>
     <row r="630">
       <c r="B630" s="10"/>
-      <c r="D630" s="2"/>
+      <c r="D630" s="4"/>
       <c r="F630" s="10"/>
-      <c r="H630" s="2"/>
+      <c r="H630" s="4"/>
     </row>
     <row r="631">
       <c r="B631" s="10"/>
-      <c r="D631" s="2"/>
+      <c r="D631" s="4"/>
       <c r="F631" s="10"/>
-      <c r="H631" s="2"/>
+      <c r="H631" s="4"/>
     </row>
     <row r="632">
       <c r="B632" s="10"/>
-      <c r="D632" s="2"/>
+      <c r="D632" s="4"/>
       <c r="F632" s="10"/>
-      <c r="H632" s="2"/>
+      <c r="H632" s="4"/>
     </row>
     <row r="633">
       <c r="B633" s="10"/>
-      <c r="D633" s="2"/>
+      <c r="D633" s="4"/>
       <c r="F633" s="10"/>
-      <c r="H633" s="2"/>
+      <c r="H633" s="4"/>
     </row>
     <row r="634">
       <c r="B634" s="10"/>
-      <c r="D634" s="2"/>
+      <c r="D634" s="4"/>
       <c r="F634" s="10"/>
-      <c r="H634" s="2"/>
+      <c r="H634" s="4"/>
     </row>
     <row r="635">
       <c r="B635" s="10"/>
-      <c r="D635" s="2"/>
+      <c r="D635" s="4"/>
       <c r="F635" s="10"/>
-      <c r="H635" s="2"/>
+      <c r="H635" s="4"/>
     </row>
     <row r="636">
       <c r="B636" s="10"/>
-      <c r="D636" s="2"/>
+      <c r="D636" s="4"/>
       <c r="F636" s="10"/>
-      <c r="H636" s="2"/>
+      <c r="H636" s="4"/>
     </row>
     <row r="637">
       <c r="B637" s="10"/>
-      <c r="D637" s="2"/>
+      <c r="D637" s="4"/>
       <c r="F637" s="10"/>
-      <c r="H637" s="2"/>
+      <c r="H637" s="4"/>
     </row>
     <row r="638">
       <c r="B638" s="10"/>
-      <c r="D638" s="2"/>
+      <c r="D638" s="4"/>
       <c r="F638" s="10"/>
-      <c r="H638" s="2"/>
+      <c r="H638" s="4"/>
     </row>
     <row r="639">
       <c r="B639" s="10"/>
-      <c r="D639" s="2"/>
+      <c r="D639" s="4"/>
       <c r="F639" s="10"/>
-      <c r="H639" s="2"/>
+      <c r="H639" s="4"/>
     </row>
     <row r="640">
       <c r="B640" s="10"/>
-      <c r="D640" s="2"/>
+      <c r="D640" s="4"/>
       <c r="F640" s="10"/>
-      <c r="H640" s="2"/>
+      <c r="H640" s="4"/>
     </row>
     <row r="641">
       <c r="B641" s="10"/>
-      <c r="D641" s="2"/>
+      <c r="D641" s="4"/>
       <c r="F641" s="10"/>
-      <c r="H641" s="2"/>
+      <c r="H641" s="4"/>
     </row>
     <row r="642">
       <c r="B642" s="10"/>
-      <c r="D642" s="2"/>
+      <c r="D642" s="4"/>
       <c r="F642" s="10"/>
-      <c r="H642" s="2"/>
+      <c r="H642" s="4"/>
     </row>
     <row r="643">
       <c r="B643" s="10"/>
-      <c r="D643" s="2"/>
+      <c r="D643" s="4"/>
       <c r="F643" s="10"/>
-      <c r="H643" s="2"/>
+      <c r="H643" s="4"/>
     </row>
     <row r="644">
       <c r="B644" s="10"/>
-      <c r="D644" s="2"/>
+      <c r="D644" s="4"/>
       <c r="F644" s="10"/>
-      <c r="H644" s="2"/>
+      <c r="H644" s="4"/>
     </row>
     <row r="645">
       <c r="B645" s="10"/>
-      <c r="D645" s="2"/>
+      <c r="D645" s="4"/>
       <c r="F645" s="10"/>
-      <c r="H645" s="2"/>
+      <c r="H645" s="4"/>
     </row>
     <row r="646">
       <c r="B646" s="10"/>
-      <c r="D646" s="2"/>
+      <c r="D646" s="4"/>
       <c r="F646" s="10"/>
-      <c r="H646" s="2"/>
+      <c r="H646" s="4"/>
     </row>
     <row r="647">
       <c r="B647" s="10"/>
-      <c r="D647" s="2"/>
+      <c r="D647" s="4"/>
       <c r="F647" s="10"/>
-      <c r="H647" s="2"/>
+      <c r="H647" s="4"/>
     </row>
     <row r="648">
       <c r="B648" s="10"/>
-      <c r="D648" s="2"/>
+      <c r="D648" s="4"/>
       <c r="F648" s="10"/>
-      <c r="H648" s="2"/>
+      <c r="H648" s="4"/>
     </row>
     <row r="649">
       <c r="B649" s="10"/>
-      <c r="D649" s="2"/>
+      <c r="D649" s="4"/>
       <c r="F649" s="10"/>
-      <c r="H649" s="2"/>
+      <c r="H649" s="4"/>
     </row>
     <row r="650">
       <c r="B650" s="10"/>
-      <c r="D650" s="2"/>
+      <c r="D650" s="4"/>
       <c r="F650" s="10"/>
-      <c r="H650" s="2"/>
+      <c r="H650" s="4"/>
     </row>
     <row r="651">
       <c r="B651" s="10"/>
-      <c r="D651" s="2"/>
+      <c r="D651" s="4"/>
       <c r="F651" s="10"/>
-      <c r="H651" s="2"/>
+      <c r="H651" s="4"/>
     </row>
     <row r="652">
       <c r="B652" s="10"/>
-      <c r="D652" s="2"/>
+      <c r="D652" s="4"/>
       <c r="F652" s="10"/>
-      <c r="H652" s="2"/>
+      <c r="H652" s="4"/>
     </row>
     <row r="653">
       <c r="B653" s="10"/>
-      <c r="D653" s="2"/>
+      <c r="D653" s="4"/>
       <c r="F653" s="10"/>
-      <c r="H653" s="2"/>
+      <c r="H653" s="4"/>
     </row>
     <row r="654">
       <c r="B654" s="10"/>
-      <c r="D654" s="2"/>
+      <c r="D654" s="4"/>
       <c r="F654" s="10"/>
-      <c r="H654" s="2"/>
+      <c r="H654" s="4"/>
     </row>
     <row r="655">
       <c r="B655" s="10"/>
-      <c r="D655" s="2"/>
+      <c r="D655" s="4"/>
       <c r="F655" s="10"/>
-      <c r="H655" s="2"/>
+      <c r="H655" s="4"/>
     </row>
     <row r="656">
       <c r="B656" s="10"/>
-      <c r="D656" s="2"/>
+      <c r="D656" s="4"/>
       <c r="F656" s="10"/>
-      <c r="H656" s="2"/>
+      <c r="H656" s="4"/>
     </row>
     <row r="657">
       <c r="B657" s="10"/>
-      <c r="D657" s="2"/>
+      <c r="D657" s="4"/>
       <c r="F657" s="10"/>
-      <c r="H657" s="2"/>
+      <c r="H657" s="4"/>
     </row>
     <row r="658">
       <c r="B658" s="10"/>
-      <c r="D658" s="2"/>
+      <c r="D658" s="4"/>
       <c r="F658" s="10"/>
-      <c r="H658" s="2"/>
+      <c r="H658" s="4"/>
     </row>
     <row r="659">
       <c r="B659" s="10"/>
-      <c r="D659" s="2"/>
+      <c r="D659" s="4"/>
       <c r="F659" s="10"/>
-      <c r="H659" s="2"/>
+      <c r="H659" s="4"/>
     </row>
     <row r="660">
       <c r="B660" s="10"/>
-      <c r="D660" s="2"/>
+      <c r="D660" s="4"/>
       <c r="F660" s="10"/>
-      <c r="H660" s="2"/>
+      <c r="H660" s="4"/>
     </row>
     <row r="661">
       <c r="B661" s="10"/>
-      <c r="D661" s="2"/>
+      <c r="D661" s="4"/>
       <c r="F661" s="10"/>
-      <c r="H661" s="2"/>
+      <c r="H661" s="4"/>
     </row>
     <row r="662">
       <c r="B662" s="10"/>
-      <c r="D662" s="2"/>
+      <c r="D662" s="4"/>
       <c r="F662" s="10"/>
-      <c r="H662" s="2"/>
+      <c r="H662" s="4"/>
     </row>
     <row r="663">
       <c r="B663" s="10"/>
-      <c r="D663" s="2"/>
+      <c r="D663" s="4"/>
       <c r="F663" s="10"/>
-      <c r="H663" s="2"/>
+      <c r="H663" s="4"/>
     </row>
     <row r="664">
       <c r="B664" s="10"/>
-      <c r="D664" s="2"/>
+      <c r="D664" s="4"/>
       <c r="F664" s="10"/>
-      <c r="H664" s="2"/>
+      <c r="H664" s="4"/>
     </row>
     <row r="665">
       <c r="B665" s="10"/>
-      <c r="D665" s="2"/>
+      <c r="D665" s="4"/>
       <c r="F665" s="10"/>
-      <c r="H665" s="2"/>
+      <c r="H665" s="4"/>
     </row>
     <row r="666">
       <c r="B666" s="10"/>
-      <c r="D666" s="2"/>
+      <c r="D666" s="4"/>
       <c r="F666" s="10"/>
-      <c r="H666" s="2"/>
+      <c r="H666" s="4"/>
     </row>
     <row r="667">
       <c r="B667" s="10"/>
-      <c r="D667" s="2"/>
+      <c r="D667" s="4"/>
       <c r="F667" s="10"/>
-      <c r="H667" s="2"/>
+      <c r="H667" s="4"/>
     </row>
     <row r="668">
       <c r="B668" s="10"/>
-      <c r="D668" s="2"/>
+      <c r="D668" s="4"/>
       <c r="F668" s="10"/>
-      <c r="H668" s="2"/>
+      <c r="H668" s="4"/>
     </row>
     <row r="669">
       <c r="B669" s="10"/>
-      <c r="D669" s="2"/>
+      <c r="D669" s="4"/>
       <c r="F669" s="10"/>
-      <c r="H669" s="2"/>
+      <c r="H669" s="4"/>
     </row>
     <row r="670">
       <c r="B670" s="10"/>
-      <c r="D670" s="2"/>
+      <c r="D670" s="4"/>
       <c r="F670" s="10"/>
-      <c r="H670" s="2"/>
+      <c r="H670" s="4"/>
     </row>
     <row r="671">
       <c r="B671" s="10"/>
-      <c r="D671" s="2"/>
+      <c r="D671" s="4"/>
       <c r="F671" s="10"/>
-      <c r="H671" s="2"/>
+      <c r="H671" s="4"/>
     </row>
     <row r="672">
       <c r="B672" s="10"/>
-      <c r="D672" s="2"/>
+      <c r="D672" s="4"/>
       <c r="F672" s="10"/>
-      <c r="H672" s="2"/>
+      <c r="H672" s="4"/>
     </row>
     <row r="673">
       <c r="B673" s="10"/>
-      <c r="D673" s="2"/>
+      <c r="D673" s="4"/>
       <c r="F673" s="10"/>
-      <c r="H673" s="2"/>
+      <c r="H673" s="4"/>
     </row>
     <row r="674">
       <c r="B674" s="10"/>
-      <c r="D674" s="2"/>
+      <c r="D674" s="4"/>
       <c r="F674" s="10"/>
-      <c r="H674" s="2"/>
+      <c r="H674" s="4"/>
     </row>
     <row r="675">
       <c r="B675" s="10"/>
-      <c r="D675" s="2"/>
+      <c r="D675" s="4"/>
       <c r="F675" s="10"/>
-      <c r="H675" s="2"/>
+      <c r="H675" s="4"/>
     </row>
     <row r="676">
       <c r="B676" s="10"/>
-      <c r="D676" s="2"/>
+      <c r="D676" s="4"/>
       <c r="F676" s="10"/>
-      <c r="H676" s="2"/>
+      <c r="H676" s="4"/>
     </row>
     <row r="677">
       <c r="B677" s="10"/>
-      <c r="D677" s="2"/>
+      <c r="D677" s="4"/>
       <c r="F677" s="10"/>
-      <c r="H677" s="2"/>
+      <c r="H677" s="4"/>
     </row>
     <row r="678">
       <c r="B678" s="10"/>
-      <c r="D678" s="2"/>
+      <c r="D678" s="4"/>
       <c r="F678" s="10"/>
-      <c r="H678" s="2"/>
+      <c r="H678" s="4"/>
     </row>
     <row r="679">
       <c r="B679" s="10"/>
-      <c r="D679" s="2"/>
+      <c r="D679" s="4"/>
       <c r="F679" s="10"/>
-      <c r="H679" s="2"/>
+      <c r="H679" s="4"/>
     </row>
     <row r="680">
       <c r="B680" s="10"/>
-      <c r="D680" s="2"/>
+      <c r="D680" s="4"/>
       <c r="F680" s="10"/>
-      <c r="H680" s="2"/>
+      <c r="H680" s="4"/>
     </row>
     <row r="681">
       <c r="B681" s="10"/>
-      <c r="D681" s="2"/>
+      <c r="D681" s="4"/>
       <c r="F681" s="10"/>
-      <c r="H681" s="2"/>
+      <c r="H681" s="4"/>
     </row>
     <row r="682">
       <c r="B682" s="10"/>
-      <c r="D682" s="2"/>
+      <c r="D682" s="4"/>
       <c r="F682" s="10"/>
-      <c r="H682" s="2"/>
+      <c r="H682" s="4"/>
     </row>
     <row r="683">
       <c r="B683" s="10"/>
-      <c r="D683" s="2"/>
+      <c r="D683" s="4"/>
       <c r="F683" s="10"/>
-      <c r="H683" s="2"/>
+      <c r="H683" s="4"/>
     </row>
     <row r="684">
       <c r="B684" s="10"/>
-      <c r="D684" s="2"/>
+      <c r="D684" s="4"/>
       <c r="F684" s="10"/>
-      <c r="H684" s="2"/>
+      <c r="H684" s="4"/>
     </row>
     <row r="685">
       <c r="B685" s="10"/>
-      <c r="D685" s="2"/>
+      <c r="D685" s="4"/>
       <c r="F685" s="10"/>
-      <c r="H685" s="2"/>
+      <c r="H685" s="4"/>
     </row>
     <row r="686">
       <c r="B686" s="10"/>
-      <c r="D686" s="2"/>
+      <c r="D686" s="4"/>
       <c r="F686" s="10"/>
-      <c r="H686" s="2"/>
+      <c r="H686" s="4"/>
     </row>
     <row r="687">
       <c r="B687" s="10"/>
-      <c r="D687" s="2"/>
+      <c r="D687" s="4"/>
       <c r="F687" s="10"/>
-      <c r="H687" s="2"/>
+      <c r="H687" s="4"/>
     </row>
     <row r="688">
       <c r="B688" s="10"/>
-      <c r="D688" s="2"/>
+      <c r="D688" s="4"/>
       <c r="F688" s="10"/>
-      <c r="H688" s="2"/>
+      <c r="H688" s="4"/>
     </row>
     <row r="689">
       <c r="B689" s="10"/>
-      <c r="D689" s="2"/>
+      <c r="D689" s="4"/>
       <c r="F689" s="10"/>
-      <c r="H689" s="2"/>
+      <c r="H689" s="4"/>
     </row>
     <row r="690">
       <c r="B690" s="10"/>
-      <c r="D690" s="2"/>
+      <c r="D690" s="4"/>
       <c r="F690" s="10"/>
-      <c r="H690" s="2"/>
+      <c r="H690" s="4"/>
     </row>
     <row r="691">
       <c r="B691" s="10"/>
-      <c r="D691" s="2"/>
+      <c r="D691" s="4"/>
       <c r="F691" s="10"/>
-      <c r="H691" s="2"/>
+      <c r="H691" s="4"/>
     </row>
     <row r="692">
       <c r="B692" s="10"/>
-      <c r="D692" s="2"/>
+      <c r="D692" s="4"/>
       <c r="F692" s="10"/>
-      <c r="H692" s="2"/>
+      <c r="H692" s="4"/>
     </row>
     <row r="693">
       <c r="B693" s="10"/>
-      <c r="D693" s="2"/>
+      <c r="D693" s="4"/>
       <c r="F693" s="10"/>
-      <c r="H693" s="2"/>
+      <c r="H693" s="4"/>
     </row>
     <row r="694">
       <c r="B694" s="10"/>
-      <c r="D694" s="2"/>
+      <c r="D694" s="4"/>
       <c r="F694" s="10"/>
-      <c r="H694" s="2"/>
+      <c r="H694" s="4"/>
     </row>
     <row r="695">
       <c r="B695" s="10"/>
-      <c r="D695" s="2"/>
+      <c r="D695" s="4"/>
       <c r="F695" s="10"/>
-      <c r="H695" s="2"/>
+      <c r="H695" s="4"/>
     </row>
     <row r="696">
       <c r="B696" s="10"/>
-      <c r="D696" s="2"/>
+      <c r="D696" s="4"/>
       <c r="F696" s="10"/>
-      <c r="H696" s="2"/>
+      <c r="H696" s="4"/>
     </row>
     <row r="697">
       <c r="B697" s="10"/>
-      <c r="D697" s="2"/>
+      <c r="D697" s="4"/>
       <c r="F697" s="10"/>
-      <c r="H697" s="2"/>
+      <c r="H697" s="4"/>
     </row>
     <row r="698">
       <c r="B698" s="10"/>
-      <c r="D698" s="2"/>
+      <c r="D698" s="4"/>
       <c r="F698" s="10"/>
-      <c r="H698" s="2"/>
+      <c r="H698" s="4"/>
     </row>
     <row r="699">
       <c r="B699" s="10"/>
-      <c r="D699" s="2"/>
+      <c r="D699" s="4"/>
       <c r="F699" s="10"/>
-      <c r="H699" s="2"/>
+      <c r="H699" s="4"/>
     </row>
     <row r="700">
       <c r="B700" s="10"/>
-      <c r="D700" s="2"/>
+      <c r="D700" s="4"/>
       <c r="F700" s="10"/>
-      <c r="H700" s="2"/>
+      <c r="H700" s="4"/>
     </row>
     <row r="701">
       <c r="B701" s="10"/>
-      <c r="D701" s="2"/>
+      <c r="D701" s="4"/>
       <c r="F701" s="10"/>
-      <c r="H701" s="2"/>
+      <c r="H701" s="4"/>
     </row>
     <row r="702">
       <c r="B702" s="10"/>
-      <c r="D702" s="2"/>
+      <c r="D702" s="4"/>
       <c r="F702" s="10"/>
-      <c r="H702" s="2"/>
+      <c r="H702" s="4"/>
     </row>
     <row r="703">
       <c r="B703" s="10"/>
-      <c r="D703" s="2"/>
+      <c r="D703" s="4"/>
       <c r="F703" s="10"/>
-      <c r="H703" s="2"/>
+      <c r="H703" s="4"/>
     </row>
     <row r="704">
       <c r="B704" s="10"/>
-      <c r="D704" s="2"/>
+      <c r="D704" s="4"/>
       <c r="F704" s="10"/>
-      <c r="H704" s="2"/>
+      <c r="H704" s="4"/>
     </row>
     <row r="705">
       <c r="B705" s="10"/>
-      <c r="D705" s="2"/>
+      <c r="D705" s="4"/>
       <c r="F705" s="10"/>
-      <c r="H705" s="2"/>
+      <c r="H705" s="4"/>
     </row>
     <row r="706">
       <c r="B706" s="10"/>
-      <c r="D706" s="2"/>
+      <c r="D706" s="4"/>
       <c r="F706" s="10"/>
-      <c r="H706" s="2"/>
+      <c r="H706" s="4"/>
     </row>
     <row r="707">
       <c r="B707" s="10"/>
-      <c r="D707" s="2"/>
+      <c r="D707" s="4"/>
       <c r="F707" s="10"/>
-      <c r="H707" s="2"/>
+      <c r="H707" s="4"/>
     </row>
     <row r="708">
       <c r="B708" s="10"/>
-      <c r="D708" s="2"/>
+      <c r="D708" s="4"/>
       <c r="F708" s="10"/>
-      <c r="H708" s="2"/>
+      <c r="H708" s="4"/>
     </row>
     <row r="709">
       <c r="B709" s="10"/>
-      <c r="D709" s="2"/>
+      <c r="D709" s="4"/>
       <c r="F709" s="10"/>
-      <c r="H709" s="2"/>
+      <c r="H709" s="4"/>
     </row>
     <row r="710">
       <c r="B710" s="10"/>
-      <c r="D710" s="2"/>
+      <c r="D710" s="4"/>
       <c r="F710" s="10"/>
-      <c r="H710" s="2"/>
+      <c r="H710" s="4"/>
     </row>
     <row r="711">
       <c r="B711" s="10"/>
-      <c r="D711" s="2"/>
+      <c r="D711" s="4"/>
       <c r="F711" s="10"/>
-      <c r="H711" s="2"/>
+      <c r="H711" s="4"/>
     </row>
     <row r="712">
       <c r="B712" s="10"/>
-      <c r="D712" s="2"/>
+      <c r="D712" s="4"/>
       <c r="F712" s="10"/>
-      <c r="H712" s="2"/>
+      <c r="H712" s="4"/>
     </row>
     <row r="713">
       <c r="B713" s="10"/>
-      <c r="D713" s="2"/>
+      <c r="D713" s="4"/>
       <c r="F713" s="10"/>
-      <c r="H713" s="2"/>
+      <c r="H713" s="4"/>
     </row>
     <row r="714">
       <c r="B714" s="10"/>
-      <c r="D714" s="2"/>
+      <c r="D714" s="4"/>
       <c r="F714" s="10"/>
-      <c r="H714" s="2"/>
+      <c r="H714" s="4"/>
     </row>
     <row r="715">
       <c r="B715" s="10"/>
-      <c r="D715" s="2"/>
+      <c r="D715" s="4"/>
       <c r="F715" s="10"/>
-      <c r="H715" s="2"/>
+      <c r="H715" s="4"/>
     </row>
     <row r="716">
       <c r="B716" s="10"/>
-      <c r="D716" s="2"/>
+      <c r="D716" s="4"/>
       <c r="F716" s="10"/>
-      <c r="H716" s="2"/>
+      <c r="H716" s="4"/>
     </row>
     <row r="717">
       <c r="B717" s="10"/>
-      <c r="D717" s="2"/>
+      <c r="D717" s="4"/>
       <c r="F717" s="10"/>
-      <c r="H717" s="2"/>
+      <c r="H717" s="4"/>
     </row>
     <row r="718">
       <c r="B718" s="10"/>
-      <c r="D718" s="2"/>
+      <c r="D718" s="4"/>
       <c r="F718" s="10"/>
-      <c r="H718" s="2"/>
+      <c r="H718" s="4"/>
     </row>
     <row r="719">
       <c r="B719" s="10"/>
-      <c r="D719" s="2"/>
+      <c r="D719" s="4"/>
       <c r="F719" s="10"/>
-      <c r="H719" s="2"/>
+      <c r="H719" s="4"/>
     </row>
     <row r="720">
       <c r="B720" s="10"/>
-      <c r="D720" s="2"/>
+      <c r="D720" s="4"/>
       <c r="F720" s="10"/>
-      <c r="H720" s="2"/>
+      <c r="H720" s="4"/>
     </row>
     <row r="721">
       <c r="B721" s="10"/>
-      <c r="D721" s="2"/>
+      <c r="D721" s="4"/>
       <c r="F721" s="10"/>
-      <c r="H721" s="2"/>
+      <c r="H721" s="4"/>
     </row>
     <row r="722">
       <c r="B722" s="10"/>
-      <c r="D722" s="2"/>
+      <c r="D722" s="4"/>
       <c r="F722" s="10"/>
-      <c r="H722" s="2"/>
+      <c r="H722" s="4"/>
     </row>
     <row r="723">
       <c r="B723" s="10"/>
-      <c r="D723" s="2"/>
+      <c r="D723" s="4"/>
       <c r="F723" s="10"/>
-      <c r="H723" s="2"/>
+      <c r="H723" s="4"/>
     </row>
     <row r="724">
       <c r="B724" s="10"/>
-      <c r="D724" s="2"/>
+      <c r="D724" s="4"/>
       <c r="F724" s="10"/>
-      <c r="H724" s="2"/>
+      <c r="H724" s="4"/>
     </row>
     <row r="725">
       <c r="B725" s="10"/>
-      <c r="D725" s="2"/>
+      <c r="D725" s="4"/>
       <c r="F725" s="10"/>
-      <c r="H725" s="2"/>
+      <c r="H725" s="4"/>
     </row>
     <row r="726">
       <c r="B726" s="10"/>
-      <c r="D726" s="2"/>
+      <c r="D726" s="4"/>
       <c r="F726" s="10"/>
-      <c r="H726" s="2"/>
+      <c r="H726" s="4"/>
     </row>
     <row r="727">
       <c r="B727" s="10"/>
-      <c r="D727" s="2"/>
+      <c r="D727" s="4"/>
       <c r="F727" s="10"/>
-      <c r="H727" s="2"/>
+      <c r="H727" s="4"/>
     </row>
     <row r="728">
       <c r="B728" s="10"/>
-      <c r="D728" s="2"/>
+      <c r="D728" s="4"/>
       <c r="F728" s="10"/>
-      <c r="H728" s="2"/>
+      <c r="H728" s="4"/>
     </row>
     <row r="729">
       <c r="B729" s="10"/>
-      <c r="D729" s="2"/>
+      <c r="D729" s="4"/>
       <c r="F729" s="10"/>
-      <c r="H729" s="2"/>
+      <c r="H729" s="4"/>
     </row>
     <row r="730">
       <c r="B730" s="10"/>
-      <c r="D730" s="2"/>
+      <c r="D730" s="4"/>
       <c r="F730" s="10"/>
-      <c r="H730" s="2"/>
+      <c r="H730" s="4"/>
     </row>
     <row r="731">
       <c r="B731" s="10"/>
-      <c r="D731" s="2"/>
+      <c r="D731" s="4"/>
       <c r="F731" s="10"/>
-      <c r="H731" s="2"/>
+      <c r="H731" s="4"/>
     </row>
     <row r="732">
       <c r="B732" s="10"/>
-      <c r="D732" s="2"/>
+      <c r="D732" s="4"/>
       <c r="F732" s="10"/>
-      <c r="H732" s="2"/>
+      <c r="H732" s="4"/>
     </row>
     <row r="733">
       <c r="B733" s="10"/>
-      <c r="D733" s="2"/>
+      <c r="D733" s="4"/>
       <c r="F733" s="10"/>
-      <c r="H733" s="2"/>
+      <c r="H733" s="4"/>
     </row>
     <row r="734">
       <c r="B734" s="10"/>
-      <c r="D734" s="2"/>
+      <c r="D734" s="4"/>
       <c r="F734" s="10"/>
-      <c r="H734" s="2"/>
+      <c r="H734" s="4"/>
     </row>
     <row r="735">
       <c r="B735" s="10"/>
-      <c r="D735" s="2"/>
+      <c r="D735" s="4"/>
       <c r="F735" s="10"/>
-      <c r="H735" s="2"/>
+      <c r="H735" s="4"/>
     </row>
     <row r="736">
       <c r="B736" s="10"/>
-      <c r="D736" s="2"/>
+      <c r="D736" s="4"/>
       <c r="F736" s="10"/>
-      <c r="H736" s="2"/>
+      <c r="H736" s="4"/>
     </row>
     <row r="737">
       <c r="B737" s="10"/>
-      <c r="D737" s="2"/>
+      <c r="D737" s="4"/>
       <c r="F737" s="10"/>
-      <c r="H737" s="2"/>
+      <c r="H737" s="4"/>
     </row>
     <row r="738">
       <c r="B738" s="10"/>
-      <c r="D738" s="2"/>
+      <c r="D738" s="4"/>
       <c r="F738" s="10"/>
-      <c r="H738" s="2"/>
+      <c r="H738" s="4"/>
     </row>
     <row r="739">
       <c r="B739" s="10"/>
-      <c r="D739" s="2"/>
+      <c r="D739" s="4"/>
       <c r="F739" s="10"/>
-      <c r="H739" s="2"/>
+      <c r="H739" s="4"/>
     </row>
     <row r="740">
       <c r="B740" s="10"/>
-      <c r="D740" s="2"/>
+      <c r="D740" s="4"/>
       <c r="F740" s="10"/>
-      <c r="H740" s="2"/>
+      <c r="H740" s="4"/>
     </row>
     <row r="741">
       <c r="B741" s="10"/>
-      <c r="D741" s="2"/>
+      <c r="D741" s="4"/>
       <c r="F741" s="10"/>
-      <c r="H741" s="2"/>
+      <c r="H741" s="4"/>
     </row>
     <row r="742">
       <c r="B742" s="10"/>
-      <c r="D742" s="2"/>
+      <c r="D742" s="4"/>
       <c r="F742" s="10"/>
-      <c r="H742" s="2"/>
+      <c r="H742" s="4"/>
     </row>
     <row r="743">
       <c r="B743" s="10"/>
-      <c r="D743" s="2"/>
+      <c r="D743" s="4"/>
       <c r="F743" s="10"/>
-      <c r="H743" s="2"/>
+      <c r="H743" s="4"/>
     </row>
     <row r="744">
       <c r="B744" s="10"/>
-      <c r="D744" s="2"/>
+      <c r="D744" s="4"/>
       <c r="F744" s="10"/>
-      <c r="H744" s="2"/>
+      <c r="H744" s="4"/>
     </row>
     <row r="745">
       <c r="B745" s="10"/>
-      <c r="D745" s="2"/>
+      <c r="D745" s="4"/>
       <c r="F745" s="10"/>
-      <c r="H745" s="2"/>
+      <c r="H745" s="4"/>
     </row>
     <row r="746">
       <c r="B746" s="10"/>
-      <c r="D746" s="2"/>
+      <c r="D746" s="4"/>
       <c r="F746" s="10"/>
-      <c r="H746" s="2"/>
+      <c r="H746" s="4"/>
     </row>
     <row r="747">
       <c r="B747" s="10"/>
-      <c r="D747" s="2"/>
+      <c r="D747" s="4"/>
       <c r="F747" s="10"/>
-      <c r="H747" s="2"/>
+      <c r="H747" s="4"/>
     </row>
     <row r="748">
       <c r="B748" s="10"/>
-      <c r="D748" s="2"/>
+      <c r="D748" s="4"/>
       <c r="F748" s="10"/>
-      <c r="H748" s="2"/>
+      <c r="H748" s="4"/>
     </row>
     <row r="749">
       <c r="B749" s="10"/>
-      <c r="D749" s="2"/>
+      <c r="D749" s="4"/>
       <c r="F749" s="10"/>
-      <c r="H749" s="2"/>
+      <c r="H749" s="4"/>
     </row>
     <row r="750">
       <c r="B750" s="10"/>
-      <c r="D750" s="2"/>
+      <c r="D750" s="4"/>
       <c r="F750" s="10"/>
-      <c r="H750" s="2"/>
+      <c r="H750" s="4"/>
     </row>
     <row r="751">
       <c r="B751" s="10"/>
-      <c r="D751" s="2"/>
+      <c r="D751" s="4"/>
       <c r="F751" s="10"/>
-      <c r="H751" s="2"/>
+      <c r="H751" s="4"/>
     </row>
     <row r="752">
       <c r="B752" s="10"/>
-      <c r="D752" s="2"/>
+      <c r="D752" s="4"/>
       <c r="F752" s="10"/>
-      <c r="H752" s="2"/>
+      <c r="H752" s="4"/>
     </row>
     <row r="753">
       <c r="B753" s="10"/>
-      <c r="D753" s="2"/>
+      <c r="D753" s="4"/>
       <c r="F753" s="10"/>
-      <c r="H753" s="2"/>
+      <c r="H753" s="4"/>
     </row>
     <row r="754">
       <c r="B754" s="10"/>
-      <c r="D754" s="2"/>
+      <c r="D754" s="4"/>
       <c r="F754" s="10"/>
-      <c r="H754" s="2"/>
+      <c r="H754" s="4"/>
     </row>
     <row r="755">
       <c r="B755" s="10"/>
-      <c r="D755" s="2"/>
+      <c r="D755" s="4"/>
       <c r="F755" s="10"/>
-      <c r="H755" s="2"/>
+      <c r="H755" s="4"/>
     </row>
     <row r="756">
       <c r="B756" s="10"/>
-      <c r="D756" s="2"/>
+      <c r="D756" s="4"/>
       <c r="F756" s="10"/>
-      <c r="H756" s="2"/>
+      <c r="H756" s="4"/>
     </row>
     <row r="757">
       <c r="B757" s="10"/>
-      <c r="D757" s="2"/>
+      <c r="D757" s="4"/>
       <c r="F757" s="10"/>
-      <c r="H757" s="2"/>
+      <c r="H757" s="4"/>
     </row>
     <row r="758">
       <c r="B758" s="10"/>
-      <c r="D758" s="2"/>
+      <c r="D758" s="4"/>
       <c r="F758" s="10"/>
-      <c r="H758" s="2"/>
+      <c r="H758" s="4"/>
     </row>
     <row r="759">
       <c r="B759" s="10"/>
-      <c r="D759" s="2"/>
+      <c r="D759" s="4"/>
       <c r="F759" s="10"/>
-      <c r="H759" s="2"/>
+      <c r="H759" s="4"/>
     </row>
     <row r="760">
       <c r="B760" s="10"/>
-      <c r="D760" s="2"/>
+      <c r="D760" s="4"/>
       <c r="F760" s="10"/>
-      <c r="H760" s="2"/>
+      <c r="H760" s="4"/>
     </row>
     <row r="761">
       <c r="B761" s="10"/>
-      <c r="D761" s="2"/>
+      <c r="D761" s="4"/>
       <c r="F761" s="10"/>
-      <c r="H761" s="2"/>
+      <c r="H761" s="4"/>
     </row>
     <row r="762">
       <c r="B762" s="10"/>
-      <c r="D762" s="2"/>
+      <c r="D762" s="4"/>
       <c r="F762" s="10"/>
-      <c r="H762" s="2"/>
+      <c r="H762" s="4"/>
     </row>
     <row r="763">
       <c r="B763" s="10"/>
-      <c r="D763" s="2"/>
+      <c r="D763" s="4"/>
       <c r="F763" s="10"/>
-      <c r="H763" s="2"/>
+      <c r="H763" s="4"/>
     </row>
     <row r="764">
       <c r="B764" s="10"/>
-      <c r="D764" s="2"/>
+      <c r="D764" s="4"/>
       <c r="F764" s="10"/>
-      <c r="H764" s="2"/>
+      <c r="H764" s="4"/>
     </row>
     <row r="765">
       <c r="B765" s="10"/>
-      <c r="D765" s="2"/>
+      <c r="D765" s="4"/>
       <c r="F765" s="10"/>
-      <c r="H765" s="2"/>
+      <c r="H765" s="4"/>
     </row>
     <row r="766">
       <c r="B766" s="10"/>
-      <c r="D766" s="2"/>
+      <c r="D766" s="4"/>
       <c r="F766" s="10"/>
-      <c r="H766" s="2"/>
+      <c r="H766" s="4"/>
     </row>
     <row r="767">
       <c r="B767" s="10"/>
-      <c r="D767" s="2"/>
+      <c r="D767" s="4"/>
       <c r="F767" s="10"/>
-      <c r="H767" s="2"/>
+      <c r="H767" s="4"/>
     </row>
     <row r="768">
       <c r="B768" s="10"/>
-      <c r="D768" s="2"/>
+      <c r="D768" s="4"/>
       <c r="F768" s="10"/>
-      <c r="H768" s="2"/>
+      <c r="H768" s="4"/>
     </row>
     <row r="769">
       <c r="B769" s="10"/>
-      <c r="D769" s="2"/>
+      <c r="D769" s="4"/>
       <c r="F769" s="10"/>
-      <c r="H769" s="2"/>
+      <c r="H769" s="4"/>
     </row>
     <row r="770">
       <c r="B770" s="10"/>
-      <c r="D770" s="2"/>
+      <c r="D770" s="4"/>
       <c r="F770" s="10"/>
-      <c r="H770" s="2"/>
+      <c r="H770" s="4"/>
     </row>
     <row r="771">
       <c r="B771" s="10"/>
-      <c r="D771" s="2"/>
+      <c r="D771" s="4"/>
       <c r="F771" s="10"/>
-      <c r="H771" s="2"/>
+      <c r="H771" s="4"/>
     </row>
     <row r="772">
       <c r="B772" s="10"/>
-      <c r="D772" s="2"/>
+      <c r="D772" s="4"/>
       <c r="F772" s="10"/>
-      <c r="H772" s="2"/>
+      <c r="H772" s="4"/>
     </row>
     <row r="773">
       <c r="B773" s="10"/>
-      <c r="D773" s="2"/>
+      <c r="D773" s="4"/>
       <c r="F773" s="10"/>
-      <c r="H773" s="2"/>
+      <c r="H773" s="4"/>
     </row>
     <row r="774">
       <c r="B774" s="10"/>
-      <c r="D774" s="2"/>
+      <c r="D774" s="4"/>
       <c r="F774" s="10"/>
-      <c r="H774" s="2"/>
+      <c r="H774" s="4"/>
     </row>
     <row r="775">
       <c r="B775" s="10"/>
-      <c r="D775" s="2"/>
+      <c r="D775" s="4"/>
       <c r="F775" s="10"/>
-      <c r="H775" s="2"/>
+      <c r="H775" s="4"/>
     </row>
     <row r="776">
       <c r="B776" s="10"/>
-      <c r="D776" s="2"/>
+      <c r="D776" s="4"/>
       <c r="F776" s="10"/>
-      <c r="H776" s="2"/>
+      <c r="H776" s="4"/>
     </row>
     <row r="777">
       <c r="B777" s="10"/>
-      <c r="D777" s="2"/>
+      <c r="D777" s="4"/>
       <c r="F777" s="10"/>
-      <c r="H777" s="2"/>
+      <c r="H777" s="4"/>
     </row>
     <row r="778">
       <c r="B778" s="10"/>
-      <c r="D778" s="2"/>
+      <c r="D778" s="4"/>
       <c r="F778" s="10"/>
-      <c r="H778" s="2"/>
+      <c r="H778" s="4"/>
     </row>
     <row r="779">
       <c r="B779" s="10"/>
-      <c r="D779" s="2"/>
+      <c r="D779" s="4"/>
       <c r="F779" s="10"/>
-      <c r="H779" s="2"/>
+      <c r="H779" s="4"/>
     </row>
     <row r="780">
       <c r="B780" s="10"/>
-      <c r="D780" s="2"/>
+      <c r="D780" s="4"/>
       <c r="F780" s="10"/>
-      <c r="H780" s="2"/>
+      <c r="H780" s="4"/>
     </row>
     <row r="781">
       <c r="B781" s="10"/>
-      <c r="D781" s="2"/>
+      <c r="D781" s="4"/>
       <c r="F781" s="10"/>
-      <c r="H781" s="2"/>
+      <c r="H781" s="4"/>
     </row>
     <row r="782">
       <c r="B782" s="10"/>
-      <c r="D782" s="2"/>
+      <c r="D782" s="4"/>
       <c r="F782" s="10"/>
-      <c r="H782" s="2"/>
+      <c r="H782" s="4"/>
     </row>
     <row r="783">
       <c r="B783" s="10"/>
-      <c r="D783" s="2"/>
+      <c r="D783" s="4"/>
       <c r="F783" s="10"/>
-      <c r="H783" s="2"/>
+      <c r="H783" s="4"/>
     </row>
     <row r="784">
       <c r="B784" s="10"/>
-      <c r="D784" s="2"/>
+      <c r="D784" s="4"/>
       <c r="F784" s="10"/>
-      <c r="H784" s="2"/>
+      <c r="H784" s="4"/>
     </row>
     <row r="785">
       <c r="B785" s="10"/>
-      <c r="D785" s="2"/>
+      <c r="D785" s="4"/>
       <c r="F785" s="10"/>
-      <c r="H785" s="2"/>
+      <c r="H785" s="4"/>
     </row>
     <row r="786">
       <c r="B786" s="10"/>
-      <c r="D786" s="2"/>
+      <c r="D786" s="4"/>
       <c r="F786" s="10"/>
-      <c r="H786" s="2"/>
+      <c r="H786" s="4"/>
     </row>
     <row r="787">
       <c r="B787" s="10"/>
-      <c r="D787" s="2"/>
+      <c r="D787" s="4"/>
       <c r="F787" s="10"/>
-      <c r="H787" s="2"/>
+      <c r="H787" s="4"/>
     </row>
     <row r="788">
       <c r="B788" s="10"/>
-      <c r="D788" s="2"/>
+      <c r="D788" s="4"/>
       <c r="F788" s="10"/>
-      <c r="H788" s="2"/>
+      <c r="H788" s="4"/>
     </row>
     <row r="789">
       <c r="B789" s="10"/>
-      <c r="D789" s="2"/>
+      <c r="D789" s="4"/>
       <c r="F789" s="10"/>
-      <c r="H789" s="2"/>
+      <c r="H789" s="4"/>
     </row>
     <row r="790">
       <c r="B790" s="10"/>
-      <c r="D790" s="2"/>
+      <c r="D790" s="4"/>
       <c r="F790" s="10"/>
-      <c r="H790" s="2"/>
+      <c r="H790" s="4"/>
     </row>
     <row r="791">
       <c r="B791" s="10"/>
-      <c r="D791" s="2"/>
+      <c r="D791" s="4"/>
       <c r="F791" s="10"/>
-      <c r="H791" s="2"/>
+      <c r="H791" s="4"/>
     </row>
     <row r="792">
       <c r="B792" s="10"/>
-      <c r="D792" s="2"/>
+      <c r="D792" s="4"/>
       <c r="F792" s="10"/>
-      <c r="H792" s="2"/>
+      <c r="H792" s="4"/>
     </row>
     <row r="793">
       <c r="B793" s="10"/>
-      <c r="D793" s="2"/>
+      <c r="D793" s="4"/>
       <c r="F793" s="10"/>
-      <c r="H793" s="2"/>
+      <c r="H793" s="4"/>
     </row>
     <row r="794">
       <c r="B794" s="10"/>
-      <c r="D794" s="2"/>
+      <c r="D794" s="4"/>
       <c r="F794" s="10"/>
-      <c r="H794" s="2"/>
+      <c r="H794" s="4"/>
     </row>
     <row r="795">
       <c r="B795" s="10"/>
-      <c r="D795" s="2"/>
+      <c r="D795" s="4"/>
       <c r="F795" s="10"/>
-      <c r="H795" s="2"/>
+      <c r="H795" s="4"/>
     </row>
     <row r="796">
       <c r="B796" s="10"/>
-      <c r="D796" s="2"/>
+      <c r="D796" s="4"/>
       <c r="F796" s="10"/>
-      <c r="H796" s="2"/>
+      <c r="H796" s="4"/>
     </row>
     <row r="797">
       <c r="B797" s="10"/>
-      <c r="D797" s="2"/>
+      <c r="D797" s="4"/>
       <c r="F797" s="10"/>
-      <c r="H797" s="2"/>
+      <c r="H797" s="4"/>
     </row>
     <row r="798">
       <c r="B798" s="10"/>
-      <c r="D798" s="2"/>
+      <c r="D798" s="4"/>
       <c r="F798" s="10"/>
-      <c r="H798" s="2"/>
+      <c r="H798" s="4"/>
     </row>
     <row r="799">
       <c r="B799" s="10"/>
-      <c r="D799" s="2"/>
+      <c r="D799" s="4"/>
       <c r="F799" s="10"/>
-      <c r="H799" s="2"/>
+      <c r="H799" s="4"/>
     </row>
     <row r="800">
       <c r="B800" s="10"/>
-      <c r="D800" s="2"/>
+      <c r="D800" s="4"/>
       <c r="F800" s="10"/>
-      <c r="H800" s="2"/>
+      <c r="H800" s="4"/>
     </row>
     <row r="801">
       <c r="B801" s="10"/>
-      <c r="D801" s="2"/>
+      <c r="D801" s="4"/>
       <c r="F801" s="10"/>
-      <c r="H801" s="2"/>
+      <c r="H801" s="4"/>
     </row>
     <row r="802">
       <c r="B802" s="10"/>
-      <c r="D802" s="2"/>
+      <c r="D802" s="4"/>
       <c r="F802" s="10"/>
-      <c r="H802" s="2"/>
+      <c r="H802" s="4"/>
     </row>
     <row r="803">
       <c r="B803" s="10"/>
-      <c r="D803" s="2"/>
+      <c r="D803" s="4"/>
       <c r="F803" s="10"/>
-      <c r="H803" s="2"/>
+      <c r="H803" s="4"/>
     </row>
     <row r="804">
       <c r="B804" s="10"/>
-      <c r="D804" s="2"/>
+      <c r="D804" s="4"/>
       <c r="F804" s="10"/>
-      <c r="H804" s="2"/>
+      <c r="H804" s="4"/>
     </row>
     <row r="805">
       <c r="B805" s="10"/>
-      <c r="D805" s="2"/>
+      <c r="D805" s="4"/>
       <c r="F805" s="10"/>
-      <c r="H805" s="2"/>
+      <c r="H805" s="4"/>
     </row>
     <row r="806">
       <c r="B806" s="10"/>
-      <c r="D806" s="2"/>
+      <c r="D806" s="4"/>
       <c r="F806" s="10"/>
-      <c r="H806" s="2"/>
+      <c r="H806" s="4"/>
     </row>
     <row r="807">
       <c r="B807" s="10"/>
-      <c r="D807" s="2"/>
+      <c r="D807" s="4"/>
       <c r="F807" s="10"/>
-      <c r="H807" s="2"/>
+      <c r="H807" s="4"/>
     </row>
     <row r="808">
       <c r="B808" s="10"/>
-      <c r="D808" s="2"/>
+      <c r="D808" s="4"/>
       <c r="F808" s="10"/>
-      <c r="H808" s="2"/>
+      <c r="H808" s="4"/>
     </row>
     <row r="809">
       <c r="B809" s="10"/>
-      <c r="D809" s="2"/>
+      <c r="D809" s="4"/>
       <c r="F809" s="10"/>
-      <c r="H809" s="2"/>
+      <c r="H809" s="4"/>
     </row>
     <row r="810">
       <c r="B810" s="10"/>
-      <c r="D810" s="2"/>
+      <c r="D810" s="4"/>
       <c r="F810" s="10"/>
-      <c r="H810" s="2"/>
+      <c r="H810" s="4"/>
     </row>
     <row r="811">
       <c r="B811" s="10"/>
-      <c r="D811" s="2"/>
+      <c r="D811" s="4"/>
       <c r="F811" s="10"/>
-      <c r="H811" s="2"/>
+      <c r="H811" s="4"/>
     </row>
     <row r="812">
       <c r="B812" s="10"/>
-      <c r="D812" s="2"/>
+      <c r="D812" s="4"/>
       <c r="F812" s="10"/>
-      <c r="H812" s="2"/>
+      <c r="H812" s="4"/>
     </row>
     <row r="813">
       <c r="B813" s="10"/>
-      <c r="D813" s="2"/>
+      <c r="D813" s="4"/>
       <c r="F813" s="10"/>
-      <c r="H813" s="2"/>
+      <c r="H813" s="4"/>
     </row>
     <row r="814">
       <c r="B814" s="10"/>
-      <c r="D814" s="2"/>
+      <c r="D814" s="4"/>
       <c r="F814" s="10"/>
-      <c r="H814" s="2"/>
+      <c r="H814" s="4"/>
     </row>
     <row r="815">
       <c r="B815" s="10"/>
-      <c r="D815" s="2"/>
+      <c r="D815" s="4"/>
       <c r="F815" s="10"/>
-      <c r="H815" s="2"/>
+      <c r="H815" s="4"/>
     </row>
     <row r="816">
       <c r="B816" s="10"/>
-      <c r="D816" s="2"/>
+      <c r="D816" s="4"/>
       <c r="F816" s="10"/>
-      <c r="H816" s="2"/>
+      <c r="H816" s="4"/>
     </row>
     <row r="817">
       <c r="B817" s="10"/>
-      <c r="D817" s="2"/>
+      <c r="D817" s="4"/>
       <c r="F817" s="10"/>
-      <c r="H817" s="2"/>
+      <c r="H817" s="4"/>
     </row>
     <row r="818">
       <c r="B818" s="10"/>
-      <c r="D818" s="2"/>
+      <c r="D818" s="4"/>
       <c r="F818" s="10"/>
-      <c r="H818" s="2"/>
+      <c r="H818" s="4"/>
     </row>
     <row r="819">
       <c r="B819" s="10"/>
-      <c r="D819" s="2"/>
+      <c r="D819" s="4"/>
       <c r="F819" s="10"/>
-      <c r="H819" s="2"/>
+      <c r="H819" s="4"/>
     </row>
     <row r="820">
       <c r="B820" s="10"/>
-      <c r="D820" s="2"/>
+      <c r="D820" s="4"/>
       <c r="F820" s="10"/>
-      <c r="H820" s="2"/>
+      <c r="H820" s="4"/>
     </row>
     <row r="821">
       <c r="B821" s="10"/>
-      <c r="D821" s="2"/>
+      <c r="D821" s="4"/>
       <c r="F821" s="10"/>
-      <c r="H821" s="2"/>
+      <c r="H821" s="4"/>
     </row>
     <row r="822">
       <c r="B822" s="10"/>
-      <c r="D822" s="2"/>
+      <c r="D822" s="4"/>
       <c r="F822" s="10"/>
-      <c r="H822" s="2"/>
+      <c r="H822" s="4"/>
     </row>
     <row r="823">
       <c r="B823" s="10"/>
-      <c r="D823" s="2"/>
+      <c r="D823" s="4"/>
       <c r="F823" s="10"/>
-      <c r="H823" s="2"/>
+      <c r="H823" s="4"/>
     </row>
     <row r="824">
       <c r="B824" s="10"/>
-      <c r="D824" s="2"/>
+      <c r="D824" s="4"/>
       <c r="F824" s="10"/>
-      <c r="H824" s="2"/>
+      <c r="H824" s="4"/>
     </row>
     <row r="825">
       <c r="B825" s="10"/>
-      <c r="D825" s="2"/>
+      <c r="D825" s="4"/>
       <c r="F825" s="10"/>
-      <c r="H825" s="2"/>
+      <c r="H825" s="4"/>
     </row>
     <row r="826">
       <c r="B826" s="10"/>
-      <c r="D826" s="2"/>
+      <c r="D826" s="4"/>
       <c r="F826" s="10"/>
-      <c r="H826" s="2"/>
+      <c r="H826" s="4"/>
     </row>
     <row r="827">
       <c r="B827" s="10"/>
-      <c r="D827" s="2"/>
+      <c r="D827" s="4"/>
       <c r="F827" s="10"/>
-      <c r="H827" s="2"/>
+      <c r="H827" s="4"/>
     </row>
     <row r="828">
       <c r="B828" s="10"/>
-      <c r="D828" s="2"/>
+      <c r="D828" s="4"/>
       <c r="F828" s="10"/>
-      <c r="H828" s="2"/>
+      <c r="H828" s="4"/>
     </row>
     <row r="829">
       <c r="B829" s="10"/>
-      <c r="D829" s="2"/>
+      <c r="D829" s="4"/>
       <c r="F829" s="10"/>
-      <c r="H829" s="2"/>
+      <c r="H829" s="4"/>
     </row>
     <row r="830">
       <c r="B830" s="10"/>
-      <c r="D830" s="2"/>
+      <c r="D830" s="4"/>
       <c r="F830" s="10"/>
-      <c r="H830" s="2"/>
+      <c r="H830" s="4"/>
     </row>
     <row r="831">
       <c r="B831" s="10"/>
-      <c r="D831" s="2"/>
+      <c r="D831" s="4"/>
       <c r="F831" s="10"/>
-      <c r="H831" s="2"/>
+      <c r="H831" s="4"/>
     </row>
     <row r="832">
       <c r="B832" s="10"/>
-      <c r="D832" s="2"/>
+      <c r="D832" s="4"/>
       <c r="F832" s="10"/>
-      <c r="H832" s="2"/>
+      <c r="H832" s="4"/>
     </row>
     <row r="833">
       <c r="B833" s="10"/>
-      <c r="D833" s="2"/>
+      <c r="D833" s="4"/>
       <c r="F833" s="10"/>
-      <c r="H833" s="2"/>
+      <c r="H833" s="4"/>
     </row>
     <row r="834">
       <c r="B834" s="10"/>
-      <c r="D834" s="2"/>
+      <c r="D834" s="4"/>
       <c r="F834" s="10"/>
-      <c r="H834" s="2"/>
+      <c r="H834" s="4"/>
     </row>
     <row r="835">
       <c r="B835" s="10"/>
-      <c r="D835" s="2"/>
+      <c r="D835" s="4"/>
       <c r="F835" s="10"/>
-      <c r="H835" s="2"/>
+      <c r="H835" s="4"/>
     </row>
     <row r="836">
       <c r="B836" s="10"/>
-      <c r="D836" s="2"/>
+      <c r="D836" s="4"/>
       <c r="F836" s="10"/>
-      <c r="H836" s="2"/>
+      <c r="H836" s="4"/>
     </row>
     <row r="837">
       <c r="B837" s="10"/>
-      <c r="D837" s="2"/>
+      <c r="D837" s="4"/>
       <c r="F837" s="10"/>
-      <c r="H837" s="2"/>
+      <c r="H837" s="4"/>
     </row>
     <row r="838">
       <c r="B838" s="10"/>
-      <c r="D838" s="2"/>
+      <c r="D838" s="4"/>
       <c r="F838" s="10"/>
-      <c r="H838" s="2"/>
+      <c r="H838" s="4"/>
     </row>
     <row r="839">
       <c r="B839" s="10"/>
-      <c r="D839" s="2"/>
+      <c r="D839" s="4"/>
       <c r="F839" s="10"/>
-      <c r="H839" s="2"/>
+      <c r="H839" s="4"/>
     </row>
     <row r="840">
       <c r="B840" s="10"/>
-      <c r="D840" s="2"/>
+      <c r="D840" s="4"/>
       <c r="F840" s="10"/>
-      <c r="H840" s="2"/>
+      <c r="H840" s="4"/>
     </row>
     <row r="841">
       <c r="B841" s="10"/>
-      <c r="D841" s="2"/>
+      <c r="D841" s="4"/>
       <c r="F841" s="10"/>
-      <c r="H841" s="2"/>
+      <c r="H841" s="4"/>
     </row>
     <row r="842">
       <c r="B842" s="10"/>
-      <c r="D842" s="2"/>
+      <c r="D842" s="4"/>
       <c r="F842" s="10"/>
-      <c r="H842" s="2"/>
+      <c r="H842" s="4"/>
     </row>
     <row r="843">
       <c r="B843" s="10"/>
-      <c r="D843" s="2"/>
+      <c r="D843" s="4"/>
       <c r="F843" s="10"/>
-      <c r="H843" s="2"/>
+      <c r="H843" s="4"/>
     </row>
     <row r="844">
       <c r="B844" s="10"/>
-      <c r="D844" s="2"/>
+      <c r="D844" s="4"/>
       <c r="F844" s="10"/>
-      <c r="H844" s="2"/>
+      <c r="H844" s="4"/>
     </row>
     <row r="845">
       <c r="B845" s="10"/>
-      <c r="D845" s="2"/>
+      <c r="D845" s="4"/>
       <c r="F845" s="10"/>
-      <c r="H845" s="2"/>
+      <c r="H845" s="4"/>
     </row>
     <row r="846">
       <c r="B846" s="10"/>
-      <c r="D846" s="2"/>
+      <c r="D846" s="4"/>
       <c r="F846" s="10"/>
-      <c r="H846" s="2"/>
+      <c r="H846" s="4"/>
     </row>
     <row r="847">
       <c r="B847" s="10"/>
-      <c r="D847" s="2"/>
+      <c r="D847" s="4"/>
       <c r="F847" s="10"/>
-      <c r="H847" s="2"/>
+      <c r="H847" s="4"/>
     </row>
     <row r="848">
       <c r="B848" s="10"/>
-      <c r="D848" s="2"/>
+      <c r="D848" s="4"/>
       <c r="F848" s="10"/>
-      <c r="H848" s="2"/>
+      <c r="H848" s="4"/>
     </row>
     <row r="849">
       <c r="B849" s="10"/>
-      <c r="D849" s="2"/>
+      <c r="D849" s="4"/>
       <c r="F849" s="10"/>
-      <c r="H849" s="2"/>
+      <c r="H849" s="4"/>
     </row>
     <row r="850">
       <c r="B850" s="10"/>
-      <c r="D850" s="2"/>
+      <c r="D850" s="4"/>
       <c r="F850" s="10"/>
-      <c r="H850" s="2"/>
+      <c r="H850" s="4"/>
     </row>
     <row r="851">
       <c r="B851" s="10"/>
-      <c r="D851" s="2"/>
+      <c r="D851" s="4"/>
       <c r="F851" s="10"/>
-      <c r="H851" s="2"/>
+      <c r="H851" s="4"/>
     </row>
     <row r="852">
       <c r="B852" s="10"/>
-      <c r="D852" s="2"/>
+      <c r="D852" s="4"/>
       <c r="F852" s="10"/>
-      <c r="H852" s="2"/>
+      <c r="H852" s="4"/>
     </row>
     <row r="853">
       <c r="B853" s="10"/>
-      <c r="D853" s="2"/>
+      <c r="D853" s="4"/>
       <c r="F853" s="10"/>
-      <c r="H853" s="2"/>
+      <c r="H853" s="4"/>
     </row>
     <row r="854">
       <c r="B854" s="10"/>
-      <c r="D854" s="2"/>
+      <c r="D854" s="4"/>
       <c r="F854" s="10"/>
-      <c r="H854" s="2"/>
+      <c r="H854" s="4"/>
     </row>
     <row r="855">
       <c r="B855" s="10"/>
-      <c r="D855" s="2"/>
+      <c r="D855" s="4"/>
       <c r="F855" s="10"/>
-      <c r="H855" s="2"/>
+      <c r="H855" s="4"/>
     </row>
     <row r="856">
       <c r="B856" s="10"/>
-      <c r="D856" s="2"/>
+      <c r="D856" s="4"/>
       <c r="F856" s="10"/>
-      <c r="H856" s="2"/>
+      <c r="H856" s="4"/>
     </row>
     <row r="857">
       <c r="B857" s="10"/>
-      <c r="D857" s="2"/>
+      <c r="D857" s="4"/>
       <c r="F857" s="10"/>
-      <c r="H857" s="2"/>
+      <c r="H857" s="4"/>
     </row>
     <row r="858">
       <c r="B858" s="10"/>
-      <c r="D858" s="2"/>
+      <c r="D858" s="4"/>
       <c r="F858" s="10"/>
-      <c r="H858" s="2"/>
+      <c r="H858" s="4"/>
     </row>
     <row r="859">
       <c r="B859" s="10"/>
-      <c r="D859" s="2"/>
+      <c r="D859" s="4"/>
       <c r="F859" s="10"/>
-      <c r="H859" s="2"/>
+      <c r="H859" s="4"/>
     </row>
     <row r="860">
       <c r="B860" s="10"/>
-      <c r="D860" s="2"/>
+      <c r="D860" s="4"/>
       <c r="F860" s="10"/>
-      <c r="H860" s="2"/>
+      <c r="H860" s="4"/>
     </row>
     <row r="861">
       <c r="B861" s="10"/>
-      <c r="D861" s="2"/>
+      <c r="D861" s="4"/>
       <c r="F861" s="10"/>
-      <c r="H861" s="2"/>
+      <c r="H861" s="4"/>
     </row>
     <row r="862">
       <c r="B862" s="10"/>
-      <c r="D862" s="2"/>
+      <c r="D862" s="4"/>
       <c r="F862" s="10"/>
-      <c r="H862" s="2"/>
+      <c r="H862" s="4"/>
     </row>
     <row r="863">
       <c r="B863" s="10"/>
-      <c r="D863" s="2"/>
+      <c r="D863" s="4"/>
       <c r="F863" s="10"/>
-      <c r="H863" s="2"/>
+      <c r="H863" s="4"/>
     </row>
     <row r="864">
       <c r="B864" s="10"/>
-      <c r="D864" s="2"/>
+      <c r="D864" s="4"/>
       <c r="F864" s="10"/>
-      <c r="H864" s="2"/>
+      <c r="H864" s="4"/>
     </row>
     <row r="865">
       <c r="B865" s="10"/>
-      <c r="D865" s="2"/>
+      <c r="D865" s="4"/>
       <c r="F865" s="10"/>
-      <c r="H865" s="2"/>
+      <c r="H865" s="4"/>
     </row>
     <row r="866">
       <c r="B866" s="10"/>
-      <c r="D866" s="2"/>
+      <c r="D866" s="4"/>
       <c r="F866" s="10"/>
-      <c r="H866" s="2"/>
+      <c r="H866" s="4"/>
     </row>
     <row r="867">
       <c r="B867" s="10"/>
-      <c r="D867" s="2"/>
+      <c r="D867" s="4"/>
       <c r="F867" s="10"/>
-      <c r="H867" s="2"/>
+      <c r="H867" s="4"/>
     </row>
     <row r="868">
       <c r="B868" s="10"/>
-      <c r="D868" s="2"/>
+      <c r="D868" s="4"/>
       <c r="F868" s="10"/>
-      <c r="H868" s="2"/>
+      <c r="H868" s="4"/>
     </row>
     <row r="869">
       <c r="B869" s="10"/>
-      <c r="D869" s="2"/>
+      <c r="D869" s="4"/>
       <c r="F869" s="10"/>
-      <c r="H869" s="2"/>
+      <c r="H869" s="4"/>
     </row>
     <row r="870">
       <c r="B870" s="10"/>
-      <c r="D870" s="2"/>
+      <c r="D870" s="4"/>
       <c r="F870" s="10"/>
-      <c r="H870" s="2"/>
+      <c r="H870" s="4"/>
     </row>
     <row r="871">
       <c r="B871" s="10"/>
-      <c r="D871" s="2"/>
+      <c r="D871" s="4"/>
       <c r="F871" s="10"/>
-      <c r="H871" s="2"/>
+      <c r="H871" s="4"/>
     </row>
     <row r="872">
       <c r="B872" s="10"/>
-      <c r="D872" s="2"/>
+      <c r="D872" s="4"/>
       <c r="F872" s="10"/>
-      <c r="H872" s="2"/>
+      <c r="H872" s="4"/>
     </row>
     <row r="873">
       <c r="B873" s="10"/>
-      <c r="D873" s="2"/>
+      <c r="D873" s="4"/>
       <c r="F873" s="10"/>
-      <c r="H873" s="2"/>
+      <c r="H873" s="4"/>
     </row>
     <row r="874">
       <c r="B874" s="10"/>
-      <c r="D874" s="2"/>
+      <c r="D874" s="4"/>
       <c r="F874" s="10"/>
-      <c r="H874" s="2"/>
+      <c r="H874" s="4"/>
     </row>
     <row r="875">
       <c r="B875" s="10"/>
-      <c r="D875" s="2"/>
+      <c r="D875" s="4"/>
       <c r="F875" s="10"/>
-      <c r="H875" s="2"/>
+      <c r="H875" s="4"/>
     </row>
     <row r="876">
       <c r="B876" s="10"/>
-      <c r="D876" s="2"/>
+      <c r="D876" s="4"/>
       <c r="F876" s="10"/>
-      <c r="H876" s="2"/>
+      <c r="H876" s="4"/>
     </row>
     <row r="877">
       <c r="B877" s="10"/>
-      <c r="D877" s="2"/>
+      <c r="D877" s="4"/>
       <c r="F877" s="10"/>
-      <c r="H877" s="2"/>
+      <c r="H877" s="4"/>
     </row>
     <row r="878">
       <c r="B878" s="10"/>
-      <c r="D878" s="2"/>
+      <c r="D878" s="4"/>
       <c r="F878" s="10"/>
-      <c r="H878" s="2"/>
+      <c r="H878" s="4"/>
     </row>
     <row r="879">
       <c r="B879" s="10"/>
-      <c r="D879" s="2"/>
+      <c r="D879" s="4"/>
       <c r="F879" s="10"/>
-      <c r="H879" s="2"/>
+      <c r="H879" s="4"/>
     </row>
     <row r="880">
       <c r="B880" s="10"/>
-      <c r="D880" s="2"/>
+      <c r="D880" s="4"/>
       <c r="F880" s="10"/>
-      <c r="H880" s="2"/>
+      <c r="H880" s="4"/>
     </row>
     <row r="881">
       <c r="B881" s="10"/>
-      <c r="D881" s="2"/>
+      <c r="D881" s="4"/>
       <c r="F881" s="10"/>
-      <c r="H881" s="2"/>
+      <c r="H881" s="4"/>
     </row>
     <row r="882">
       <c r="B882" s="10"/>
-      <c r="D882" s="2"/>
+      <c r="D882" s="4"/>
       <c r="F882" s="10"/>
-      <c r="H882" s="2"/>
+      <c r="H882" s="4"/>
     </row>
     <row r="883">
       <c r="B883" s="10"/>
-      <c r="D883" s="2"/>
+      <c r="D883" s="4"/>
       <c r="F883" s="10"/>
-      <c r="H883" s="2"/>
+      <c r="H883" s="4"/>
     </row>
     <row r="884">
       <c r="B884" s="10"/>
-      <c r="D884" s="2"/>
+      <c r="D884" s="4"/>
       <c r="F884" s="10"/>
-      <c r="H884" s="2"/>
+      <c r="H884" s="4"/>
     </row>
     <row r="885">
       <c r="B885" s="10"/>
-      <c r="D885" s="2"/>
+      <c r="D885" s="4"/>
       <c r="F885" s="10"/>
-      <c r="H885" s="2"/>
+      <c r="H885" s="4"/>
     </row>
     <row r="886">
       <c r="B886" s="10"/>
-      <c r="D886" s="2"/>
+      <c r="D886" s="4"/>
       <c r="F886" s="10"/>
-      <c r="H886" s="2"/>
+      <c r="H886" s="4"/>
     </row>
     <row r="887">
       <c r="B887" s="10"/>
-      <c r="D887" s="2"/>
+      <c r="D887" s="4"/>
       <c r="F887" s="10"/>
-      <c r="H887" s="2"/>
+      <c r="H887" s="4"/>
     </row>
     <row r="888">
       <c r="B888" s="10"/>
-      <c r="D888" s="2"/>
+      <c r="D888" s="4"/>
       <c r="F888" s="10"/>
-      <c r="H888" s="2"/>
+      <c r="H888" s="4"/>
     </row>
     <row r="889">
       <c r="B889" s="10"/>
-      <c r="D889" s="2"/>
+      <c r="D889" s="4"/>
       <c r="F889" s="10"/>
-      <c r="H889" s="2"/>
+      <c r="H889" s="4"/>
     </row>
     <row r="890">
       <c r="B890" s="10"/>
-      <c r="D890" s="2"/>
+      <c r="D890" s="4"/>
       <c r="F890" s="10"/>
-      <c r="H890" s="2"/>
+      <c r="H890" s="4"/>
     </row>
     <row r="891">
       <c r="B891" s="10"/>
-      <c r="D891" s="2"/>
+      <c r="D891" s="4"/>
       <c r="F891" s="10"/>
-      <c r="H891" s="2"/>
+      <c r="H891" s="4"/>
     </row>
     <row r="892">
       <c r="B892" s="10"/>
-      <c r="D892" s="2"/>
+      <c r="D892" s="4"/>
       <c r="F892" s="10"/>
-      <c r="H892" s="2"/>
+      <c r="H892" s="4"/>
     </row>
     <row r="893">
       <c r="B893" s="10"/>
-      <c r="D893" s="2"/>
+      <c r="D893" s="4"/>
       <c r="F893" s="10"/>
-      <c r="H893" s="2"/>
+      <c r="H893" s="4"/>
     </row>
     <row r="894">
       <c r="B894" s="10"/>
-      <c r="D894" s="2"/>
+      <c r="D894" s="4"/>
       <c r="F894" s="10"/>
-      <c r="H894" s="2"/>
+      <c r="H894" s="4"/>
     </row>
     <row r="895">
       <c r="B895" s="10"/>
-      <c r="D895" s="2"/>
+      <c r="D895" s="4"/>
       <c r="F895" s="10"/>
-      <c r="H895" s="2"/>
+      <c r="H895" s="4"/>
     </row>
     <row r="896">
       <c r="B896" s="10"/>
-      <c r="D896" s="2"/>
+      <c r="D896" s="4"/>
       <c r="F896" s="10"/>
-      <c r="H896" s="2"/>
+      <c r="H896" s="4"/>
     </row>
     <row r="897">
       <c r="B897" s="10"/>
-      <c r="D897" s="2"/>
+      <c r="D897" s="4"/>
       <c r="F897" s="10"/>
-      <c r="H897" s="2"/>
+      <c r="H897" s="4"/>
     </row>
     <row r="898">
       <c r="B898" s="10"/>
-      <c r="D898" s="2"/>
+      <c r="D898" s="4"/>
       <c r="F898" s="10"/>
-      <c r="H898" s="2"/>
+      <c r="H898" s="4"/>
     </row>
     <row r="899">
       <c r="B899" s="10"/>
-      <c r="D899" s="2"/>
+      <c r="D899" s="4"/>
       <c r="F899" s="10"/>
-      <c r="H899" s="2"/>
+      <c r="H899" s="4"/>
     </row>
     <row r="900">
       <c r="B900" s="10"/>
-      <c r="D900" s="2"/>
+      <c r="D900" s="4"/>
       <c r="F900" s="10"/>
-      <c r="H900" s="2"/>
+      <c r="H900" s="4"/>
     </row>
     <row r="901">
       <c r="B901" s="10"/>
-      <c r="D901" s="2"/>
+      <c r="D901" s="4"/>
       <c r="F901" s="10"/>
-      <c r="H901" s="2"/>
+      <c r="H901" s="4"/>
     </row>
     <row r="902">
       <c r="B902" s="10"/>
-      <c r="D902" s="2"/>
+      <c r="D902" s="4"/>
       <c r="F902" s="10"/>
-      <c r="H902" s="2"/>
+      <c r="H902" s="4"/>
     </row>
     <row r="903">
       <c r="B903" s="10"/>
-      <c r="D903" s="2"/>
+      <c r="D903" s="4"/>
       <c r="F903" s="10"/>
-      <c r="H903" s="2"/>
+      <c r="H903" s="4"/>
     </row>
     <row r="904">
       <c r="B904" s="10"/>
-      <c r="D904" s="2"/>
+      <c r="D904" s="4"/>
       <c r="F904" s="10"/>
-      <c r="H904" s="2"/>
+      <c r="H904" s="4"/>
     </row>
     <row r="905">
       <c r="B905" s="10"/>
-      <c r="D905" s="2"/>
+      <c r="D905" s="4"/>
       <c r="F905" s="10"/>
-      <c r="H905" s="2"/>
+      <c r="H905" s="4"/>
     </row>
     <row r="906">
       <c r="B906" s="10"/>
-      <c r="D906" s="2"/>
+      <c r="D906" s="4"/>
       <c r="F906" s="10"/>
-      <c r="H906" s="2"/>
+      <c r="H906" s="4"/>
     </row>
     <row r="907">
       <c r="B907" s="10"/>
-      <c r="D907" s="2"/>
+      <c r="D907" s="4"/>
       <c r="F907" s="10"/>
-      <c r="H907" s="2"/>
+      <c r="H907" s="4"/>
     </row>
     <row r="908">
       <c r="B908" s="10"/>
-      <c r="D908" s="2"/>
+      <c r="D908" s="4"/>
       <c r="F908" s="10"/>
-      <c r="H908" s="2"/>
+      <c r="H908" s="4"/>
     </row>
     <row r="909">
       <c r="B909" s="10"/>
-      <c r="D909" s="2"/>
+      <c r="D909" s="4"/>
       <c r="F909" s="10"/>
-      <c r="H909" s="2"/>
+      <c r="H909" s="4"/>
     </row>
     <row r="910">
       <c r="B910" s="10"/>
-      <c r="D910" s="2"/>
+      <c r="D910" s="4"/>
       <c r="F910" s="10"/>
-      <c r="H910" s="2"/>
+      <c r="H910" s="4"/>
     </row>
     <row r="911">
       <c r="B911" s="10"/>
-      <c r="D911" s="2"/>
+      <c r="D911" s="4"/>
       <c r="F911" s="10"/>
-      <c r="H911" s="2"/>
+      <c r="H911" s="4"/>
     </row>
     <row r="912">
       <c r="B912" s="10"/>
-      <c r="D912" s="2"/>
+      <c r="D912" s="4"/>
       <c r="F912" s="10"/>
-      <c r="H912" s="2"/>
+      <c r="H912" s="4"/>
     </row>
     <row r="913">
       <c r="B913" s="10"/>
-      <c r="D913" s="2"/>
+      <c r="D913" s="4"/>
       <c r="F913" s="10"/>
-      <c r="H913" s="2"/>
+      <c r="H913" s="4"/>
     </row>
     <row r="914">
       <c r="B914" s="10"/>
-      <c r="D914" s="2"/>
+      <c r="D914" s="4"/>
       <c r="F914" s="10"/>
-      <c r="H914" s="2"/>
+      <c r="H914" s="4"/>
     </row>
     <row r="915">
       <c r="B915" s="10"/>
-      <c r="D915" s="2"/>
+      <c r="D915" s="4"/>
       <c r="F915" s="10"/>
-      <c r="H915" s="2"/>
+      <c r="H915" s="4"/>
     </row>
     <row r="916">
       <c r="B916" s="10"/>
-      <c r="D916" s="2"/>
+      <c r="D916" s="4"/>
       <c r="F916" s="10"/>
-      <c r="H916" s="2"/>
+      <c r="H916" s="4"/>
     </row>
     <row r="917">
       <c r="B917" s="10"/>
-      <c r="D917" s="2"/>
+      <c r="D917" s="4"/>
       <c r="F917" s="10"/>
-      <c r="H917" s="2"/>
+      <c r="H917" s="4"/>
     </row>
     <row r="918">
       <c r="B918" s="10"/>
-      <c r="D918" s="2"/>
+      <c r="D918" s="4"/>
       <c r="F918" s="10"/>
-      <c r="H918" s="2"/>
+      <c r="H918" s="4"/>
     </row>
     <row r="919">
       <c r="B919" s="10"/>
-      <c r="D919" s="2"/>
+      <c r="D919" s="4"/>
       <c r="F919" s="10"/>
-      <c r="H919" s="2"/>
+      <c r="H919" s="4"/>
     </row>
     <row r="920">
       <c r="B920" s="10"/>
-      <c r="D920" s="2"/>
+      <c r="D920" s="4"/>
       <c r="F920" s="10"/>
-      <c r="H920" s="2"/>
+      <c r="H920" s="4"/>
     </row>
     <row r="921">
       <c r="B921" s="10"/>
-      <c r="D921" s="2"/>
+      <c r="D921" s="4"/>
       <c r="F921" s="10"/>
-      <c r="H921" s="2"/>
+      <c r="H921" s="4"/>
     </row>
     <row r="922">
       <c r="B922" s="10"/>
-      <c r="D922" s="2"/>
+      <c r="D922" s="4"/>
       <c r="F922" s="10"/>
-      <c r="H922" s="2"/>
+      <c r="H922" s="4"/>
     </row>
     <row r="923">
       <c r="B923" s="10"/>
-      <c r="D923" s="2"/>
+      <c r="D923" s="4"/>
       <c r="F923" s="10"/>
-      <c r="H923" s="2"/>
+      <c r="H923" s="4"/>
     </row>
     <row r="924">
       <c r="B924" s="10"/>
-      <c r="D924" s="2"/>
+      <c r="D924" s="4"/>
       <c r="F924" s="10"/>
-      <c r="H924" s="2"/>
+      <c r="H924" s="4"/>
     </row>
     <row r="925">
       <c r="B925" s="10"/>
-      <c r="D925" s="2"/>
+      <c r="D925" s="4"/>
       <c r="F925" s="10"/>
-      <c r="H925" s="2"/>
+      <c r="H925" s="4"/>
     </row>
     <row r="926">
       <c r="B926" s="10"/>
-      <c r="D926" s="2"/>
+      <c r="D926" s="4"/>
       <c r="F926" s="10"/>
-      <c r="H926" s="2"/>
+      <c r="H926" s="4"/>
     </row>
     <row r="927">
       <c r="B927" s="10"/>
-      <c r="D927" s="2"/>
+      <c r="D927" s="4"/>
       <c r="F927" s="10"/>
-      <c r="H927" s="2"/>
+      <c r="H927" s="4"/>
     </row>
     <row r="928">
       <c r="B928" s="10"/>
-      <c r="D928" s="2"/>
+      <c r="D928" s="4"/>
       <c r="F928" s="10"/>
-      <c r="H928" s="2"/>
+      <c r="H928" s="4"/>
     </row>
     <row r="929">
       <c r="B929" s="10"/>
-      <c r="D929" s="2"/>
+      <c r="D929" s="4"/>
       <c r="F929" s="10"/>
-      <c r="H929" s="2"/>
+      <c r="H929" s="4"/>
     </row>
     <row r="930">
       <c r="B930" s="10"/>
-      <c r="D930" s="2"/>
+      <c r="D930" s="4"/>
       <c r="F930" s="10"/>
-      <c r="H930" s="2"/>
+      <c r="H930" s="4"/>
     </row>
     <row r="931">
       <c r="B931" s="10"/>
-      <c r="D931" s="2"/>
+      <c r="D931" s="4"/>
       <c r="F931" s="10"/>
-      <c r="H931" s="2"/>
+      <c r="H931" s="4"/>
     </row>
     <row r="932">
       <c r="B932" s="10"/>
-      <c r="D932" s="2"/>
+      <c r="D932" s="4"/>
       <c r="F932" s="10"/>
-      <c r="H932" s="2"/>
+      <c r="H932" s="4"/>
     </row>
     <row r="933">
       <c r="B933" s="10"/>
-      <c r="D933" s="2"/>
+      <c r="D933" s="4"/>
       <c r="F933" s="10"/>
-      <c r="H933" s="2"/>
+      <c r="H933" s="4"/>
     </row>
     <row r="934">
       <c r="B934" s="10"/>
-      <c r="D934" s="2"/>
+      <c r="D934" s="4"/>
       <c r="F934" s="10"/>
-      <c r="H934" s="2"/>
+      <c r="H934" s="4"/>
     </row>
     <row r="935">
       <c r="B935" s="10"/>
-      <c r="D935" s="2"/>
+      <c r="D935" s="4"/>
       <c r="F935" s="10"/>
-      <c r="H935" s="2"/>
+      <c r="H935" s="4"/>
     </row>
     <row r="936">
       <c r="B936" s="10"/>
-      <c r="D936" s="2"/>
+      <c r="D936" s="4"/>
       <c r="F936" s="10"/>
-      <c r="H936" s="2"/>
+      <c r="H936" s="4"/>
     </row>
     <row r="937">
       <c r="B937" s="10"/>
-      <c r="D937" s="2"/>
+      <c r="D937" s="4"/>
       <c r="F937" s="10"/>
-      <c r="H937" s="2"/>
+      <c r="H937" s="4"/>
     </row>
     <row r="938">
       <c r="B938" s="10"/>
-      <c r="D938" s="2"/>
+      <c r="D938" s="4"/>
       <c r="F938" s="10"/>
-      <c r="H938" s="2"/>
+      <c r="H938" s="4"/>
     </row>
     <row r="939">
       <c r="B939" s="10"/>
-      <c r="D939" s="2"/>
+      <c r="D939" s="4"/>
       <c r="F939" s="10"/>
-      <c r="H939" s="2"/>
+      <c r="H939" s="4"/>
     </row>
     <row r="940">
       <c r="B940" s="10"/>
-      <c r="D940" s="2"/>
+      <c r="D940" s="4"/>
       <c r="F940" s="10"/>
-      <c r="H940" s="2"/>
+      <c r="H940" s="4"/>
     </row>
     <row r="941">
       <c r="B941" s="10"/>
-      <c r="D941" s="2"/>
+      <c r="D941" s="4"/>
       <c r="F941" s="10"/>
-      <c r="H941" s="2"/>
+      <c r="H941" s="4"/>
     </row>
     <row r="942">
       <c r="B942" s="10"/>
-      <c r="D942" s="2"/>
+      <c r="D942" s="4"/>
       <c r="F942" s="10"/>
-      <c r="H942" s="2"/>
+      <c r="H942" s="4"/>
     </row>
     <row r="943">
       <c r="B943" s="10"/>
-      <c r="D943" s="2"/>
+      <c r="D943" s="4"/>
       <c r="F943" s="10"/>
-      <c r="H943" s="2"/>
+      <c r="H943" s="4"/>
     </row>
     <row r="944">
       <c r="B944" s="10"/>
-      <c r="D944" s="2"/>
+      <c r="D944" s="4"/>
       <c r="F944" s="10"/>
-      <c r="H944" s="2"/>
+      <c r="H944" s="4"/>
     </row>
     <row r="945">
       <c r="B945" s="10"/>
-      <c r="D945" s="2"/>
+      <c r="D945" s="4"/>
       <c r="F945" s="10"/>
-      <c r="H945" s="2"/>
+      <c r="H945" s="4"/>
     </row>
     <row r="946">
       <c r="B946" s="10"/>
-      <c r="D946" s="2"/>
+      <c r="D946" s="4"/>
       <c r="F946" s="10"/>
-      <c r="H946" s="2"/>
+      <c r="H946" s="4"/>
     </row>
     <row r="947">
       <c r="B947" s="10"/>
-      <c r="D947" s="2"/>
+      <c r="D947" s="4"/>
       <c r="F947" s="10"/>
-      <c r="H947" s="2"/>
+      <c r="H947" s="4"/>
     </row>
     <row r="948">
       <c r="B948" s="10"/>
-      <c r="D948" s="2"/>
+      <c r="D948" s="4"/>
       <c r="F948" s="10"/>
-      <c r="H948" s="2"/>
+      <c r="H948" s="4"/>
     </row>
     <row r="949">
       <c r="B949" s="10"/>
-      <c r="D949" s="2"/>
+      <c r="D949" s="4"/>
       <c r="F949" s="10"/>
-      <c r="H949" s="2"/>
+      <c r="H949" s="4"/>
     </row>
     <row r="950">
       <c r="B950" s="10"/>
-      <c r="D950" s="2"/>
+      <c r="D950" s="4"/>
       <c r="F950" s="10"/>
-      <c r="H950" s="2"/>
+      <c r="H950" s="4"/>
     </row>
     <row r="951">
       <c r="B951" s="10"/>
-      <c r="D951" s="2"/>
+      <c r="D951" s="4"/>
       <c r="F951" s="10"/>
-      <c r="H951" s="2"/>
+      <c r="H951" s="4"/>
     </row>
     <row r="952">
       <c r="B952" s="10"/>
-      <c r="D952" s="2"/>
+      <c r="D952" s="4"/>
       <c r="F952" s="10"/>
-      <c r="H952" s="2"/>
+      <c r="H952" s="4"/>
     </row>
     <row r="953">
       <c r="B953" s="10"/>
-      <c r="D953" s="2"/>
+      <c r="D953" s="4"/>
       <c r="F953" s="10"/>
-      <c r="H953" s="2"/>
+      <c r="H953" s="4"/>
     </row>
     <row r="954">
       <c r="B954" s="10"/>
-      <c r="D954" s="2"/>
+      <c r="D954" s="4"/>
       <c r="F954" s="10"/>
-      <c r="H954" s="2"/>
+      <c r="H954" s="4"/>
     </row>
     <row r="955">
       <c r="B955" s="10"/>
-      <c r="D955" s="2"/>
+      <c r="D955" s="4"/>
       <c r="F955" s="10"/>
-      <c r="H955" s="2"/>
+      <c r="H955" s="4"/>
     </row>
     <row r="956">
       <c r="B956" s="10"/>
-      <c r="D956" s="2"/>
+      <c r="D956" s="4"/>
       <c r="F956" s="10"/>
-      <c r="H956" s="2"/>
+      <c r="H956" s="4"/>
     </row>
     <row r="957">
       <c r="B957" s="10"/>
-      <c r="D957" s="2"/>
+      <c r="D957" s="4"/>
       <c r="F957" s="10"/>
-      <c r="H957" s="2"/>
+      <c r="H957" s="4"/>
     </row>
     <row r="958">
       <c r="B958" s="10"/>
-      <c r="D958" s="2"/>
+      <c r="D958" s="4"/>
       <c r="F958" s="10"/>
-      <c r="H958" s="2"/>
+      <c r="H958" s="4"/>
     </row>
     <row r="959">
       <c r="B959" s="10"/>
-      <c r="D959" s="2"/>
+      <c r="D959" s="4"/>
       <c r="F959" s="10"/>
-      <c r="H959" s="2"/>
+      <c r="H959" s="4"/>
     </row>
     <row r="960">
       <c r="B960" s="10"/>
-      <c r="D960" s="2"/>
+      <c r="D960" s="4"/>
       <c r="F960" s="10"/>
-      <c r="H960" s="2"/>
+      <c r="H960" s="4"/>
     </row>
     <row r="961">
       <c r="B961" s="10"/>
-      <c r="D961" s="2"/>
+      <c r="D961" s="4"/>
       <c r="F961" s="10"/>
-      <c r="H961" s="2"/>
+      <c r="H961" s="4"/>
     </row>
     <row r="962">
       <c r="B962" s="10"/>
-      <c r="D962" s="2"/>
+      <c r="D962" s="4"/>
       <c r="F962" s="10"/>
-      <c r="H962" s="2"/>
+      <c r="H962" s="4"/>
     </row>
     <row r="963">
       <c r="B963" s="10"/>
-      <c r="D963" s="2"/>
+      <c r="D963" s="4"/>
       <c r="F963" s="10"/>
-      <c r="H963" s="2"/>
+      <c r="H963" s="4"/>
     </row>
     <row r="964">
       <c r="B964" s="10"/>
-      <c r="D964" s="2"/>
+      <c r="D964" s="4"/>
       <c r="F964" s="10"/>
-      <c r="H964" s="2"/>
+      <c r="H964" s="4"/>
     </row>
     <row r="965">
       <c r="B965" s="10"/>
-      <c r="D965" s="2"/>
+      <c r="D965" s="4"/>
       <c r="F965" s="10"/>
-      <c r="H965" s="2"/>
+      <c r="H965" s="4"/>
     </row>
     <row r="966">
       <c r="B966" s="10"/>
-      <c r="D966" s="2"/>
+      <c r="D966" s="4"/>
       <c r="F966" s="10"/>
-      <c r="H966" s="2"/>
+      <c r="H966" s="4"/>
     </row>
     <row r="967">
       <c r="B967" s="10"/>
-      <c r="D967" s="2"/>
+      <c r="D967" s="4"/>
       <c r="F967" s="10"/>
-      <c r="H967" s="2"/>
+      <c r="H967" s="4"/>
     </row>
     <row r="968">
       <c r="B968" s="10"/>
-      <c r="D968" s="2"/>
+      <c r="D968" s="4"/>
       <c r="F968" s="10"/>
-      <c r="H968" s="2"/>
+      <c r="H968" s="4"/>
     </row>
     <row r="969">
       <c r="B969" s="10"/>
-      <c r="D969" s="2"/>
+      <c r="D969" s="4"/>
       <c r="F969" s="10"/>
-      <c r="H969" s="2"/>
+      <c r="H969" s="4"/>
     </row>
     <row r="970">
       <c r="B970" s="10"/>
-      <c r="D970" s="2"/>
+      <c r="D970" s="4"/>
       <c r="F970" s="10"/>
-      <c r="H970" s="2"/>
+      <c r="H970" s="4"/>
     </row>
     <row r="971">
       <c r="B971" s="10"/>
-      <c r="D971" s="2"/>
+      <c r="D971" s="4"/>
       <c r="F971" s="10"/>
-      <c r="H971" s="2"/>
+      <c r="H971" s="4"/>
     </row>
     <row r="972">
       <c r="B972" s="10"/>
-      <c r="D972" s="2"/>
+      <c r="D972" s="4"/>
       <c r="F972" s="10"/>
-      <c r="H972" s="2"/>
+      <c r="H972" s="4"/>
     </row>
     <row r="973">
       <c r="B973" s="10"/>
-      <c r="D973" s="2"/>
+      <c r="D973" s="4"/>
       <c r="F973" s="10"/>
-      <c r="H973" s="2"/>
+      <c r="H973" s="4"/>
     </row>
     <row r="974">
       <c r="B974" s="10"/>
-      <c r="D974" s="2"/>
+      <c r="D974" s="4"/>
       <c r="F974" s="10"/>
-      <c r="H974" s="2"/>
+      <c r="H974" s="4"/>
     </row>
     <row r="975">
       <c r="B975" s="10"/>
-      <c r="D975" s="2"/>
+      <c r="D975" s="4"/>
       <c r="F975" s="10"/>
-      <c r="H975" s="2"/>
+      <c r="H975" s="4"/>
     </row>
     <row r="976">
       <c r="B976" s="10"/>
-      <c r="D976" s="2"/>
+      <c r="D976" s="4"/>
       <c r="F976" s="10"/>
-      <c r="H976" s="2"/>
+      <c r="H976" s="4"/>
     </row>
     <row r="977">
       <c r="B977" s="10"/>
-      <c r="D977" s="2"/>
+      <c r="D977" s="4"/>
       <c r="F977" s="10"/>
-      <c r="H977" s="2"/>
+      <c r="H977" s="4"/>
     </row>
     <row r="978">
       <c r="B978" s="10"/>
-      <c r="D978" s="2"/>
+      <c r="D978" s="4"/>
       <c r="F978" s="10"/>
-      <c r="H978" s="2"/>
+      <c r="H978" s="4"/>
     </row>
     <row r="979">
       <c r="B979" s="10"/>
-      <c r="D979" s="2"/>
+      <c r="D979" s="4"/>
       <c r="F979" s="10"/>
-      <c r="H979" s="2"/>
+      <c r="H979" s="4"/>
     </row>
     <row r="980">
       <c r="B980" s="10"/>
-      <c r="D980" s="2"/>
+      <c r="D980" s="4"/>
       <c r="F980" s="10"/>
-      <c r="H980" s="2"/>
+      <c r="H980" s="4"/>
     </row>
     <row r="981">
       <c r="B981" s="10"/>
-      <c r="D981" s="2"/>
+      <c r="D981" s="4"/>
       <c r="F981" s="10"/>
-      <c r="H981" s="2"/>
+      <c r="H981" s="4"/>
     </row>
     <row r="982">
       <c r="B982" s="10"/>
-      <c r="D982" s="2"/>
+      <c r="D982" s="4"/>
       <c r="F982" s="10"/>
-      <c r="H982" s="2"/>
+      <c r="H982" s="4"/>
     </row>
     <row r="983">
       <c r="B983" s="10"/>
-      <c r="D983" s="2"/>
+      <c r="D983" s="4"/>
       <c r="F983" s="10"/>
-      <c r="H983" s="2"/>
+      <c r="H983" s="4"/>
     </row>
     <row r="984">
       <c r="B984" s="10"/>
-      <c r="D984" s="2"/>
+      <c r="D984" s="4"/>
       <c r="F984" s="10"/>
-      <c r="H984" s="2"/>
+      <c r="H984" s="4"/>
     </row>
     <row r="985">
       <c r="B985" s="10"/>
-      <c r="D985" s="2"/>
+      <c r="D985" s="4"/>
       <c r="F985" s="10"/>
-      <c r="H985" s="2"/>
+      <c r="H985" s="4"/>
     </row>
     <row r="986">
       <c r="B986" s="10"/>
-      <c r="D986" s="2"/>
+      <c r="D986" s="4"/>
       <c r="F986" s="10"/>
-      <c r="H986" s="2"/>
+      <c r="H986" s="4"/>
     </row>
     <row r="987">
       <c r="B987" s="10"/>
-      <c r="D987" s="2"/>
+      <c r="D987" s="4"/>
       <c r="F987" s="10"/>
-      <c r="H987" s="2"/>
+      <c r="H987" s="4"/>
     </row>
     <row r="988">
       <c r="B988" s="10"/>
-      <c r="D988" s="2"/>
+      <c r="D988" s="4"/>
       <c r="F988" s="10"/>
-      <c r="H988" s="2"/>
+      <c r="H988" s="4"/>
     </row>
     <row r="989">
       <c r="B989" s="10"/>
-      <c r="D989" s="2"/>
+      <c r="D989" s="4"/>
       <c r="F989" s="10"/>
-      <c r="H989" s="2"/>
+      <c r="H989" s="4"/>
     </row>
     <row r="990">
       <c r="B990" s="10"/>
-      <c r="D990" s="2"/>
+      <c r="D990" s="4"/>
       <c r="F990" s="10"/>
-      <c r="H990" s="2"/>
+      <c r="H990" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7052,8 +7278,8 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="C3:C18 G3:G18 C21:C200 G21:G200">
-      <formula1>Zeitabrechnung!$A$2:$A$5</formula1>
+    <dataValidation type="list" allowBlank="1" sqref="C3:C200 G3:G200">
+      <formula1>Zeitabrechnung!$A$2:$A$6</formula1>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId1"/>
@@ -7073,79 +7299,92 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>9</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4">
         <f>sumif(Zeiterfassung!$C$3:$C$200,A2,Zeiterfassung!$B$3:$B$200)</f>
-        <v>34.5</v>
-      </c>
-      <c r="C2" s="2">
+        <v>42.5</v>
+      </c>
+      <c r="C2" s="4">
         <f>sumif(Zeiterfassung!$G$3:$G$200,A2,Zeiterfassung!$F$3:$F$200)</f>
-        <v>36</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4">
         <f>sumif(Zeiterfassung!$C$3:$C$200,A3,Zeiterfassung!$B$3:$B$200)</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="C3" s="4">
         <f>sumif(Zeiterfassung!$G$3:$G$200,A3,Zeiterfassung!$F$3:$F$200)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4">
         <f>sumif(Zeiterfassung!$C$3:$C$200,A4,Zeiterfassung!$B$3:$B$200)</f>
         <v>4</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <f>sumif(Zeiterfassung!$G$3:$G$200,A4,Zeiterfassung!$F$3:$F$200)</f>
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4">
         <f>sumif(Zeiterfassung!$C$3:$C$200,A5,Zeiterfassung!$B$3:$B$200)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
         <f>sumif(Zeiterfassung!$G$3:$G$200,A5,Zeiterfassung!$F$3:$F$200)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="12">
-        <f t="shared" ref="B6:C6" si="1">sum(B2:B5)</f>
-        <v>38.5</v>
-      </c>
-      <c r="C6" s="12">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4">
+        <f>sumif(Zeiterfassung!$C$3:$C$200,A6,Zeiterfassung!$B$3:$B$200)</f>
+        <v>2.5</v>
+      </c>
+      <c r="C6" s="4">
+        <f>sumif(Zeiterfassung!$G$3:$G$200,A6,Zeiterfassung!$F$3:$F$200)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="12">
+        <f t="shared" ref="B7:C7" si="1">sum(B2:B5)</f>
+        <v>53</v>
+      </c>
+      <c r="C7" s="12">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>53.5</v>
       </c>
     </row>
   </sheetData>

--- a/03_Arbeitsjournal/Logfile.xlsx
+++ b/03_Arbeitsjournal/Logfile.xlsx
@@ -12,12 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="72">
   <si>
     <t>Kategorien</t>
-  </si>
-  <si>
-    <t>Christian</t>
   </si>
   <si>
     <t>Zeit Christian</t>
@@ -29,10 +26,16 @@
     <t>Projektmanagement</t>
   </si>
   <si>
+    <t>Christian</t>
+  </si>
+  <si>
     <t>Remo</t>
   </si>
   <si>
     <t>Datum</t>
+  </si>
+  <si>
+    <t>Wissenserwerb</t>
   </si>
   <si>
     <t>Zeit (in h)</t>
@@ -44,19 +47,22 @@
     <t>Kommentar</t>
   </si>
   <si>
+    <t>Programmierung</t>
+  </si>
+  <si>
     <t xml:space="preserve">Datum </t>
   </si>
   <si>
-    <t>Wissenserwerb</t>
+    <t>Dokumentation</t>
   </si>
   <si>
-    <t>Programmierung</t>
+    <t>Design</t>
   </si>
   <si>
     <t>Kickoff</t>
   </si>
   <si>
-    <t>Dokumentation</t>
+    <t>TOTAL</t>
   </si>
   <si>
     <t>Teammeeting</t>
@@ -65,16 +71,10 @@
     <t>Vorbereitung Requirement-Workshop</t>
   </si>
   <si>
-    <t>Design</t>
-  </si>
-  <si>
     <t>Kundenmeeting "Requirement-Workshop</t>
   </si>
   <si>
     <t>Nachbearbeitung Kundenmeeting</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
   </si>
   <si>
     <t>SPECCHIO versuchen aufzusetzen in Eclipse</t>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Planung erstellen</t>
+  </si>
+  <si>
+    <t>Glassfish, Ports</t>
   </si>
   <si>
     <t>Webprojekt aufsetzen</t>
@@ -180,6 +183,51 @@
   </si>
   <si>
     <t>Detailplanung und Fortschritt in Kanban-Board aktualisieren</t>
+  </si>
+  <si>
+    <t>zusammenfassung aller online recherchen der letzten tage</t>
+  </si>
+  <si>
+    <t>Skizzen erstellen</t>
+  </si>
+  <si>
+    <t>Team-Meeting: Gegenseitiges Update, Code besprechen, Design besprechen, Arbeitsaufteilung, Zusammenarbeit am Code mit Git organisieren, Fragen an Auftraggeber erfassen, Projektwoche besprechen</t>
+  </si>
+  <si>
+    <t>Recherche Design Homepage, Line Chart</t>
+  </si>
+  <si>
+    <t>Diverses</t>
+  </si>
+  <si>
+    <t>Kundenkorrespondenz</t>
+  </si>
+  <si>
+    <t>json, gson, js, jquery etc.</t>
+  </si>
+  <si>
+    <t>Suche js</t>
+  </si>
+  <si>
+    <t>Suchresultat Java</t>
+  </si>
+  <si>
+    <t>Design für Startseite/Suche</t>
+  </si>
+  <si>
+    <t>Projektwoche Tag 1</t>
+  </si>
+  <si>
+    <t>Projektwoche Tag 2</t>
+  </si>
+  <si>
+    <t>Projektwoche Tag 3 (Detailview)</t>
+  </si>
+  <si>
+    <t>Projektwoche Tag 3</t>
+  </si>
+  <si>
+    <t>Projektwoche Tag 3 (Kundenmeeting)</t>
   </si>
 </sst>
 </file>
@@ -298,11 +346,11 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -320,11 +368,11 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
@@ -373,11 +421,11 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
+      <c r="A1" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="D1" s="4"/>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -386,25 +434,25 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -415,10 +463,10 @@
         <v>2.0</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="E3" s="7">
         <v>42625.0</v>
@@ -427,10 +475,10 @@
         <v>2.0</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="I3" s="9"/>
     </row>
@@ -442,10 +490,10 @@
         <v>3.0</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E4" s="7">
         <v>42633.0</v>
@@ -454,10 +502,10 @@
         <v>3.0</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="I4" s="9"/>
     </row>
@@ -469,10 +517,10 @@
         <v>2.0</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>16</v>
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E5" s="7">
         <v>42635.0</v>
@@ -481,10 +529,10 @@
         <v>2.0</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>16</v>
+        <v>3</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="I5" s="9"/>
     </row>
@@ -496,10 +544,10 @@
         <v>2.5</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>18</v>
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E6" s="7">
         <v>42635.0</v>
@@ -508,10 +556,10 @@
         <v>2.5</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>18</v>
+        <v>3</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="I6" s="9"/>
     </row>
@@ -523,10 +571,10 @@
         <v>1.0</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E7" s="7">
         <v>42635.0</v>
@@ -535,16 +583,16 @@
         <v>1.0</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>19</v>
+        <v>3</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="I7" s="9"/>
     </row>
     <row r="8">
       <c r="A8" s="7"/>
-      <c r="B8" s="10"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="9"/>
       <c r="D8" s="4"/>
       <c r="E8" s="7">
@@ -554,9 +602,9 @@
         <v>1.0</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I8" s="9"/>
@@ -569,10 +617,10 @@
         <v>3.0</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E9" s="7">
         <v>42642.0</v>
@@ -581,10 +629,10 @@
         <v>3.0</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="I9" s="9"/>
     </row>
@@ -596,9 +644,9 @@
         <v>1.0</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="7">
@@ -608,9 +656,9 @@
         <v>2.0</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="9"/>
@@ -625,9 +673,9 @@
         <v>0.5</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="7">
@@ -637,9 +685,9 @@
         <v>1.0</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J11" s="9"/>
@@ -653,12 +701,12 @@
         <v>6.0</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="10"/>
+      <c r="F12" s="12"/>
       <c r="G12" s="9"/>
       <c r="H12" s="4"/>
       <c r="J12" s="9"/>
@@ -672,9 +720,9 @@
         <v>2.5</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="7">
@@ -684,9 +732,9 @@
         <v>2.5</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -698,12 +746,12 @@
         <v>1.0</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="10"/>
+      <c r="F14" s="12"/>
       <c r="G14" s="9"/>
       <c r="H14" s="4"/>
     </row>
@@ -715,9 +763,9 @@
         <v>2.0</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="13">
@@ -727,9 +775,9 @@
         <v>0.5</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -741,12 +789,12 @@
         <v>1.0</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="10"/>
+      <c r="F16" s="12"/>
       <c r="G16" s="9"/>
       <c r="H16" s="4"/>
     </row>
@@ -758,18 +806,27 @@
         <v>2.0</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="4"/>
+      <c r="E17" s="13">
+        <v>42655.0</v>
+      </c>
+      <c r="F17" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="7"/>
-      <c r="B18" s="10"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="9"/>
       <c r="D18" s="4"/>
       <c r="E18" s="13">
@@ -779,10 +836,10 @@
         <v>3.0</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>31</v>
+        <v>3</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -793,10 +850,10 @@
         <v>1.0</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>32</v>
+        <v>3</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="E19" s="13">
         <v>42657.0</v>
@@ -805,10 +862,10 @@
         <v>1.0</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I19" s="14"/>
     </row>
@@ -820,10 +877,10 @@
         <v>0.5</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E20" s="13">
         <v>42657.0</v>
@@ -832,10 +889,10 @@
         <v>0.5</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I20" s="14"/>
     </row>
@@ -847,10 +904,10 @@
         <v>1.0</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>33</v>
+        <v>3</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E21" s="13">
         <v>42657.0</v>
@@ -859,14 +916,14 @@
         <v>4.0</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>31</v>
+        <v>3</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="10"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="9"/>
       <c r="D22" s="4"/>
       <c r="E22" s="13">
@@ -876,10 +933,10 @@
         <v>2.0</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
@@ -890,10 +947,10 @@
         <v>2.0</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>34</v>
+        <v>3</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="E23" s="13">
         <v>42659.0</v>
@@ -902,10 +959,10 @@
         <v>2.0</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24">
@@ -920,14 +977,14 @@
         <v>3.0</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="10"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="9"/>
       <c r="D25" s="4"/>
       <c r="E25" s="13">
@@ -937,10 +994,10 @@
         <v>2.0</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>36</v>
+        <v>11</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="26">
@@ -951,10 +1008,10 @@
         <v>4.0</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>37</v>
+        <v>11</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="E26" s="13">
         <v>42671.0</v>
@@ -963,10 +1020,10 @@
         <v>4.0</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>38</v>
+        <v>11</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="27">
@@ -977,12 +1034,12 @@
         <v>0.5</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="10"/>
+        <v>3</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="12"/>
       <c r="G27" s="9"/>
       <c r="H27" s="4"/>
     </row>
@@ -994,12 +1051,12 @@
         <v>1.0</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F28" s="10"/>
+        <v>41</v>
+      </c>
+      <c r="F28" s="12"/>
       <c r="G28" s="9"/>
       <c r="H28" s="4"/>
     </row>
@@ -1011,12 +1068,12 @@
         <v>1.5</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F29" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="12"/>
       <c r="G29" s="9"/>
       <c r="H29" s="4"/>
     </row>
@@ -1028,10 +1085,10 @@
         <v>2.0</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>42</v>
+        <v>3</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E30" s="13">
         <v>42677.0</v>
@@ -1040,10 +1097,10 @@
         <v>2.0</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>42</v>
+        <v>3</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="31">
@@ -1054,12 +1111,12 @@
         <v>1.5</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F31" s="10"/>
+        <v>7</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="12"/>
       <c r="G31" s="9"/>
       <c r="H31" s="4"/>
     </row>
@@ -1071,12 +1128,12 @@
         <v>1.0</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32" s="10"/>
+        <v>13</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="12"/>
       <c r="G32" s="9"/>
       <c r="H32" s="4"/>
     </row>
@@ -1088,12 +1145,12 @@
         <v>0.5</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" s="10"/>
+        <v>3</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="12"/>
       <c r="G33" s="9"/>
       <c r="H33" s="4"/>
     </row>
@@ -1105,10 +1162,10 @@
         <v>1.5</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>46</v>
+        <v>3</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="E34" s="13">
         <v>42680.0</v>
@@ -1117,10 +1174,10 @@
         <v>0.5</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>47</v>
+        <v>3</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="35">
@@ -1131,10 +1188,10 @@
         <v>1.0</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>48</v>
+        <v>14</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="E35" s="13">
         <v>42685.0</v>
@@ -1143,10 +1200,10 @@
         <v>1.0</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>49</v>
+        <v>11</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="36">
@@ -1157,10 +1214,10 @@
         <v>1.0</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>50</v>
+        <v>3</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="E36" s="13">
         <v>42685.0</v>
@@ -1169,10 +1226,10 @@
         <v>4.0</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>51</v>
+        <v>11</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="37">
@@ -1183,10 +1240,10 @@
         <v>4.0</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>52</v>
+        <v>7</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="E37" s="13">
         <v>42686.0</v>
@@ -1195,10 +1252,10 @@
         <v>3.0</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>53</v>
+        <v>11</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="38">
@@ -1209,10 +1266,10 @@
         <v>1.0</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>54</v>
+        <v>3</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E38" s="13">
         <v>42687.0</v>
@@ -1221,10 +1278,10 @@
         <v>1.0</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>53</v>
+        <v>11</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="39">
@@ -1235,6041 +1292,6309 @@
         <v>1.0</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F39" s="10"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="13">
+        <v>42687.0</v>
+      </c>
+      <c r="F39" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="40">
-      <c r="B40" s="10"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="4"/>
-      <c r="F40" s="10"/>
+      <c r="A40" s="13">
+        <v>42691.0</v>
+      </c>
+      <c r="B40" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" s="12"/>
       <c r="G40" s="9"/>
       <c r="H40" s="4"/>
     </row>
     <row r="41">
-      <c r="B41" s="10"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="4"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="4"/>
+      <c r="A41" s="13">
+        <v>42691.0</v>
+      </c>
+      <c r="B41" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="42">
-      <c r="B42" s="10"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="4"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="4"/>
+      <c r="A42" s="13">
+        <v>42691.0</v>
+      </c>
+      <c r="B42" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="13">
+        <v>42691.0</v>
+      </c>
+      <c r="F42" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="43">
-      <c r="B43" s="10"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="4"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="4"/>
+      <c r="A43" s="13">
+        <v>42691.0</v>
+      </c>
+      <c r="B43" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" s="13">
+        <v>42691.0</v>
+      </c>
+      <c r="F43" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="44">
-      <c r="B44" s="10"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="8"/>
       <c r="C44" s="9"/>
-      <c r="D44" s="4"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="4"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="13">
+        <v>42693.0</v>
+      </c>
+      <c r="F44" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="45">
-      <c r="B45" s="10"/>
+      <c r="B45" s="12"/>
       <c r="C45" s="9"/>
       <c r="D45" s="4"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="4"/>
+      <c r="E45" s="13">
+        <v>42693.0</v>
+      </c>
+      <c r="F45" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="46">
-      <c r="B46" s="10"/>
+      <c r="B46" s="12"/>
       <c r="C46" s="9"/>
       <c r="D46" s="4"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="4"/>
+      <c r="E46" s="13">
+        <v>42694.0</v>
+      </c>
+      <c r="F46" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="47">
-      <c r="B47" s="10"/>
+      <c r="B47" s="12"/>
       <c r="C47" s="9"/>
       <c r="D47" s="4"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="4"/>
+      <c r="E47" s="13">
+        <v>42694.0</v>
+      </c>
+      <c r="F47" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="48">
-      <c r="B48" s="10"/>
+      <c r="B48" s="12"/>
       <c r="C48" s="9"/>
       <c r="D48" s="4"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="4"/>
+      <c r="E48" s="13">
+        <v>42697.0</v>
+      </c>
+      <c r="F48" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="49">
-      <c r="B49" s="10"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="4"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="4"/>
+      <c r="A49" s="13">
+        <v>42701.0</v>
+      </c>
+      <c r="B49" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" s="13">
+        <v>42698.0</v>
+      </c>
+      <c r="F49" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="50">
-      <c r="B50" s="10"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="4"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="4"/>
+      <c r="A50" s="13">
+        <v>42702.0</v>
+      </c>
+      <c r="B50" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E50" s="13">
+        <v>42702.0</v>
+      </c>
+      <c r="F50" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="51">
-      <c r="B51" s="10"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="4"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="4"/>
+      <c r="A51" s="13">
+        <v>42702.0</v>
+      </c>
+      <c r="B51" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E51" s="13">
+        <v>42702.0</v>
+      </c>
+      <c r="F51" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="52">
-      <c r="B52" s="10"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="4"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="4"/>
+      <c r="A52" s="13">
+        <v>42702.0</v>
+      </c>
+      <c r="B52" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E52" s="13">
+        <v>42702.0</v>
+      </c>
+      <c r="F52" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="53">
-      <c r="B53" s="10"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="4"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="4"/>
+      <c r="A53" s="13">
+        <v>42703.0</v>
+      </c>
+      <c r="B53" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E53" s="13">
+        <v>42703.0</v>
+      </c>
+      <c r="F53" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="54">
-      <c r="B54" s="10"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="4"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="4"/>
+      <c r="A54" s="13">
+        <v>42703.0</v>
+      </c>
+      <c r="B54" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E54" s="13">
+        <v>42703.0</v>
+      </c>
+      <c r="F54" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="55">
-      <c r="B55" s="10"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="4"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="4"/>
+      <c r="A55" s="13">
+        <v>42704.0</v>
+      </c>
+      <c r="B55" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="13">
+        <v>42704.0</v>
+      </c>
+      <c r="F55" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="56">
-      <c r="B56" s="10"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="4"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="4"/>
+      <c r="A56" s="13">
+        <v>42704.0</v>
+      </c>
+      <c r="B56" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E56" s="13">
+        <v>42704.0</v>
+      </c>
+      <c r="F56" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="57">
-      <c r="B57" s="10"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="4"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="4"/>
+      <c r="A57" s="13">
+        <v>42704.0</v>
+      </c>
+      <c r="B57" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E57" s="13">
+        <v>42704.0</v>
+      </c>
+      <c r="F57" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="58">
-      <c r="B58" s="10"/>
+      <c r="B58" s="12"/>
       <c r="C58" s="9"/>
       <c r="D58" s="4"/>
-      <c r="F58" s="10"/>
+      <c r="F58" s="12"/>
       <c r="G58" s="9"/>
       <c r="H58" s="4"/>
     </row>
     <row r="59">
-      <c r="B59" s="10"/>
+      <c r="B59" s="12"/>
       <c r="C59" s="9"/>
       <c r="D59" s="4"/>
-      <c r="F59" s="10"/>
+      <c r="F59" s="12"/>
       <c r="G59" s="9"/>
       <c r="H59" s="4"/>
     </row>
     <row r="60">
-      <c r="B60" s="10"/>
+      <c r="B60" s="12"/>
       <c r="C60" s="9"/>
       <c r="D60" s="4"/>
-      <c r="F60" s="10"/>
+      <c r="F60" s="12"/>
       <c r="G60" s="9"/>
       <c r="H60" s="4"/>
     </row>
     <row r="61">
-      <c r="B61" s="10"/>
+      <c r="B61" s="12"/>
       <c r="C61" s="9"/>
       <c r="D61" s="4"/>
-      <c r="F61" s="10"/>
+      <c r="F61" s="12"/>
       <c r="G61" s="9"/>
       <c r="H61" s="4"/>
     </row>
     <row r="62">
-      <c r="B62" s="10"/>
+      <c r="B62" s="12"/>
       <c r="C62" s="9"/>
       <c r="D62" s="4"/>
-      <c r="F62" s="10"/>
+      <c r="F62" s="12"/>
       <c r="G62" s="9"/>
       <c r="H62" s="4"/>
     </row>
     <row r="63">
-      <c r="B63" s="10"/>
+      <c r="B63" s="12"/>
       <c r="C63" s="9"/>
       <c r="D63" s="4"/>
-      <c r="F63" s="10"/>
+      <c r="F63" s="12"/>
       <c r="G63" s="9"/>
       <c r="H63" s="4"/>
     </row>
     <row r="64">
-      <c r="B64" s="10"/>
+      <c r="B64" s="12"/>
       <c r="C64" s="9"/>
       <c r="D64" s="4"/>
-      <c r="F64" s="10"/>
+      <c r="F64" s="12"/>
       <c r="G64" s="9"/>
       <c r="H64" s="4"/>
     </row>
     <row r="65">
-      <c r="B65" s="10"/>
+      <c r="B65" s="12"/>
       <c r="C65" s="9"/>
       <c r="D65" s="4"/>
-      <c r="F65" s="10"/>
+      <c r="F65" s="12"/>
       <c r="G65" s="9"/>
       <c r="H65" s="4"/>
     </row>
     <row r="66">
-      <c r="B66" s="10"/>
+      <c r="B66" s="12"/>
       <c r="C66" s="9"/>
       <c r="D66" s="4"/>
-      <c r="F66" s="10"/>
+      <c r="F66" s="12"/>
       <c r="G66" s="9"/>
       <c r="H66" s="4"/>
     </row>
     <row r="67">
-      <c r="B67" s="10"/>
+      <c r="B67" s="12"/>
       <c r="C67" s="9"/>
       <c r="D67" s="4"/>
-      <c r="F67" s="10"/>
+      <c r="F67" s="12"/>
       <c r="G67" s="9"/>
       <c r="H67" s="4"/>
     </row>
     <row r="68">
-      <c r="B68" s="10"/>
+      <c r="B68" s="12"/>
       <c r="C68" s="9"/>
       <c r="D68" s="4"/>
-      <c r="F68" s="10"/>
+      <c r="F68" s="12"/>
       <c r="G68" s="9"/>
       <c r="H68" s="4"/>
     </row>
     <row r="69">
-      <c r="B69" s="10"/>
+      <c r="B69" s="12"/>
       <c r="C69" s="9"/>
       <c r="D69" s="4"/>
-      <c r="F69" s="10"/>
+      <c r="F69" s="12"/>
       <c r="G69" s="9"/>
       <c r="H69" s="4"/>
     </row>
     <row r="70">
-      <c r="B70" s="10"/>
+      <c r="B70" s="12"/>
       <c r="C70" s="9"/>
       <c r="D70" s="4"/>
-      <c r="F70" s="10"/>
+      <c r="F70" s="12"/>
       <c r="G70" s="9"/>
       <c r="H70" s="4"/>
     </row>
     <row r="71">
-      <c r="B71" s="10"/>
+      <c r="B71" s="12"/>
       <c r="C71" s="9"/>
       <c r="D71" s="4"/>
-      <c r="F71" s="10"/>
+      <c r="F71" s="12"/>
       <c r="G71" s="9"/>
       <c r="H71" s="4"/>
     </row>
     <row r="72">
-      <c r="B72" s="10"/>
+      <c r="B72" s="12"/>
       <c r="C72" s="9"/>
       <c r="D72" s="4"/>
-      <c r="F72" s="10"/>
+      <c r="F72" s="12"/>
       <c r="G72" s="9"/>
       <c r="H72" s="4"/>
     </row>
     <row r="73">
-      <c r="B73" s="10"/>
+      <c r="B73" s="12"/>
       <c r="C73" s="9"/>
       <c r="D73" s="4"/>
-      <c r="F73" s="10"/>
+      <c r="F73" s="12"/>
       <c r="G73" s="9"/>
       <c r="H73" s="4"/>
     </row>
     <row r="74">
-      <c r="B74" s="10"/>
+      <c r="B74" s="12"/>
       <c r="C74" s="9"/>
       <c r="D74" s="4"/>
-      <c r="F74" s="10"/>
+      <c r="F74" s="12"/>
       <c r="G74" s="9"/>
       <c r="H74" s="4"/>
     </row>
     <row r="75">
-      <c r="B75" s="10"/>
+      <c r="B75" s="12"/>
       <c r="C75" s="9"/>
       <c r="D75" s="4"/>
-      <c r="F75" s="10"/>
+      <c r="F75" s="12"/>
       <c r="G75" s="9"/>
       <c r="H75" s="4"/>
     </row>
     <row r="76">
-      <c r="B76" s="10"/>
+      <c r="B76" s="12"/>
       <c r="C76" s="9"/>
       <c r="D76" s="4"/>
-      <c r="F76" s="10"/>
+      <c r="F76" s="12"/>
       <c r="G76" s="9"/>
       <c r="H76" s="4"/>
     </row>
     <row r="77">
-      <c r="B77" s="10"/>
+      <c r="B77" s="12"/>
       <c r="C77" s="9"/>
       <c r="D77" s="4"/>
-      <c r="F77" s="10"/>
+      <c r="F77" s="12"/>
       <c r="G77" s="9"/>
       <c r="H77" s="4"/>
     </row>
     <row r="78">
-      <c r="B78" s="10"/>
+      <c r="B78" s="12"/>
       <c r="C78" s="9"/>
       <c r="D78" s="4"/>
-      <c r="F78" s="10"/>
+      <c r="F78" s="12"/>
       <c r="G78" s="9"/>
       <c r="H78" s="4"/>
     </row>
     <row r="79">
-      <c r="B79" s="10"/>
+      <c r="B79" s="12"/>
       <c r="C79" s="9"/>
       <c r="D79" s="4"/>
-      <c r="F79" s="10"/>
+      <c r="F79" s="12"/>
       <c r="G79" s="9"/>
       <c r="H79" s="4"/>
     </row>
     <row r="80">
-      <c r="B80" s="10"/>
+      <c r="B80" s="12"/>
       <c r="C80" s="9"/>
       <c r="D80" s="4"/>
-      <c r="F80" s="10"/>
+      <c r="F80" s="12"/>
       <c r="G80" s="9"/>
       <c r="H80" s="4"/>
     </row>
     <row r="81">
-      <c r="B81" s="10"/>
+      <c r="B81" s="12"/>
       <c r="C81" s="9"/>
       <c r="D81" s="4"/>
-      <c r="F81" s="10"/>
+      <c r="F81" s="12"/>
       <c r="G81" s="9"/>
       <c r="H81" s="4"/>
     </row>
     <row r="82">
-      <c r="B82" s="10"/>
+      <c r="B82" s="12"/>
       <c r="C82" s="9"/>
       <c r="D82" s="4"/>
-      <c r="F82" s="10"/>
+      <c r="F82" s="12"/>
       <c r="G82" s="9"/>
       <c r="H82" s="4"/>
     </row>
     <row r="83">
-      <c r="B83" s="10"/>
+      <c r="B83" s="12"/>
       <c r="C83" s="9"/>
       <c r="D83" s="4"/>
-      <c r="F83" s="10"/>
+      <c r="F83" s="12"/>
       <c r="G83" s="9"/>
       <c r="H83" s="4"/>
     </row>
     <row r="84">
-      <c r="B84" s="10"/>
+      <c r="B84" s="12"/>
       <c r="C84" s="9"/>
       <c r="D84" s="4"/>
-      <c r="F84" s="10"/>
+      <c r="F84" s="12"/>
       <c r="G84" s="9"/>
       <c r="H84" s="4"/>
     </row>
     <row r="85">
-      <c r="B85" s="10"/>
+      <c r="B85" s="12"/>
       <c r="C85" s="9"/>
       <c r="D85" s="4"/>
-      <c r="F85" s="10"/>
+      <c r="F85" s="12"/>
       <c r="G85" s="9"/>
       <c r="H85" s="4"/>
     </row>
     <row r="86">
-      <c r="B86" s="10"/>
+      <c r="B86" s="12"/>
       <c r="C86" s="9"/>
       <c r="D86" s="4"/>
-      <c r="F86" s="10"/>
+      <c r="F86" s="12"/>
       <c r="G86" s="9"/>
       <c r="H86" s="4"/>
     </row>
     <row r="87">
-      <c r="B87" s="10"/>
+      <c r="B87" s="12"/>
       <c r="C87" s="9"/>
       <c r="D87" s="4"/>
-      <c r="F87" s="10"/>
+      <c r="F87" s="12"/>
       <c r="G87" s="9"/>
       <c r="H87" s="4"/>
     </row>
     <row r="88">
-      <c r="B88" s="10"/>
+      <c r="B88" s="12"/>
       <c r="C88" s="9"/>
       <c r="D88" s="4"/>
-      <c r="F88" s="10"/>
+      <c r="F88" s="12"/>
       <c r="G88" s="9"/>
       <c r="H88" s="4"/>
     </row>
     <row r="89">
-      <c r="B89" s="10"/>
+      <c r="B89" s="12"/>
       <c r="C89" s="9"/>
       <c r="D89" s="4"/>
-      <c r="F89" s="10"/>
+      <c r="F89" s="12"/>
       <c r="G89" s="9"/>
       <c r="H89" s="4"/>
     </row>
     <row r="90">
-      <c r="B90" s="10"/>
+      <c r="B90" s="12"/>
       <c r="C90" s="9"/>
       <c r="D90" s="4"/>
-      <c r="F90" s="10"/>
+      <c r="F90" s="12"/>
       <c r="G90" s="9"/>
       <c r="H90" s="4"/>
     </row>
     <row r="91">
-      <c r="B91" s="10"/>
+      <c r="B91" s="12"/>
       <c r="C91" s="9"/>
       <c r="D91" s="4"/>
-      <c r="F91" s="10"/>
+      <c r="F91" s="12"/>
       <c r="G91" s="9"/>
       <c r="H91" s="4"/>
     </row>
     <row r="92">
-      <c r="B92" s="10"/>
+      <c r="B92" s="12"/>
       <c r="C92" s="9"/>
       <c r="D92" s="4"/>
-      <c r="F92" s="10"/>
+      <c r="F92" s="12"/>
       <c r="G92" s="9"/>
       <c r="H92" s="4"/>
     </row>
     <row r="93">
-      <c r="B93" s="10"/>
+      <c r="B93" s="12"/>
       <c r="C93" s="9"/>
       <c r="D93" s="4"/>
-      <c r="F93" s="10"/>
+      <c r="F93" s="12"/>
       <c r="G93" s="9"/>
       <c r="H93" s="4"/>
     </row>
     <row r="94">
-      <c r="B94" s="10"/>
+      <c r="B94" s="12"/>
       <c r="C94" s="9"/>
       <c r="D94" s="4"/>
-      <c r="F94" s="10"/>
+      <c r="F94" s="12"/>
       <c r="G94" s="9"/>
       <c r="H94" s="4"/>
     </row>
     <row r="95">
-      <c r="B95" s="10"/>
+      <c r="B95" s="12"/>
       <c r="C95" s="9"/>
       <c r="D95" s="4"/>
-      <c r="F95" s="10"/>
+      <c r="F95" s="12"/>
       <c r="G95" s="9"/>
       <c r="H95" s="4"/>
     </row>
     <row r="96">
-      <c r="B96" s="10"/>
+      <c r="B96" s="12"/>
       <c r="C96" s="9"/>
       <c r="D96" s="4"/>
-      <c r="F96" s="10"/>
+      <c r="F96" s="12"/>
       <c r="G96" s="9"/>
       <c r="H96" s="4"/>
     </row>
     <row r="97">
-      <c r="B97" s="10"/>
+      <c r="B97" s="12"/>
       <c r="C97" s="9"/>
       <c r="D97" s="4"/>
-      <c r="F97" s="10"/>
+      <c r="F97" s="12"/>
       <c r="G97" s="9"/>
       <c r="H97" s="4"/>
     </row>
     <row r="98">
-      <c r="B98" s="10"/>
+      <c r="B98" s="12"/>
       <c r="C98" s="9"/>
       <c r="D98" s="4"/>
-      <c r="F98" s="10"/>
+      <c r="F98" s="12"/>
       <c r="G98" s="9"/>
       <c r="H98" s="4"/>
     </row>
     <row r="99">
-      <c r="B99" s="10"/>
+      <c r="B99" s="12"/>
       <c r="C99" s="9"/>
       <c r="D99" s="4"/>
-      <c r="F99" s="10"/>
+      <c r="F99" s="12"/>
       <c r="G99" s="9"/>
       <c r="H99" s="4"/>
     </row>
     <row r="100">
-      <c r="B100" s="10"/>
+      <c r="B100" s="12"/>
       <c r="C100" s="9"/>
       <c r="D100" s="4"/>
-      <c r="F100" s="10"/>
+      <c r="F100" s="12"/>
       <c r="G100" s="9"/>
       <c r="H100" s="4"/>
     </row>
     <row r="101">
-      <c r="B101" s="10"/>
+      <c r="B101" s="12"/>
       <c r="C101" s="9"/>
       <c r="D101" s="4"/>
-      <c r="F101" s="10"/>
+      <c r="F101" s="12"/>
       <c r="G101" s="9"/>
       <c r="H101" s="4"/>
     </row>
     <row r="102">
-      <c r="B102" s="10"/>
+      <c r="B102" s="12"/>
       <c r="C102" s="9"/>
       <c r="D102" s="4"/>
-      <c r="F102" s="10"/>
+      <c r="F102" s="12"/>
       <c r="G102" s="9"/>
       <c r="H102" s="4"/>
     </row>
     <row r="103">
-      <c r="B103" s="10"/>
+      <c r="B103" s="12"/>
       <c r="C103" s="9"/>
       <c r="D103" s="4"/>
-      <c r="F103" s="10"/>
+      <c r="F103" s="12"/>
       <c r="G103" s="9"/>
       <c r="H103" s="4"/>
     </row>
     <row r="104">
-      <c r="B104" s="10"/>
+      <c r="B104" s="12"/>
       <c r="C104" s="9"/>
       <c r="D104" s="4"/>
-      <c r="F104" s="10"/>
+      <c r="F104" s="12"/>
       <c r="G104" s="9"/>
       <c r="H104" s="4"/>
     </row>
     <row r="105">
-      <c r="B105" s="10"/>
+      <c r="B105" s="12"/>
       <c r="C105" s="9"/>
       <c r="D105" s="4"/>
-      <c r="F105" s="10"/>
+      <c r="F105" s="12"/>
       <c r="G105" s="9"/>
       <c r="H105" s="4"/>
     </row>
     <row r="106">
-      <c r="B106" s="10"/>
+      <c r="B106" s="12"/>
       <c r="C106" s="9"/>
       <c r="D106" s="4"/>
-      <c r="F106" s="10"/>
+      <c r="F106" s="12"/>
       <c r="G106" s="9"/>
       <c r="H106" s="4"/>
     </row>
     <row r="107">
-      <c r="B107" s="10"/>
+      <c r="B107" s="12"/>
       <c r="C107" s="9"/>
       <c r="D107" s="4"/>
-      <c r="F107" s="10"/>
+      <c r="F107" s="12"/>
       <c r="G107" s="9"/>
       <c r="H107" s="4"/>
     </row>
     <row r="108">
-      <c r="B108" s="10"/>
+      <c r="B108" s="12"/>
       <c r="C108" s="9"/>
       <c r="D108" s="4"/>
-      <c r="F108" s="10"/>
+      <c r="F108" s="12"/>
       <c r="G108" s="9"/>
       <c r="H108" s="4"/>
     </row>
     <row r="109">
-      <c r="B109" s="10"/>
+      <c r="B109" s="12"/>
       <c r="C109" s="9"/>
       <c r="D109" s="4"/>
-      <c r="F109" s="10"/>
+      <c r="F109" s="12"/>
       <c r="G109" s="9"/>
       <c r="H109" s="4"/>
     </row>
     <row r="110">
-      <c r="B110" s="10"/>
+      <c r="B110" s="12"/>
       <c r="C110" s="9"/>
       <c r="D110" s="4"/>
-      <c r="F110" s="10"/>
+      <c r="F110" s="12"/>
       <c r="G110" s="9"/>
       <c r="H110" s="4"/>
     </row>
     <row r="111">
-      <c r="B111" s="10"/>
+      <c r="B111" s="12"/>
       <c r="C111" s="9"/>
       <c r="D111" s="4"/>
-      <c r="F111" s="10"/>
+      <c r="F111" s="12"/>
       <c r="G111" s="9"/>
       <c r="H111" s="4"/>
     </row>
     <row r="112">
-      <c r="B112" s="10"/>
+      <c r="B112" s="12"/>
       <c r="C112" s="9"/>
       <c r="D112" s="4"/>
-      <c r="F112" s="10"/>
+      <c r="F112" s="12"/>
       <c r="G112" s="9"/>
       <c r="H112" s="4"/>
     </row>
     <row r="113">
-      <c r="B113" s="10"/>
+      <c r="B113" s="12"/>
       <c r="C113" s="9"/>
       <c r="D113" s="4"/>
-      <c r="F113" s="10"/>
+      <c r="F113" s="12"/>
       <c r="G113" s="9"/>
       <c r="H113" s="4"/>
     </row>
     <row r="114">
-      <c r="B114" s="10"/>
+      <c r="B114" s="12"/>
       <c r="C114" s="9"/>
       <c r="D114" s="4"/>
-      <c r="F114" s="10"/>
+      <c r="F114" s="12"/>
       <c r="G114" s="9"/>
       <c r="H114" s="4"/>
     </row>
     <row r="115">
-      <c r="B115" s="10"/>
+      <c r="B115" s="12"/>
       <c r="C115" s="9"/>
       <c r="D115" s="4"/>
-      <c r="F115" s="10"/>
+      <c r="F115" s="12"/>
       <c r="G115" s="9"/>
       <c r="H115" s="4"/>
     </row>
     <row r="116">
-      <c r="B116" s="10"/>
+      <c r="B116" s="12"/>
       <c r="C116" s="9"/>
       <c r="D116" s="4"/>
-      <c r="F116" s="10"/>
+      <c r="F116" s="12"/>
       <c r="G116" s="9"/>
       <c r="H116" s="4"/>
     </row>
     <row r="117">
-      <c r="B117" s="10"/>
+      <c r="B117" s="12"/>
       <c r="C117" s="9"/>
       <c r="D117" s="4"/>
-      <c r="F117" s="10"/>
+      <c r="F117" s="12"/>
       <c r="G117" s="9"/>
       <c r="H117" s="4"/>
     </row>
     <row r="118">
-      <c r="B118" s="10"/>
+      <c r="B118" s="12"/>
       <c r="C118" s="9"/>
       <c r="D118" s="4"/>
-      <c r="F118" s="10"/>
+      <c r="F118" s="12"/>
       <c r="G118" s="9"/>
       <c r="H118" s="4"/>
     </row>
     <row r="119">
-      <c r="B119" s="10"/>
+      <c r="B119" s="12"/>
       <c r="C119" s="9"/>
       <c r="D119" s="4"/>
-      <c r="F119" s="10"/>
+      <c r="F119" s="12"/>
       <c r="G119" s="9"/>
       <c r="H119" s="4"/>
     </row>
     <row r="120">
-      <c r="B120" s="10"/>
+      <c r="B120" s="12"/>
       <c r="C120" s="9"/>
       <c r="D120" s="4"/>
-      <c r="F120" s="10"/>
+      <c r="F120" s="12"/>
       <c r="G120" s="9"/>
       <c r="H120" s="4"/>
     </row>
     <row r="121">
-      <c r="B121" s="10"/>
+      <c r="B121" s="12"/>
       <c r="C121" s="9"/>
       <c r="D121" s="4"/>
-      <c r="F121" s="10"/>
+      <c r="F121" s="12"/>
       <c r="G121" s="9"/>
       <c r="H121" s="4"/>
     </row>
     <row r="122">
-      <c r="B122" s="10"/>
+      <c r="B122" s="12"/>
       <c r="C122" s="9"/>
       <c r="D122" s="4"/>
-      <c r="F122" s="10"/>
+      <c r="F122" s="12"/>
       <c r="G122" s="9"/>
       <c r="H122" s="4"/>
     </row>
     <row r="123">
-      <c r="B123" s="10"/>
+      <c r="B123" s="12"/>
       <c r="C123" s="9"/>
       <c r="D123" s="4"/>
-      <c r="F123" s="10"/>
+      <c r="F123" s="12"/>
       <c r="G123" s="9"/>
       <c r="H123" s="4"/>
     </row>
     <row r="124">
-      <c r="B124" s="10"/>
+      <c r="B124" s="12"/>
       <c r="C124" s="9"/>
       <c r="D124" s="4"/>
-      <c r="F124" s="10"/>
+      <c r="F124" s="12"/>
       <c r="G124" s="9"/>
       <c r="H124" s="4"/>
     </row>
     <row r="125">
-      <c r="B125" s="10"/>
+      <c r="B125" s="12"/>
       <c r="C125" s="9"/>
       <c r="D125" s="4"/>
-      <c r="F125" s="10"/>
+      <c r="F125" s="12"/>
       <c r="G125" s="9"/>
       <c r="H125" s="4"/>
     </row>
     <row r="126">
-      <c r="B126" s="10"/>
+      <c r="B126" s="12"/>
       <c r="C126" s="9"/>
       <c r="D126" s="4"/>
-      <c r="F126" s="10"/>
+      <c r="F126" s="12"/>
       <c r="G126" s="9"/>
       <c r="H126" s="4"/>
     </row>
     <row r="127">
-      <c r="B127" s="10"/>
+      <c r="B127" s="12"/>
       <c r="C127" s="9"/>
       <c r="D127" s="4"/>
-      <c r="F127" s="10"/>
+      <c r="F127" s="12"/>
       <c r="G127" s="9"/>
       <c r="H127" s="4"/>
     </row>
     <row r="128">
-      <c r="B128" s="10"/>
+      <c r="B128" s="12"/>
       <c r="C128" s="9"/>
       <c r="D128" s="4"/>
-      <c r="F128" s="10"/>
+      <c r="F128" s="12"/>
       <c r="G128" s="9"/>
       <c r="H128" s="4"/>
     </row>
     <row r="129">
-      <c r="B129" s="10"/>
+      <c r="B129" s="12"/>
       <c r="C129" s="9"/>
       <c r="D129" s="4"/>
-      <c r="F129" s="10"/>
+      <c r="F129" s="12"/>
       <c r="G129" s="9"/>
       <c r="H129" s="4"/>
     </row>
     <row r="130">
-      <c r="B130" s="10"/>
+      <c r="B130" s="12"/>
       <c r="C130" s="9"/>
       <c r="D130" s="4"/>
-      <c r="F130" s="10"/>
+      <c r="F130" s="12"/>
       <c r="G130" s="9"/>
       <c r="H130" s="4"/>
     </row>
     <row r="131">
-      <c r="B131" s="10"/>
+      <c r="B131" s="12"/>
       <c r="C131" s="9"/>
       <c r="D131" s="4"/>
-      <c r="F131" s="10"/>
+      <c r="F131" s="12"/>
       <c r="G131" s="9"/>
       <c r="H131" s="4"/>
     </row>
     <row r="132">
-      <c r="B132" s="10"/>
+      <c r="B132" s="12"/>
       <c r="C132" s="9"/>
       <c r="D132" s="4"/>
-      <c r="F132" s="10"/>
+      <c r="F132" s="12"/>
       <c r="G132" s="9"/>
       <c r="H132" s="4"/>
     </row>
     <row r="133">
-      <c r="B133" s="10"/>
+      <c r="B133" s="12"/>
       <c r="C133" s="9"/>
       <c r="D133" s="4"/>
-      <c r="F133" s="10"/>
+      <c r="F133" s="12"/>
       <c r="G133" s="9"/>
       <c r="H133" s="4"/>
     </row>
     <row r="134">
-      <c r="B134" s="10"/>
+      <c r="B134" s="12"/>
       <c r="C134" s="9"/>
       <c r="D134" s="4"/>
-      <c r="F134" s="10"/>
+      <c r="F134" s="12"/>
       <c r="G134" s="9"/>
       <c r="H134" s="4"/>
     </row>
     <row r="135">
-      <c r="B135" s="10"/>
+      <c r="B135" s="12"/>
       <c r="C135" s="9"/>
       <c r="D135" s="4"/>
-      <c r="F135" s="10"/>
+      <c r="F135" s="12"/>
       <c r="G135" s="9"/>
       <c r="H135" s="4"/>
     </row>
     <row r="136">
-      <c r="B136" s="10"/>
+      <c r="B136" s="12"/>
       <c r="C136" s="9"/>
       <c r="D136" s="4"/>
-      <c r="F136" s="10"/>
+      <c r="F136" s="12"/>
       <c r="G136" s="9"/>
       <c r="H136" s="4"/>
     </row>
     <row r="137">
-      <c r="B137" s="10"/>
+      <c r="B137" s="12"/>
       <c r="C137" s="9"/>
       <c r="D137" s="4"/>
-      <c r="F137" s="10"/>
+      <c r="F137" s="12"/>
       <c r="G137" s="9"/>
       <c r="H137" s="4"/>
     </row>
     <row r="138">
-      <c r="B138" s="10"/>
+      <c r="B138" s="12"/>
       <c r="C138" s="9"/>
       <c r="D138" s="4"/>
-      <c r="F138" s="10"/>
+      <c r="F138" s="12"/>
       <c r="G138" s="9"/>
       <c r="H138" s="4"/>
     </row>
     <row r="139">
-      <c r="B139" s="10"/>
+      <c r="B139" s="12"/>
       <c r="C139" s="9"/>
       <c r="D139" s="4"/>
-      <c r="F139" s="10"/>
+      <c r="F139" s="12"/>
       <c r="G139" s="9"/>
       <c r="H139" s="4"/>
     </row>
     <row r="140">
-      <c r="B140" s="10"/>
+      <c r="B140" s="12"/>
       <c r="C140" s="9"/>
       <c r="D140" s="4"/>
-      <c r="F140" s="10"/>
+      <c r="F140" s="12"/>
       <c r="G140" s="9"/>
       <c r="H140" s="4"/>
     </row>
     <row r="141">
-      <c r="B141" s="10"/>
+      <c r="B141" s="12"/>
       <c r="C141" s="9"/>
       <c r="D141" s="4"/>
-      <c r="F141" s="10"/>
+      <c r="F141" s="12"/>
       <c r="G141" s="9"/>
       <c r="H141" s="4"/>
     </row>
     <row r="142">
-      <c r="B142" s="10"/>
+      <c r="B142" s="12"/>
       <c r="C142" s="9"/>
       <c r="D142" s="4"/>
-      <c r="F142" s="10"/>
+      <c r="F142" s="12"/>
       <c r="G142" s="9"/>
       <c r="H142" s="4"/>
     </row>
     <row r="143">
-      <c r="B143" s="10"/>
+      <c r="B143" s="12"/>
       <c r="C143" s="9"/>
       <c r="D143" s="4"/>
-      <c r="F143" s="10"/>
+      <c r="F143" s="12"/>
       <c r="G143" s="9"/>
       <c r="H143" s="4"/>
     </row>
     <row r="144">
-      <c r="B144" s="10"/>
+      <c r="B144" s="12"/>
       <c r="C144" s="9"/>
       <c r="D144" s="4"/>
-      <c r="F144" s="10"/>
+      <c r="F144" s="12"/>
       <c r="G144" s="9"/>
       <c r="H144" s="4"/>
     </row>
     <row r="145">
-      <c r="B145" s="10"/>
+      <c r="B145" s="12"/>
       <c r="C145" s="9"/>
       <c r="D145" s="4"/>
-      <c r="F145" s="10"/>
+      <c r="F145" s="12"/>
       <c r="G145" s="9"/>
       <c r="H145" s="4"/>
     </row>
     <row r="146">
-      <c r="B146" s="10"/>
+      <c r="B146" s="12"/>
       <c r="C146" s="9"/>
       <c r="D146" s="4"/>
-      <c r="F146" s="10"/>
+      <c r="F146" s="12"/>
       <c r="G146" s="9"/>
       <c r="H146" s="4"/>
     </row>
     <row r="147">
-      <c r="B147" s="10"/>
+      <c r="B147" s="12"/>
       <c r="C147" s="9"/>
       <c r="D147" s="4"/>
-      <c r="F147" s="10"/>
+      <c r="F147" s="12"/>
       <c r="G147" s="9"/>
       <c r="H147" s="4"/>
     </row>
     <row r="148">
-      <c r="B148" s="10"/>
+      <c r="B148" s="12"/>
       <c r="C148" s="9"/>
       <c r="D148" s="4"/>
-      <c r="F148" s="10"/>
+      <c r="F148" s="12"/>
       <c r="G148" s="9"/>
       <c r="H148" s="4"/>
     </row>
     <row r="149">
-      <c r="B149" s="10"/>
+      <c r="B149" s="12"/>
       <c r="C149" s="9"/>
       <c r="D149" s="4"/>
-      <c r="F149" s="10"/>
+      <c r="F149" s="12"/>
       <c r="G149" s="9"/>
       <c r="H149" s="4"/>
     </row>
     <row r="150">
-      <c r="B150" s="10"/>
+      <c r="B150" s="12"/>
       <c r="C150" s="9"/>
       <c r="D150" s="4"/>
-      <c r="F150" s="10"/>
+      <c r="F150" s="12"/>
       <c r="G150" s="9"/>
       <c r="H150" s="4"/>
     </row>
     <row r="151">
-      <c r="B151" s="10"/>
+      <c r="B151" s="12"/>
       <c r="C151" s="9"/>
       <c r="D151" s="4"/>
-      <c r="F151" s="10"/>
+      <c r="F151" s="12"/>
       <c r="G151" s="9"/>
       <c r="H151" s="4"/>
     </row>
     <row r="152">
-      <c r="B152" s="10"/>
+      <c r="B152" s="12"/>
       <c r="C152" s="9"/>
       <c r="D152" s="4"/>
-      <c r="F152" s="10"/>
+      <c r="F152" s="12"/>
       <c r="G152" s="9"/>
       <c r="H152" s="4"/>
     </row>
     <row r="153">
-      <c r="B153" s="10"/>
+      <c r="B153" s="12"/>
       <c r="C153" s="9"/>
       <c r="D153" s="4"/>
-      <c r="F153" s="10"/>
+      <c r="F153" s="12"/>
       <c r="G153" s="9"/>
       <c r="H153" s="4"/>
     </row>
     <row r="154">
-      <c r="B154" s="10"/>
+      <c r="B154" s="12"/>
       <c r="C154" s="9"/>
       <c r="D154" s="4"/>
-      <c r="F154" s="10"/>
+      <c r="F154" s="12"/>
       <c r="G154" s="9"/>
       <c r="H154" s="4"/>
     </row>
     <row r="155">
-      <c r="B155" s="10"/>
+      <c r="B155" s="12"/>
       <c r="C155" s="9"/>
       <c r="D155" s="4"/>
-      <c r="F155" s="10"/>
+      <c r="F155" s="12"/>
       <c r="G155" s="9"/>
       <c r="H155" s="4"/>
     </row>
     <row r="156">
-      <c r="B156" s="10"/>
+      <c r="B156" s="12"/>
       <c r="C156" s="9"/>
       <c r="D156" s="4"/>
-      <c r="F156" s="10"/>
+      <c r="F156" s="12"/>
       <c r="G156" s="9"/>
       <c r="H156" s="4"/>
     </row>
     <row r="157">
-      <c r="B157" s="10"/>
+      <c r="B157" s="12"/>
       <c r="C157" s="9"/>
       <c r="D157" s="4"/>
-      <c r="F157" s="10"/>
+      <c r="F157" s="12"/>
       <c r="G157" s="9"/>
       <c r="H157" s="4"/>
     </row>
     <row r="158">
-      <c r="B158" s="10"/>
+      <c r="B158" s="12"/>
       <c r="C158" s="9"/>
       <c r="D158" s="4"/>
-      <c r="F158" s="10"/>
+      <c r="F158" s="12"/>
       <c r="G158" s="9"/>
       <c r="H158" s="4"/>
     </row>
     <row r="159">
-      <c r="B159" s="10"/>
+      <c r="B159" s="12"/>
       <c r="C159" s="9"/>
       <c r="D159" s="4"/>
-      <c r="F159" s="10"/>
+      <c r="F159" s="12"/>
       <c r="G159" s="9"/>
       <c r="H159" s="4"/>
     </row>
     <row r="160">
-      <c r="B160" s="10"/>
+      <c r="B160" s="12"/>
       <c r="C160" s="9"/>
       <c r="D160" s="4"/>
-      <c r="F160" s="10"/>
+      <c r="F160" s="12"/>
       <c r="G160" s="9"/>
       <c r="H160" s="4"/>
     </row>
     <row r="161">
-      <c r="B161" s="10"/>
+      <c r="B161" s="12"/>
       <c r="C161" s="9"/>
       <c r="D161" s="4"/>
-      <c r="F161" s="10"/>
+      <c r="F161" s="12"/>
       <c r="G161" s="9"/>
       <c r="H161" s="4"/>
     </row>
     <row r="162">
-      <c r="B162" s="10"/>
+      <c r="B162" s="12"/>
       <c r="C162" s="9"/>
       <c r="D162" s="4"/>
-      <c r="F162" s="10"/>
+      <c r="F162" s="12"/>
       <c r="G162" s="9"/>
       <c r="H162" s="4"/>
     </row>
     <row r="163">
-      <c r="B163" s="10"/>
+      <c r="B163" s="12"/>
       <c r="C163" s="9"/>
       <c r="D163" s="4"/>
-      <c r="F163" s="10"/>
+      <c r="F163" s="12"/>
       <c r="G163" s="9"/>
       <c r="H163" s="4"/>
     </row>
     <row r="164">
-      <c r="B164" s="10"/>
+      <c r="B164" s="12"/>
       <c r="C164" s="9"/>
       <c r="D164" s="4"/>
-      <c r="F164" s="10"/>
+      <c r="F164" s="12"/>
       <c r="G164" s="9"/>
       <c r="H164" s="4"/>
     </row>
     <row r="165">
-      <c r="B165" s="10"/>
+      <c r="B165" s="12"/>
       <c r="C165" s="9"/>
       <c r="D165" s="4"/>
-      <c r="F165" s="10"/>
+      <c r="F165" s="12"/>
       <c r="G165" s="9"/>
       <c r="H165" s="4"/>
     </row>
     <row r="166">
-      <c r="B166" s="10"/>
+      <c r="B166" s="12"/>
       <c r="C166" s="9"/>
       <c r="D166" s="4"/>
-      <c r="F166" s="10"/>
+      <c r="F166" s="12"/>
       <c r="G166" s="9"/>
       <c r="H166" s="4"/>
     </row>
     <row r="167">
-      <c r="B167" s="10"/>
+      <c r="B167" s="12"/>
       <c r="C167" s="9"/>
       <c r="D167" s="4"/>
-      <c r="F167" s="10"/>
+      <c r="F167" s="12"/>
       <c r="G167" s="9"/>
       <c r="H167" s="4"/>
     </row>
     <row r="168">
-      <c r="B168" s="10"/>
+      <c r="B168" s="12"/>
       <c r="C168" s="9"/>
       <c r="D168" s="4"/>
-      <c r="F168" s="10"/>
+      <c r="F168" s="12"/>
       <c r="G168" s="9"/>
       <c r="H168" s="4"/>
     </row>
     <row r="169">
-      <c r="B169" s="10"/>
+      <c r="B169" s="12"/>
       <c r="C169" s="9"/>
       <c r="D169" s="4"/>
-      <c r="F169" s="10"/>
+      <c r="F169" s="12"/>
       <c r="G169" s="9"/>
       <c r="H169" s="4"/>
     </row>
     <row r="170">
-      <c r="B170" s="10"/>
+      <c r="B170" s="12"/>
       <c r="C170" s="9"/>
       <c r="D170" s="4"/>
-      <c r="F170" s="10"/>
+      <c r="F170" s="12"/>
       <c r="G170" s="9"/>
       <c r="H170" s="4"/>
     </row>
     <row r="171">
-      <c r="B171" s="10"/>
+      <c r="B171" s="12"/>
       <c r="C171" s="9"/>
       <c r="D171" s="4"/>
-      <c r="F171" s="10"/>
+      <c r="F171" s="12"/>
       <c r="G171" s="9"/>
       <c r="H171" s="4"/>
     </row>
     <row r="172">
-      <c r="B172" s="10"/>
+      <c r="B172" s="12"/>
       <c r="C172" s="9"/>
       <c r="D172" s="4"/>
-      <c r="F172" s="10"/>
+      <c r="F172" s="12"/>
       <c r="G172" s="9"/>
       <c r="H172" s="4"/>
     </row>
     <row r="173">
-      <c r="B173" s="10"/>
+      <c r="B173" s="12"/>
       <c r="C173" s="9"/>
       <c r="D173" s="4"/>
-      <c r="F173" s="10"/>
+      <c r="F173" s="12"/>
       <c r="G173" s="9"/>
       <c r="H173" s="4"/>
     </row>
     <row r="174">
-      <c r="B174" s="10"/>
+      <c r="B174" s="12"/>
       <c r="C174" s="9"/>
       <c r="D174" s="4"/>
-      <c r="F174" s="10"/>
+      <c r="F174" s="12"/>
       <c r="G174" s="9"/>
       <c r="H174" s="4"/>
     </row>
     <row r="175">
-      <c r="B175" s="10"/>
+      <c r="B175" s="12"/>
       <c r="C175" s="9"/>
       <c r="D175" s="4"/>
-      <c r="F175" s="10"/>
+      <c r="F175" s="12"/>
       <c r="G175" s="9"/>
       <c r="H175" s="4"/>
     </row>
     <row r="176">
-      <c r="B176" s="10"/>
+      <c r="B176" s="12"/>
       <c r="C176" s="9"/>
       <c r="D176" s="4"/>
-      <c r="F176" s="10"/>
+      <c r="F176" s="12"/>
       <c r="G176" s="9"/>
       <c r="H176" s="4"/>
     </row>
     <row r="177">
-      <c r="B177" s="10"/>
+      <c r="B177" s="12"/>
       <c r="C177" s="9"/>
       <c r="D177" s="4"/>
-      <c r="F177" s="10"/>
+      <c r="F177" s="12"/>
       <c r="G177" s="9"/>
       <c r="H177" s="4"/>
     </row>
     <row r="178">
-      <c r="B178" s="10"/>
+      <c r="B178" s="12"/>
       <c r="C178" s="9"/>
       <c r="D178" s="4"/>
-      <c r="F178" s="10"/>
+      <c r="F178" s="12"/>
       <c r="G178" s="9"/>
       <c r="H178" s="4"/>
     </row>
     <row r="179">
-      <c r="B179" s="10"/>
+      <c r="B179" s="12"/>
       <c r="C179" s="9"/>
       <c r="D179" s="4"/>
-      <c r="F179" s="10"/>
+      <c r="F179" s="12"/>
       <c r="G179" s="9"/>
       <c r="H179" s="4"/>
     </row>
     <row r="180">
-      <c r="B180" s="10"/>
+      <c r="B180" s="12"/>
       <c r="C180" s="9"/>
       <c r="D180" s="4"/>
-      <c r="F180" s="10"/>
+      <c r="F180" s="12"/>
       <c r="G180" s="9"/>
       <c r="H180" s="4"/>
     </row>
     <row r="181">
-      <c r="B181" s="10"/>
+      <c r="B181" s="12"/>
       <c r="C181" s="9"/>
       <c r="D181" s="4"/>
-      <c r="F181" s="10"/>
+      <c r="F181" s="12"/>
       <c r="G181" s="9"/>
       <c r="H181" s="4"/>
     </row>
     <row r="182">
-      <c r="B182" s="10"/>
+      <c r="B182" s="12"/>
       <c r="C182" s="9"/>
       <c r="D182" s="4"/>
-      <c r="F182" s="10"/>
+      <c r="F182" s="12"/>
       <c r="G182" s="9"/>
       <c r="H182" s="4"/>
     </row>
     <row r="183">
-      <c r="B183" s="10"/>
+      <c r="B183" s="12"/>
       <c r="C183" s="9"/>
       <c r="D183" s="4"/>
-      <c r="F183" s="10"/>
+      <c r="F183" s="12"/>
       <c r="G183" s="9"/>
       <c r="H183" s="4"/>
     </row>
     <row r="184">
-      <c r="B184" s="10"/>
+      <c r="B184" s="12"/>
       <c r="C184" s="9"/>
       <c r="D184" s="4"/>
-      <c r="F184" s="10"/>
+      <c r="F184" s="12"/>
       <c r="G184" s="9"/>
       <c r="H184" s="4"/>
     </row>
     <row r="185">
-      <c r="B185" s="10"/>
+      <c r="B185" s="12"/>
       <c r="C185" s="9"/>
       <c r="D185" s="4"/>
-      <c r="F185" s="10"/>
+      <c r="F185" s="12"/>
       <c r="G185" s="9"/>
       <c r="H185" s="4"/>
     </row>
     <row r="186">
-      <c r="B186" s="10"/>
+      <c r="B186" s="12"/>
       <c r="C186" s="9"/>
       <c r="D186" s="4"/>
-      <c r="F186" s="10"/>
+      <c r="F186" s="12"/>
       <c r="G186" s="9"/>
       <c r="H186" s="4"/>
     </row>
     <row r="187">
-      <c r="B187" s="10"/>
+      <c r="B187" s="12"/>
       <c r="C187" s="9"/>
       <c r="D187" s="4"/>
-      <c r="F187" s="10"/>
+      <c r="F187" s="12"/>
       <c r="G187" s="9"/>
       <c r="H187" s="4"/>
     </row>
     <row r="188">
-      <c r="B188" s="10"/>
+      <c r="B188" s="12"/>
       <c r="C188" s="9"/>
       <c r="D188" s="4"/>
-      <c r="F188" s="10"/>
+      <c r="F188" s="12"/>
       <c r="G188" s="9"/>
       <c r="H188" s="4"/>
     </row>
     <row r="189">
-      <c r="B189" s="10"/>
+      <c r="B189" s="12"/>
       <c r="C189" s="9"/>
       <c r="D189" s="4"/>
-      <c r="F189" s="10"/>
+      <c r="F189" s="12"/>
       <c r="G189" s="9"/>
       <c r="H189" s="4"/>
     </row>
     <row r="190">
-      <c r="B190" s="10"/>
+      <c r="B190" s="12"/>
       <c r="C190" s="9"/>
       <c r="D190" s="4"/>
-      <c r="F190" s="10"/>
+      <c r="F190" s="12"/>
       <c r="G190" s="9"/>
       <c r="H190" s="4"/>
     </row>
     <row r="191">
-      <c r="B191" s="10"/>
+      <c r="B191" s="12"/>
       <c r="C191" s="9"/>
       <c r="D191" s="4"/>
-      <c r="F191" s="10"/>
+      <c r="F191" s="12"/>
       <c r="G191" s="9"/>
       <c r="H191" s="4"/>
     </row>
     <row r="192">
-      <c r="B192" s="10"/>
+      <c r="B192" s="12"/>
       <c r="C192" s="9"/>
       <c r="D192" s="4"/>
-      <c r="F192" s="10"/>
+      <c r="F192" s="12"/>
       <c r="G192" s="9"/>
       <c r="H192" s="4"/>
     </row>
     <row r="193">
-      <c r="B193" s="10"/>
+      <c r="B193" s="12"/>
       <c r="C193" s="9"/>
       <c r="D193" s="4"/>
-      <c r="F193" s="10"/>
+      <c r="F193" s="12"/>
       <c r="G193" s="9"/>
       <c r="H193" s="4"/>
     </row>
     <row r="194">
-      <c r="B194" s="10"/>
+      <c r="B194" s="12"/>
       <c r="C194" s="9"/>
       <c r="D194" s="4"/>
-      <c r="F194" s="10"/>
+      <c r="F194" s="12"/>
       <c r="G194" s="9"/>
       <c r="H194" s="4"/>
     </row>
     <row r="195">
-      <c r="B195" s="10"/>
+      <c r="B195" s="12"/>
       <c r="C195" s="9"/>
       <c r="D195" s="4"/>
-      <c r="F195" s="10"/>
+      <c r="F195" s="12"/>
       <c r="G195" s="9"/>
       <c r="H195" s="4"/>
     </row>
     <row r="196">
-      <c r="B196" s="10"/>
+      <c r="B196" s="12"/>
       <c r="C196" s="9"/>
       <c r="D196" s="4"/>
-      <c r="F196" s="10"/>
+      <c r="F196" s="12"/>
       <c r="G196" s="9"/>
       <c r="H196" s="4"/>
     </row>
     <row r="197">
-      <c r="B197" s="10"/>
+      <c r="B197" s="12"/>
       <c r="C197" s="9"/>
       <c r="D197" s="4"/>
-      <c r="F197" s="10"/>
+      <c r="F197" s="12"/>
       <c r="G197" s="9"/>
       <c r="H197" s="4"/>
     </row>
     <row r="198">
-      <c r="B198" s="10"/>
+      <c r="B198" s="12"/>
       <c r="C198" s="9"/>
       <c r="D198" s="4"/>
-      <c r="F198" s="10"/>
+      <c r="F198" s="12"/>
       <c r="G198" s="9"/>
       <c r="H198" s="4"/>
     </row>
     <row r="199">
-      <c r="B199" s="10"/>
+      <c r="B199" s="12"/>
       <c r="C199" s="9"/>
       <c r="D199" s="4"/>
-      <c r="F199" s="10"/>
+      <c r="F199" s="12"/>
       <c r="G199" s="9"/>
       <c r="H199" s="4"/>
     </row>
     <row r="200">
-      <c r="B200" s="10"/>
+      <c r="B200" s="12"/>
       <c r="C200" s="9"/>
       <c r="D200" s="4"/>
-      <c r="F200" s="10"/>
+      <c r="F200" s="12"/>
       <c r="G200" s="9"/>
       <c r="H200" s="4"/>
     </row>
     <row r="201">
-      <c r="B201" s="10"/>
+      <c r="B201" s="12"/>
       <c r="D201" s="4"/>
-      <c r="F201" s="10"/>
+      <c r="F201" s="12"/>
       <c r="H201" s="4"/>
     </row>
     <row r="202">
-      <c r="B202" s="10"/>
+      <c r="B202" s="12"/>
       <c r="D202" s="4"/>
-      <c r="F202" s="10"/>
+      <c r="F202" s="12"/>
       <c r="H202" s="4"/>
     </row>
     <row r="203">
-      <c r="B203" s="10"/>
+      <c r="B203" s="12"/>
       <c r="D203" s="4"/>
-      <c r="F203" s="10"/>
+      <c r="F203" s="12"/>
       <c r="H203" s="4"/>
     </row>
     <row r="204">
-      <c r="B204" s="10"/>
+      <c r="B204" s="12"/>
       <c r="D204" s="4"/>
-      <c r="F204" s="10"/>
+      <c r="F204" s="12"/>
       <c r="H204" s="4"/>
     </row>
     <row r="205">
-      <c r="B205" s="10"/>
+      <c r="B205" s="12"/>
       <c r="D205" s="4"/>
-      <c r="F205" s="10"/>
+      <c r="F205" s="12"/>
       <c r="H205" s="4"/>
     </row>
     <row r="206">
-      <c r="B206" s="10"/>
+      <c r="B206" s="12"/>
       <c r="D206" s="4"/>
-      <c r="F206" s="10"/>
+      <c r="F206" s="12"/>
       <c r="H206" s="4"/>
     </row>
     <row r="207">
-      <c r="B207" s="10"/>
+      <c r="B207" s="12"/>
       <c r="D207" s="4"/>
-      <c r="F207" s="10"/>
+      <c r="F207" s="12"/>
       <c r="H207" s="4"/>
     </row>
     <row r="208">
-      <c r="B208" s="10"/>
+      <c r="B208" s="12"/>
       <c r="D208" s="4"/>
-      <c r="F208" s="10"/>
+      <c r="F208" s="12"/>
       <c r="H208" s="4"/>
     </row>
     <row r="209">
-      <c r="B209" s="10"/>
+      <c r="B209" s="12"/>
       <c r="D209" s="4"/>
-      <c r="F209" s="10"/>
+      <c r="F209" s="12"/>
       <c r="H209" s="4"/>
     </row>
     <row r="210">
-      <c r="B210" s="10"/>
+      <c r="B210" s="12"/>
       <c r="D210" s="4"/>
-      <c r="F210" s="10"/>
+      <c r="F210" s="12"/>
       <c r="H210" s="4"/>
     </row>
     <row r="211">
-      <c r="B211" s="10"/>
+      <c r="B211" s="12"/>
       <c r="D211" s="4"/>
-      <c r="F211" s="10"/>
+      <c r="F211" s="12"/>
       <c r="H211" s="4"/>
     </row>
     <row r="212">
-      <c r="B212" s="10"/>
+      <c r="B212" s="12"/>
       <c r="D212" s="4"/>
-      <c r="F212" s="10"/>
+      <c r="F212" s="12"/>
       <c r="H212" s="4"/>
     </row>
     <row r="213">
-      <c r="B213" s="10"/>
+      <c r="B213" s="12"/>
       <c r="D213" s="4"/>
-      <c r="F213" s="10"/>
+      <c r="F213" s="12"/>
       <c r="H213" s="4"/>
     </row>
     <row r="214">
-      <c r="B214" s="10"/>
+      <c r="B214" s="12"/>
       <c r="D214" s="4"/>
-      <c r="F214" s="10"/>
+      <c r="F214" s="12"/>
       <c r="H214" s="4"/>
     </row>
     <row r="215">
-      <c r="B215" s="10"/>
+      <c r="B215" s="12"/>
       <c r="D215" s="4"/>
-      <c r="F215" s="10"/>
+      <c r="F215" s="12"/>
       <c r="H215" s="4"/>
     </row>
     <row r="216">
-      <c r="B216" s="10"/>
+      <c r="B216" s="12"/>
       <c r="D216" s="4"/>
-      <c r="F216" s="10"/>
+      <c r="F216" s="12"/>
       <c r="H216" s="4"/>
     </row>
     <row r="217">
-      <c r="B217" s="10"/>
+      <c r="B217" s="12"/>
       <c r="D217" s="4"/>
-      <c r="F217" s="10"/>
+      <c r="F217" s="12"/>
       <c r="H217" s="4"/>
     </row>
     <row r="218">
-      <c r="B218" s="10"/>
+      <c r="B218" s="12"/>
       <c r="D218" s="4"/>
-      <c r="F218" s="10"/>
+      <c r="F218" s="12"/>
       <c r="H218" s="4"/>
     </row>
     <row r="219">
-      <c r="B219" s="10"/>
+      <c r="B219" s="12"/>
       <c r="D219" s="4"/>
-      <c r="F219" s="10"/>
+      <c r="F219" s="12"/>
       <c r="H219" s="4"/>
     </row>
     <row r="220">
-      <c r="B220" s="10"/>
+      <c r="B220" s="12"/>
       <c r="D220" s="4"/>
-      <c r="F220" s="10"/>
+      <c r="F220" s="12"/>
       <c r="H220" s="4"/>
     </row>
     <row r="221">
-      <c r="B221" s="10"/>
+      <c r="B221" s="12"/>
       <c r="D221" s="4"/>
-      <c r="F221" s="10"/>
+      <c r="F221" s="12"/>
       <c r="H221" s="4"/>
     </row>
     <row r="222">
-      <c r="B222" s="10"/>
+      <c r="B222" s="12"/>
       <c r="D222" s="4"/>
-      <c r="F222" s="10"/>
+      <c r="F222" s="12"/>
       <c r="H222" s="4"/>
     </row>
     <row r="223">
-      <c r="B223" s="10"/>
+      <c r="B223" s="12"/>
       <c r="D223" s="4"/>
-      <c r="F223" s="10"/>
+      <c r="F223" s="12"/>
       <c r="H223" s="4"/>
     </row>
     <row r="224">
-      <c r="B224" s="10"/>
+      <c r="B224" s="12"/>
       <c r="D224" s="4"/>
-      <c r="F224" s="10"/>
+      <c r="F224" s="12"/>
       <c r="H224" s="4"/>
     </row>
     <row r="225">
-      <c r="B225" s="10"/>
+      <c r="B225" s="12"/>
       <c r="D225" s="4"/>
-      <c r="F225" s="10"/>
+      <c r="F225" s="12"/>
       <c r="H225" s="4"/>
     </row>
     <row r="226">
-      <c r="B226" s="10"/>
+      <c r="B226" s="12"/>
       <c r="D226" s="4"/>
-      <c r="F226" s="10"/>
+      <c r="F226" s="12"/>
       <c r="H226" s="4"/>
     </row>
     <row r="227">
-      <c r="B227" s="10"/>
+      <c r="B227" s="12"/>
       <c r="D227" s="4"/>
-      <c r="F227" s="10"/>
+      <c r="F227" s="12"/>
       <c r="H227" s="4"/>
     </row>
     <row r="228">
-      <c r="B228" s="10"/>
+      <c r="B228" s="12"/>
       <c r="D228" s="4"/>
-      <c r="F228" s="10"/>
+      <c r="F228" s="12"/>
       <c r="H228" s="4"/>
     </row>
     <row r="229">
-      <c r="B229" s="10"/>
+      <c r="B229" s="12"/>
       <c r="D229" s="4"/>
-      <c r="F229" s="10"/>
+      <c r="F229" s="12"/>
       <c r="H229" s="4"/>
     </row>
     <row r="230">
-      <c r="B230" s="10"/>
+      <c r="B230" s="12"/>
       <c r="D230" s="4"/>
-      <c r="F230" s="10"/>
+      <c r="F230" s="12"/>
       <c r="H230" s="4"/>
     </row>
     <row r="231">
-      <c r="B231" s="10"/>
+      <c r="B231" s="12"/>
       <c r="D231" s="4"/>
-      <c r="F231" s="10"/>
+      <c r="F231" s="12"/>
       <c r="H231" s="4"/>
     </row>
     <row r="232">
-      <c r="B232" s="10"/>
+      <c r="B232" s="12"/>
       <c r="D232" s="4"/>
-      <c r="F232" s="10"/>
+      <c r="F232" s="12"/>
       <c r="H232" s="4"/>
     </row>
     <row r="233">
-      <c r="B233" s="10"/>
+      <c r="B233" s="12"/>
       <c r="D233" s="4"/>
-      <c r="F233" s="10"/>
+      <c r="F233" s="12"/>
       <c r="H233" s="4"/>
     </row>
     <row r="234">
-      <c r="B234" s="10"/>
+      <c r="B234" s="12"/>
       <c r="D234" s="4"/>
-      <c r="F234" s="10"/>
+      <c r="F234" s="12"/>
       <c r="H234" s="4"/>
     </row>
     <row r="235">
-      <c r="B235" s="10"/>
+      <c r="B235" s="12"/>
       <c r="D235" s="4"/>
-      <c r="F235" s="10"/>
+      <c r="F235" s="12"/>
       <c r="H235" s="4"/>
     </row>
     <row r="236">
-      <c r="B236" s="10"/>
+      <c r="B236" s="12"/>
       <c r="D236" s="4"/>
-      <c r="F236" s="10"/>
+      <c r="F236" s="12"/>
       <c r="H236" s="4"/>
     </row>
     <row r="237">
-      <c r="B237" s="10"/>
+      <c r="B237" s="12"/>
       <c r="D237" s="4"/>
-      <c r="F237" s="10"/>
+      <c r="F237" s="12"/>
       <c r="H237" s="4"/>
     </row>
     <row r="238">
-      <c r="B238" s="10"/>
+      <c r="B238" s="12"/>
       <c r="D238" s="4"/>
-      <c r="F238" s="10"/>
+      <c r="F238" s="12"/>
       <c r="H238" s="4"/>
     </row>
     <row r="239">
-      <c r="B239" s="10"/>
+      <c r="B239" s="12"/>
       <c r="D239" s="4"/>
-      <c r="F239" s="10"/>
+      <c r="F239" s="12"/>
       <c r="H239" s="4"/>
     </row>
     <row r="240">
-      <c r="B240" s="10"/>
+      <c r="B240" s="12"/>
       <c r="D240" s="4"/>
-      <c r="F240" s="10"/>
+      <c r="F240" s="12"/>
       <c r="H240" s="4"/>
     </row>
     <row r="241">
-      <c r="B241" s="10"/>
+      <c r="B241" s="12"/>
       <c r="D241" s="4"/>
-      <c r="F241" s="10"/>
+      <c r="F241" s="12"/>
       <c r="H241" s="4"/>
     </row>
     <row r="242">
-      <c r="B242" s="10"/>
+      <c r="B242" s="12"/>
       <c r="D242" s="4"/>
-      <c r="F242" s="10"/>
+      <c r="F242" s="12"/>
       <c r="H242" s="4"/>
     </row>
     <row r="243">
-      <c r="B243" s="10"/>
+      <c r="B243" s="12"/>
       <c r="D243" s="4"/>
-      <c r="F243" s="10"/>
+      <c r="F243" s="12"/>
       <c r="H243" s="4"/>
     </row>
     <row r="244">
-      <c r="B244" s="10"/>
+      <c r="B244" s="12"/>
       <c r="D244" s="4"/>
-      <c r="F244" s="10"/>
+      <c r="F244" s="12"/>
       <c r="H244" s="4"/>
     </row>
     <row r="245">
-      <c r="B245" s="10"/>
+      <c r="B245" s="12"/>
       <c r="D245" s="4"/>
-      <c r="F245" s="10"/>
+      <c r="F245" s="12"/>
       <c r="H245" s="4"/>
     </row>
     <row r="246">
-      <c r="B246" s="10"/>
+      <c r="B246" s="12"/>
       <c r="D246" s="4"/>
-      <c r="F246" s="10"/>
+      <c r="F246" s="12"/>
       <c r="H246" s="4"/>
     </row>
     <row r="247">
-      <c r="B247" s="10"/>
+      <c r="B247" s="12"/>
       <c r="D247" s="4"/>
-      <c r="F247" s="10"/>
+      <c r="F247" s="12"/>
       <c r="H247" s="4"/>
     </row>
     <row r="248">
-      <c r="B248" s="10"/>
+      <c r="B248" s="12"/>
       <c r="D248" s="4"/>
-      <c r="F248" s="10"/>
+      <c r="F248" s="12"/>
       <c r="H248" s="4"/>
     </row>
     <row r="249">
-      <c r="B249" s="10"/>
+      <c r="B249" s="12"/>
       <c r="D249" s="4"/>
-      <c r="F249" s="10"/>
+      <c r="F249" s="12"/>
       <c r="H249" s="4"/>
     </row>
     <row r="250">
-      <c r="B250" s="10"/>
+      <c r="B250" s="12"/>
       <c r="D250" s="4"/>
-      <c r="F250" s="10"/>
+      <c r="F250" s="12"/>
       <c r="H250" s="4"/>
     </row>
     <row r="251">
-      <c r="B251" s="10"/>
+      <c r="B251" s="12"/>
       <c r="D251" s="4"/>
-      <c r="F251" s="10"/>
+      <c r="F251" s="12"/>
       <c r="H251" s="4"/>
     </row>
     <row r="252">
-      <c r="B252" s="10"/>
+      <c r="B252" s="12"/>
       <c r="D252" s="4"/>
-      <c r="F252" s="10"/>
+      <c r="F252" s="12"/>
       <c r="H252" s="4"/>
     </row>
     <row r="253">
-      <c r="B253" s="10"/>
+      <c r="B253" s="12"/>
       <c r="D253" s="4"/>
-      <c r="F253" s="10"/>
+      <c r="F253" s="12"/>
       <c r="H253" s="4"/>
     </row>
     <row r="254">
-      <c r="B254" s="10"/>
+      <c r="B254" s="12"/>
       <c r="D254" s="4"/>
-      <c r="F254" s="10"/>
+      <c r="F254" s="12"/>
       <c r="H254" s="4"/>
     </row>
     <row r="255">
-      <c r="B255" s="10"/>
+      <c r="B255" s="12"/>
       <c r="D255" s="4"/>
-      <c r="F255" s="10"/>
+      <c r="F255" s="12"/>
       <c r="H255" s="4"/>
     </row>
     <row r="256">
-      <c r="B256" s="10"/>
+      <c r="B256" s="12"/>
       <c r="D256" s="4"/>
-      <c r="F256" s="10"/>
+      <c r="F256" s="12"/>
       <c r="H256" s="4"/>
     </row>
     <row r="257">
-      <c r="B257" s="10"/>
+      <c r="B257" s="12"/>
       <c r="D257" s="4"/>
-      <c r="F257" s="10"/>
+      <c r="F257" s="12"/>
       <c r="H257" s="4"/>
     </row>
     <row r="258">
-      <c r="B258" s="10"/>
+      <c r="B258" s="12"/>
       <c r="D258" s="4"/>
-      <c r="F258" s="10"/>
+      <c r="F258" s="12"/>
       <c r="H258" s="4"/>
     </row>
     <row r="259">
-      <c r="B259" s="10"/>
+      <c r="B259" s="12"/>
       <c r="D259" s="4"/>
-      <c r="F259" s="10"/>
+      <c r="F259" s="12"/>
       <c r="H259" s="4"/>
     </row>
     <row r="260">
-      <c r="B260" s="10"/>
+      <c r="B260" s="12"/>
       <c r="D260" s="4"/>
-      <c r="F260" s="10"/>
+      <c r="F260" s="12"/>
       <c r="H260" s="4"/>
     </row>
     <row r="261">
-      <c r="B261" s="10"/>
+      <c r="B261" s="12"/>
       <c r="D261" s="4"/>
-      <c r="F261" s="10"/>
+      <c r="F261" s="12"/>
       <c r="H261" s="4"/>
     </row>
     <row r="262">
-      <c r="B262" s="10"/>
+      <c r="B262" s="12"/>
       <c r="D262" s="4"/>
-      <c r="F262" s="10"/>
+      <c r="F262" s="12"/>
       <c r="H262" s="4"/>
     </row>
     <row r="263">
-      <c r="B263" s="10"/>
+      <c r="B263" s="12"/>
       <c r="D263" s="4"/>
-      <c r="F263" s="10"/>
+      <c r="F263" s="12"/>
       <c r="H263" s="4"/>
     </row>
     <row r="264">
-      <c r="B264" s="10"/>
+      <c r="B264" s="12"/>
       <c r="D264" s="4"/>
-      <c r="F264" s="10"/>
+      <c r="F264" s="12"/>
       <c r="H264" s="4"/>
     </row>
     <row r="265">
-      <c r="B265" s="10"/>
+      <c r="B265" s="12"/>
       <c r="D265" s="4"/>
-      <c r="F265" s="10"/>
+      <c r="F265" s="12"/>
       <c r="H265" s="4"/>
     </row>
     <row r="266">
-      <c r="B266" s="10"/>
+      <c r="B266" s="12"/>
       <c r="D266" s="4"/>
-      <c r="F266" s="10"/>
+      <c r="F266" s="12"/>
       <c r="H266" s="4"/>
     </row>
     <row r="267">
-      <c r="B267" s="10"/>
+      <c r="B267" s="12"/>
       <c r="D267" s="4"/>
-      <c r="F267" s="10"/>
+      <c r="F267" s="12"/>
       <c r="H267" s="4"/>
     </row>
     <row r="268">
-      <c r="B268" s="10"/>
+      <c r="B268" s="12"/>
       <c r="D268" s="4"/>
-      <c r="F268" s="10"/>
+      <c r="F268" s="12"/>
       <c r="H268" s="4"/>
     </row>
     <row r="269">
-      <c r="B269" s="10"/>
+      <c r="B269" s="12"/>
       <c r="D269" s="4"/>
-      <c r="F269" s="10"/>
+      <c r="F269" s="12"/>
       <c r="H269" s="4"/>
     </row>
     <row r="270">
-      <c r="B270" s="10"/>
+      <c r="B270" s="12"/>
       <c r="D270" s="4"/>
-      <c r="F270" s="10"/>
+      <c r="F270" s="12"/>
       <c r="H270" s="4"/>
     </row>
     <row r="271">
-      <c r="B271" s="10"/>
+      <c r="B271" s="12"/>
       <c r="D271" s="4"/>
-      <c r="F271" s="10"/>
+      <c r="F271" s="12"/>
       <c r="H271" s="4"/>
     </row>
     <row r="272">
-      <c r="B272" s="10"/>
+      <c r="B272" s="12"/>
       <c r="D272" s="4"/>
-      <c r="F272" s="10"/>
+      <c r="F272" s="12"/>
       <c r="H272" s="4"/>
     </row>
     <row r="273">
-      <c r="B273" s="10"/>
+      <c r="B273" s="12"/>
       <c r="D273" s="4"/>
-      <c r="F273" s="10"/>
+      <c r="F273" s="12"/>
       <c r="H273" s="4"/>
     </row>
     <row r="274">
-      <c r="B274" s="10"/>
+      <c r="B274" s="12"/>
       <c r="D274" s="4"/>
-      <c r="F274" s="10"/>
+      <c r="F274" s="12"/>
       <c r="H274" s="4"/>
     </row>
     <row r="275">
-      <c r="B275" s="10"/>
+      <c r="B275" s="12"/>
       <c r="D275" s="4"/>
-      <c r="F275" s="10"/>
+      <c r="F275" s="12"/>
       <c r="H275" s="4"/>
     </row>
     <row r="276">
-      <c r="B276" s="10"/>
+      <c r="B276" s="12"/>
       <c r="D276" s="4"/>
-      <c r="F276" s="10"/>
+      <c r="F276" s="12"/>
       <c r="H276" s="4"/>
     </row>
     <row r="277">
-      <c r="B277" s="10"/>
+      <c r="B277" s="12"/>
       <c r="D277" s="4"/>
-      <c r="F277" s="10"/>
+      <c r="F277" s="12"/>
       <c r="H277" s="4"/>
     </row>
     <row r="278">
-      <c r="B278" s="10"/>
+      <c r="B278" s="12"/>
       <c r="D278" s="4"/>
-      <c r="F278" s="10"/>
+      <c r="F278" s="12"/>
       <c r="H278" s="4"/>
     </row>
     <row r="279">
-      <c r="B279" s="10"/>
+      <c r="B279" s="12"/>
       <c r="D279" s="4"/>
-      <c r="F279" s="10"/>
+      <c r="F279" s="12"/>
       <c r="H279" s="4"/>
     </row>
     <row r="280">
-      <c r="B280" s="10"/>
+      <c r="B280" s="12"/>
       <c r="D280" s="4"/>
-      <c r="F280" s="10"/>
+      <c r="F280" s="12"/>
       <c r="H280" s="4"/>
     </row>
     <row r="281">
-      <c r="B281" s="10"/>
+      <c r="B281" s="12"/>
       <c r="D281" s="4"/>
-      <c r="F281" s="10"/>
+      <c r="F281" s="12"/>
       <c r="H281" s="4"/>
     </row>
     <row r="282">
-      <c r="B282" s="10"/>
+      <c r="B282" s="12"/>
       <c r="D282" s="4"/>
-      <c r="F282" s="10"/>
+      <c r="F282" s="12"/>
       <c r="H282" s="4"/>
     </row>
     <row r="283">
-      <c r="B283" s="10"/>
+      <c r="B283" s="12"/>
       <c r="D283" s="4"/>
-      <c r="F283" s="10"/>
+      <c r="F283" s="12"/>
       <c r="H283" s="4"/>
     </row>
     <row r="284">
-      <c r="B284" s="10"/>
+      <c r="B284" s="12"/>
       <c r="D284" s="4"/>
-      <c r="F284" s="10"/>
+      <c r="F284" s="12"/>
       <c r="H284" s="4"/>
     </row>
     <row r="285">
-      <c r="B285" s="10"/>
+      <c r="B285" s="12"/>
       <c r="D285" s="4"/>
-      <c r="F285" s="10"/>
+      <c r="F285" s="12"/>
       <c r="H285" s="4"/>
     </row>
     <row r="286">
-      <c r="B286" s="10"/>
+      <c r="B286" s="12"/>
       <c r="D286" s="4"/>
-      <c r="F286" s="10"/>
+      <c r="F286" s="12"/>
       <c r="H286" s="4"/>
     </row>
     <row r="287">
-      <c r="B287" s="10"/>
+      <c r="B287" s="12"/>
       <c r="D287" s="4"/>
-      <c r="F287" s="10"/>
+      <c r="F287" s="12"/>
       <c r="H287" s="4"/>
     </row>
     <row r="288">
-      <c r="B288" s="10"/>
+      <c r="B288" s="12"/>
       <c r="D288" s="4"/>
-      <c r="F288" s="10"/>
+      <c r="F288" s="12"/>
       <c r="H288" s="4"/>
     </row>
     <row r="289">
-      <c r="B289" s="10"/>
+      <c r="B289" s="12"/>
       <c r="D289" s="4"/>
-      <c r="F289" s="10"/>
+      <c r="F289" s="12"/>
       <c r="H289" s="4"/>
     </row>
     <row r="290">
-      <c r="B290" s="10"/>
+      <c r="B290" s="12"/>
       <c r="D290" s="4"/>
-      <c r="F290" s="10"/>
+      <c r="F290" s="12"/>
       <c r="H290" s="4"/>
     </row>
     <row r="291">
-      <c r="B291" s="10"/>
+      <c r="B291" s="12"/>
       <c r="D291" s="4"/>
-      <c r="F291" s="10"/>
+      <c r="F291" s="12"/>
       <c r="H291" s="4"/>
     </row>
     <row r="292">
-      <c r="B292" s="10"/>
+      <c r="B292" s="12"/>
       <c r="D292" s="4"/>
-      <c r="F292" s="10"/>
+      <c r="F292" s="12"/>
       <c r="H292" s="4"/>
     </row>
     <row r="293">
-      <c r="B293" s="10"/>
+      <c r="B293" s="12"/>
       <c r="D293" s="4"/>
-      <c r="F293" s="10"/>
+      <c r="F293" s="12"/>
       <c r="H293" s="4"/>
     </row>
     <row r="294">
-      <c r="B294" s="10"/>
+      <c r="B294" s="12"/>
       <c r="D294" s="4"/>
-      <c r="F294" s="10"/>
+      <c r="F294" s="12"/>
       <c r="H294" s="4"/>
     </row>
     <row r="295">
-      <c r="B295" s="10"/>
+      <c r="B295" s="12"/>
       <c r="D295" s="4"/>
-      <c r="F295" s="10"/>
+      <c r="F295" s="12"/>
       <c r="H295" s="4"/>
     </row>
     <row r="296">
-      <c r="B296" s="10"/>
+      <c r="B296" s="12"/>
       <c r="D296" s="4"/>
-      <c r="F296" s="10"/>
+      <c r="F296" s="12"/>
       <c r="H296" s="4"/>
     </row>
     <row r="297">
-      <c r="B297" s="10"/>
+      <c r="B297" s="12"/>
       <c r="D297" s="4"/>
-      <c r="F297" s="10"/>
+      <c r="F297" s="12"/>
       <c r="H297" s="4"/>
     </row>
     <row r="298">
-      <c r="B298" s="10"/>
+      <c r="B298" s="12"/>
       <c r="D298" s="4"/>
-      <c r="F298" s="10"/>
+      <c r="F298" s="12"/>
       <c r="H298" s="4"/>
     </row>
     <row r="299">
-      <c r="B299" s="10"/>
+      <c r="B299" s="12"/>
       <c r="D299" s="4"/>
-      <c r="F299" s="10"/>
+      <c r="F299" s="12"/>
       <c r="H299" s="4"/>
     </row>
     <row r="300">
-      <c r="B300" s="10"/>
+      <c r="B300" s="12"/>
       <c r="D300" s="4"/>
-      <c r="F300" s="10"/>
+      <c r="F300" s="12"/>
       <c r="H300" s="4"/>
     </row>
     <row r="301">
-      <c r="B301" s="10"/>
+      <c r="B301" s="12"/>
       <c r="D301" s="4"/>
-      <c r="F301" s="10"/>
+      <c r="F301" s="12"/>
       <c r="H301" s="4"/>
     </row>
     <row r="302">
-      <c r="B302" s="10"/>
+      <c r="B302" s="12"/>
       <c r="D302" s="4"/>
-      <c r="F302" s="10"/>
+      <c r="F302" s="12"/>
       <c r="H302" s="4"/>
     </row>
     <row r="303">
-      <c r="B303" s="10"/>
+      <c r="B303" s="12"/>
       <c r="D303" s="4"/>
-      <c r="F303" s="10"/>
+      <c r="F303" s="12"/>
       <c r="H303" s="4"/>
     </row>
     <row r="304">
-      <c r="B304" s="10"/>
+      <c r="B304" s="12"/>
       <c r="D304" s="4"/>
-      <c r="F304" s="10"/>
+      <c r="F304" s="12"/>
       <c r="H304" s="4"/>
     </row>
     <row r="305">
-      <c r="B305" s="10"/>
+      <c r="B305" s="12"/>
       <c r="D305" s="4"/>
-      <c r="F305" s="10"/>
+      <c r="F305" s="12"/>
       <c r="H305" s="4"/>
     </row>
     <row r="306">
-      <c r="B306" s="10"/>
+      <c r="B306" s="12"/>
       <c r="D306" s="4"/>
-      <c r="F306" s="10"/>
+      <c r="F306" s="12"/>
       <c r="H306" s="4"/>
     </row>
     <row r="307">
-      <c r="B307" s="10"/>
+      <c r="B307" s="12"/>
       <c r="D307" s="4"/>
-      <c r="F307" s="10"/>
+      <c r="F307" s="12"/>
       <c r="H307" s="4"/>
     </row>
     <row r="308">
-      <c r="B308" s="10"/>
+      <c r="B308" s="12"/>
       <c r="D308" s="4"/>
-      <c r="F308" s="10"/>
+      <c r="F308" s="12"/>
       <c r="H308" s="4"/>
     </row>
     <row r="309">
-      <c r="B309" s="10"/>
+      <c r="B309" s="12"/>
       <c r="D309" s="4"/>
-      <c r="F309" s="10"/>
+      <c r="F309" s="12"/>
       <c r="H309" s="4"/>
     </row>
     <row r="310">
-      <c r="B310" s="10"/>
+      <c r="B310" s="12"/>
       <c r="D310" s="4"/>
-      <c r="F310" s="10"/>
+      <c r="F310" s="12"/>
       <c r="H310" s="4"/>
     </row>
     <row r="311">
-      <c r="B311" s="10"/>
+      <c r="B311" s="12"/>
       <c r="D311" s="4"/>
-      <c r="F311" s="10"/>
+      <c r="F311" s="12"/>
       <c r="H311" s="4"/>
     </row>
     <row r="312">
-      <c r="B312" s="10"/>
+      <c r="B312" s="12"/>
       <c r="D312" s="4"/>
-      <c r="F312" s="10"/>
+      <c r="F312" s="12"/>
       <c r="H312" s="4"/>
     </row>
     <row r="313">
-      <c r="B313" s="10"/>
+      <c r="B313" s="12"/>
       <c r="D313" s="4"/>
-      <c r="F313" s="10"/>
+      <c r="F313" s="12"/>
       <c r="H313" s="4"/>
     </row>
     <row r="314">
-      <c r="B314" s="10"/>
+      <c r="B314" s="12"/>
       <c r="D314" s="4"/>
-      <c r="F314" s="10"/>
+      <c r="F314" s="12"/>
       <c r="H314" s="4"/>
     </row>
     <row r="315">
-      <c r="B315" s="10"/>
+      <c r="B315" s="12"/>
       <c r="D315" s="4"/>
-      <c r="F315" s="10"/>
+      <c r="F315" s="12"/>
       <c r="H315" s="4"/>
     </row>
     <row r="316">
-      <c r="B316" s="10"/>
+      <c r="B316" s="12"/>
       <c r="D316" s="4"/>
-      <c r="F316" s="10"/>
+      <c r="F316" s="12"/>
       <c r="H316" s="4"/>
     </row>
     <row r="317">
-      <c r="B317" s="10"/>
+      <c r="B317" s="12"/>
       <c r="D317" s="4"/>
-      <c r="F317" s="10"/>
+      <c r="F317" s="12"/>
       <c r="H317" s="4"/>
     </row>
     <row r="318">
-      <c r="B318" s="10"/>
+      <c r="B318" s="12"/>
       <c r="D318" s="4"/>
-      <c r="F318" s="10"/>
+      <c r="F318" s="12"/>
       <c r="H318" s="4"/>
     </row>
     <row r="319">
-      <c r="B319" s="10"/>
+      <c r="B319" s="12"/>
       <c r="D319" s="4"/>
-      <c r="F319" s="10"/>
+      <c r="F319" s="12"/>
       <c r="H319" s="4"/>
     </row>
     <row r="320">
-      <c r="B320" s="10"/>
+      <c r="B320" s="12"/>
       <c r="D320" s="4"/>
-      <c r="F320" s="10"/>
+      <c r="F320" s="12"/>
       <c r="H320" s="4"/>
     </row>
     <row r="321">
-      <c r="B321" s="10"/>
+      <c r="B321" s="12"/>
       <c r="D321" s="4"/>
-      <c r="F321" s="10"/>
+      <c r="F321" s="12"/>
       <c r="H321" s="4"/>
     </row>
     <row r="322">
-      <c r="B322" s="10"/>
+      <c r="B322" s="12"/>
       <c r="D322" s="4"/>
-      <c r="F322" s="10"/>
+      <c r="F322" s="12"/>
       <c r="H322" s="4"/>
     </row>
     <row r="323">
-      <c r="B323" s="10"/>
+      <c r="B323" s="12"/>
       <c r="D323" s="4"/>
-      <c r="F323" s="10"/>
+      <c r="F323" s="12"/>
       <c r="H323" s="4"/>
     </row>
     <row r="324">
-      <c r="B324" s="10"/>
+      <c r="B324" s="12"/>
       <c r="D324" s="4"/>
-      <c r="F324" s="10"/>
+      <c r="F324" s="12"/>
       <c r="H324" s="4"/>
     </row>
     <row r="325">
-      <c r="B325" s="10"/>
+      <c r="B325" s="12"/>
       <c r="D325" s="4"/>
-      <c r="F325" s="10"/>
+      <c r="F325" s="12"/>
       <c r="H325" s="4"/>
     </row>
     <row r="326">
-      <c r="B326" s="10"/>
+      <c r="B326" s="12"/>
       <c r="D326" s="4"/>
-      <c r="F326" s="10"/>
+      <c r="F326" s="12"/>
       <c r="H326" s="4"/>
     </row>
     <row r="327">
-      <c r="B327" s="10"/>
+      <c r="B327" s="12"/>
       <c r="D327" s="4"/>
-      <c r="F327" s="10"/>
+      <c r="F327" s="12"/>
       <c r="H327" s="4"/>
     </row>
     <row r="328">
-      <c r="B328" s="10"/>
+      <c r="B328" s="12"/>
       <c r="D328" s="4"/>
-      <c r="F328" s="10"/>
+      <c r="F328" s="12"/>
       <c r="H328" s="4"/>
     </row>
     <row r="329">
-      <c r="B329" s="10"/>
+      <c r="B329" s="12"/>
       <c r="D329" s="4"/>
-      <c r="F329" s="10"/>
+      <c r="F329" s="12"/>
       <c r="H329" s="4"/>
     </row>
     <row r="330">
-      <c r="B330" s="10"/>
+      <c r="B330" s="12"/>
       <c r="D330" s="4"/>
-      <c r="F330" s="10"/>
+      <c r="F330" s="12"/>
       <c r="H330" s="4"/>
     </row>
     <row r="331">
-      <c r="B331" s="10"/>
+      <c r="B331" s="12"/>
       <c r="D331" s="4"/>
-      <c r="F331" s="10"/>
+      <c r="F331" s="12"/>
       <c r="H331" s="4"/>
     </row>
     <row r="332">
-      <c r="B332" s="10"/>
+      <c r="B332" s="12"/>
       <c r="D332" s="4"/>
-      <c r="F332" s="10"/>
+      <c r="F332" s="12"/>
       <c r="H332" s="4"/>
     </row>
     <row r="333">
-      <c r="B333" s="10"/>
+      <c r="B333" s="12"/>
       <c r="D333" s="4"/>
-      <c r="F333" s="10"/>
+      <c r="F333" s="12"/>
       <c r="H333" s="4"/>
     </row>
     <row r="334">
-      <c r="B334" s="10"/>
+      <c r="B334" s="12"/>
       <c r="D334" s="4"/>
-      <c r="F334" s="10"/>
+      <c r="F334" s="12"/>
       <c r="H334" s="4"/>
     </row>
     <row r="335">
-      <c r="B335" s="10"/>
+      <c r="B335" s="12"/>
       <c r="D335" s="4"/>
-      <c r="F335" s="10"/>
+      <c r="F335" s="12"/>
       <c r="H335" s="4"/>
     </row>
     <row r="336">
-      <c r="B336" s="10"/>
+      <c r="B336" s="12"/>
       <c r="D336" s="4"/>
-      <c r="F336" s="10"/>
+      <c r="F336" s="12"/>
       <c r="H336" s="4"/>
     </row>
     <row r="337">
-      <c r="B337" s="10"/>
+      <c r="B337" s="12"/>
       <c r="D337" s="4"/>
-      <c r="F337" s="10"/>
+      <c r="F337" s="12"/>
       <c r="H337" s="4"/>
     </row>
     <row r="338">
-      <c r="B338" s="10"/>
+      <c r="B338" s="12"/>
       <c r="D338" s="4"/>
-      <c r="F338" s="10"/>
+      <c r="F338" s="12"/>
       <c r="H338" s="4"/>
     </row>
     <row r="339">
-      <c r="B339" s="10"/>
+      <c r="B339" s="12"/>
       <c r="D339" s="4"/>
-      <c r="F339" s="10"/>
+      <c r="F339" s="12"/>
       <c r="H339" s="4"/>
     </row>
     <row r="340">
-      <c r="B340" s="10"/>
+      <c r="B340" s="12"/>
       <c r="D340" s="4"/>
-      <c r="F340" s="10"/>
+      <c r="F340" s="12"/>
       <c r="H340" s="4"/>
     </row>
     <row r="341">
-      <c r="B341" s="10"/>
+      <c r="B341" s="12"/>
       <c r="D341" s="4"/>
-      <c r="F341" s="10"/>
+      <c r="F341" s="12"/>
       <c r="H341" s="4"/>
     </row>
     <row r="342">
-      <c r="B342" s="10"/>
+      <c r="B342" s="12"/>
       <c r="D342" s="4"/>
-      <c r="F342" s="10"/>
+      <c r="F342" s="12"/>
       <c r="H342" s="4"/>
     </row>
     <row r="343">
-      <c r="B343" s="10"/>
+      <c r="B343" s="12"/>
       <c r="D343" s="4"/>
-      <c r="F343" s="10"/>
+      <c r="F343" s="12"/>
       <c r="H343" s="4"/>
     </row>
     <row r="344">
-      <c r="B344" s="10"/>
+      <c r="B344" s="12"/>
       <c r="D344" s="4"/>
-      <c r="F344" s="10"/>
+      <c r="F344" s="12"/>
       <c r="H344" s="4"/>
     </row>
     <row r="345">
-      <c r="B345" s="10"/>
+      <c r="B345" s="12"/>
       <c r="D345" s="4"/>
-      <c r="F345" s="10"/>
+      <c r="F345" s="12"/>
       <c r="H345" s="4"/>
     </row>
     <row r="346">
-      <c r="B346" s="10"/>
+      <c r="B346" s="12"/>
       <c r="D346" s="4"/>
-      <c r="F346" s="10"/>
+      <c r="F346" s="12"/>
       <c r="H346" s="4"/>
     </row>
     <row r="347">
-      <c r="B347" s="10"/>
+      <c r="B347" s="12"/>
       <c r="D347" s="4"/>
-      <c r="F347" s="10"/>
+      <c r="F347" s="12"/>
       <c r="H347" s="4"/>
     </row>
     <row r="348">
-      <c r="B348" s="10"/>
+      <c r="B348" s="12"/>
       <c r="D348" s="4"/>
-      <c r="F348" s="10"/>
+      <c r="F348" s="12"/>
       <c r="H348" s="4"/>
     </row>
     <row r="349">
-      <c r="B349" s="10"/>
+      <c r="B349" s="12"/>
       <c r="D349" s="4"/>
-      <c r="F349" s="10"/>
+      <c r="F349" s="12"/>
       <c r="H349" s="4"/>
     </row>
     <row r="350">
-      <c r="B350" s="10"/>
+      <c r="B350" s="12"/>
       <c r="D350" s="4"/>
-      <c r="F350" s="10"/>
+      <c r="F350" s="12"/>
       <c r="H350" s="4"/>
     </row>
     <row r="351">
-      <c r="B351" s="10"/>
+      <c r="B351" s="12"/>
       <c r="D351" s="4"/>
-      <c r="F351" s="10"/>
+      <c r="F351" s="12"/>
       <c r="H351" s="4"/>
     </row>
     <row r="352">
-      <c r="B352" s="10"/>
+      <c r="B352" s="12"/>
       <c r="D352" s="4"/>
-      <c r="F352" s="10"/>
+      <c r="F352" s="12"/>
       <c r="H352" s="4"/>
     </row>
     <row r="353">
-      <c r="B353" s="10"/>
+      <c r="B353" s="12"/>
       <c r="D353" s="4"/>
-      <c r="F353" s="10"/>
+      <c r="F353" s="12"/>
       <c r="H353" s="4"/>
     </row>
     <row r="354">
-      <c r="B354" s="10"/>
+      <c r="B354" s="12"/>
       <c r="D354" s="4"/>
-      <c r="F354" s="10"/>
+      <c r="F354" s="12"/>
       <c r="H354" s="4"/>
     </row>
     <row r="355">
-      <c r="B355" s="10"/>
+      <c r="B355" s="12"/>
       <c r="D355" s="4"/>
-      <c r="F355" s="10"/>
+      <c r="F355" s="12"/>
       <c r="H355" s="4"/>
     </row>
     <row r="356">
-      <c r="B356" s="10"/>
+      <c r="B356" s="12"/>
       <c r="D356" s="4"/>
-      <c r="F356" s="10"/>
+      <c r="F356" s="12"/>
       <c r="H356" s="4"/>
     </row>
     <row r="357">
-      <c r="B357" s="10"/>
+      <c r="B357" s="12"/>
       <c r="D357" s="4"/>
-      <c r="F357" s="10"/>
+      <c r="F357" s="12"/>
       <c r="H357" s="4"/>
     </row>
     <row r="358">
-      <c r="B358" s="10"/>
+      <c r="B358" s="12"/>
       <c r="D358" s="4"/>
-      <c r="F358" s="10"/>
+      <c r="F358" s="12"/>
       <c r="H358" s="4"/>
     </row>
     <row r="359">
-      <c r="B359" s="10"/>
+      <c r="B359" s="12"/>
       <c r="D359" s="4"/>
-      <c r="F359" s="10"/>
+      <c r="F359" s="12"/>
       <c r="H359" s="4"/>
     </row>
     <row r="360">
-      <c r="B360" s="10"/>
+      <c r="B360" s="12"/>
       <c r="D360" s="4"/>
-      <c r="F360" s="10"/>
+      <c r="F360" s="12"/>
       <c r="H360" s="4"/>
     </row>
     <row r="361">
-      <c r="B361" s="10"/>
+      <c r="B361" s="12"/>
       <c r="D361" s="4"/>
-      <c r="F361" s="10"/>
+      <c r="F361" s="12"/>
       <c r="H361" s="4"/>
     </row>
     <row r="362">
-      <c r="B362" s="10"/>
+      <c r="B362" s="12"/>
       <c r="D362" s="4"/>
-      <c r="F362" s="10"/>
+      <c r="F362" s="12"/>
       <c r="H362" s="4"/>
     </row>
     <row r="363">
-      <c r="B363" s="10"/>
+      <c r="B363" s="12"/>
       <c r="D363" s="4"/>
-      <c r="F363" s="10"/>
+      <c r="F363" s="12"/>
       <c r="H363" s="4"/>
     </row>
     <row r="364">
-      <c r="B364" s="10"/>
+      <c r="B364" s="12"/>
       <c r="D364" s="4"/>
-      <c r="F364" s="10"/>
+      <c r="F364" s="12"/>
       <c r="H364" s="4"/>
     </row>
     <row r="365">
-      <c r="B365" s="10"/>
+      <c r="B365" s="12"/>
       <c r="D365" s="4"/>
-      <c r="F365" s="10"/>
+      <c r="F365" s="12"/>
       <c r="H365" s="4"/>
     </row>
     <row r="366">
-      <c r="B366" s="10"/>
+      <c r="B366" s="12"/>
       <c r="D366" s="4"/>
-      <c r="F366" s="10"/>
+      <c r="F366" s="12"/>
       <c r="H366" s="4"/>
     </row>
     <row r="367">
-      <c r="B367" s="10"/>
+      <c r="B367" s="12"/>
       <c r="D367" s="4"/>
-      <c r="F367" s="10"/>
+      <c r="F367" s="12"/>
       <c r="H367" s="4"/>
     </row>
     <row r="368">
-      <c r="B368" s="10"/>
+      <c r="B368" s="12"/>
       <c r="D368" s="4"/>
-      <c r="F368" s="10"/>
+      <c r="F368" s="12"/>
       <c r="H368" s="4"/>
     </row>
     <row r="369">
-      <c r="B369" s="10"/>
+      <c r="B369" s="12"/>
       <c r="D369" s="4"/>
-      <c r="F369" s="10"/>
+      <c r="F369" s="12"/>
       <c r="H369" s="4"/>
     </row>
     <row r="370">
-      <c r="B370" s="10"/>
+      <c r="B370" s="12"/>
       <c r="D370" s="4"/>
-      <c r="F370" s="10"/>
+      <c r="F370" s="12"/>
       <c r="H370" s="4"/>
     </row>
     <row r="371">
-      <c r="B371" s="10"/>
+      <c r="B371" s="12"/>
       <c r="D371" s="4"/>
-      <c r="F371" s="10"/>
+      <c r="F371" s="12"/>
       <c r="H371" s="4"/>
     </row>
     <row r="372">
-      <c r="B372" s="10"/>
+      <c r="B372" s="12"/>
       <c r="D372" s="4"/>
-      <c r="F372" s="10"/>
+      <c r="F372" s="12"/>
       <c r="H372" s="4"/>
     </row>
     <row r="373">
-      <c r="B373" s="10"/>
+      <c r="B373" s="12"/>
       <c r="D373" s="4"/>
-      <c r="F373" s="10"/>
+      <c r="F373" s="12"/>
       <c r="H373" s="4"/>
     </row>
     <row r="374">
-      <c r="B374" s="10"/>
+      <c r="B374" s="12"/>
       <c r="D374" s="4"/>
-      <c r="F374" s="10"/>
+      <c r="F374" s="12"/>
       <c r="H374" s="4"/>
     </row>
     <row r="375">
-      <c r="B375" s="10"/>
+      <c r="B375" s="12"/>
       <c r="D375" s="4"/>
-      <c r="F375" s="10"/>
+      <c r="F375" s="12"/>
       <c r="H375" s="4"/>
     </row>
     <row r="376">
-      <c r="B376" s="10"/>
+      <c r="B376" s="12"/>
       <c r="D376" s="4"/>
-      <c r="F376" s="10"/>
+      <c r="F376" s="12"/>
       <c r="H376" s="4"/>
     </row>
     <row r="377">
-      <c r="B377" s="10"/>
+      <c r="B377" s="12"/>
       <c r="D377" s="4"/>
-      <c r="F377" s="10"/>
+      <c r="F377" s="12"/>
       <c r="H377" s="4"/>
     </row>
     <row r="378">
-      <c r="B378" s="10"/>
+      <c r="B378" s="12"/>
       <c r="D378" s="4"/>
-      <c r="F378" s="10"/>
+      <c r="F378" s="12"/>
       <c r="H378" s="4"/>
     </row>
     <row r="379">
-      <c r="B379" s="10"/>
+      <c r="B379" s="12"/>
       <c r="D379" s="4"/>
-      <c r="F379" s="10"/>
+      <c r="F379" s="12"/>
       <c r="H379" s="4"/>
     </row>
     <row r="380">
-      <c r="B380" s="10"/>
+      <c r="B380" s="12"/>
       <c r="D380" s="4"/>
-      <c r="F380" s="10"/>
+      <c r="F380" s="12"/>
       <c r="H380" s="4"/>
     </row>
     <row r="381">
-      <c r="B381" s="10"/>
+      <c r="B381" s="12"/>
       <c r="D381" s="4"/>
-      <c r="F381" s="10"/>
+      <c r="F381" s="12"/>
       <c r="H381" s="4"/>
     </row>
     <row r="382">
-      <c r="B382" s="10"/>
+      <c r="B382" s="12"/>
       <c r="D382" s="4"/>
-      <c r="F382" s="10"/>
+      <c r="F382" s="12"/>
       <c r="H382" s="4"/>
     </row>
     <row r="383">
-      <c r="B383" s="10"/>
+      <c r="B383" s="12"/>
       <c r="D383" s="4"/>
-      <c r="F383" s="10"/>
+      <c r="F383" s="12"/>
       <c r="H383" s="4"/>
     </row>
     <row r="384">
-      <c r="B384" s="10"/>
+      <c r="B384" s="12"/>
       <c r="D384" s="4"/>
-      <c r="F384" s="10"/>
+      <c r="F384" s="12"/>
       <c r="H384" s="4"/>
     </row>
     <row r="385">
-      <c r="B385" s="10"/>
+      <c r="B385" s="12"/>
       <c r="D385" s="4"/>
-      <c r="F385" s="10"/>
+      <c r="F385" s="12"/>
       <c r="H385" s="4"/>
     </row>
     <row r="386">
-      <c r="B386" s="10"/>
+      <c r="B386" s="12"/>
       <c r="D386" s="4"/>
-      <c r="F386" s="10"/>
+      <c r="F386" s="12"/>
       <c r="H386" s="4"/>
     </row>
     <row r="387">
-      <c r="B387" s="10"/>
+      <c r="B387" s="12"/>
       <c r="D387" s="4"/>
-      <c r="F387" s="10"/>
+      <c r="F387" s="12"/>
       <c r="H387" s="4"/>
     </row>
     <row r="388">
-      <c r="B388" s="10"/>
+      <c r="B388" s="12"/>
       <c r="D388" s="4"/>
-      <c r="F388" s="10"/>
+      <c r="F388" s="12"/>
       <c r="H388" s="4"/>
     </row>
     <row r="389">
-      <c r="B389" s="10"/>
+      <c r="B389" s="12"/>
       <c r="D389" s="4"/>
-      <c r="F389" s="10"/>
+      <c r="F389" s="12"/>
       <c r="H389" s="4"/>
     </row>
     <row r="390">
-      <c r="B390" s="10"/>
+      <c r="B390" s="12"/>
       <c r="D390" s="4"/>
-      <c r="F390" s="10"/>
+      <c r="F390" s="12"/>
       <c r="H390" s="4"/>
     </row>
     <row r="391">
-      <c r="B391" s="10"/>
+      <c r="B391" s="12"/>
       <c r="D391" s="4"/>
-      <c r="F391" s="10"/>
+      <c r="F391" s="12"/>
       <c r="H391" s="4"/>
     </row>
     <row r="392">
-      <c r="B392" s="10"/>
+      <c r="B392" s="12"/>
       <c r="D392" s="4"/>
-      <c r="F392" s="10"/>
+      <c r="F392" s="12"/>
       <c r="H392" s="4"/>
     </row>
     <row r="393">
-      <c r="B393" s="10"/>
+      <c r="B393" s="12"/>
       <c r="D393" s="4"/>
-      <c r="F393" s="10"/>
+      <c r="F393" s="12"/>
       <c r="H393" s="4"/>
     </row>
     <row r="394">
-      <c r="B394" s="10"/>
+      <c r="B394" s="12"/>
       <c r="D394" s="4"/>
-      <c r="F394" s="10"/>
+      <c r="F394" s="12"/>
       <c r="H394" s="4"/>
     </row>
     <row r="395">
-      <c r="B395" s="10"/>
+      <c r="B395" s="12"/>
       <c r="D395" s="4"/>
-      <c r="F395" s="10"/>
+      <c r="F395" s="12"/>
       <c r="H395" s="4"/>
     </row>
     <row r="396">
-      <c r="B396" s="10"/>
+      <c r="B396" s="12"/>
       <c r="D396" s="4"/>
-      <c r="F396" s="10"/>
+      <c r="F396" s="12"/>
       <c r="H396" s="4"/>
     </row>
     <row r="397">
-      <c r="B397" s="10"/>
+      <c r="B397" s="12"/>
       <c r="D397" s="4"/>
-      <c r="F397" s="10"/>
+      <c r="F397" s="12"/>
       <c r="H397" s="4"/>
     </row>
     <row r="398">
-      <c r="B398" s="10"/>
+      <c r="B398" s="12"/>
       <c r="D398" s="4"/>
-      <c r="F398" s="10"/>
+      <c r="F398" s="12"/>
       <c r="H398" s="4"/>
     </row>
     <row r="399">
-      <c r="B399" s="10"/>
+      <c r="B399" s="12"/>
       <c r="D399" s="4"/>
-      <c r="F399" s="10"/>
+      <c r="F399" s="12"/>
       <c r="H399" s="4"/>
     </row>
     <row r="400">
-      <c r="B400" s="10"/>
+      <c r="B400" s="12"/>
       <c r="D400" s="4"/>
-      <c r="F400" s="10"/>
+      <c r="F400" s="12"/>
       <c r="H400" s="4"/>
     </row>
     <row r="401">
-      <c r="B401" s="10"/>
+      <c r="B401" s="12"/>
       <c r="D401" s="4"/>
-      <c r="F401" s="10"/>
+      <c r="F401" s="12"/>
       <c r="H401" s="4"/>
     </row>
     <row r="402">
-      <c r="B402" s="10"/>
+      <c r="B402" s="12"/>
       <c r="D402" s="4"/>
-      <c r="F402" s="10"/>
+      <c r="F402" s="12"/>
       <c r="H402" s="4"/>
     </row>
     <row r="403">
-      <c r="B403" s="10"/>
+      <c r="B403" s="12"/>
       <c r="D403" s="4"/>
-      <c r="F403" s="10"/>
+      <c r="F403" s="12"/>
       <c r="H403" s="4"/>
     </row>
     <row r="404">
-      <c r="B404" s="10"/>
+      <c r="B404" s="12"/>
       <c r="D404" s="4"/>
-      <c r="F404" s="10"/>
+      <c r="F404" s="12"/>
       <c r="H404" s="4"/>
     </row>
     <row r="405">
-      <c r="B405" s="10"/>
+      <c r="B405" s="12"/>
       <c r="D405" s="4"/>
-      <c r="F405" s="10"/>
+      <c r="F405" s="12"/>
       <c r="H405" s="4"/>
     </row>
     <row r="406">
-      <c r="B406" s="10"/>
+      <c r="B406" s="12"/>
       <c r="D406" s="4"/>
-      <c r="F406" s="10"/>
+      <c r="F406" s="12"/>
       <c r="H406" s="4"/>
     </row>
     <row r="407">
-      <c r="B407" s="10"/>
+      <c r="B407" s="12"/>
       <c r="D407" s="4"/>
-      <c r="F407" s="10"/>
+      <c r="F407" s="12"/>
       <c r="H407" s="4"/>
     </row>
     <row r="408">
-      <c r="B408" s="10"/>
+      <c r="B408" s="12"/>
       <c r="D408" s="4"/>
-      <c r="F408" s="10"/>
+      <c r="F408" s="12"/>
       <c r="H408" s="4"/>
     </row>
     <row r="409">
-      <c r="B409" s="10"/>
+      <c r="B409" s="12"/>
       <c r="D409" s="4"/>
-      <c r="F409" s="10"/>
+      <c r="F409" s="12"/>
       <c r="H409" s="4"/>
     </row>
     <row r="410">
-      <c r="B410" s="10"/>
+      <c r="B410" s="12"/>
       <c r="D410" s="4"/>
-      <c r="F410" s="10"/>
+      <c r="F410" s="12"/>
       <c r="H410" s="4"/>
     </row>
     <row r="411">
-      <c r="B411" s="10"/>
+      <c r="B411" s="12"/>
       <c r="D411" s="4"/>
-      <c r="F411" s="10"/>
+      <c r="F411" s="12"/>
       <c r="H411" s="4"/>
     </row>
     <row r="412">
-      <c r="B412" s="10"/>
+      <c r="B412" s="12"/>
       <c r="D412" s="4"/>
-      <c r="F412" s="10"/>
+      <c r="F412" s="12"/>
       <c r="H412" s="4"/>
     </row>
     <row r="413">
-      <c r="B413" s="10"/>
+      <c r="B413" s="12"/>
       <c r="D413" s="4"/>
-      <c r="F413" s="10"/>
+      <c r="F413" s="12"/>
       <c r="H413" s="4"/>
     </row>
     <row r="414">
-      <c r="B414" s="10"/>
+      <c r="B414" s="12"/>
       <c r="D414" s="4"/>
-      <c r="F414" s="10"/>
+      <c r="F414" s="12"/>
       <c r="H414" s="4"/>
     </row>
     <row r="415">
-      <c r="B415" s="10"/>
+      <c r="B415" s="12"/>
       <c r="D415" s="4"/>
-      <c r="F415" s="10"/>
+      <c r="F415" s="12"/>
       <c r="H415" s="4"/>
     </row>
     <row r="416">
-      <c r="B416" s="10"/>
+      <c r="B416" s="12"/>
       <c r="D416" s="4"/>
-      <c r="F416" s="10"/>
+      <c r="F416" s="12"/>
       <c r="H416" s="4"/>
     </row>
     <row r="417">
-      <c r="B417" s="10"/>
+      <c r="B417" s="12"/>
       <c r="D417" s="4"/>
-      <c r="F417" s="10"/>
+      <c r="F417" s="12"/>
       <c r="H417" s="4"/>
     </row>
     <row r="418">
-      <c r="B418" s="10"/>
+      <c r="B418" s="12"/>
       <c r="D418" s="4"/>
-      <c r="F418" s="10"/>
+      <c r="F418" s="12"/>
       <c r="H418" s="4"/>
     </row>
     <row r="419">
-      <c r="B419" s="10"/>
+      <c r="B419" s="12"/>
       <c r="D419" s="4"/>
-      <c r="F419" s="10"/>
+      <c r="F419" s="12"/>
       <c r="H419" s="4"/>
     </row>
     <row r="420">
-      <c r="B420" s="10"/>
+      <c r="B420" s="12"/>
       <c r="D420" s="4"/>
-      <c r="F420" s="10"/>
+      <c r="F420" s="12"/>
       <c r="H420" s="4"/>
     </row>
     <row r="421">
-      <c r="B421" s="10"/>
+      <c r="B421" s="12"/>
       <c r="D421" s="4"/>
-      <c r="F421" s="10"/>
+      <c r="F421" s="12"/>
       <c r="H421" s="4"/>
     </row>
     <row r="422">
-      <c r="B422" s="10"/>
+      <c r="B422" s="12"/>
       <c r="D422" s="4"/>
-      <c r="F422" s="10"/>
+      <c r="F422" s="12"/>
       <c r="H422" s="4"/>
     </row>
     <row r="423">
-      <c r="B423" s="10"/>
+      <c r="B423" s="12"/>
       <c r="D423" s="4"/>
-      <c r="F423" s="10"/>
+      <c r="F423" s="12"/>
       <c r="H423" s="4"/>
     </row>
     <row r="424">
-      <c r="B424" s="10"/>
+      <c r="B424" s="12"/>
       <c r="D424" s="4"/>
-      <c r="F424" s="10"/>
+      <c r="F424" s="12"/>
       <c r="H424" s="4"/>
     </row>
     <row r="425">
-      <c r="B425" s="10"/>
+      <c r="B425" s="12"/>
       <c r="D425" s="4"/>
-      <c r="F425" s="10"/>
+      <c r="F425" s="12"/>
       <c r="H425" s="4"/>
     </row>
     <row r="426">
-      <c r="B426" s="10"/>
+      <c r="B426" s="12"/>
       <c r="D426" s="4"/>
-      <c r="F426" s="10"/>
+      <c r="F426" s="12"/>
       <c r="H426" s="4"/>
     </row>
     <row r="427">
-      <c r="B427" s="10"/>
+      <c r="B427" s="12"/>
       <c r="D427" s="4"/>
-      <c r="F427" s="10"/>
+      <c r="F427" s="12"/>
       <c r="H427" s="4"/>
     </row>
     <row r="428">
-      <c r="B428" s="10"/>
+      <c r="B428" s="12"/>
       <c r="D428" s="4"/>
-      <c r="F428" s="10"/>
+      <c r="F428" s="12"/>
       <c r="H428" s="4"/>
     </row>
     <row r="429">
-      <c r="B429" s="10"/>
+      <c r="B429" s="12"/>
       <c r="D429" s="4"/>
-      <c r="F429" s="10"/>
+      <c r="F429" s="12"/>
       <c r="H429" s="4"/>
     </row>
     <row r="430">
-      <c r="B430" s="10"/>
+      <c r="B430" s="12"/>
       <c r="D430" s="4"/>
-      <c r="F430" s="10"/>
+      <c r="F430" s="12"/>
       <c r="H430" s="4"/>
     </row>
     <row r="431">
-      <c r="B431" s="10"/>
+      <c r="B431" s="12"/>
       <c r="D431" s="4"/>
-      <c r="F431" s="10"/>
+      <c r="F431" s="12"/>
       <c r="H431" s="4"/>
     </row>
     <row r="432">
-      <c r="B432" s="10"/>
+      <c r="B432" s="12"/>
       <c r="D432" s="4"/>
-      <c r="F432" s="10"/>
+      <c r="F432" s="12"/>
       <c r="H432" s="4"/>
     </row>
     <row r="433">
-      <c r="B433" s="10"/>
+      <c r="B433" s="12"/>
       <c r="D433" s="4"/>
-      <c r="F433" s="10"/>
+      <c r="F433" s="12"/>
       <c r="H433" s="4"/>
     </row>
     <row r="434">
-      <c r="B434" s="10"/>
+      <c r="B434" s="12"/>
       <c r="D434" s="4"/>
-      <c r="F434" s="10"/>
+      <c r="F434" s="12"/>
       <c r="H434" s="4"/>
     </row>
     <row r="435">
-      <c r="B435" s="10"/>
+      <c r="B435" s="12"/>
       <c r="D435" s="4"/>
-      <c r="F435" s="10"/>
+      <c r="F435" s="12"/>
       <c r="H435" s="4"/>
     </row>
     <row r="436">
-      <c r="B436" s="10"/>
+      <c r="B436" s="12"/>
       <c r="D436" s="4"/>
-      <c r="F436" s="10"/>
+      <c r="F436" s="12"/>
       <c r="H436" s="4"/>
     </row>
     <row r="437">
-      <c r="B437" s="10"/>
+      <c r="B437" s="12"/>
       <c r="D437" s="4"/>
-      <c r="F437" s="10"/>
+      <c r="F437" s="12"/>
       <c r="H437" s="4"/>
     </row>
     <row r="438">
-      <c r="B438" s="10"/>
+      <c r="B438" s="12"/>
       <c r="D438" s="4"/>
-      <c r="F438" s="10"/>
+      <c r="F438" s="12"/>
       <c r="H438" s="4"/>
     </row>
     <row r="439">
-      <c r="B439" s="10"/>
+      <c r="B439" s="12"/>
       <c r="D439" s="4"/>
-      <c r="F439" s="10"/>
+      <c r="F439" s="12"/>
       <c r="H439" s="4"/>
     </row>
     <row r="440">
-      <c r="B440" s="10"/>
+      <c r="B440" s="12"/>
       <c r="D440" s="4"/>
-      <c r="F440" s="10"/>
+      <c r="F440" s="12"/>
       <c r="H440" s="4"/>
     </row>
     <row r="441">
-      <c r="B441" s="10"/>
+      <c r="B441" s="12"/>
       <c r="D441" s="4"/>
-      <c r="F441" s="10"/>
+      <c r="F441" s="12"/>
       <c r="H441" s="4"/>
     </row>
     <row r="442">
-      <c r="B442" s="10"/>
+      <c r="B442" s="12"/>
       <c r="D442" s="4"/>
-      <c r="F442" s="10"/>
+      <c r="F442" s="12"/>
       <c r="H442" s="4"/>
     </row>
     <row r="443">
-      <c r="B443" s="10"/>
+      <c r="B443" s="12"/>
       <c r="D443" s="4"/>
-      <c r="F443" s="10"/>
+      <c r="F443" s="12"/>
       <c r="H443" s="4"/>
     </row>
     <row r="444">
-      <c r="B444" s="10"/>
+      <c r="B444" s="12"/>
       <c r="D444" s="4"/>
-      <c r="F444" s="10"/>
+      <c r="F444" s="12"/>
       <c r="H444" s="4"/>
     </row>
     <row r="445">
-      <c r="B445" s="10"/>
+      <c r="B445" s="12"/>
       <c r="D445" s="4"/>
-      <c r="F445" s="10"/>
+      <c r="F445" s="12"/>
       <c r="H445" s="4"/>
     </row>
     <row r="446">
-      <c r="B446" s="10"/>
+      <c r="B446" s="12"/>
       <c r="D446" s="4"/>
-      <c r="F446" s="10"/>
+      <c r="F446" s="12"/>
       <c r="H446" s="4"/>
     </row>
     <row r="447">
-      <c r="B447" s="10"/>
+      <c r="B447" s="12"/>
       <c r="D447" s="4"/>
-      <c r="F447" s="10"/>
+      <c r="F447" s="12"/>
       <c r="H447" s="4"/>
     </row>
     <row r="448">
-      <c r="B448" s="10"/>
+      <c r="B448" s="12"/>
       <c r="D448" s="4"/>
-      <c r="F448" s="10"/>
+      <c r="F448" s="12"/>
       <c r="H448" s="4"/>
     </row>
     <row r="449">
-      <c r="B449" s="10"/>
+      <c r="B449" s="12"/>
       <c r="D449" s="4"/>
-      <c r="F449" s="10"/>
+      <c r="F449" s="12"/>
       <c r="H449" s="4"/>
     </row>
     <row r="450">
-      <c r="B450" s="10"/>
+      <c r="B450" s="12"/>
       <c r="D450" s="4"/>
-      <c r="F450" s="10"/>
+      <c r="F450" s="12"/>
       <c r="H450" s="4"/>
     </row>
     <row r="451">
-      <c r="B451" s="10"/>
+      <c r="B451" s="12"/>
       <c r="D451" s="4"/>
-      <c r="F451" s="10"/>
+      <c r="F451" s="12"/>
       <c r="H451" s="4"/>
     </row>
     <row r="452">
-      <c r="B452" s="10"/>
+      <c r="B452" s="12"/>
       <c r="D452" s="4"/>
-      <c r="F452" s="10"/>
+      <c r="F452" s="12"/>
       <c r="H452" s="4"/>
     </row>
     <row r="453">
-      <c r="B453" s="10"/>
+      <c r="B453" s="12"/>
       <c r="D453" s="4"/>
-      <c r="F453" s="10"/>
+      <c r="F453" s="12"/>
       <c r="H453" s="4"/>
     </row>
     <row r="454">
-      <c r="B454" s="10"/>
+      <c r="B454" s="12"/>
       <c r="D454" s="4"/>
-      <c r="F454" s="10"/>
+      <c r="F454" s="12"/>
       <c r="H454" s="4"/>
     </row>
     <row r="455">
-      <c r="B455" s="10"/>
+      <c r="B455" s="12"/>
       <c r="D455" s="4"/>
-      <c r="F455" s="10"/>
+      <c r="F455" s="12"/>
       <c r="H455" s="4"/>
     </row>
     <row r="456">
-      <c r="B456" s="10"/>
+      <c r="B456" s="12"/>
       <c r="D456" s="4"/>
-      <c r="F456" s="10"/>
+      <c r="F456" s="12"/>
       <c r="H456" s="4"/>
     </row>
     <row r="457">
-      <c r="B457" s="10"/>
+      <c r="B457" s="12"/>
       <c r="D457" s="4"/>
-      <c r="F457" s="10"/>
+      <c r="F457" s="12"/>
       <c r="H457" s="4"/>
     </row>
     <row r="458">
-      <c r="B458" s="10"/>
+      <c r="B458" s="12"/>
       <c r="D458" s="4"/>
-      <c r="F458" s="10"/>
+      <c r="F458" s="12"/>
       <c r="H458" s="4"/>
     </row>
     <row r="459">
-      <c r="B459" s="10"/>
+      <c r="B459" s="12"/>
       <c r="D459" s="4"/>
-      <c r="F459" s="10"/>
+      <c r="F459" s="12"/>
       <c r="H459" s="4"/>
     </row>
     <row r="460">
-      <c r="B460" s="10"/>
+      <c r="B460" s="12"/>
       <c r="D460" s="4"/>
-      <c r="F460" s="10"/>
+      <c r="F460" s="12"/>
       <c r="H460" s="4"/>
     </row>
     <row r="461">
-      <c r="B461" s="10"/>
+      <c r="B461" s="12"/>
       <c r="D461" s="4"/>
-      <c r="F461" s="10"/>
+      <c r="F461" s="12"/>
       <c r="H461" s="4"/>
     </row>
     <row r="462">
-      <c r="B462" s="10"/>
+      <c r="B462" s="12"/>
       <c r="D462" s="4"/>
-      <c r="F462" s="10"/>
+      <c r="F462" s="12"/>
       <c r="H462" s="4"/>
     </row>
     <row r="463">
-      <c r="B463" s="10"/>
+      <c r="B463" s="12"/>
       <c r="D463" s="4"/>
-      <c r="F463" s="10"/>
+      <c r="F463" s="12"/>
       <c r="H463" s="4"/>
     </row>
     <row r="464">
-      <c r="B464" s="10"/>
+      <c r="B464" s="12"/>
       <c r="D464" s="4"/>
-      <c r="F464" s="10"/>
+      <c r="F464" s="12"/>
       <c r="H464" s="4"/>
     </row>
     <row r="465">
-      <c r="B465" s="10"/>
+      <c r="B465" s="12"/>
       <c r="D465" s="4"/>
-      <c r="F465" s="10"/>
+      <c r="F465" s="12"/>
       <c r="H465" s="4"/>
     </row>
     <row r="466">
-      <c r="B466" s="10"/>
+      <c r="B466" s="12"/>
       <c r="D466" s="4"/>
-      <c r="F466" s="10"/>
+      <c r="F466" s="12"/>
       <c r="H466" s="4"/>
     </row>
     <row r="467">
-      <c r="B467" s="10"/>
+      <c r="B467" s="12"/>
       <c r="D467" s="4"/>
-      <c r="F467" s="10"/>
+      <c r="F467" s="12"/>
       <c r="H467" s="4"/>
     </row>
     <row r="468">
-      <c r="B468" s="10"/>
+      <c r="B468" s="12"/>
       <c r="D468" s="4"/>
-      <c r="F468" s="10"/>
+      <c r="F468" s="12"/>
       <c r="H468" s="4"/>
     </row>
     <row r="469">
-      <c r="B469" s="10"/>
+      <c r="B469" s="12"/>
       <c r="D469" s="4"/>
-      <c r="F469" s="10"/>
+      <c r="F469" s="12"/>
       <c r="H469" s="4"/>
     </row>
     <row r="470">
-      <c r="B470" s="10"/>
+      <c r="B470" s="12"/>
       <c r="D470" s="4"/>
-      <c r="F470" s="10"/>
+      <c r="F470" s="12"/>
       <c r="H470" s="4"/>
     </row>
     <row r="471">
-      <c r="B471" s="10"/>
+      <c r="B471" s="12"/>
       <c r="D471" s="4"/>
-      <c r="F471" s="10"/>
+      <c r="F471" s="12"/>
       <c r="H471" s="4"/>
     </row>
     <row r="472">
-      <c r="B472" s="10"/>
+      <c r="B472" s="12"/>
       <c r="D472" s="4"/>
-      <c r="F472" s="10"/>
+      <c r="F472" s="12"/>
       <c r="H472" s="4"/>
     </row>
     <row r="473">
-      <c r="B473" s="10"/>
+      <c r="B473" s="12"/>
       <c r="D473" s="4"/>
-      <c r="F473" s="10"/>
+      <c r="F473" s="12"/>
       <c r="H473" s="4"/>
     </row>
     <row r="474">
-      <c r="B474" s="10"/>
+      <c r="B474" s="12"/>
       <c r="D474" s="4"/>
-      <c r="F474" s="10"/>
+      <c r="F474" s="12"/>
       <c r="H474" s="4"/>
     </row>
     <row r="475">
-      <c r="B475" s="10"/>
+      <c r="B475" s="12"/>
       <c r="D475" s="4"/>
-      <c r="F475" s="10"/>
+      <c r="F475" s="12"/>
       <c r="H475" s="4"/>
     </row>
     <row r="476">
-      <c r="B476" s="10"/>
+      <c r="B476" s="12"/>
       <c r="D476" s="4"/>
-      <c r="F476" s="10"/>
+      <c r="F476" s="12"/>
       <c r="H476" s="4"/>
     </row>
     <row r="477">
-      <c r="B477" s="10"/>
+      <c r="B477" s="12"/>
       <c r="D477" s="4"/>
-      <c r="F477" s="10"/>
+      <c r="F477" s="12"/>
       <c r="H477" s="4"/>
     </row>
     <row r="478">
-      <c r="B478" s="10"/>
+      <c r="B478" s="12"/>
       <c r="D478" s="4"/>
-      <c r="F478" s="10"/>
+      <c r="F478" s="12"/>
       <c r="H478" s="4"/>
     </row>
     <row r="479">
-      <c r="B479" s="10"/>
+      <c r="B479" s="12"/>
       <c r="D479" s="4"/>
-      <c r="F479" s="10"/>
+      <c r="F479" s="12"/>
       <c r="H479" s="4"/>
     </row>
     <row r="480">
-      <c r="B480" s="10"/>
+      <c r="B480" s="12"/>
       <c r="D480" s="4"/>
-      <c r="F480" s="10"/>
+      <c r="F480" s="12"/>
       <c r="H480" s="4"/>
     </row>
     <row r="481">
-      <c r="B481" s="10"/>
+      <c r="B481" s="12"/>
       <c r="D481" s="4"/>
-      <c r="F481" s="10"/>
+      <c r="F481" s="12"/>
       <c r="H481" s="4"/>
     </row>
     <row r="482">
-      <c r="B482" s="10"/>
+      <c r="B482" s="12"/>
       <c r="D482" s="4"/>
-      <c r="F482" s="10"/>
+      <c r="F482" s="12"/>
       <c r="H482" s="4"/>
     </row>
     <row r="483">
-      <c r="B483" s="10"/>
+      <c r="B483" s="12"/>
       <c r="D483" s="4"/>
-      <c r="F483" s="10"/>
+      <c r="F483" s="12"/>
       <c r="H483" s="4"/>
     </row>
     <row r="484">
-      <c r="B484" s="10"/>
+      <c r="B484" s="12"/>
       <c r="D484" s="4"/>
-      <c r="F484" s="10"/>
+      <c r="F484" s="12"/>
       <c r="H484" s="4"/>
     </row>
     <row r="485">
-      <c r="B485" s="10"/>
+      <c r="B485" s="12"/>
       <c r="D485" s="4"/>
-      <c r="F485" s="10"/>
+      <c r="F485" s="12"/>
       <c r="H485" s="4"/>
     </row>
     <row r="486">
-      <c r="B486" s="10"/>
+      <c r="B486" s="12"/>
       <c r="D486" s="4"/>
-      <c r="F486" s="10"/>
+      <c r="F486" s="12"/>
       <c r="H486" s="4"/>
     </row>
     <row r="487">
-      <c r="B487" s="10"/>
+      <c r="B487" s="12"/>
       <c r="D487" s="4"/>
-      <c r="F487" s="10"/>
+      <c r="F487" s="12"/>
       <c r="H487" s="4"/>
     </row>
     <row r="488">
-      <c r="B488" s="10"/>
+      <c r="B488" s="12"/>
       <c r="D488" s="4"/>
-      <c r="F488" s="10"/>
+      <c r="F488" s="12"/>
       <c r="H488" s="4"/>
     </row>
     <row r="489">
-      <c r="B489" s="10"/>
+      <c r="B489" s="12"/>
       <c r="D489" s="4"/>
-      <c r="F489" s="10"/>
+      <c r="F489" s="12"/>
       <c r="H489" s="4"/>
     </row>
     <row r="490">
-      <c r="B490" s="10"/>
+      <c r="B490" s="12"/>
       <c r="D490" s="4"/>
-      <c r="F490" s="10"/>
+      <c r="F490" s="12"/>
       <c r="H490" s="4"/>
     </row>
     <row r="491">
-      <c r="B491" s="10"/>
+      <c r="B491" s="12"/>
       <c r="D491" s="4"/>
-      <c r="F491" s="10"/>
+      <c r="F491" s="12"/>
       <c r="H491" s="4"/>
     </row>
     <row r="492">
-      <c r="B492" s="10"/>
+      <c r="B492" s="12"/>
       <c r="D492" s="4"/>
-      <c r="F492" s="10"/>
+      <c r="F492" s="12"/>
       <c r="H492" s="4"/>
     </row>
     <row r="493">
-      <c r="B493" s="10"/>
+      <c r="B493" s="12"/>
       <c r="D493" s="4"/>
-      <c r="F493" s="10"/>
+      <c r="F493" s="12"/>
       <c r="H493" s="4"/>
     </row>
     <row r="494">
-      <c r="B494" s="10"/>
+      <c r="B494" s="12"/>
       <c r="D494" s="4"/>
-      <c r="F494" s="10"/>
+      <c r="F494" s="12"/>
       <c r="H494" s="4"/>
     </row>
     <row r="495">
-      <c r="B495" s="10"/>
+      <c r="B495" s="12"/>
       <c r="D495" s="4"/>
-      <c r="F495" s="10"/>
+      <c r="F495" s="12"/>
       <c r="H495" s="4"/>
     </row>
     <row r="496">
-      <c r="B496" s="10"/>
+      <c r="B496" s="12"/>
       <c r="D496" s="4"/>
-      <c r="F496" s="10"/>
+      <c r="F496" s="12"/>
       <c r="H496" s="4"/>
     </row>
     <row r="497">
-      <c r="B497" s="10"/>
+      <c r="B497" s="12"/>
       <c r="D497" s="4"/>
-      <c r="F497" s="10"/>
+      <c r="F497" s="12"/>
       <c r="H497" s="4"/>
     </row>
     <row r="498">
-      <c r="B498" s="10"/>
+      <c r="B498" s="12"/>
       <c r="D498" s="4"/>
-      <c r="F498" s="10"/>
+      <c r="F498" s="12"/>
       <c r="H498" s="4"/>
     </row>
     <row r="499">
-      <c r="B499" s="10"/>
+      <c r="B499" s="12"/>
       <c r="D499" s="4"/>
-      <c r="F499" s="10"/>
+      <c r="F499" s="12"/>
       <c r="H499" s="4"/>
     </row>
     <row r="500">
-      <c r="B500" s="10"/>
+      <c r="B500" s="12"/>
       <c r="D500" s="4"/>
-      <c r="F500" s="10"/>
+      <c r="F500" s="12"/>
       <c r="H500" s="4"/>
     </row>
     <row r="501">
-      <c r="B501" s="10"/>
+      <c r="B501" s="12"/>
       <c r="D501" s="4"/>
-      <c r="F501" s="10"/>
+      <c r="F501" s="12"/>
       <c r="H501" s="4"/>
     </row>
     <row r="502">
-      <c r="B502" s="10"/>
+      <c r="B502" s="12"/>
       <c r="D502" s="4"/>
-      <c r="F502" s="10"/>
+      <c r="F502" s="12"/>
       <c r="H502" s="4"/>
     </row>
     <row r="503">
-      <c r="B503" s="10"/>
+      <c r="B503" s="12"/>
       <c r="D503" s="4"/>
-      <c r="F503" s="10"/>
+      <c r="F503" s="12"/>
       <c r="H503" s="4"/>
     </row>
     <row r="504">
-      <c r="B504" s="10"/>
+      <c r="B504" s="12"/>
       <c r="D504" s="4"/>
-      <c r="F504" s="10"/>
+      <c r="F504" s="12"/>
       <c r="H504" s="4"/>
     </row>
     <row r="505">
-      <c r="B505" s="10"/>
+      <c r="B505" s="12"/>
       <c r="D505" s="4"/>
-      <c r="F505" s="10"/>
+      <c r="F505" s="12"/>
       <c r="H505" s="4"/>
     </row>
     <row r="506">
-      <c r="B506" s="10"/>
+      <c r="B506" s="12"/>
       <c r="D506" s="4"/>
-      <c r="F506" s="10"/>
+      <c r="F506" s="12"/>
       <c r="H506" s="4"/>
     </row>
     <row r="507">
-      <c r="B507" s="10"/>
+      <c r="B507" s="12"/>
       <c r="D507" s="4"/>
-      <c r="F507" s="10"/>
+      <c r="F507" s="12"/>
       <c r="H507" s="4"/>
     </row>
     <row r="508">
-      <c r="B508" s="10"/>
+      <c r="B508" s="12"/>
       <c r="D508" s="4"/>
-      <c r="F508" s="10"/>
+      <c r="F508" s="12"/>
       <c r="H508" s="4"/>
     </row>
     <row r="509">
-      <c r="B509" s="10"/>
+      <c r="B509" s="12"/>
       <c r="D509" s="4"/>
-      <c r="F509" s="10"/>
+      <c r="F509" s="12"/>
       <c r="H509" s="4"/>
     </row>
     <row r="510">
-      <c r="B510" s="10"/>
+      <c r="B510" s="12"/>
       <c r="D510" s="4"/>
-      <c r="F510" s="10"/>
+      <c r="F510" s="12"/>
       <c r="H510" s="4"/>
     </row>
     <row r="511">
-      <c r="B511" s="10"/>
+      <c r="B511" s="12"/>
       <c r="D511" s="4"/>
-      <c r="F511" s="10"/>
+      <c r="F511" s="12"/>
       <c r="H511" s="4"/>
     </row>
     <row r="512">
-      <c r="B512" s="10"/>
+      <c r="B512" s="12"/>
       <c r="D512" s="4"/>
-      <c r="F512" s="10"/>
+      <c r="F512" s="12"/>
       <c r="H512" s="4"/>
     </row>
     <row r="513">
-      <c r="B513" s="10"/>
+      <c r="B513" s="12"/>
       <c r="D513" s="4"/>
-      <c r="F513" s="10"/>
+      <c r="F513" s="12"/>
       <c r="H513" s="4"/>
     </row>
     <row r="514">
-      <c r="B514" s="10"/>
+      <c r="B514" s="12"/>
       <c r="D514" s="4"/>
-      <c r="F514" s="10"/>
+      <c r="F514" s="12"/>
       <c r="H514" s="4"/>
     </row>
     <row r="515">
-      <c r="B515" s="10"/>
+      <c r="B515" s="12"/>
       <c r="D515" s="4"/>
-      <c r="F515" s="10"/>
+      <c r="F515" s="12"/>
       <c r="H515" s="4"/>
     </row>
     <row r="516">
-      <c r="B516" s="10"/>
+      <c r="B516" s="12"/>
       <c r="D516" s="4"/>
-      <c r="F516" s="10"/>
+      <c r="F516" s="12"/>
       <c r="H516" s="4"/>
     </row>
     <row r="517">
-      <c r="B517" s="10"/>
+      <c r="B517" s="12"/>
       <c r="D517" s="4"/>
-      <c r="F517" s="10"/>
+      <c r="F517" s="12"/>
       <c r="H517" s="4"/>
     </row>
     <row r="518">
-      <c r="B518" s="10"/>
+      <c r="B518" s="12"/>
       <c r="D518" s="4"/>
-      <c r="F518" s="10"/>
+      <c r="F518" s="12"/>
       <c r="H518" s="4"/>
     </row>
     <row r="519">
-      <c r="B519" s="10"/>
+      <c r="B519" s="12"/>
       <c r="D519" s="4"/>
-      <c r="F519" s="10"/>
+      <c r="F519" s="12"/>
       <c r="H519" s="4"/>
     </row>
     <row r="520">
-      <c r="B520" s="10"/>
+      <c r="B520" s="12"/>
       <c r="D520" s="4"/>
-      <c r="F520" s="10"/>
+      <c r="F520" s="12"/>
       <c r="H520" s="4"/>
     </row>
     <row r="521">
-      <c r="B521" s="10"/>
+      <c r="B521" s="12"/>
       <c r="D521" s="4"/>
-      <c r="F521" s="10"/>
+      <c r="F521" s="12"/>
       <c r="H521" s="4"/>
     </row>
     <row r="522">
-      <c r="B522" s="10"/>
+      <c r="B522" s="12"/>
       <c r="D522" s="4"/>
-      <c r="F522" s="10"/>
+      <c r="F522" s="12"/>
       <c r="H522" s="4"/>
     </row>
     <row r="523">
-      <c r="B523" s="10"/>
+      <c r="B523" s="12"/>
       <c r="D523" s="4"/>
-      <c r="F523" s="10"/>
+      <c r="F523" s="12"/>
       <c r="H523" s="4"/>
     </row>
     <row r="524">
-      <c r="B524" s="10"/>
+      <c r="B524" s="12"/>
       <c r="D524" s="4"/>
-      <c r="F524" s="10"/>
+      <c r="F524" s="12"/>
       <c r="H524" s="4"/>
     </row>
     <row r="525">
-      <c r="B525" s="10"/>
+      <c r="B525" s="12"/>
       <c r="D525" s="4"/>
-      <c r="F525" s="10"/>
+      <c r="F525" s="12"/>
       <c r="H525" s="4"/>
     </row>
     <row r="526">
-      <c r="B526" s="10"/>
+      <c r="B526" s="12"/>
       <c r="D526" s="4"/>
-      <c r="F526" s="10"/>
+      <c r="F526" s="12"/>
       <c r="H526" s="4"/>
     </row>
     <row r="527">
-      <c r="B527" s="10"/>
+      <c r="B527" s="12"/>
       <c r="D527" s="4"/>
-      <c r="F527" s="10"/>
+      <c r="F527" s="12"/>
       <c r="H527" s="4"/>
     </row>
     <row r="528">
-      <c r="B528" s="10"/>
+      <c r="B528" s="12"/>
       <c r="D528" s="4"/>
-      <c r="F528" s="10"/>
+      <c r="F528" s="12"/>
       <c r="H528" s="4"/>
     </row>
     <row r="529">
-      <c r="B529" s="10"/>
+      <c r="B529" s="12"/>
       <c r="D529" s="4"/>
-      <c r="F529" s="10"/>
+      <c r="F529" s="12"/>
       <c r="H529" s="4"/>
     </row>
     <row r="530">
-      <c r="B530" s="10"/>
+      <c r="B530" s="12"/>
       <c r="D530" s="4"/>
-      <c r="F530" s="10"/>
+      <c r="F530" s="12"/>
       <c r="H530" s="4"/>
     </row>
     <row r="531">
-      <c r="B531" s="10"/>
+      <c r="B531" s="12"/>
       <c r="D531" s="4"/>
-      <c r="F531" s="10"/>
+      <c r="F531" s="12"/>
       <c r="H531" s="4"/>
     </row>
     <row r="532">
-      <c r="B532" s="10"/>
+      <c r="B532" s="12"/>
       <c r="D532" s="4"/>
-      <c r="F532" s="10"/>
+      <c r="F532" s="12"/>
       <c r="H532" s="4"/>
     </row>
     <row r="533">
-      <c r="B533" s="10"/>
+      <c r="B533" s="12"/>
       <c r="D533" s="4"/>
-      <c r="F533" s="10"/>
+      <c r="F533" s="12"/>
       <c r="H533" s="4"/>
     </row>
     <row r="534">
-      <c r="B534" s="10"/>
+      <c r="B534" s="12"/>
       <c r="D534" s="4"/>
-      <c r="F534" s="10"/>
+      <c r="F534" s="12"/>
       <c r="H534" s="4"/>
     </row>
     <row r="535">
-      <c r="B535" s="10"/>
+      <c r="B535" s="12"/>
       <c r="D535" s="4"/>
-      <c r="F535" s="10"/>
+      <c r="F535" s="12"/>
       <c r="H535" s="4"/>
     </row>
     <row r="536">
-      <c r="B536" s="10"/>
+      <c r="B536" s="12"/>
       <c r="D536" s="4"/>
-      <c r="F536" s="10"/>
+      <c r="F536" s="12"/>
       <c r="H536" s="4"/>
     </row>
     <row r="537">
-      <c r="B537" s="10"/>
+      <c r="B537" s="12"/>
       <c r="D537" s="4"/>
-      <c r="F537" s="10"/>
+      <c r="F537" s="12"/>
       <c r="H537" s="4"/>
     </row>
     <row r="538">
-      <c r="B538" s="10"/>
+      <c r="B538" s="12"/>
       <c r="D538" s="4"/>
-      <c r="F538" s="10"/>
+      <c r="F538" s="12"/>
       <c r="H538" s="4"/>
     </row>
     <row r="539">
-      <c r="B539" s="10"/>
+      <c r="B539" s="12"/>
       <c r="D539" s="4"/>
-      <c r="F539" s="10"/>
+      <c r="F539" s="12"/>
       <c r="H539" s="4"/>
     </row>
     <row r="540">
-      <c r="B540" s="10"/>
+      <c r="B540" s="12"/>
       <c r="D540" s="4"/>
-      <c r="F540" s="10"/>
+      <c r="F540" s="12"/>
       <c r="H540" s="4"/>
     </row>
     <row r="541">
-      <c r="B541" s="10"/>
+      <c r="B541" s="12"/>
       <c r="D541" s="4"/>
-      <c r="F541" s="10"/>
+      <c r="F541" s="12"/>
       <c r="H541" s="4"/>
     </row>
     <row r="542">
-      <c r="B542" s="10"/>
+      <c r="B542" s="12"/>
       <c r="D542" s="4"/>
-      <c r="F542" s="10"/>
+      <c r="F542" s="12"/>
       <c r="H542" s="4"/>
     </row>
     <row r="543">
-      <c r="B543" s="10"/>
+      <c r="B543" s="12"/>
       <c r="D543" s="4"/>
-      <c r="F543" s="10"/>
+      <c r="F543" s="12"/>
       <c r="H543" s="4"/>
     </row>
     <row r="544">
-      <c r="B544" s="10"/>
+      <c r="B544" s="12"/>
       <c r="D544" s="4"/>
-      <c r="F544" s="10"/>
+      <c r="F544" s="12"/>
       <c r="H544" s="4"/>
     </row>
     <row r="545">
-      <c r="B545" s="10"/>
+      <c r="B545" s="12"/>
       <c r="D545" s="4"/>
-      <c r="F545" s="10"/>
+      <c r="F545" s="12"/>
       <c r="H545" s="4"/>
     </row>
     <row r="546">
-      <c r="B546" s="10"/>
+      <c r="B546" s="12"/>
       <c r="D546" s="4"/>
-      <c r="F546" s="10"/>
+      <c r="F546" s="12"/>
       <c r="H546" s="4"/>
     </row>
     <row r="547">
-      <c r="B547" s="10"/>
+      <c r="B547" s="12"/>
       <c r="D547" s="4"/>
-      <c r="F547" s="10"/>
+      <c r="F547" s="12"/>
       <c r="H547" s="4"/>
     </row>
     <row r="548">
-      <c r="B548" s="10"/>
+      <c r="B548" s="12"/>
       <c r="D548" s="4"/>
-      <c r="F548" s="10"/>
+      <c r="F548" s="12"/>
       <c r="H548" s="4"/>
     </row>
     <row r="549">
-      <c r="B549" s="10"/>
+      <c r="B549" s="12"/>
       <c r="D549" s="4"/>
-      <c r="F549" s="10"/>
+      <c r="F549" s="12"/>
       <c r="H549" s="4"/>
     </row>
     <row r="550">
-      <c r="B550" s="10"/>
+      <c r="B550" s="12"/>
       <c r="D550" s="4"/>
-      <c r="F550" s="10"/>
+      <c r="F550" s="12"/>
       <c r="H550" s="4"/>
     </row>
     <row r="551">
-      <c r="B551" s="10"/>
+      <c r="B551" s="12"/>
       <c r="D551" s="4"/>
-      <c r="F551" s="10"/>
+      <c r="F551" s="12"/>
       <c r="H551" s="4"/>
     </row>
     <row r="552">
-      <c r="B552" s="10"/>
+      <c r="B552" s="12"/>
       <c r="D552" s="4"/>
-      <c r="F552" s="10"/>
+      <c r="F552" s="12"/>
       <c r="H552" s="4"/>
     </row>
     <row r="553">
-      <c r="B553" s="10"/>
+      <c r="B553" s="12"/>
       <c r="D553" s="4"/>
-      <c r="F553" s="10"/>
+      <c r="F553" s="12"/>
       <c r="H553" s="4"/>
     </row>
     <row r="554">
-      <c r="B554" s="10"/>
+      <c r="B554" s="12"/>
       <c r="D554" s="4"/>
-      <c r="F554" s="10"/>
+      <c r="F554" s="12"/>
       <c r="H554" s="4"/>
     </row>
     <row r="555">
-      <c r="B555" s="10"/>
+      <c r="B555" s="12"/>
       <c r="D555" s="4"/>
-      <c r="F555" s="10"/>
+      <c r="F555" s="12"/>
       <c r="H555" s="4"/>
     </row>
     <row r="556">
-      <c r="B556" s="10"/>
+      <c r="B556" s="12"/>
       <c r="D556" s="4"/>
-      <c r="F556" s="10"/>
+      <c r="F556" s="12"/>
       <c r="H556" s="4"/>
     </row>
     <row r="557">
-      <c r="B557" s="10"/>
+      <c r="B557" s="12"/>
       <c r="D557" s="4"/>
-      <c r="F557" s="10"/>
+      <c r="F557" s="12"/>
       <c r="H557" s="4"/>
     </row>
     <row r="558">
-      <c r="B558" s="10"/>
+      <c r="B558" s="12"/>
       <c r="D558" s="4"/>
-      <c r="F558" s="10"/>
+      <c r="F558" s="12"/>
       <c r="H558" s="4"/>
     </row>
     <row r="559">
-      <c r="B559" s="10"/>
+      <c r="B559" s="12"/>
       <c r="D559" s="4"/>
-      <c r="F559" s="10"/>
+      <c r="F559" s="12"/>
       <c r="H559" s="4"/>
     </row>
     <row r="560">
-      <c r="B560" s="10"/>
+      <c r="B560" s="12"/>
       <c r="D560" s="4"/>
-      <c r="F560" s="10"/>
+      <c r="F560" s="12"/>
       <c r="H560" s="4"/>
     </row>
     <row r="561">
-      <c r="B561" s="10"/>
+      <c r="B561" s="12"/>
       <c r="D561" s="4"/>
-      <c r="F561" s="10"/>
+      <c r="F561" s="12"/>
       <c r="H561" s="4"/>
     </row>
     <row r="562">
-      <c r="B562" s="10"/>
+      <c r="B562" s="12"/>
       <c r="D562" s="4"/>
-      <c r="F562" s="10"/>
+      <c r="F562" s="12"/>
       <c r="H562" s="4"/>
     </row>
     <row r="563">
-      <c r="B563" s="10"/>
+      <c r="B563" s="12"/>
       <c r="D563" s="4"/>
-      <c r="F563" s="10"/>
+      <c r="F563" s="12"/>
       <c r="H563" s="4"/>
     </row>
     <row r="564">
-      <c r="B564" s="10"/>
+      <c r="B564" s="12"/>
       <c r="D564" s="4"/>
-      <c r="F564" s="10"/>
+      <c r="F564" s="12"/>
       <c r="H564" s="4"/>
     </row>
     <row r="565">
-      <c r="B565" s="10"/>
+      <c r="B565" s="12"/>
       <c r="D565" s="4"/>
-      <c r="F565" s="10"/>
+      <c r="F565" s="12"/>
       <c r="H565" s="4"/>
     </row>
     <row r="566">
-      <c r="B566" s="10"/>
+      <c r="B566" s="12"/>
       <c r="D566" s="4"/>
-      <c r="F566" s="10"/>
+      <c r="F566" s="12"/>
       <c r="H566" s="4"/>
     </row>
     <row r="567">
-      <c r="B567" s="10"/>
+      <c r="B567" s="12"/>
       <c r="D567" s="4"/>
-      <c r="F567" s="10"/>
+      <c r="F567" s="12"/>
       <c r="H567" s="4"/>
     </row>
     <row r="568">
-      <c r="B568" s="10"/>
+      <c r="B568" s="12"/>
       <c r="D568" s="4"/>
-      <c r="F568" s="10"/>
+      <c r="F568" s="12"/>
       <c r="H568" s="4"/>
     </row>
     <row r="569">
-      <c r="B569" s="10"/>
+      <c r="B569" s="12"/>
       <c r="D569" s="4"/>
-      <c r="F569" s="10"/>
+      <c r="F569" s="12"/>
       <c r="H569" s="4"/>
     </row>
     <row r="570">
-      <c r="B570" s="10"/>
+      <c r="B570" s="12"/>
       <c r="D570" s="4"/>
-      <c r="F570" s="10"/>
+      <c r="F570" s="12"/>
       <c r="H570" s="4"/>
     </row>
     <row r="571">
-      <c r="B571" s="10"/>
+      <c r="B571" s="12"/>
       <c r="D571" s="4"/>
-      <c r="F571" s="10"/>
+      <c r="F571" s="12"/>
       <c r="H571" s="4"/>
     </row>
     <row r="572">
-      <c r="B572" s="10"/>
+      <c r="B572" s="12"/>
       <c r="D572" s="4"/>
-      <c r="F572" s="10"/>
+      <c r="F572" s="12"/>
       <c r="H572" s="4"/>
     </row>
     <row r="573">
-      <c r="B573" s="10"/>
+      <c r="B573" s="12"/>
       <c r="D573" s="4"/>
-      <c r="F573" s="10"/>
+      <c r="F573" s="12"/>
       <c r="H573" s="4"/>
     </row>
     <row r="574">
-      <c r="B574" s="10"/>
+      <c r="B574" s="12"/>
       <c r="D574" s="4"/>
-      <c r="F574" s="10"/>
+      <c r="F574" s="12"/>
       <c r="H574" s="4"/>
     </row>
     <row r="575">
-      <c r="B575" s="10"/>
+      <c r="B575" s="12"/>
       <c r="D575" s="4"/>
-      <c r="F575" s="10"/>
+      <c r="F575" s="12"/>
       <c r="H575" s="4"/>
     </row>
     <row r="576">
-      <c r="B576" s="10"/>
+      <c r="B576" s="12"/>
       <c r="D576" s="4"/>
-      <c r="F576" s="10"/>
+      <c r="F576" s="12"/>
       <c r="H576" s="4"/>
     </row>
     <row r="577">
-      <c r="B577" s="10"/>
+      <c r="B577" s="12"/>
       <c r="D577" s="4"/>
-      <c r="F577" s="10"/>
+      <c r="F577" s="12"/>
       <c r="H577" s="4"/>
     </row>
     <row r="578">
-      <c r="B578" s="10"/>
+      <c r="B578" s="12"/>
       <c r="D578" s="4"/>
-      <c r="F578" s="10"/>
+      <c r="F578" s="12"/>
       <c r="H578" s="4"/>
     </row>
     <row r="579">
-      <c r="B579" s="10"/>
+      <c r="B579" s="12"/>
       <c r="D579" s="4"/>
-      <c r="F579" s="10"/>
+      <c r="F579" s="12"/>
       <c r="H579" s="4"/>
     </row>
     <row r="580">
-      <c r="B580" s="10"/>
+      <c r="B580" s="12"/>
       <c r="D580" s="4"/>
-      <c r="F580" s="10"/>
+      <c r="F580" s="12"/>
       <c r="H580" s="4"/>
     </row>
     <row r="581">
-      <c r="B581" s="10"/>
+      <c r="B581" s="12"/>
       <c r="D581" s="4"/>
-      <c r="F581" s="10"/>
+      <c r="F581" s="12"/>
       <c r="H581" s="4"/>
     </row>
     <row r="582">
-      <c r="B582" s="10"/>
+      <c r="B582" s="12"/>
       <c r="D582" s="4"/>
-      <c r="F582" s="10"/>
+      <c r="F582" s="12"/>
       <c r="H582" s="4"/>
     </row>
     <row r="583">
-      <c r="B583" s="10"/>
+      <c r="B583" s="12"/>
       <c r="D583" s="4"/>
-      <c r="F583" s="10"/>
+      <c r="F583" s="12"/>
       <c r="H583" s="4"/>
     </row>
     <row r="584">
-      <c r="B584" s="10"/>
+      <c r="B584" s="12"/>
       <c r="D584" s="4"/>
-      <c r="F584" s="10"/>
+      <c r="F584" s="12"/>
       <c r="H584" s="4"/>
     </row>
     <row r="585">
-      <c r="B585" s="10"/>
+      <c r="B585" s="12"/>
       <c r="D585" s="4"/>
-      <c r="F585" s="10"/>
+      <c r="F585" s="12"/>
       <c r="H585" s="4"/>
     </row>
     <row r="586">
-      <c r="B586" s="10"/>
+      <c r="B586" s="12"/>
       <c r="D586" s="4"/>
-      <c r="F586" s="10"/>
+      <c r="F586" s="12"/>
       <c r="H586" s="4"/>
     </row>
     <row r="587">
-      <c r="B587" s="10"/>
+      <c r="B587" s="12"/>
       <c r="D587" s="4"/>
-      <c r="F587" s="10"/>
+      <c r="F587" s="12"/>
       <c r="H587" s="4"/>
     </row>
     <row r="588">
-      <c r="B588" s="10"/>
+      <c r="B588" s="12"/>
       <c r="D588" s="4"/>
-      <c r="F588" s="10"/>
+      <c r="F588" s="12"/>
       <c r="H588" s="4"/>
     </row>
     <row r="589">
-      <c r="B589" s="10"/>
+      <c r="B589" s="12"/>
       <c r="D589" s="4"/>
-      <c r="F589" s="10"/>
+      <c r="F589" s="12"/>
       <c r="H589" s="4"/>
     </row>
     <row r="590">
-      <c r="B590" s="10"/>
+      <c r="B590" s="12"/>
       <c r="D590" s="4"/>
-      <c r="F590" s="10"/>
+      <c r="F590" s="12"/>
       <c r="H590" s="4"/>
     </row>
     <row r="591">
-      <c r="B591" s="10"/>
+      <c r="B591" s="12"/>
       <c r="D591" s="4"/>
-      <c r="F591" s="10"/>
+      <c r="F591" s="12"/>
       <c r="H591" s="4"/>
     </row>
     <row r="592">
-      <c r="B592" s="10"/>
+      <c r="B592" s="12"/>
       <c r="D592" s="4"/>
-      <c r="F592" s="10"/>
+      <c r="F592" s="12"/>
       <c r="H592" s="4"/>
     </row>
     <row r="593">
-      <c r="B593" s="10"/>
+      <c r="B593" s="12"/>
       <c r="D593" s="4"/>
-      <c r="F593" s="10"/>
+      <c r="F593" s="12"/>
       <c r="H593" s="4"/>
     </row>
     <row r="594">
-      <c r="B594" s="10"/>
+      <c r="B594" s="12"/>
       <c r="D594" s="4"/>
-      <c r="F594" s="10"/>
+      <c r="F594" s="12"/>
       <c r="H594" s="4"/>
     </row>
     <row r="595">
-      <c r="B595" s="10"/>
+      <c r="B595" s="12"/>
       <c r="D595" s="4"/>
-      <c r="F595" s="10"/>
+      <c r="F595" s="12"/>
       <c r="H595" s="4"/>
     </row>
     <row r="596">
-      <c r="B596" s="10"/>
+      <c r="B596" s="12"/>
       <c r="D596" s="4"/>
-      <c r="F596" s="10"/>
+      <c r="F596" s="12"/>
       <c r="H596" s="4"/>
     </row>
     <row r="597">
-      <c r="B597" s="10"/>
+      <c r="B597" s="12"/>
       <c r="D597" s="4"/>
-      <c r="F597" s="10"/>
+      <c r="F597" s="12"/>
       <c r="H597" s="4"/>
     </row>
     <row r="598">
-      <c r="B598" s="10"/>
+      <c r="B598" s="12"/>
       <c r="D598" s="4"/>
-      <c r="F598" s="10"/>
+      <c r="F598" s="12"/>
       <c r="H598" s="4"/>
     </row>
     <row r="599">
-      <c r="B599" s="10"/>
+      <c r="B599" s="12"/>
       <c r="D599" s="4"/>
-      <c r="F599" s="10"/>
+      <c r="F599" s="12"/>
       <c r="H599" s="4"/>
     </row>
     <row r="600">
-      <c r="B600" s="10"/>
+      <c r="B600" s="12"/>
       <c r="D600" s="4"/>
-      <c r="F600" s="10"/>
+      <c r="F600" s="12"/>
       <c r="H600" s="4"/>
     </row>
     <row r="601">
-      <c r="B601" s="10"/>
+      <c r="B601" s="12"/>
       <c r="D601" s="4"/>
-      <c r="F601" s="10"/>
+      <c r="F601" s="12"/>
       <c r="H601" s="4"/>
     </row>
     <row r="602">
-      <c r="B602" s="10"/>
+      <c r="B602" s="12"/>
       <c r="D602" s="4"/>
-      <c r="F602" s="10"/>
+      <c r="F602" s="12"/>
       <c r="H602" s="4"/>
     </row>
     <row r="603">
-      <c r="B603" s="10"/>
+      <c r="B603" s="12"/>
       <c r="D603" s="4"/>
-      <c r="F603" s="10"/>
+      <c r="F603" s="12"/>
       <c r="H603" s="4"/>
     </row>
     <row r="604">
-      <c r="B604" s="10"/>
+      <c r="B604" s="12"/>
       <c r="D604" s="4"/>
-      <c r="F604" s="10"/>
+      <c r="F604" s="12"/>
       <c r="H604" s="4"/>
     </row>
     <row r="605">
-      <c r="B605" s="10"/>
+      <c r="B605" s="12"/>
       <c r="D605" s="4"/>
-      <c r="F605" s="10"/>
+      <c r="F605" s="12"/>
       <c r="H605" s="4"/>
     </row>
     <row r="606">
-      <c r="B606" s="10"/>
+      <c r="B606" s="12"/>
       <c r="D606" s="4"/>
-      <c r="F606" s="10"/>
+      <c r="F606" s="12"/>
       <c r="H606" s="4"/>
     </row>
     <row r="607">
-      <c r="B607" s="10"/>
+      <c r="B607" s="12"/>
       <c r="D607" s="4"/>
-      <c r="F607" s="10"/>
+      <c r="F607" s="12"/>
       <c r="H607" s="4"/>
     </row>
     <row r="608">
-      <c r="B608" s="10"/>
+      <c r="B608" s="12"/>
       <c r="D608" s="4"/>
-      <c r="F608" s="10"/>
+      <c r="F608" s="12"/>
       <c r="H608" s="4"/>
     </row>
     <row r="609">
-      <c r="B609" s="10"/>
+      <c r="B609" s="12"/>
       <c r="D609" s="4"/>
-      <c r="F609" s="10"/>
+      <c r="F609" s="12"/>
       <c r="H609" s="4"/>
     </row>
     <row r="610">
-      <c r="B610" s="10"/>
+      <c r="B610" s="12"/>
       <c r="D610" s="4"/>
-      <c r="F610" s="10"/>
+      <c r="F610" s="12"/>
       <c r="H610" s="4"/>
     </row>
     <row r="611">
-      <c r="B611" s="10"/>
+      <c r="B611" s="12"/>
       <c r="D611" s="4"/>
-      <c r="F611" s="10"/>
+      <c r="F611" s="12"/>
       <c r="H611" s="4"/>
     </row>
     <row r="612">
-      <c r="B612" s="10"/>
+      <c r="B612" s="12"/>
       <c r="D612" s="4"/>
-      <c r="F612" s="10"/>
+      <c r="F612" s="12"/>
       <c r="H612" s="4"/>
     </row>
     <row r="613">
-      <c r="B613" s="10"/>
+      <c r="B613" s="12"/>
       <c r="D613" s="4"/>
-      <c r="F613" s="10"/>
+      <c r="F613" s="12"/>
       <c r="H613" s="4"/>
     </row>
     <row r="614">
-      <c r="B614" s="10"/>
+      <c r="B614" s="12"/>
       <c r="D614" s="4"/>
-      <c r="F614" s="10"/>
+      <c r="F614" s="12"/>
       <c r="H614" s="4"/>
     </row>
     <row r="615">
-      <c r="B615" s="10"/>
+      <c r="B615" s="12"/>
       <c r="D615" s="4"/>
-      <c r="F615" s="10"/>
+      <c r="F615" s="12"/>
       <c r="H615" s="4"/>
     </row>
     <row r="616">
-      <c r="B616" s="10"/>
+      <c r="B616" s="12"/>
       <c r="D616" s="4"/>
-      <c r="F616" s="10"/>
+      <c r="F616" s="12"/>
       <c r="H616" s="4"/>
     </row>
     <row r="617">
-      <c r="B617" s="10"/>
+      <c r="B617" s="12"/>
       <c r="D617" s="4"/>
-      <c r="F617" s="10"/>
+      <c r="F617" s="12"/>
       <c r="H617" s="4"/>
     </row>
     <row r="618">
-      <c r="B618" s="10"/>
+      <c r="B618" s="12"/>
       <c r="D618" s="4"/>
-      <c r="F618" s="10"/>
+      <c r="F618" s="12"/>
       <c r="H618" s="4"/>
     </row>
     <row r="619">
-      <c r="B619" s="10"/>
+      <c r="B619" s="12"/>
       <c r="D619" s="4"/>
-      <c r="F619" s="10"/>
+      <c r="F619" s="12"/>
       <c r="H619" s="4"/>
     </row>
     <row r="620">
-      <c r="B620" s="10"/>
+      <c r="B620" s="12"/>
       <c r="D620" s="4"/>
-      <c r="F620" s="10"/>
+      <c r="F620" s="12"/>
       <c r="H620" s="4"/>
     </row>
     <row r="621">
-      <c r="B621" s="10"/>
+      <c r="B621" s="12"/>
       <c r="D621" s="4"/>
-      <c r="F621" s="10"/>
+      <c r="F621" s="12"/>
       <c r="H621" s="4"/>
     </row>
     <row r="622">
-      <c r="B622" s="10"/>
+      <c r="B622" s="12"/>
       <c r="D622" s="4"/>
-      <c r="F622" s="10"/>
+      <c r="F622" s="12"/>
       <c r="H622" s="4"/>
     </row>
     <row r="623">
-      <c r="B623" s="10"/>
+      <c r="B623" s="12"/>
       <c r="D623" s="4"/>
-      <c r="F623" s="10"/>
+      <c r="F623" s="12"/>
       <c r="H623" s="4"/>
     </row>
     <row r="624">
-      <c r="B624" s="10"/>
+      <c r="B624" s="12"/>
       <c r="D624" s="4"/>
-      <c r="F624" s="10"/>
+      <c r="F624" s="12"/>
       <c r="H624" s="4"/>
     </row>
     <row r="625">
-      <c r="B625" s="10"/>
+      <c r="B625" s="12"/>
       <c r="D625" s="4"/>
-      <c r="F625" s="10"/>
+      <c r="F625" s="12"/>
       <c r="H625" s="4"/>
     </row>
     <row r="626">
-      <c r="B626" s="10"/>
+      <c r="B626" s="12"/>
       <c r="D626" s="4"/>
-      <c r="F626" s="10"/>
+      <c r="F626" s="12"/>
       <c r="H626" s="4"/>
     </row>
     <row r="627">
-      <c r="B627" s="10"/>
+      <c r="B627" s="12"/>
       <c r="D627" s="4"/>
-      <c r="F627" s="10"/>
+      <c r="F627" s="12"/>
       <c r="H627" s="4"/>
     </row>
     <row r="628">
-      <c r="B628" s="10"/>
+      <c r="B628" s="12"/>
       <c r="D628" s="4"/>
-      <c r="F628" s="10"/>
+      <c r="F628" s="12"/>
       <c r="H628" s="4"/>
     </row>
     <row r="629">
-      <c r="B629" s="10"/>
+      <c r="B629" s="12"/>
       <c r="D629" s="4"/>
-      <c r="F629" s="10"/>
+      <c r="F629" s="12"/>
       <c r="H629" s="4"/>
     </row>
     <row r="630">
-      <c r="B630" s="10"/>
+      <c r="B630" s="12"/>
       <c r="D630" s="4"/>
-      <c r="F630" s="10"/>
+      <c r="F630" s="12"/>
       <c r="H630" s="4"/>
     </row>
     <row r="631">
-      <c r="B631" s="10"/>
+      <c r="B631" s="12"/>
       <c r="D631" s="4"/>
-      <c r="F631" s="10"/>
+      <c r="F631" s="12"/>
       <c r="H631" s="4"/>
     </row>
     <row r="632">
-      <c r="B632" s="10"/>
+      <c r="B632" s="12"/>
       <c r="D632" s="4"/>
-      <c r="F632" s="10"/>
+      <c r="F632" s="12"/>
       <c r="H632" s="4"/>
     </row>
     <row r="633">
-      <c r="B633" s="10"/>
+      <c r="B633" s="12"/>
       <c r="D633" s="4"/>
-      <c r="F633" s="10"/>
+      <c r="F633" s="12"/>
       <c r="H633" s="4"/>
     </row>
     <row r="634">
-      <c r="B634" s="10"/>
+      <c r="B634" s="12"/>
       <c r="D634" s="4"/>
-      <c r="F634" s="10"/>
+      <c r="F634" s="12"/>
       <c r="H634" s="4"/>
     </row>
     <row r="635">
-      <c r="B635" s="10"/>
+      <c r="B635" s="12"/>
       <c r="D635" s="4"/>
-      <c r="F635" s="10"/>
+      <c r="F635" s="12"/>
       <c r="H635" s="4"/>
     </row>
     <row r="636">
-      <c r="B636" s="10"/>
+      <c r="B636" s="12"/>
       <c r="D636" s="4"/>
-      <c r="F636" s="10"/>
+      <c r="F636" s="12"/>
       <c r="H636" s="4"/>
     </row>
     <row r="637">
-      <c r="B637" s="10"/>
+      <c r="B637" s="12"/>
       <c r="D637" s="4"/>
-      <c r="F637" s="10"/>
+      <c r="F637" s="12"/>
       <c r="H637" s="4"/>
     </row>
     <row r="638">
-      <c r="B638" s="10"/>
+      <c r="B638" s="12"/>
       <c r="D638" s="4"/>
-      <c r="F638" s="10"/>
+      <c r="F638" s="12"/>
       <c r="H638" s="4"/>
     </row>
     <row r="639">
-      <c r="B639" s="10"/>
+      <c r="B639" s="12"/>
       <c r="D639" s="4"/>
-      <c r="F639" s="10"/>
+      <c r="F639" s="12"/>
       <c r="H639" s="4"/>
     </row>
     <row r="640">
-      <c r="B640" s="10"/>
+      <c r="B640" s="12"/>
       <c r="D640" s="4"/>
-      <c r="F640" s="10"/>
+      <c r="F640" s="12"/>
       <c r="H640" s="4"/>
     </row>
     <row r="641">
-      <c r="B641" s="10"/>
+      <c r="B641" s="12"/>
       <c r="D641" s="4"/>
-      <c r="F641" s="10"/>
+      <c r="F641" s="12"/>
       <c r="H641" s="4"/>
     </row>
     <row r="642">
-      <c r="B642" s="10"/>
+      <c r="B642" s="12"/>
       <c r="D642" s="4"/>
-      <c r="F642" s="10"/>
+      <c r="F642" s="12"/>
       <c r="H642" s="4"/>
     </row>
     <row r="643">
-      <c r="B643" s="10"/>
+      <c r="B643" s="12"/>
       <c r="D643" s="4"/>
-      <c r="F643" s="10"/>
+      <c r="F643" s="12"/>
       <c r="H643" s="4"/>
     </row>
     <row r="644">
-      <c r="B644" s="10"/>
+      <c r="B644" s="12"/>
       <c r="D644" s="4"/>
-      <c r="F644" s="10"/>
+      <c r="F644" s="12"/>
       <c r="H644" s="4"/>
     </row>
     <row r="645">
-      <c r="B645" s="10"/>
+      <c r="B645" s="12"/>
       <c r="D645" s="4"/>
-      <c r="F645" s="10"/>
+      <c r="F645" s="12"/>
       <c r="H645" s="4"/>
     </row>
     <row r="646">
-      <c r="B646" s="10"/>
+      <c r="B646" s="12"/>
       <c r="D646" s="4"/>
-      <c r="F646" s="10"/>
+      <c r="F646" s="12"/>
       <c r="H646" s="4"/>
     </row>
     <row r="647">
-      <c r="B647" s="10"/>
+      <c r="B647" s="12"/>
       <c r="D647" s="4"/>
-      <c r="F647" s="10"/>
+      <c r="F647" s="12"/>
       <c r="H647" s="4"/>
     </row>
     <row r="648">
-      <c r="B648" s="10"/>
+      <c r="B648" s="12"/>
       <c r="D648" s="4"/>
-      <c r="F648" s="10"/>
+      <c r="F648" s="12"/>
       <c r="H648" s="4"/>
     </row>
     <row r="649">
-      <c r="B649" s="10"/>
+      <c r="B649" s="12"/>
       <c r="D649" s="4"/>
-      <c r="F649" s="10"/>
+      <c r="F649" s="12"/>
       <c r="H649" s="4"/>
     </row>
     <row r="650">
-      <c r="B650" s="10"/>
+      <c r="B650" s="12"/>
       <c r="D650" s="4"/>
-      <c r="F650" s="10"/>
+      <c r="F650" s="12"/>
       <c r="H650" s="4"/>
     </row>
     <row r="651">
-      <c r="B651" s="10"/>
+      <c r="B651" s="12"/>
       <c r="D651" s="4"/>
-      <c r="F651" s="10"/>
+      <c r="F651" s="12"/>
       <c r="H651" s="4"/>
     </row>
     <row r="652">
-      <c r="B652" s="10"/>
+      <c r="B652" s="12"/>
       <c r="D652" s="4"/>
-      <c r="F652" s="10"/>
+      <c r="F652" s="12"/>
       <c r="H652" s="4"/>
     </row>
     <row r="653">
-      <c r="B653" s="10"/>
+      <c r="B653" s="12"/>
       <c r="D653" s="4"/>
-      <c r="F653" s="10"/>
+      <c r="F653" s="12"/>
       <c r="H653" s="4"/>
     </row>
     <row r="654">
-      <c r="B654" s="10"/>
+      <c r="B654" s="12"/>
       <c r="D654" s="4"/>
-      <c r="F654" s="10"/>
+      <c r="F654" s="12"/>
       <c r="H654" s="4"/>
     </row>
     <row r="655">
-      <c r="B655" s="10"/>
+      <c r="B655" s="12"/>
       <c r="D655" s="4"/>
-      <c r="F655" s="10"/>
+      <c r="F655" s="12"/>
       <c r="H655" s="4"/>
     </row>
     <row r="656">
-      <c r="B656" s="10"/>
+      <c r="B656" s="12"/>
       <c r="D656" s="4"/>
-      <c r="F656" s="10"/>
+      <c r="F656" s="12"/>
       <c r="H656" s="4"/>
     </row>
     <row r="657">
-      <c r="B657" s="10"/>
+      <c r="B657" s="12"/>
       <c r="D657" s="4"/>
-      <c r="F657" s="10"/>
+      <c r="F657" s="12"/>
       <c r="H657" s="4"/>
     </row>
     <row r="658">
-      <c r="B658" s="10"/>
+      <c r="B658" s="12"/>
       <c r="D658" s="4"/>
-      <c r="F658" s="10"/>
+      <c r="F658" s="12"/>
       <c r="H658" s="4"/>
     </row>
     <row r="659">
-      <c r="B659" s="10"/>
+      <c r="B659" s="12"/>
       <c r="D659" s="4"/>
-      <c r="F659" s="10"/>
+      <c r="F659" s="12"/>
       <c r="H659" s="4"/>
     </row>
     <row r="660">
-      <c r="B660" s="10"/>
+      <c r="B660" s="12"/>
       <c r="D660" s="4"/>
-      <c r="F660" s="10"/>
+      <c r="F660" s="12"/>
       <c r="H660" s="4"/>
     </row>
     <row r="661">
-      <c r="B661" s="10"/>
+      <c r="B661" s="12"/>
       <c r="D661" s="4"/>
-      <c r="F661" s="10"/>
+      <c r="F661" s="12"/>
       <c r="H661" s="4"/>
     </row>
     <row r="662">
-      <c r="B662" s="10"/>
+      <c r="B662" s="12"/>
       <c r="D662" s="4"/>
-      <c r="F662" s="10"/>
+      <c r="F662" s="12"/>
       <c r="H662" s="4"/>
     </row>
     <row r="663">
-      <c r="B663" s="10"/>
+      <c r="B663" s="12"/>
       <c r="D663" s="4"/>
-      <c r="F663" s="10"/>
+      <c r="F663" s="12"/>
       <c r="H663" s="4"/>
     </row>
     <row r="664">
-      <c r="B664" s="10"/>
+      <c r="B664" s="12"/>
       <c r="D664" s="4"/>
-      <c r="F664" s="10"/>
+      <c r="F664" s="12"/>
       <c r="H664" s="4"/>
     </row>
     <row r="665">
-      <c r="B665" s="10"/>
+      <c r="B665" s="12"/>
       <c r="D665" s="4"/>
-      <c r="F665" s="10"/>
+      <c r="F665" s="12"/>
       <c r="H665" s="4"/>
     </row>
     <row r="666">
-      <c r="B666" s="10"/>
+      <c r="B666" s="12"/>
       <c r="D666" s="4"/>
-      <c r="F666" s="10"/>
+      <c r="F666" s="12"/>
       <c r="H666" s="4"/>
     </row>
     <row r="667">
-      <c r="B667" s="10"/>
+      <c r="B667" s="12"/>
       <c r="D667" s="4"/>
-      <c r="F667" s="10"/>
+      <c r="F667" s="12"/>
       <c r="H667" s="4"/>
     </row>
     <row r="668">
-      <c r="B668" s="10"/>
+      <c r="B668" s="12"/>
       <c r="D668" s="4"/>
-      <c r="F668" s="10"/>
+      <c r="F668" s="12"/>
       <c r="H668" s="4"/>
     </row>
     <row r="669">
-      <c r="B669" s="10"/>
+      <c r="B669" s="12"/>
       <c r="D669" s="4"/>
-      <c r="F669" s="10"/>
+      <c r="F669" s="12"/>
       <c r="H669" s="4"/>
     </row>
     <row r="670">
-      <c r="B670" s="10"/>
+      <c r="B670" s="12"/>
       <c r="D670" s="4"/>
-      <c r="F670" s="10"/>
+      <c r="F670" s="12"/>
       <c r="H670" s="4"/>
     </row>
     <row r="671">
-      <c r="B671" s="10"/>
+      <c r="B671" s="12"/>
       <c r="D671" s="4"/>
-      <c r="F671" s="10"/>
+      <c r="F671" s="12"/>
       <c r="H671" s="4"/>
     </row>
     <row r="672">
-      <c r="B672" s="10"/>
+      <c r="B672" s="12"/>
       <c r="D672" s="4"/>
-      <c r="F672" s="10"/>
+      <c r="F672" s="12"/>
       <c r="H672" s="4"/>
     </row>
     <row r="673">
-      <c r="B673" s="10"/>
+      <c r="B673" s="12"/>
       <c r="D673" s="4"/>
-      <c r="F673" s="10"/>
+      <c r="F673" s="12"/>
       <c r="H673" s="4"/>
     </row>
     <row r="674">
-      <c r="B674" s="10"/>
+      <c r="B674" s="12"/>
       <c r="D674" s="4"/>
-      <c r="F674" s="10"/>
+      <c r="F674" s="12"/>
       <c r="H674" s="4"/>
     </row>
     <row r="675">
-      <c r="B675" s="10"/>
+      <c r="B675" s="12"/>
       <c r="D675" s="4"/>
-      <c r="F675" s="10"/>
+      <c r="F675" s="12"/>
       <c r="H675" s="4"/>
     </row>
     <row r="676">
-      <c r="B676" s="10"/>
+      <c r="B676" s="12"/>
       <c r="D676" s="4"/>
-      <c r="F676" s="10"/>
+      <c r="F676" s="12"/>
       <c r="H676" s="4"/>
     </row>
     <row r="677">
-      <c r="B677" s="10"/>
+      <c r="B677" s="12"/>
       <c r="D677" s="4"/>
-      <c r="F677" s="10"/>
+      <c r="F677" s="12"/>
       <c r="H677" s="4"/>
     </row>
     <row r="678">
-      <c r="B678" s="10"/>
+      <c r="B678" s="12"/>
       <c r="D678" s="4"/>
-      <c r="F678" s="10"/>
+      <c r="F678" s="12"/>
       <c r="H678" s="4"/>
     </row>
     <row r="679">
-      <c r="B679" s="10"/>
+      <c r="B679" s="12"/>
       <c r="D679" s="4"/>
-      <c r="F679" s="10"/>
+      <c r="F679" s="12"/>
       <c r="H679" s="4"/>
     </row>
     <row r="680">
-      <c r="B680" s="10"/>
+      <c r="B680" s="12"/>
       <c r="D680" s="4"/>
-      <c r="F680" s="10"/>
+      <c r="F680" s="12"/>
       <c r="H680" s="4"/>
     </row>
     <row r="681">
-      <c r="B681" s="10"/>
+      <c r="B681" s="12"/>
       <c r="D681" s="4"/>
-      <c r="F681" s="10"/>
+      <c r="F681" s="12"/>
       <c r="H681" s="4"/>
     </row>
     <row r="682">
-      <c r="B682" s="10"/>
+      <c r="B682" s="12"/>
       <c r="D682" s="4"/>
-      <c r="F682" s="10"/>
+      <c r="F682" s="12"/>
       <c r="H682" s="4"/>
     </row>
     <row r="683">
-      <c r="B683" s="10"/>
+      <c r="B683" s="12"/>
       <c r="D683" s="4"/>
-      <c r="F683" s="10"/>
+      <c r="F683" s="12"/>
       <c r="H683" s="4"/>
     </row>
     <row r="684">
-      <c r="B684" s="10"/>
+      <c r="B684" s="12"/>
       <c r="D684" s="4"/>
-      <c r="F684" s="10"/>
+      <c r="F684" s="12"/>
       <c r="H684" s="4"/>
     </row>
     <row r="685">
-      <c r="B685" s="10"/>
+      <c r="B685" s="12"/>
       <c r="D685" s="4"/>
-      <c r="F685" s="10"/>
+      <c r="F685" s="12"/>
       <c r="H685" s="4"/>
     </row>
     <row r="686">
-      <c r="B686" s="10"/>
+      <c r="B686" s="12"/>
       <c r="D686" s="4"/>
-      <c r="F686" s="10"/>
+      <c r="F686" s="12"/>
       <c r="H686" s="4"/>
     </row>
     <row r="687">
-      <c r="B687" s="10"/>
+      <c r="B687" s="12"/>
       <c r="D687" s="4"/>
-      <c r="F687" s="10"/>
+      <c r="F687" s="12"/>
       <c r="H687" s="4"/>
     </row>
     <row r="688">
-      <c r="B688" s="10"/>
+      <c r="B688" s="12"/>
       <c r="D688" s="4"/>
-      <c r="F688" s="10"/>
+      <c r="F688" s="12"/>
       <c r="H688" s="4"/>
     </row>
     <row r="689">
-      <c r="B689" s="10"/>
+      <c r="B689" s="12"/>
       <c r="D689" s="4"/>
-      <c r="F689" s="10"/>
+      <c r="F689" s="12"/>
       <c r="H689" s="4"/>
     </row>
     <row r="690">
-      <c r="B690" s="10"/>
+      <c r="B690" s="12"/>
       <c r="D690" s="4"/>
-      <c r="F690" s="10"/>
+      <c r="F690" s="12"/>
       <c r="H690" s="4"/>
     </row>
     <row r="691">
-      <c r="B691" s="10"/>
+      <c r="B691" s="12"/>
       <c r="D691" s="4"/>
-      <c r="F691" s="10"/>
+      <c r="F691" s="12"/>
       <c r="H691" s="4"/>
     </row>
     <row r="692">
-      <c r="B692" s="10"/>
+      <c r="B692" s="12"/>
       <c r="D692" s="4"/>
-      <c r="F692" s="10"/>
+      <c r="F692" s="12"/>
       <c r="H692" s="4"/>
     </row>
     <row r="693">
-      <c r="B693" s="10"/>
+      <c r="B693" s="12"/>
       <c r="D693" s="4"/>
-      <c r="F693" s="10"/>
+      <c r="F693" s="12"/>
       <c r="H693" s="4"/>
     </row>
     <row r="694">
-      <c r="B694" s="10"/>
+      <c r="B694" s="12"/>
       <c r="D694" s="4"/>
-      <c r="F694" s="10"/>
+      <c r="F694" s="12"/>
       <c r="H694" s="4"/>
     </row>
     <row r="695">
-      <c r="B695" s="10"/>
+      <c r="B695" s="12"/>
       <c r="D695" s="4"/>
-      <c r="F695" s="10"/>
+      <c r="F695" s="12"/>
       <c r="H695" s="4"/>
     </row>
     <row r="696">
-      <c r="B696" s="10"/>
+      <c r="B696" s="12"/>
       <c r="D696" s="4"/>
-      <c r="F696" s="10"/>
+      <c r="F696" s="12"/>
       <c r="H696" s="4"/>
     </row>
     <row r="697">
-      <c r="B697" s="10"/>
+      <c r="B697" s="12"/>
       <c r="D697" s="4"/>
-      <c r="F697" s="10"/>
+      <c r="F697" s="12"/>
       <c r="H697" s="4"/>
     </row>
     <row r="698">
-      <c r="B698" s="10"/>
+      <c r="B698" s="12"/>
       <c r="D698" s="4"/>
-      <c r="F698" s="10"/>
+      <c r="F698" s="12"/>
       <c r="H698" s="4"/>
     </row>
     <row r="699">
-      <c r="B699" s="10"/>
+      <c r="B699" s="12"/>
       <c r="D699" s="4"/>
-      <c r="F699" s="10"/>
+      <c r="F699" s="12"/>
       <c r="H699" s="4"/>
     </row>
     <row r="700">
-      <c r="B700" s="10"/>
+      <c r="B700" s="12"/>
       <c r="D700" s="4"/>
-      <c r="F700" s="10"/>
+      <c r="F700" s="12"/>
       <c r="H700" s="4"/>
     </row>
     <row r="701">
-      <c r="B701" s="10"/>
+      <c r="B701" s="12"/>
       <c r="D701" s="4"/>
-      <c r="F701" s="10"/>
+      <c r="F701" s="12"/>
       <c r="H701" s="4"/>
     </row>
     <row r="702">
-      <c r="B702" s="10"/>
+      <c r="B702" s="12"/>
       <c r="D702" s="4"/>
-      <c r="F702" s="10"/>
+      <c r="F702" s="12"/>
       <c r="H702" s="4"/>
     </row>
     <row r="703">
-      <c r="B703" s="10"/>
+      <c r="B703" s="12"/>
       <c r="D703" s="4"/>
-      <c r="F703" s="10"/>
+      <c r="F703" s="12"/>
       <c r="H703" s="4"/>
     </row>
     <row r="704">
-      <c r="B704" s="10"/>
+      <c r="B704" s="12"/>
       <c r="D704" s="4"/>
-      <c r="F704" s="10"/>
+      <c r="F704" s="12"/>
       <c r="H704" s="4"/>
     </row>
     <row r="705">
-      <c r="B705" s="10"/>
+      <c r="B705" s="12"/>
       <c r="D705" s="4"/>
-      <c r="F705" s="10"/>
+      <c r="F705" s="12"/>
       <c r="H705" s="4"/>
     </row>
     <row r="706">
-      <c r="B706" s="10"/>
+      <c r="B706" s="12"/>
       <c r="D706" s="4"/>
-      <c r="F706" s="10"/>
+      <c r="F706" s="12"/>
       <c r="H706" s="4"/>
     </row>
     <row r="707">
-      <c r="B707" s="10"/>
+      <c r="B707" s="12"/>
       <c r="D707" s="4"/>
-      <c r="F707" s="10"/>
+      <c r="F707" s="12"/>
       <c r="H707" s="4"/>
     </row>
     <row r="708">
-      <c r="B708" s="10"/>
+      <c r="B708" s="12"/>
       <c r="D708" s="4"/>
-      <c r="F708" s="10"/>
+      <c r="F708" s="12"/>
       <c r="H708" s="4"/>
     </row>
     <row r="709">
-      <c r="B709" s="10"/>
+      <c r="B709" s="12"/>
       <c r="D709" s="4"/>
-      <c r="F709" s="10"/>
+      <c r="F709" s="12"/>
       <c r="H709" s="4"/>
     </row>
     <row r="710">
-      <c r="B710" s="10"/>
+      <c r="B710" s="12"/>
       <c r="D710" s="4"/>
-      <c r="F710" s="10"/>
+      <c r="F710" s="12"/>
       <c r="H710" s="4"/>
     </row>
     <row r="711">
-      <c r="B711" s="10"/>
+      <c r="B711" s="12"/>
       <c r="D711" s="4"/>
-      <c r="F711" s="10"/>
+      <c r="F711" s="12"/>
       <c r="H711" s="4"/>
     </row>
     <row r="712">
-      <c r="B712" s="10"/>
+      <c r="B712" s="12"/>
       <c r="D712" s="4"/>
-      <c r="F712" s="10"/>
+      <c r="F712" s="12"/>
       <c r="H712" s="4"/>
     </row>
     <row r="713">
-      <c r="B713" s="10"/>
+      <c r="B713" s="12"/>
       <c r="D713" s="4"/>
-      <c r="F713" s="10"/>
+      <c r="F713" s="12"/>
       <c r="H713" s="4"/>
     </row>
     <row r="714">
-      <c r="B714" s="10"/>
+      <c r="B714" s="12"/>
       <c r="D714" s="4"/>
-      <c r="F714" s="10"/>
+      <c r="F714" s="12"/>
       <c r="H714" s="4"/>
     </row>
     <row r="715">
-      <c r="B715" s="10"/>
+      <c r="B715" s="12"/>
       <c r="D715" s="4"/>
-      <c r="F715" s="10"/>
+      <c r="F715" s="12"/>
       <c r="H715" s="4"/>
     </row>
     <row r="716">
-      <c r="B716" s="10"/>
+      <c r="B716" s="12"/>
       <c r="D716" s="4"/>
-      <c r="F716" s="10"/>
+      <c r="F716" s="12"/>
       <c r="H716" s="4"/>
     </row>
     <row r="717">
-      <c r="B717" s="10"/>
+      <c r="B717" s="12"/>
       <c r="D717" s="4"/>
-      <c r="F717" s="10"/>
+      <c r="F717" s="12"/>
       <c r="H717" s="4"/>
     </row>
     <row r="718">
-      <c r="B718" s="10"/>
+      <c r="B718" s="12"/>
       <c r="D718" s="4"/>
-      <c r="F718" s="10"/>
+      <c r="F718" s="12"/>
       <c r="H718" s="4"/>
     </row>
     <row r="719">
-      <c r="B719" s="10"/>
+      <c r="B719" s="12"/>
       <c r="D719" s="4"/>
-      <c r="F719" s="10"/>
+      <c r="F719" s="12"/>
       <c r="H719" s="4"/>
     </row>
     <row r="720">
-      <c r="B720" s="10"/>
+      <c r="B720" s="12"/>
       <c r="D720" s="4"/>
-      <c r="F720" s="10"/>
+      <c r="F720" s="12"/>
       <c r="H720" s="4"/>
     </row>
     <row r="721">
-      <c r="B721" s="10"/>
+      <c r="B721" s="12"/>
       <c r="D721" s="4"/>
-      <c r="F721" s="10"/>
+      <c r="F721" s="12"/>
       <c r="H721" s="4"/>
     </row>
     <row r="722">
-      <c r="B722" s="10"/>
+      <c r="B722" s="12"/>
       <c r="D722" s="4"/>
-      <c r="F722" s="10"/>
+      <c r="F722" s="12"/>
       <c r="H722" s="4"/>
     </row>
     <row r="723">
-      <c r="B723" s="10"/>
+      <c r="B723" s="12"/>
       <c r="D723" s="4"/>
-      <c r="F723" s="10"/>
+      <c r="F723" s="12"/>
       <c r="H723" s="4"/>
     </row>
     <row r="724">
-      <c r="B724" s="10"/>
+      <c r="B724" s="12"/>
       <c r="D724" s="4"/>
-      <c r="F724" s="10"/>
+      <c r="F724" s="12"/>
       <c r="H724" s="4"/>
     </row>
     <row r="725">
-      <c r="B725" s="10"/>
+      <c r="B725" s="12"/>
       <c r="D725" s="4"/>
-      <c r="F725" s="10"/>
+      <c r="F725" s="12"/>
       <c r="H725" s="4"/>
     </row>
     <row r="726">
-      <c r="B726" s="10"/>
+      <c r="B726" s="12"/>
       <c r="D726" s="4"/>
-      <c r="F726" s="10"/>
+      <c r="F726" s="12"/>
       <c r="H726" s="4"/>
     </row>
     <row r="727">
-      <c r="B727" s="10"/>
+      <c r="B727" s="12"/>
       <c r="D727" s="4"/>
-      <c r="F727" s="10"/>
+      <c r="F727" s="12"/>
       <c r="H727" s="4"/>
     </row>
     <row r="728">
-      <c r="B728" s="10"/>
+      <c r="B728" s="12"/>
       <c r="D728" s="4"/>
-      <c r="F728" s="10"/>
+      <c r="F728" s="12"/>
       <c r="H728" s="4"/>
     </row>
     <row r="729">
-      <c r="B729" s="10"/>
+      <c r="B729" s="12"/>
       <c r="D729" s="4"/>
-      <c r="F729" s="10"/>
+      <c r="F729" s="12"/>
       <c r="H729" s="4"/>
     </row>
     <row r="730">
-      <c r="B730" s="10"/>
+      <c r="B730" s="12"/>
       <c r="D730" s="4"/>
-      <c r="F730" s="10"/>
+      <c r="F730" s="12"/>
       <c r="H730" s="4"/>
     </row>
     <row r="731">
-      <c r="B731" s="10"/>
+      <c r="B731" s="12"/>
       <c r="D731" s="4"/>
-      <c r="F731" s="10"/>
+      <c r="F731" s="12"/>
       <c r="H731" s="4"/>
     </row>
     <row r="732">
-      <c r="B732" s="10"/>
+      <c r="B732" s="12"/>
       <c r="D732" s="4"/>
-      <c r="F732" s="10"/>
+      <c r="F732" s="12"/>
       <c r="H732" s="4"/>
     </row>
     <row r="733">
-      <c r="B733" s="10"/>
+      <c r="B733" s="12"/>
       <c r="D733" s="4"/>
-      <c r="F733" s="10"/>
+      <c r="F733" s="12"/>
       <c r="H733" s="4"/>
     </row>
     <row r="734">
-      <c r="B734" s="10"/>
+      <c r="B734" s="12"/>
       <c r="D734" s="4"/>
-      <c r="F734" s="10"/>
+      <c r="F734" s="12"/>
       <c r="H734" s="4"/>
     </row>
     <row r="735">
-      <c r="B735" s="10"/>
+      <c r="B735" s="12"/>
       <c r="D735" s="4"/>
-      <c r="F735" s="10"/>
+      <c r="F735" s="12"/>
       <c r="H735" s="4"/>
     </row>
     <row r="736">
-      <c r="B736" s="10"/>
+      <c r="B736" s="12"/>
       <c r="D736" s="4"/>
-      <c r="F736" s="10"/>
+      <c r="F736" s="12"/>
       <c r="H736" s="4"/>
     </row>
     <row r="737">
-      <c r="B737" s="10"/>
+      <c r="B737" s="12"/>
       <c r="D737" s="4"/>
-      <c r="F737" s="10"/>
+      <c r="F737" s="12"/>
       <c r="H737" s="4"/>
     </row>
     <row r="738">
-      <c r="B738" s="10"/>
+      <c r="B738" s="12"/>
       <c r="D738" s="4"/>
-      <c r="F738" s="10"/>
+      <c r="F738" s="12"/>
       <c r="H738" s="4"/>
     </row>
     <row r="739">
-      <c r="B739" s="10"/>
+      <c r="B739" s="12"/>
       <c r="D739" s="4"/>
-      <c r="F739" s="10"/>
+      <c r="F739" s="12"/>
       <c r="H739" s="4"/>
     </row>
     <row r="740">
-      <c r="B740" s="10"/>
+      <c r="B740" s="12"/>
       <c r="D740" s="4"/>
-      <c r="F740" s="10"/>
+      <c r="F740" s="12"/>
       <c r="H740" s="4"/>
     </row>
     <row r="741">
-      <c r="B741" s="10"/>
+      <c r="B741" s="12"/>
       <c r="D741" s="4"/>
-      <c r="F741" s="10"/>
+      <c r="F741" s="12"/>
       <c r="H741" s="4"/>
     </row>
     <row r="742">
-      <c r="B742" s="10"/>
+      <c r="B742" s="12"/>
       <c r="D742" s="4"/>
-      <c r="F742" s="10"/>
+      <c r="F742" s="12"/>
       <c r="H742" s="4"/>
     </row>
     <row r="743">
-      <c r="B743" s="10"/>
+      <c r="B743" s="12"/>
       <c r="D743" s="4"/>
-      <c r="F743" s="10"/>
+      <c r="F743" s="12"/>
       <c r="H743" s="4"/>
     </row>
     <row r="744">
-      <c r="B744" s="10"/>
+      <c r="B744" s="12"/>
       <c r="D744" s="4"/>
-      <c r="F744" s="10"/>
+      <c r="F744" s="12"/>
       <c r="H744" s="4"/>
     </row>
     <row r="745">
-      <c r="B745" s="10"/>
+      <c r="B745" s="12"/>
       <c r="D745" s="4"/>
-      <c r="F745" s="10"/>
+      <c r="F745" s="12"/>
       <c r="H745" s="4"/>
     </row>
     <row r="746">
-      <c r="B746" s="10"/>
+      <c r="B746" s="12"/>
       <c r="D746" s="4"/>
-      <c r="F746" s="10"/>
+      <c r="F746" s="12"/>
       <c r="H746" s="4"/>
     </row>
     <row r="747">
-      <c r="B747" s="10"/>
+      <c r="B747" s="12"/>
       <c r="D747" s="4"/>
-      <c r="F747" s="10"/>
+      <c r="F747" s="12"/>
       <c r="H747" s="4"/>
     </row>
     <row r="748">
-      <c r="B748" s="10"/>
+      <c r="B748" s="12"/>
       <c r="D748" s="4"/>
-      <c r="F748" s="10"/>
+      <c r="F748" s="12"/>
       <c r="H748" s="4"/>
     </row>
     <row r="749">
-      <c r="B749" s="10"/>
+      <c r="B749" s="12"/>
       <c r="D749" s="4"/>
-      <c r="F749" s="10"/>
+      <c r="F749" s="12"/>
       <c r="H749" s="4"/>
     </row>
     <row r="750">
-      <c r="B750" s="10"/>
+      <c r="B750" s="12"/>
       <c r="D750" s="4"/>
-      <c r="F750" s="10"/>
+      <c r="F750" s="12"/>
       <c r="H750" s="4"/>
     </row>
     <row r="751">
-      <c r="B751" s="10"/>
+      <c r="B751" s="12"/>
       <c r="D751" s="4"/>
-      <c r="F751" s="10"/>
+      <c r="F751" s="12"/>
       <c r="H751" s="4"/>
     </row>
     <row r="752">
-      <c r="B752" s="10"/>
+      <c r="B752" s="12"/>
       <c r="D752" s="4"/>
-      <c r="F752" s="10"/>
+      <c r="F752" s="12"/>
       <c r="H752" s="4"/>
     </row>
     <row r="753">
-      <c r="B753" s="10"/>
+      <c r="B753" s="12"/>
       <c r="D753" s="4"/>
-      <c r="F753" s="10"/>
+      <c r="F753" s="12"/>
       <c r="H753" s="4"/>
     </row>
     <row r="754">
-      <c r="B754" s="10"/>
+      <c r="B754" s="12"/>
       <c r="D754" s="4"/>
-      <c r="F754" s="10"/>
+      <c r="F754" s="12"/>
       <c r="H754" s="4"/>
     </row>
     <row r="755">
-      <c r="B755" s="10"/>
+      <c r="B755" s="12"/>
       <c r="D755" s="4"/>
-      <c r="F755" s="10"/>
+      <c r="F755" s="12"/>
       <c r="H755" s="4"/>
     </row>
     <row r="756">
-      <c r="B756" s="10"/>
+      <c r="B756" s="12"/>
       <c r="D756" s="4"/>
-      <c r="F756" s="10"/>
+      <c r="F756" s="12"/>
       <c r="H756" s="4"/>
     </row>
     <row r="757">
-      <c r="B757" s="10"/>
+      <c r="B757" s="12"/>
       <c r="D757" s="4"/>
-      <c r="F757" s="10"/>
+      <c r="F757" s="12"/>
       <c r="H757" s="4"/>
     </row>
     <row r="758">
-      <c r="B758" s="10"/>
+      <c r="B758" s="12"/>
       <c r="D758" s="4"/>
-      <c r="F758" s="10"/>
+      <c r="F758" s="12"/>
       <c r="H758" s="4"/>
     </row>
     <row r="759">
-      <c r="B759" s="10"/>
+      <c r="B759" s="12"/>
       <c r="D759" s="4"/>
-      <c r="F759" s="10"/>
+      <c r="F759" s="12"/>
       <c r="H759" s="4"/>
     </row>
     <row r="760">
-      <c r="B760" s="10"/>
+      <c r="B760" s="12"/>
       <c r="D760" s="4"/>
-      <c r="F760" s="10"/>
+      <c r="F760" s="12"/>
       <c r="H760" s="4"/>
     </row>
     <row r="761">
-      <c r="B761" s="10"/>
+      <c r="B761" s="12"/>
       <c r="D761" s="4"/>
-      <c r="F761" s="10"/>
+      <c r="F761" s="12"/>
       <c r="H761" s="4"/>
     </row>
     <row r="762">
-      <c r="B762" s="10"/>
+      <c r="B762" s="12"/>
       <c r="D762" s="4"/>
-      <c r="F762" s="10"/>
+      <c r="F762" s="12"/>
       <c r="H762" s="4"/>
     </row>
     <row r="763">
-      <c r="B763" s="10"/>
+      <c r="B763" s="12"/>
       <c r="D763" s="4"/>
-      <c r="F763" s="10"/>
+      <c r="F763" s="12"/>
       <c r="H763" s="4"/>
     </row>
     <row r="764">
-      <c r="B764" s="10"/>
+      <c r="B764" s="12"/>
       <c r="D764" s="4"/>
-      <c r="F764" s="10"/>
+      <c r="F764" s="12"/>
       <c r="H764" s="4"/>
     </row>
     <row r="765">
-      <c r="B765" s="10"/>
+      <c r="B765" s="12"/>
       <c r="D765" s="4"/>
-      <c r="F765" s="10"/>
+      <c r="F765" s="12"/>
       <c r="H765" s="4"/>
     </row>
     <row r="766">
-      <c r="B766" s="10"/>
+      <c r="B766" s="12"/>
       <c r="D766" s="4"/>
-      <c r="F766" s="10"/>
+      <c r="F766" s="12"/>
       <c r="H766" s="4"/>
     </row>
     <row r="767">
-      <c r="B767" s="10"/>
+      <c r="B767" s="12"/>
       <c r="D767" s="4"/>
-      <c r="F767" s="10"/>
+      <c r="F767" s="12"/>
       <c r="H767" s="4"/>
     </row>
     <row r="768">
-      <c r="B768" s="10"/>
+      <c r="B768" s="12"/>
       <c r="D768" s="4"/>
-      <c r="F768" s="10"/>
+      <c r="F768" s="12"/>
       <c r="H768" s="4"/>
     </row>
     <row r="769">
-      <c r="B769" s="10"/>
+      <c r="B769" s="12"/>
       <c r="D769" s="4"/>
-      <c r="F769" s="10"/>
+      <c r="F769" s="12"/>
       <c r="H769" s="4"/>
     </row>
     <row r="770">
-      <c r="B770" s="10"/>
+      <c r="B770" s="12"/>
       <c r="D770" s="4"/>
-      <c r="F770" s="10"/>
+      <c r="F770" s="12"/>
       <c r="H770" s="4"/>
     </row>
     <row r="771">
-      <c r="B771" s="10"/>
+      <c r="B771" s="12"/>
       <c r="D771" s="4"/>
-      <c r="F771" s="10"/>
+      <c r="F771" s="12"/>
       <c r="H771" s="4"/>
     </row>
     <row r="772">
-      <c r="B772" s="10"/>
+      <c r="B772" s="12"/>
       <c r="D772" s="4"/>
-      <c r="F772" s="10"/>
+      <c r="F772" s="12"/>
       <c r="H772" s="4"/>
     </row>
     <row r="773">
-      <c r="B773" s="10"/>
+      <c r="B773" s="12"/>
       <c r="D773" s="4"/>
-      <c r="F773" s="10"/>
+      <c r="F773" s="12"/>
       <c r="H773" s="4"/>
     </row>
     <row r="774">
-      <c r="B774" s="10"/>
+      <c r="B774" s="12"/>
       <c r="D774" s="4"/>
-      <c r="F774" s="10"/>
+      <c r="F774" s="12"/>
       <c r="H774" s="4"/>
     </row>
     <row r="775">
-      <c r="B775" s="10"/>
+      <c r="B775" s="12"/>
       <c r="D775" s="4"/>
-      <c r="F775" s="10"/>
+      <c r="F775" s="12"/>
       <c r="H775" s="4"/>
     </row>
     <row r="776">
-      <c r="B776" s="10"/>
+      <c r="B776" s="12"/>
       <c r="D776" s="4"/>
-      <c r="F776" s="10"/>
+      <c r="F776" s="12"/>
       <c r="H776" s="4"/>
     </row>
     <row r="777">
-      <c r="B777" s="10"/>
+      <c r="B777" s="12"/>
       <c r="D777" s="4"/>
-      <c r="F777" s="10"/>
+      <c r="F777" s="12"/>
       <c r="H777" s="4"/>
     </row>
     <row r="778">
-      <c r="B778" s="10"/>
+      <c r="B778" s="12"/>
       <c r="D778" s="4"/>
-      <c r="F778" s="10"/>
+      <c r="F778" s="12"/>
       <c r="H778" s="4"/>
     </row>
     <row r="779">
-      <c r="B779" s="10"/>
+      <c r="B779" s="12"/>
       <c r="D779" s="4"/>
-      <c r="F779" s="10"/>
+      <c r="F779" s="12"/>
       <c r="H779" s="4"/>
     </row>
     <row r="780">
-      <c r="B780" s="10"/>
+      <c r="B780" s="12"/>
       <c r="D780" s="4"/>
-      <c r="F780" s="10"/>
+      <c r="F780" s="12"/>
       <c r="H780" s="4"/>
     </row>
     <row r="781">
-      <c r="B781" s="10"/>
+      <c r="B781" s="12"/>
       <c r="D781" s="4"/>
-      <c r="F781" s="10"/>
+      <c r="F781" s="12"/>
       <c r="H781" s="4"/>
     </row>
     <row r="782">
-      <c r="B782" s="10"/>
+      <c r="B782" s="12"/>
       <c r="D782" s="4"/>
-      <c r="F782" s="10"/>
+      <c r="F782" s="12"/>
       <c r="H782" s="4"/>
     </row>
     <row r="783">
-      <c r="B783" s="10"/>
+      <c r="B783" s="12"/>
       <c r="D783" s="4"/>
-      <c r="F783" s="10"/>
+      <c r="F783" s="12"/>
       <c r="H783" s="4"/>
     </row>
     <row r="784">
-      <c r="B784" s="10"/>
+      <c r="B784" s="12"/>
       <c r="D784" s="4"/>
-      <c r="F784" s="10"/>
+      <c r="F784" s="12"/>
       <c r="H784" s="4"/>
     </row>
     <row r="785">
-      <c r="B785" s="10"/>
+      <c r="B785" s="12"/>
       <c r="D785" s="4"/>
-      <c r="F785" s="10"/>
+      <c r="F785" s="12"/>
       <c r="H785" s="4"/>
     </row>
     <row r="786">
-      <c r="B786" s="10"/>
+      <c r="B786" s="12"/>
       <c r="D786" s="4"/>
-      <c r="F786" s="10"/>
+      <c r="F786" s="12"/>
       <c r="H786" s="4"/>
     </row>
     <row r="787">
-      <c r="B787" s="10"/>
+      <c r="B787" s="12"/>
       <c r="D787" s="4"/>
-      <c r="F787" s="10"/>
+      <c r="F787" s="12"/>
       <c r="H787" s="4"/>
     </row>
     <row r="788">
-      <c r="B788" s="10"/>
+      <c r="B788" s="12"/>
       <c r="D788" s="4"/>
-      <c r="F788" s="10"/>
+      <c r="F788" s="12"/>
       <c r="H788" s="4"/>
     </row>
     <row r="789">
-      <c r="B789" s="10"/>
+      <c r="B789" s="12"/>
       <c r="D789" s="4"/>
-      <c r="F789" s="10"/>
+      <c r="F789" s="12"/>
       <c r="H789" s="4"/>
     </row>
     <row r="790">
-      <c r="B790" s="10"/>
+      <c r="B790" s="12"/>
       <c r="D790" s="4"/>
-      <c r="F790" s="10"/>
+      <c r="F790" s="12"/>
       <c r="H790" s="4"/>
     </row>
     <row r="791">
-      <c r="B791" s="10"/>
+      <c r="B791" s="12"/>
       <c r="D791" s="4"/>
-      <c r="F791" s="10"/>
+      <c r="F791" s="12"/>
       <c r="H791" s="4"/>
     </row>
     <row r="792">
-      <c r="B792" s="10"/>
+      <c r="B792" s="12"/>
       <c r="D792" s="4"/>
-      <c r="F792" s="10"/>
+      <c r="F792" s="12"/>
       <c r="H792" s="4"/>
     </row>
     <row r="793">
-      <c r="B793" s="10"/>
+      <c r="B793" s="12"/>
       <c r="D793" s="4"/>
-      <c r="F793" s="10"/>
+      <c r="F793" s="12"/>
       <c r="H793" s="4"/>
     </row>
     <row r="794">
-      <c r="B794" s="10"/>
+      <c r="B794" s="12"/>
       <c r="D794" s="4"/>
-      <c r="F794" s="10"/>
+      <c r="F794" s="12"/>
       <c r="H794" s="4"/>
     </row>
     <row r="795">
-      <c r="B795" s="10"/>
+      <c r="B795" s="12"/>
       <c r="D795" s="4"/>
-      <c r="F795" s="10"/>
+      <c r="F795" s="12"/>
       <c r="H795" s="4"/>
     </row>
     <row r="796">
-      <c r="B796" s="10"/>
+      <c r="B796" s="12"/>
       <c r="D796" s="4"/>
-      <c r="F796" s="10"/>
+      <c r="F796" s="12"/>
       <c r="H796" s="4"/>
     </row>
     <row r="797">
-      <c r="B797" s="10"/>
+      <c r="B797" s="12"/>
       <c r="D797" s="4"/>
-      <c r="F797" s="10"/>
+      <c r="F797" s="12"/>
       <c r="H797" s="4"/>
     </row>
     <row r="798">
-      <c r="B798" s="10"/>
+      <c r="B798" s="12"/>
       <c r="D798" s="4"/>
-      <c r="F798" s="10"/>
+      <c r="F798" s="12"/>
       <c r="H798" s="4"/>
     </row>
     <row r="799">
-      <c r="B799" s="10"/>
+      <c r="B799" s="12"/>
       <c r="D799" s="4"/>
-      <c r="F799" s="10"/>
+      <c r="F799" s="12"/>
       <c r="H799" s="4"/>
     </row>
     <row r="800">
-      <c r="B800" s="10"/>
+      <c r="B800" s="12"/>
       <c r="D800" s="4"/>
-      <c r="F800" s="10"/>
+      <c r="F800" s="12"/>
       <c r="H800" s="4"/>
     </row>
     <row r="801">
-      <c r="B801" s="10"/>
+      <c r="B801" s="12"/>
       <c r="D801" s="4"/>
-      <c r="F801" s="10"/>
+      <c r="F801" s="12"/>
       <c r="H801" s="4"/>
     </row>
     <row r="802">
-      <c r="B802" s="10"/>
+      <c r="B802" s="12"/>
       <c r="D802" s="4"/>
-      <c r="F802" s="10"/>
+      <c r="F802" s="12"/>
       <c r="H802" s="4"/>
     </row>
     <row r="803">
-      <c r="B803" s="10"/>
+      <c r="B803" s="12"/>
       <c r="D803" s="4"/>
-      <c r="F803" s="10"/>
+      <c r="F803" s="12"/>
       <c r="H803" s="4"/>
     </row>
     <row r="804">
-      <c r="B804" s="10"/>
+      <c r="B804" s="12"/>
       <c r="D804" s="4"/>
-      <c r="F804" s="10"/>
+      <c r="F804" s="12"/>
       <c r="H804" s="4"/>
     </row>
     <row r="805">
-      <c r="B805" s="10"/>
+      <c r="B805" s="12"/>
       <c r="D805" s="4"/>
-      <c r="F805" s="10"/>
+      <c r="F805" s="12"/>
       <c r="H805" s="4"/>
     </row>
     <row r="806">
-      <c r="B806" s="10"/>
+      <c r="B806" s="12"/>
       <c r="D806" s="4"/>
-      <c r="F806" s="10"/>
+      <c r="F806" s="12"/>
       <c r="H806" s="4"/>
     </row>
     <row r="807">
-      <c r="B807" s="10"/>
+      <c r="B807" s="12"/>
       <c r="D807" s="4"/>
-      <c r="F807" s="10"/>
+      <c r="F807" s="12"/>
       <c r="H807" s="4"/>
     </row>
     <row r="808">
-      <c r="B808" s="10"/>
+      <c r="B808" s="12"/>
       <c r="D808" s="4"/>
-      <c r="F808" s="10"/>
+      <c r="F808" s="12"/>
       <c r="H808" s="4"/>
     </row>
     <row r="809">
-      <c r="B809" s="10"/>
+      <c r="B809" s="12"/>
       <c r="D809" s="4"/>
-      <c r="F809" s="10"/>
+      <c r="F809" s="12"/>
       <c r="H809" s="4"/>
     </row>
     <row r="810">
-      <c r="B810" s="10"/>
+      <c r="B810" s="12"/>
       <c r="D810" s="4"/>
-      <c r="F810" s="10"/>
+      <c r="F810" s="12"/>
       <c r="H810" s="4"/>
     </row>
     <row r="811">
-      <c r="B811" s="10"/>
+      <c r="B811" s="12"/>
       <c r="D811" s="4"/>
-      <c r="F811" s="10"/>
+      <c r="F811" s="12"/>
       <c r="H811" s="4"/>
     </row>
     <row r="812">
-      <c r="B812" s="10"/>
+      <c r="B812" s="12"/>
       <c r="D812" s="4"/>
-      <c r="F812" s="10"/>
+      <c r="F812" s="12"/>
       <c r="H812" s="4"/>
     </row>
     <row r="813">
-      <c r="B813" s="10"/>
+      <c r="B813" s="12"/>
       <c r="D813" s="4"/>
-      <c r="F813" s="10"/>
+      <c r="F813" s="12"/>
       <c r="H813" s="4"/>
     </row>
     <row r="814">
-      <c r="B814" s="10"/>
+      <c r="B814" s="12"/>
       <c r="D814" s="4"/>
-      <c r="F814" s="10"/>
+      <c r="F814" s="12"/>
       <c r="H814" s="4"/>
     </row>
     <row r="815">
-      <c r="B815" s="10"/>
+      <c r="B815" s="12"/>
       <c r="D815" s="4"/>
-      <c r="F815" s="10"/>
+      <c r="F815" s="12"/>
       <c r="H815" s="4"/>
     </row>
     <row r="816">
-      <c r="B816" s="10"/>
+      <c r="B816" s="12"/>
       <c r="D816" s="4"/>
-      <c r="F816" s="10"/>
+      <c r="F816" s="12"/>
       <c r="H816" s="4"/>
     </row>
     <row r="817">
-      <c r="B817" s="10"/>
+      <c r="B817" s="12"/>
       <c r="D817" s="4"/>
-      <c r="F817" s="10"/>
+      <c r="F817" s="12"/>
       <c r="H817" s="4"/>
     </row>
     <row r="818">
-      <c r="B818" s="10"/>
+      <c r="B818" s="12"/>
       <c r="D818" s="4"/>
-      <c r="F818" s="10"/>
+      <c r="F818" s="12"/>
       <c r="H818" s="4"/>
     </row>
     <row r="819">
-      <c r="B819" s="10"/>
+      <c r="B819" s="12"/>
       <c r="D819" s="4"/>
-      <c r="F819" s="10"/>
+      <c r="F819" s="12"/>
       <c r="H819" s="4"/>
     </row>
     <row r="820">
-      <c r="B820" s="10"/>
+      <c r="B820" s="12"/>
       <c r="D820" s="4"/>
-      <c r="F820" s="10"/>
+      <c r="F820" s="12"/>
       <c r="H820" s="4"/>
     </row>
     <row r="821">
-      <c r="B821" s="10"/>
+      <c r="B821" s="12"/>
       <c r="D821" s="4"/>
-      <c r="F821" s="10"/>
+      <c r="F821" s="12"/>
       <c r="H821" s="4"/>
     </row>
     <row r="822">
-      <c r="B822" s="10"/>
+      <c r="B822" s="12"/>
       <c r="D822" s="4"/>
-      <c r="F822" s="10"/>
+      <c r="F822" s="12"/>
       <c r="H822" s="4"/>
     </row>
     <row r="823">
-      <c r="B823" s="10"/>
+      <c r="B823" s="12"/>
       <c r="D823" s="4"/>
-      <c r="F823" s="10"/>
+      <c r="F823" s="12"/>
       <c r="H823" s="4"/>
     </row>
     <row r="824">
-      <c r="B824" s="10"/>
+      <c r="B824" s="12"/>
       <c r="D824" s="4"/>
-      <c r="F824" s="10"/>
+      <c r="F824" s="12"/>
       <c r="H824" s="4"/>
     </row>
     <row r="825">
-      <c r="B825" s="10"/>
+      <c r="B825" s="12"/>
       <c r="D825" s="4"/>
-      <c r="F825" s="10"/>
+      <c r="F825" s="12"/>
       <c r="H825" s="4"/>
     </row>
     <row r="826">
-      <c r="B826" s="10"/>
+      <c r="B826" s="12"/>
       <c r="D826" s="4"/>
-      <c r="F826" s="10"/>
+      <c r="F826" s="12"/>
       <c r="H826" s="4"/>
     </row>
     <row r="827">
-      <c r="B827" s="10"/>
+      <c r="B827" s="12"/>
       <c r="D827" s="4"/>
-      <c r="F827" s="10"/>
+      <c r="F827" s="12"/>
       <c r="H827" s="4"/>
     </row>
     <row r="828">
-      <c r="B828" s="10"/>
+      <c r="B828" s="12"/>
       <c r="D828" s="4"/>
-      <c r="F828" s="10"/>
+      <c r="F828" s="12"/>
       <c r="H828" s="4"/>
     </row>
     <row r="829">
-      <c r="B829" s="10"/>
+      <c r="B829" s="12"/>
       <c r="D829" s="4"/>
-      <c r="F829" s="10"/>
+      <c r="F829" s="12"/>
       <c r="H829" s="4"/>
     </row>
     <row r="830">
-      <c r="B830" s="10"/>
+      <c r="B830" s="12"/>
       <c r="D830" s="4"/>
-      <c r="F830" s="10"/>
+      <c r="F830" s="12"/>
       <c r="H830" s="4"/>
     </row>
     <row r="831">
-      <c r="B831" s="10"/>
+      <c r="B831" s="12"/>
       <c r="D831" s="4"/>
-      <c r="F831" s="10"/>
+      <c r="F831" s="12"/>
       <c r="H831" s="4"/>
     </row>
     <row r="832">
-      <c r="B832" s="10"/>
+      <c r="B832" s="12"/>
       <c r="D832" s="4"/>
-      <c r="F832" s="10"/>
+      <c r="F832" s="12"/>
       <c r="H832" s="4"/>
     </row>
     <row r="833">
-      <c r="B833" s="10"/>
+      <c r="B833" s="12"/>
       <c r="D833" s="4"/>
-      <c r="F833" s="10"/>
+      <c r="F833" s="12"/>
       <c r="H833" s="4"/>
     </row>
     <row r="834">
-      <c r="B834" s="10"/>
+      <c r="B834" s="12"/>
       <c r="D834" s="4"/>
-      <c r="F834" s="10"/>
+      <c r="F834" s="12"/>
       <c r="H834" s="4"/>
     </row>
     <row r="835">
-      <c r="B835" s="10"/>
+      <c r="B835" s="12"/>
       <c r="D835" s="4"/>
-      <c r="F835" s="10"/>
+      <c r="F835" s="12"/>
       <c r="H835" s="4"/>
     </row>
     <row r="836">
-      <c r="B836" s="10"/>
+      <c r="B836" s="12"/>
       <c r="D836" s="4"/>
-      <c r="F836" s="10"/>
+      <c r="F836" s="12"/>
       <c r="H836" s="4"/>
     </row>
     <row r="837">
-      <c r="B837" s="10"/>
+      <c r="B837" s="12"/>
       <c r="D837" s="4"/>
-      <c r="F837" s="10"/>
+      <c r="F837" s="12"/>
       <c r="H837" s="4"/>
     </row>
     <row r="838">
-      <c r="B838" s="10"/>
+      <c r="B838" s="12"/>
       <c r="D838" s="4"/>
-      <c r="F838" s="10"/>
+      <c r="F838" s="12"/>
       <c r="H838" s="4"/>
     </row>
     <row r="839">
-      <c r="B839" s="10"/>
+      <c r="B839" s="12"/>
       <c r="D839" s="4"/>
-      <c r="F839" s="10"/>
+      <c r="F839" s="12"/>
       <c r="H839" s="4"/>
     </row>
     <row r="840">
-      <c r="B840" s="10"/>
+      <c r="B840" s="12"/>
       <c r="D840" s="4"/>
-      <c r="F840" s="10"/>
+      <c r="F840" s="12"/>
       <c r="H840" s="4"/>
     </row>
     <row r="841">
-      <c r="B841" s="10"/>
+      <c r="B841" s="12"/>
       <c r="D841" s="4"/>
-      <c r="F841" s="10"/>
+      <c r="F841" s="12"/>
       <c r="H841" s="4"/>
     </row>
     <row r="842">
-      <c r="B842" s="10"/>
+      <c r="B842" s="12"/>
       <c r="D842" s="4"/>
-      <c r="F842" s="10"/>
+      <c r="F842" s="12"/>
       <c r="H842" s="4"/>
     </row>
     <row r="843">
-      <c r="B843" s="10"/>
+      <c r="B843" s="12"/>
       <c r="D843" s="4"/>
-      <c r="F843" s="10"/>
+      <c r="F843" s="12"/>
       <c r="H843" s="4"/>
     </row>
     <row r="844">
-      <c r="B844" s="10"/>
+      <c r="B844" s="12"/>
       <c r="D844" s="4"/>
-      <c r="F844" s="10"/>
+      <c r="F844" s="12"/>
       <c r="H844" s="4"/>
     </row>
     <row r="845">
-      <c r="B845" s="10"/>
+      <c r="B845" s="12"/>
       <c r="D845" s="4"/>
-      <c r="F845" s="10"/>
+      <c r="F845" s="12"/>
       <c r="H845" s="4"/>
     </row>
     <row r="846">
-      <c r="B846" s="10"/>
+      <c r="B846" s="12"/>
       <c r="D846" s="4"/>
-      <c r="F846" s="10"/>
+      <c r="F846" s="12"/>
       <c r="H846" s="4"/>
     </row>
     <row r="847">
-      <c r="B847" s="10"/>
+      <c r="B847" s="12"/>
       <c r="D847" s="4"/>
-      <c r="F847" s="10"/>
+      <c r="F847" s="12"/>
       <c r="H847" s="4"/>
     </row>
     <row r="848">
-      <c r="B848" s="10"/>
+      <c r="B848" s="12"/>
       <c r="D848" s="4"/>
-      <c r="F848" s="10"/>
+      <c r="F848" s="12"/>
       <c r="H848" s="4"/>
     </row>
     <row r="849">
-      <c r="B849" s="10"/>
+      <c r="B849" s="12"/>
       <c r="D849" s="4"/>
-      <c r="F849" s="10"/>
+      <c r="F849" s="12"/>
       <c r="H849" s="4"/>
     </row>
     <row r="850">
-      <c r="B850" s="10"/>
+      <c r="B850" s="12"/>
       <c r="D850" s="4"/>
-      <c r="F850" s="10"/>
+      <c r="F850" s="12"/>
       <c r="H850" s="4"/>
     </row>
     <row r="851">
-      <c r="B851" s="10"/>
+      <c r="B851" s="12"/>
       <c r="D851" s="4"/>
-      <c r="F851" s="10"/>
+      <c r="F851" s="12"/>
       <c r="H851" s="4"/>
     </row>
     <row r="852">
-      <c r="B852" s="10"/>
+      <c r="B852" s="12"/>
       <c r="D852" s="4"/>
-      <c r="F852" s="10"/>
+      <c r="F852" s="12"/>
       <c r="H852" s="4"/>
     </row>
     <row r="853">
-      <c r="B853" s="10"/>
+      <c r="B853" s="12"/>
       <c r="D853" s="4"/>
-      <c r="F853" s="10"/>
+      <c r="F853" s="12"/>
       <c r="H853" s="4"/>
     </row>
     <row r="854">
-      <c r="B854" s="10"/>
+      <c r="B854" s="12"/>
       <c r="D854" s="4"/>
-      <c r="F854" s="10"/>
+      <c r="F854" s="12"/>
       <c r="H854" s="4"/>
     </row>
     <row r="855">
-      <c r="B855" s="10"/>
+      <c r="B855" s="12"/>
       <c r="D855" s="4"/>
-      <c r="F855" s="10"/>
+      <c r="F855" s="12"/>
       <c r="H855" s="4"/>
     </row>
     <row r="856">
-      <c r="B856" s="10"/>
+      <c r="B856" s="12"/>
       <c r="D856" s="4"/>
-      <c r="F856" s="10"/>
+      <c r="F856" s="12"/>
       <c r="H856" s="4"/>
     </row>
     <row r="857">
-      <c r="B857" s="10"/>
+      <c r="B857" s="12"/>
       <c r="D857" s="4"/>
-      <c r="F857" s="10"/>
+      <c r="F857" s="12"/>
       <c r="H857" s="4"/>
     </row>
     <row r="858">
-      <c r="B858" s="10"/>
+      <c r="B858" s="12"/>
       <c r="D858" s="4"/>
-      <c r="F858" s="10"/>
+      <c r="F858" s="12"/>
       <c r="H858" s="4"/>
     </row>
     <row r="859">
-      <c r="B859" s="10"/>
+      <c r="B859" s="12"/>
       <c r="D859" s="4"/>
-      <c r="F859" s="10"/>
+      <c r="F859" s="12"/>
       <c r="H859" s="4"/>
     </row>
     <row r="860">
-      <c r="B860" s="10"/>
+      <c r="B860" s="12"/>
       <c r="D860" s="4"/>
-      <c r="F860" s="10"/>
+      <c r="F860" s="12"/>
       <c r="H860" s="4"/>
     </row>
     <row r="861">
-      <c r="B861" s="10"/>
+      <c r="B861" s="12"/>
       <c r="D861" s="4"/>
-      <c r="F861" s="10"/>
+      <c r="F861" s="12"/>
       <c r="H861" s="4"/>
     </row>
     <row r="862">
-      <c r="B862" s="10"/>
+      <c r="B862" s="12"/>
       <c r="D862" s="4"/>
-      <c r="F862" s="10"/>
+      <c r="F862" s="12"/>
       <c r="H862" s="4"/>
     </row>
     <row r="863">
-      <c r="B863" s="10"/>
+      <c r="B863" s="12"/>
       <c r="D863" s="4"/>
-      <c r="F863" s="10"/>
+      <c r="F863" s="12"/>
       <c r="H863" s="4"/>
     </row>
     <row r="864">
-      <c r="B864" s="10"/>
+      <c r="B864" s="12"/>
       <c r="D864" s="4"/>
-      <c r="F864" s="10"/>
+      <c r="F864" s="12"/>
       <c r="H864" s="4"/>
     </row>
     <row r="865">
-      <c r="B865" s="10"/>
+      <c r="B865" s="12"/>
       <c r="D865" s="4"/>
-      <c r="F865" s="10"/>
+      <c r="F865" s="12"/>
       <c r="H865" s="4"/>
     </row>
     <row r="866">
-      <c r="B866" s="10"/>
+      <c r="B866" s="12"/>
       <c r="D866" s="4"/>
-      <c r="F866" s="10"/>
+      <c r="F866" s="12"/>
       <c r="H866" s="4"/>
     </row>
     <row r="867">
-      <c r="B867" s="10"/>
+      <c r="B867" s="12"/>
       <c r="D867" s="4"/>
-      <c r="F867" s="10"/>
+      <c r="F867" s="12"/>
       <c r="H867" s="4"/>
     </row>
     <row r="868">
-      <c r="B868" s="10"/>
+      <c r="B868" s="12"/>
       <c r="D868" s="4"/>
-      <c r="F868" s="10"/>
+      <c r="F868" s="12"/>
       <c r="H868" s="4"/>
     </row>
     <row r="869">
-      <c r="B869" s="10"/>
+      <c r="B869" s="12"/>
       <c r="D869" s="4"/>
-      <c r="F869" s="10"/>
+      <c r="F869" s="12"/>
       <c r="H869" s="4"/>
     </row>
     <row r="870">
-      <c r="B870" s="10"/>
+      <c r="B870" s="12"/>
       <c r="D870" s="4"/>
-      <c r="F870" s="10"/>
+      <c r="F870" s="12"/>
       <c r="H870" s="4"/>
     </row>
     <row r="871">
-      <c r="B871" s="10"/>
+      <c r="B871" s="12"/>
       <c r="D871" s="4"/>
-      <c r="F871" s="10"/>
+      <c r="F871" s="12"/>
       <c r="H871" s="4"/>
     </row>
     <row r="872">
-      <c r="B872" s="10"/>
+      <c r="B872" s="12"/>
       <c r="D872" s="4"/>
-      <c r="F872" s="10"/>
+      <c r="F872" s="12"/>
       <c r="H872" s="4"/>
     </row>
     <row r="873">
-      <c r="B873" s="10"/>
+      <c r="B873" s="12"/>
       <c r="D873" s="4"/>
-      <c r="F873" s="10"/>
+      <c r="F873" s="12"/>
       <c r="H873" s="4"/>
     </row>
     <row r="874">
-      <c r="B874" s="10"/>
+      <c r="B874" s="12"/>
       <c r="D874" s="4"/>
-      <c r="F874" s="10"/>
+      <c r="F874" s="12"/>
       <c r="H874" s="4"/>
     </row>
     <row r="875">
-      <c r="B875" s="10"/>
+      <c r="B875" s="12"/>
       <c r="D875" s="4"/>
-      <c r="F875" s="10"/>
+      <c r="F875" s="12"/>
       <c r="H875" s="4"/>
     </row>
     <row r="876">
-      <c r="B876" s="10"/>
+      <c r="B876" s="12"/>
       <c r="D876" s="4"/>
-      <c r="F876" s="10"/>
+      <c r="F876" s="12"/>
       <c r="H876" s="4"/>
     </row>
     <row r="877">
-      <c r="B877" s="10"/>
+      <c r="B877" s="12"/>
       <c r="D877" s="4"/>
-      <c r="F877" s="10"/>
+      <c r="F877" s="12"/>
       <c r="H877" s="4"/>
     </row>
     <row r="878">
-      <c r="B878" s="10"/>
+      <c r="B878" s="12"/>
       <c r="D878" s="4"/>
-      <c r="F878" s="10"/>
+      <c r="F878" s="12"/>
       <c r="H878" s="4"/>
     </row>
     <row r="879">
-      <c r="B879" s="10"/>
+      <c r="B879" s="12"/>
       <c r="D879" s="4"/>
-      <c r="F879" s="10"/>
+      <c r="F879" s="12"/>
       <c r="H879" s="4"/>
     </row>
     <row r="880">
-      <c r="B880" s="10"/>
+      <c r="B880" s="12"/>
       <c r="D880" s="4"/>
-      <c r="F880" s="10"/>
+      <c r="F880" s="12"/>
       <c r="H880" s="4"/>
     </row>
     <row r="881">
-      <c r="B881" s="10"/>
+      <c r="B881" s="12"/>
       <c r="D881" s="4"/>
-      <c r="F881" s="10"/>
+      <c r="F881" s="12"/>
       <c r="H881" s="4"/>
     </row>
     <row r="882">
-      <c r="B882" s="10"/>
+      <c r="B882" s="12"/>
       <c r="D882" s="4"/>
-      <c r="F882" s="10"/>
+      <c r="F882" s="12"/>
       <c r="H882" s="4"/>
     </row>
     <row r="883">
-      <c r="B883" s="10"/>
+      <c r="B883" s="12"/>
       <c r="D883" s="4"/>
-      <c r="F883" s="10"/>
+      <c r="F883" s="12"/>
       <c r="H883" s="4"/>
     </row>
     <row r="884">
-      <c r="B884" s="10"/>
+      <c r="B884" s="12"/>
       <c r="D884" s="4"/>
-      <c r="F884" s="10"/>
+      <c r="F884" s="12"/>
       <c r="H884" s="4"/>
     </row>
     <row r="885">
-      <c r="B885" s="10"/>
+      <c r="B885" s="12"/>
       <c r="D885" s="4"/>
-      <c r="F885" s="10"/>
+      <c r="F885" s="12"/>
       <c r="H885" s="4"/>
     </row>
     <row r="886">
-      <c r="B886" s="10"/>
+      <c r="B886" s="12"/>
       <c r="D886" s="4"/>
-      <c r="F886" s="10"/>
+      <c r="F886" s="12"/>
       <c r="H886" s="4"/>
     </row>
     <row r="887">
-      <c r="B887" s="10"/>
+      <c r="B887" s="12"/>
       <c r="D887" s="4"/>
-      <c r="F887" s="10"/>
+      <c r="F887" s="12"/>
       <c r="H887" s="4"/>
     </row>
     <row r="888">
-      <c r="B888" s="10"/>
+      <c r="B888" s="12"/>
       <c r="D888" s="4"/>
-      <c r="F888" s="10"/>
+      <c r="F888" s="12"/>
       <c r="H888" s="4"/>
     </row>
     <row r="889">
-      <c r="B889" s="10"/>
+      <c r="B889" s="12"/>
       <c r="D889" s="4"/>
-      <c r="F889" s="10"/>
+      <c r="F889" s="12"/>
       <c r="H889" s="4"/>
     </row>
     <row r="890">
-      <c r="B890" s="10"/>
+      <c r="B890" s="12"/>
       <c r="D890" s="4"/>
-      <c r="F890" s="10"/>
+      <c r="F890" s="12"/>
       <c r="H890" s="4"/>
     </row>
     <row r="891">
-      <c r="B891" s="10"/>
+      <c r="B891" s="12"/>
       <c r="D891" s="4"/>
-      <c r="F891" s="10"/>
+      <c r="F891" s="12"/>
       <c r="H891" s="4"/>
     </row>
     <row r="892">
-      <c r="B892" s="10"/>
+      <c r="B892" s="12"/>
       <c r="D892" s="4"/>
-      <c r="F892" s="10"/>
+      <c r="F892" s="12"/>
       <c r="H892" s="4"/>
     </row>
     <row r="893">
-      <c r="B893" s="10"/>
+      <c r="B893" s="12"/>
       <c r="D893" s="4"/>
-      <c r="F893" s="10"/>
+      <c r="F893" s="12"/>
       <c r="H893" s="4"/>
     </row>
     <row r="894">
-      <c r="B894" s="10"/>
+      <c r="B894" s="12"/>
       <c r="D894" s="4"/>
-      <c r="F894" s="10"/>
+      <c r="F894" s="12"/>
       <c r="H894" s="4"/>
     </row>
     <row r="895">
-      <c r="B895" s="10"/>
+      <c r="B895" s="12"/>
       <c r="D895" s="4"/>
-      <c r="F895" s="10"/>
+      <c r="F895" s="12"/>
       <c r="H895" s="4"/>
     </row>
     <row r="896">
-      <c r="B896" s="10"/>
+      <c r="B896" s="12"/>
       <c r="D896" s="4"/>
-      <c r="F896" s="10"/>
+      <c r="F896" s="12"/>
       <c r="H896" s="4"/>
     </row>
     <row r="897">
-      <c r="B897" s="10"/>
+      <c r="B897" s="12"/>
       <c r="D897" s="4"/>
-      <c r="F897" s="10"/>
+      <c r="F897" s="12"/>
       <c r="H897" s="4"/>
     </row>
     <row r="898">
-      <c r="B898" s="10"/>
+      <c r="B898" s="12"/>
       <c r="D898" s="4"/>
-      <c r="F898" s="10"/>
+      <c r="F898" s="12"/>
       <c r="H898" s="4"/>
     </row>
     <row r="899">
-      <c r="B899" s="10"/>
+      <c r="B899" s="12"/>
       <c r="D899" s="4"/>
-      <c r="F899" s="10"/>
+      <c r="F899" s="12"/>
       <c r="H899" s="4"/>
     </row>
     <row r="900">
-      <c r="B900" s="10"/>
+      <c r="B900" s="12"/>
       <c r="D900" s="4"/>
-      <c r="F900" s="10"/>
+      <c r="F900" s="12"/>
       <c r="H900" s="4"/>
     </row>
     <row r="901">
-      <c r="B901" s="10"/>
+      <c r="B901" s="12"/>
       <c r="D901" s="4"/>
-      <c r="F901" s="10"/>
+      <c r="F901" s="12"/>
       <c r="H901" s="4"/>
     </row>
     <row r="902">
-      <c r="B902" s="10"/>
+      <c r="B902" s="12"/>
       <c r="D902" s="4"/>
-      <c r="F902" s="10"/>
+      <c r="F902" s="12"/>
       <c r="H902" s="4"/>
     </row>
     <row r="903">
-      <c r="B903" s="10"/>
+      <c r="B903" s="12"/>
       <c r="D903" s="4"/>
-      <c r="F903" s="10"/>
+      <c r="F903" s="12"/>
       <c r="H903" s="4"/>
     </row>
     <row r="904">
-      <c r="B904" s="10"/>
+      <c r="B904" s="12"/>
       <c r="D904" s="4"/>
-      <c r="F904" s="10"/>
+      <c r="F904" s="12"/>
       <c r="H904" s="4"/>
     </row>
     <row r="905">
-      <c r="B905" s="10"/>
+      <c r="B905" s="12"/>
       <c r="D905" s="4"/>
-      <c r="F905" s="10"/>
+      <c r="F905" s="12"/>
       <c r="H905" s="4"/>
     </row>
     <row r="906">
-      <c r="B906" s="10"/>
+      <c r="B906" s="12"/>
       <c r="D906" s="4"/>
-      <c r="F906" s="10"/>
+      <c r="F906" s="12"/>
       <c r="H906" s="4"/>
     </row>
     <row r="907">
-      <c r="B907" s="10"/>
+      <c r="B907" s="12"/>
       <c r="D907" s="4"/>
-      <c r="F907" s="10"/>
+      <c r="F907" s="12"/>
       <c r="H907" s="4"/>
     </row>
     <row r="908">
-      <c r="B908" s="10"/>
+      <c r="B908" s="12"/>
       <c r="D908" s="4"/>
-      <c r="F908" s="10"/>
+      <c r="F908" s="12"/>
       <c r="H908" s="4"/>
     </row>
     <row r="909">
-      <c r="B909" s="10"/>
+      <c r="B909" s="12"/>
       <c r="D909" s="4"/>
-      <c r="F909" s="10"/>
+      <c r="F909" s="12"/>
       <c r="H909" s="4"/>
     </row>
     <row r="910">
-      <c r="B910" s="10"/>
+      <c r="B910" s="12"/>
       <c r="D910" s="4"/>
-      <c r="F910" s="10"/>
+      <c r="F910" s="12"/>
       <c r="H910" s="4"/>
     </row>
     <row r="911">
-      <c r="B911" s="10"/>
+      <c r="B911" s="12"/>
       <c r="D911" s="4"/>
-      <c r="F911" s="10"/>
+      <c r="F911" s="12"/>
       <c r="H911" s="4"/>
     </row>
     <row r="912">
-      <c r="B912" s="10"/>
+      <c r="B912" s="12"/>
       <c r="D912" s="4"/>
-      <c r="F912" s="10"/>
+      <c r="F912" s="12"/>
       <c r="H912" s="4"/>
     </row>
     <row r="913">
-      <c r="B913" s="10"/>
+      <c r="B913" s="12"/>
       <c r="D913" s="4"/>
-      <c r="F913" s="10"/>
+      <c r="F913" s="12"/>
       <c r="H913" s="4"/>
     </row>
     <row r="914">
-      <c r="B914" s="10"/>
+      <c r="B914" s="12"/>
       <c r="D914" s="4"/>
-      <c r="F914" s="10"/>
+      <c r="F914" s="12"/>
       <c r="H914" s="4"/>
     </row>
     <row r="915">
-      <c r="B915" s="10"/>
+      <c r="B915" s="12"/>
       <c r="D915" s="4"/>
-      <c r="F915" s="10"/>
+      <c r="F915" s="12"/>
       <c r="H915" s="4"/>
     </row>
     <row r="916">
-      <c r="B916" s="10"/>
+      <c r="B916" s="12"/>
       <c r="D916" s="4"/>
-      <c r="F916" s="10"/>
+      <c r="F916" s="12"/>
       <c r="H916" s="4"/>
     </row>
     <row r="917">
-      <c r="B917" s="10"/>
+      <c r="B917" s="12"/>
       <c r="D917" s="4"/>
-      <c r="F917" s="10"/>
+      <c r="F917" s="12"/>
       <c r="H917" s="4"/>
     </row>
     <row r="918">
-      <c r="B918" s="10"/>
+      <c r="B918" s="12"/>
       <c r="D918" s="4"/>
-      <c r="F918" s="10"/>
+      <c r="F918" s="12"/>
       <c r="H918" s="4"/>
     </row>
     <row r="919">
-      <c r="B919" s="10"/>
+      <c r="B919" s="12"/>
       <c r="D919" s="4"/>
-      <c r="F919" s="10"/>
+      <c r="F919" s="12"/>
       <c r="H919" s="4"/>
     </row>
     <row r="920">
-      <c r="B920" s="10"/>
+      <c r="B920" s="12"/>
       <c r="D920" s="4"/>
-      <c r="F920" s="10"/>
+      <c r="F920" s="12"/>
       <c r="H920" s="4"/>
     </row>
     <row r="921">
-      <c r="B921" s="10"/>
+      <c r="B921" s="12"/>
       <c r="D921" s="4"/>
-      <c r="F921" s="10"/>
+      <c r="F921" s="12"/>
       <c r="H921" s="4"/>
     </row>
     <row r="922">
-      <c r="B922" s="10"/>
+      <c r="B922" s="12"/>
       <c r="D922" s="4"/>
-      <c r="F922" s="10"/>
+      <c r="F922" s="12"/>
       <c r="H922" s="4"/>
     </row>
     <row r="923">
-      <c r="B923" s="10"/>
+      <c r="B923" s="12"/>
       <c r="D923" s="4"/>
-      <c r="F923" s="10"/>
+      <c r="F923" s="12"/>
       <c r="H923" s="4"/>
     </row>
     <row r="924">
-      <c r="B924" s="10"/>
+      <c r="B924" s="12"/>
       <c r="D924" s="4"/>
-      <c r="F924" s="10"/>
+      <c r="F924" s="12"/>
       <c r="H924" s="4"/>
     </row>
     <row r="925">
-      <c r="B925" s="10"/>
+      <c r="B925" s="12"/>
       <c r="D925" s="4"/>
-      <c r="F925" s="10"/>
+      <c r="F925" s="12"/>
       <c r="H925" s="4"/>
     </row>
     <row r="926">
-      <c r="B926" s="10"/>
+      <c r="B926" s="12"/>
       <c r="D926" s="4"/>
-      <c r="F926" s="10"/>
+      <c r="F926" s="12"/>
       <c r="H926" s="4"/>
     </row>
     <row r="927">
-      <c r="B927" s="10"/>
+      <c r="B927" s="12"/>
       <c r="D927" s="4"/>
-      <c r="F927" s="10"/>
+      <c r="F927" s="12"/>
       <c r="H927" s="4"/>
     </row>
     <row r="928">
-      <c r="B928" s="10"/>
+      <c r="B928" s="12"/>
       <c r="D928" s="4"/>
-      <c r="F928" s="10"/>
+      <c r="F928" s="12"/>
       <c r="H928" s="4"/>
     </row>
     <row r="929">
-      <c r="B929" s="10"/>
+      <c r="B929" s="12"/>
       <c r="D929" s="4"/>
-      <c r="F929" s="10"/>
+      <c r="F929" s="12"/>
       <c r="H929" s="4"/>
     </row>
     <row r="930">
-      <c r="B930" s="10"/>
+      <c r="B930" s="12"/>
       <c r="D930" s="4"/>
-      <c r="F930" s="10"/>
+      <c r="F930" s="12"/>
       <c r="H930" s="4"/>
     </row>
     <row r="931">
-      <c r="B931" s="10"/>
+      <c r="B931" s="12"/>
       <c r="D931" s="4"/>
-      <c r="F931" s="10"/>
+      <c r="F931" s="12"/>
       <c r="H931" s="4"/>
     </row>
     <row r="932">
-      <c r="B932" s="10"/>
+      <c r="B932" s="12"/>
       <c r="D932" s="4"/>
-      <c r="F932" s="10"/>
+      <c r="F932" s="12"/>
       <c r="H932" s="4"/>
     </row>
     <row r="933">
-      <c r="B933" s="10"/>
+      <c r="B933" s="12"/>
       <c r="D933" s="4"/>
-      <c r="F933" s="10"/>
+      <c r="F933" s="12"/>
       <c r="H933" s="4"/>
     </row>
     <row r="934">
-      <c r="B934" s="10"/>
+      <c r="B934" s="12"/>
       <c r="D934" s="4"/>
-      <c r="F934" s="10"/>
+      <c r="F934" s="12"/>
       <c r="H934" s="4"/>
     </row>
     <row r="935">
-      <c r="B935" s="10"/>
+      <c r="B935" s="12"/>
       <c r="D935" s="4"/>
-      <c r="F935" s="10"/>
+      <c r="F935" s="12"/>
       <c r="H935" s="4"/>
     </row>
     <row r="936">
-      <c r="B936" s="10"/>
+      <c r="B936" s="12"/>
       <c r="D936" s="4"/>
-      <c r="F936" s="10"/>
+      <c r="F936" s="12"/>
       <c r="H936" s="4"/>
     </row>
     <row r="937">
-      <c r="B937" s="10"/>
+      <c r="B937" s="12"/>
       <c r="D937" s="4"/>
-      <c r="F937" s="10"/>
+      <c r="F937" s="12"/>
       <c r="H937" s="4"/>
     </row>
     <row r="938">
-      <c r="B938" s="10"/>
+      <c r="B938" s="12"/>
       <c r="D938" s="4"/>
-      <c r="F938" s="10"/>
+      <c r="F938" s="12"/>
       <c r="H938" s="4"/>
     </row>
     <row r="939">
-      <c r="B939" s="10"/>
+      <c r="B939" s="12"/>
       <c r="D939" s="4"/>
-      <c r="F939" s="10"/>
+      <c r="F939" s="12"/>
       <c r="H939" s="4"/>
     </row>
     <row r="940">
-      <c r="B940" s="10"/>
+      <c r="B940" s="12"/>
       <c r="D940" s="4"/>
-      <c r="F940" s="10"/>
+      <c r="F940" s="12"/>
       <c r="H940" s="4"/>
     </row>
     <row r="941">
-      <c r="B941" s="10"/>
+      <c r="B941" s="12"/>
       <c r="D941" s="4"/>
-      <c r="F941" s="10"/>
+      <c r="F941" s="12"/>
       <c r="H941" s="4"/>
     </row>
     <row r="942">
-      <c r="B942" s="10"/>
+      <c r="B942" s="12"/>
       <c r="D942" s="4"/>
-      <c r="F942" s="10"/>
+      <c r="F942" s="12"/>
       <c r="H942" s="4"/>
     </row>
     <row r="943">
-      <c r="B943" s="10"/>
+      <c r="B943" s="12"/>
       <c r="D943" s="4"/>
-      <c r="F943" s="10"/>
+      <c r="F943" s="12"/>
       <c r="H943" s="4"/>
     </row>
     <row r="944">
-      <c r="B944" s="10"/>
+      <c r="B944" s="12"/>
       <c r="D944" s="4"/>
-      <c r="F944" s="10"/>
+      <c r="F944" s="12"/>
       <c r="H944" s="4"/>
     </row>
     <row r="945">
-      <c r="B945" s="10"/>
+      <c r="B945" s="12"/>
       <c r="D945" s="4"/>
-      <c r="F945" s="10"/>
+      <c r="F945" s="12"/>
       <c r="H945" s="4"/>
     </row>
     <row r="946">
-      <c r="B946" s="10"/>
+      <c r="B946" s="12"/>
       <c r="D946" s="4"/>
-      <c r="F946" s="10"/>
+      <c r="F946" s="12"/>
       <c r="H946" s="4"/>
     </row>
     <row r="947">
-      <c r="B947" s="10"/>
+      <c r="B947" s="12"/>
       <c r="D947" s="4"/>
-      <c r="F947" s="10"/>
+      <c r="F947" s="12"/>
       <c r="H947" s="4"/>
     </row>
     <row r="948">
-      <c r="B948" s="10"/>
+      <c r="B948" s="12"/>
       <c r="D948" s="4"/>
-      <c r="F948" s="10"/>
+      <c r="F948" s="12"/>
       <c r="H948" s="4"/>
     </row>
     <row r="949">
-      <c r="B949" s="10"/>
+      <c r="B949" s="12"/>
       <c r="D949" s="4"/>
-      <c r="F949" s="10"/>
+      <c r="F949" s="12"/>
       <c r="H949" s="4"/>
     </row>
     <row r="950">
-      <c r="B950" s="10"/>
+      <c r="B950" s="12"/>
       <c r="D950" s="4"/>
-      <c r="F950" s="10"/>
+      <c r="F950" s="12"/>
       <c r="H950" s="4"/>
     </row>
     <row r="951">
-      <c r="B951" s="10"/>
+      <c r="B951" s="12"/>
       <c r="D951" s="4"/>
-      <c r="F951" s="10"/>
+      <c r="F951" s="12"/>
       <c r="H951" s="4"/>
     </row>
     <row r="952">
-      <c r="B952" s="10"/>
+      <c r="B952" s="12"/>
       <c r="D952" s="4"/>
-      <c r="F952" s="10"/>
+      <c r="F952" s="12"/>
       <c r="H952" s="4"/>
     </row>
     <row r="953">
-      <c r="B953" s="10"/>
+      <c r="B953" s="12"/>
       <c r="D953" s="4"/>
-      <c r="F953" s="10"/>
+      <c r="F953" s="12"/>
       <c r="H953" s="4"/>
     </row>
     <row r="954">
-      <c r="B954" s="10"/>
+      <c r="B954" s="12"/>
       <c r="D954" s="4"/>
-      <c r="F954" s="10"/>
+      <c r="F954" s="12"/>
       <c r="H954" s="4"/>
     </row>
     <row r="955">
-      <c r="B955" s="10"/>
+      <c r="B955" s="12"/>
       <c r="D955" s="4"/>
-      <c r="F955" s="10"/>
+      <c r="F955" s="12"/>
       <c r="H955" s="4"/>
     </row>
     <row r="956">
-      <c r="B956" s="10"/>
+      <c r="B956" s="12"/>
       <c r="D956" s="4"/>
-      <c r="F956" s="10"/>
+      <c r="F956" s="12"/>
       <c r="H956" s="4"/>
     </row>
     <row r="957">
-      <c r="B957" s="10"/>
+      <c r="B957" s="12"/>
       <c r="D957" s="4"/>
-      <c r="F957" s="10"/>
+      <c r="F957" s="12"/>
       <c r="H957" s="4"/>
     </row>
     <row r="958">
-      <c r="B958" s="10"/>
+      <c r="B958" s="12"/>
       <c r="D958" s="4"/>
-      <c r="F958" s="10"/>
+      <c r="F958" s="12"/>
       <c r="H958" s="4"/>
     </row>
     <row r="959">
-      <c r="B959" s="10"/>
+      <c r="B959" s="12"/>
       <c r="D959" s="4"/>
-      <c r="F959" s="10"/>
+      <c r="F959" s="12"/>
       <c r="H959" s="4"/>
     </row>
     <row r="960">
-      <c r="B960" s="10"/>
+      <c r="B960" s="12"/>
       <c r="D960" s="4"/>
-      <c r="F960" s="10"/>
+      <c r="F960" s="12"/>
       <c r="H960" s="4"/>
     </row>
     <row r="961">
-      <c r="B961" s="10"/>
+      <c r="B961" s="12"/>
       <c r="D961" s="4"/>
-      <c r="F961" s="10"/>
+      <c r="F961" s="12"/>
       <c r="H961" s="4"/>
     </row>
     <row r="962">
-      <c r="B962" s="10"/>
+      <c r="B962" s="12"/>
       <c r="D962" s="4"/>
-      <c r="F962" s="10"/>
+      <c r="F962" s="12"/>
       <c r="H962" s="4"/>
     </row>
     <row r="963">
-      <c r="B963" s="10"/>
+      <c r="B963" s="12"/>
       <c r="D963" s="4"/>
-      <c r="F963" s="10"/>
+      <c r="F963" s="12"/>
       <c r="H963" s="4"/>
     </row>
     <row r="964">
-      <c r="B964" s="10"/>
+      <c r="B964" s="12"/>
       <c r="D964" s="4"/>
-      <c r="F964" s="10"/>
+      <c r="F964" s="12"/>
       <c r="H964" s="4"/>
     </row>
     <row r="965">
-      <c r="B965" s="10"/>
+      <c r="B965" s="12"/>
       <c r="D965" s="4"/>
-      <c r="F965" s="10"/>
+      <c r="F965" s="12"/>
       <c r="H965" s="4"/>
     </row>
     <row r="966">
-      <c r="B966" s="10"/>
+      <c r="B966" s="12"/>
       <c r="D966" s="4"/>
-      <c r="F966" s="10"/>
+      <c r="F966" s="12"/>
       <c r="H966" s="4"/>
     </row>
     <row r="967">
-      <c r="B967" s="10"/>
+      <c r="B967" s="12"/>
       <c r="D967" s="4"/>
-      <c r="F967" s="10"/>
+      <c r="F967" s="12"/>
       <c r="H967" s="4"/>
     </row>
     <row r="968">
-      <c r="B968" s="10"/>
+      <c r="B968" s="12"/>
       <c r="D968" s="4"/>
-      <c r="F968" s="10"/>
+      <c r="F968" s="12"/>
       <c r="H968" s="4"/>
     </row>
     <row r="969">
-      <c r="B969" s="10"/>
+      <c r="B969" s="12"/>
       <c r="D969" s="4"/>
-      <c r="F969" s="10"/>
+      <c r="F969" s="12"/>
       <c r="H969" s="4"/>
     </row>
     <row r="970">
-      <c r="B970" s="10"/>
+      <c r="B970" s="12"/>
       <c r="D970" s="4"/>
-      <c r="F970" s="10"/>
+      <c r="F970" s="12"/>
       <c r="H970" s="4"/>
     </row>
     <row r="971">
-      <c r="B971" s="10"/>
+      <c r="B971" s="12"/>
       <c r="D971" s="4"/>
-      <c r="F971" s="10"/>
+      <c r="F971" s="12"/>
       <c r="H971" s="4"/>
     </row>
     <row r="972">
-      <c r="B972" s="10"/>
+      <c r="B972" s="12"/>
       <c r="D972" s="4"/>
-      <c r="F972" s="10"/>
+      <c r="F972" s="12"/>
       <c r="H972" s="4"/>
     </row>
     <row r="973">
-      <c r="B973" s="10"/>
+      <c r="B973" s="12"/>
       <c r="D973" s="4"/>
-      <c r="F973" s="10"/>
+      <c r="F973" s="12"/>
       <c r="H973" s="4"/>
     </row>
     <row r="974">
-      <c r="B974" s="10"/>
+      <c r="B974" s="12"/>
       <c r="D974" s="4"/>
-      <c r="F974" s="10"/>
+      <c r="F974" s="12"/>
       <c r="H974" s="4"/>
     </row>
     <row r="975">
-      <c r="B975" s="10"/>
+      <c r="B975" s="12"/>
       <c r="D975" s="4"/>
-      <c r="F975" s="10"/>
+      <c r="F975" s="12"/>
       <c r="H975" s="4"/>
     </row>
     <row r="976">
-      <c r="B976" s="10"/>
+      <c r="B976" s="12"/>
       <c r="D976" s="4"/>
-      <c r="F976" s="10"/>
+      <c r="F976" s="12"/>
       <c r="H976" s="4"/>
     </row>
     <row r="977">
-      <c r="B977" s="10"/>
+      <c r="B977" s="12"/>
       <c r="D977" s="4"/>
-      <c r="F977" s="10"/>
+      <c r="F977" s="12"/>
       <c r="H977" s="4"/>
     </row>
     <row r="978">
-      <c r="B978" s="10"/>
+      <c r="B978" s="12"/>
       <c r="D978" s="4"/>
-      <c r="F978" s="10"/>
+      <c r="F978" s="12"/>
       <c r="H978" s="4"/>
     </row>
     <row r="979">
-      <c r="B979" s="10"/>
+      <c r="B979" s="12"/>
       <c r="D979" s="4"/>
-      <c r="F979" s="10"/>
+      <c r="F979" s="12"/>
       <c r="H979" s="4"/>
     </row>
     <row r="980">
-      <c r="B980" s="10"/>
+      <c r="B980" s="12"/>
       <c r="D980" s="4"/>
-      <c r="F980" s="10"/>
+      <c r="F980" s="12"/>
       <c r="H980" s="4"/>
     </row>
     <row r="981">
-      <c r="B981" s="10"/>
+      <c r="B981" s="12"/>
       <c r="D981" s="4"/>
-      <c r="F981" s="10"/>
+      <c r="F981" s="12"/>
       <c r="H981" s="4"/>
     </row>
     <row r="982">
-      <c r="B982" s="10"/>
+      <c r="B982" s="12"/>
       <c r="D982" s="4"/>
-      <c r="F982" s="10"/>
+      <c r="F982" s="12"/>
       <c r="H982" s="4"/>
     </row>
     <row r="983">
-      <c r="B983" s="10"/>
+      <c r="B983" s="12"/>
       <c r="D983" s="4"/>
-      <c r="F983" s="10"/>
+      <c r="F983" s="12"/>
       <c r="H983" s="4"/>
     </row>
     <row r="984">
-      <c r="B984" s="10"/>
+      <c r="B984" s="12"/>
       <c r="D984" s="4"/>
-      <c r="F984" s="10"/>
+      <c r="F984" s="12"/>
       <c r="H984" s="4"/>
     </row>
     <row r="985">
-      <c r="B985" s="10"/>
+      <c r="B985" s="12"/>
       <c r="D985" s="4"/>
-      <c r="F985" s="10"/>
+      <c r="F985" s="12"/>
       <c r="H985" s="4"/>
     </row>
     <row r="986">
-      <c r="B986" s="10"/>
+      <c r="B986" s="12"/>
       <c r="D986" s="4"/>
-      <c r="F986" s="10"/>
+      <c r="F986" s="12"/>
       <c r="H986" s="4"/>
     </row>
     <row r="987">
-      <c r="B987" s="10"/>
+      <c r="B987" s="12"/>
       <c r="D987" s="4"/>
-      <c r="F987" s="10"/>
+      <c r="F987" s="12"/>
       <c r="H987" s="4"/>
     </row>
     <row r="988">
-      <c r="B988" s="10"/>
+      <c r="B988" s="12"/>
       <c r="D988" s="4"/>
-      <c r="F988" s="10"/>
+      <c r="F988" s="12"/>
       <c r="H988" s="4"/>
     </row>
     <row r="989">
-      <c r="B989" s="10"/>
+      <c r="B989" s="12"/>
       <c r="D989" s="4"/>
-      <c r="F989" s="10"/>
+      <c r="F989" s="12"/>
       <c r="H989" s="4"/>
     </row>
     <row r="990">
-      <c r="B990" s="10"/>
+      <c r="B990" s="12"/>
       <c r="D990" s="4"/>
-      <c r="F990" s="10"/>
+      <c r="F990" s="12"/>
       <c r="H990" s="4"/>
     </row>
   </sheetData>
@@ -7278,7 +7603,7 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="C3:C200 G3:G200">
+    <dataValidation type="list" allowBlank="1" sqref="G3:G40 C3:C200 G42:G200">
       <formula1>Zeitabrechnung!$A$2:$A$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -7303,54 +7628,54 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="B2" s="4">
         <f>sumif(Zeiterfassung!$C$3:$C$200,A2,Zeiterfassung!$B$3:$B$200)</f>
-        <v>42.5</v>
+        <v>50</v>
       </c>
       <c r="C2" s="4">
         <f>sumif(Zeiterfassung!$G$3:$G$200,A2,Zeiterfassung!$F$3:$F$200)</f>
-        <v>38.5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
+      <c r="A3" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B3" s="4">
         <f>sumif(Zeiterfassung!$C$3:$C$200,A3,Zeiterfassung!$B$3:$B$200)</f>
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="C3" s="4">
         <f>sumif(Zeiterfassung!$G$3:$G$200,A3,Zeiterfassung!$F$3:$F$200)</f>
-        <v>0</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
+      <c r="A4" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B4" s="4">
         <f>sumif(Zeiterfassung!$C$3:$C$200,A4,Zeiterfassung!$B$3:$B$200)</f>
-        <v>4</v>
+        <v>18.5</v>
       </c>
       <c r="C4" s="4">
         <f>sumif(Zeiterfassung!$G$3:$G$200,A4,Zeiterfassung!$F$3:$F$200)</f>
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>14</v>
+      <c r="A5" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B5" s="4">
         <f>sumif(Zeiterfassung!$C$3:$C$200,A5,Zeiterfassung!$B$3:$B$200)</f>
@@ -7362,29 +7687,29 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>17</v>
+      <c r="A6" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B6" s="4">
         <f>sumif(Zeiterfassung!$C$3:$C$200,A6,Zeiterfassung!$B$3:$B$200)</f>
-        <v>2.5</v>
+        <v>14.5</v>
       </c>
       <c r="C6" s="4">
         <f>sumif(Zeiterfassung!$G$3:$G$200,A6,Zeiterfassung!$F$3:$F$200)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="12">
-        <f t="shared" ref="B7:C7" si="1">sum(B2:B5)</f>
-        <v>53</v>
-      </c>
-      <c r="C7" s="12">
+      <c r="A7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="11">
+        <f t="shared" ref="B7:C7" si="1">sum(B2:B6)</f>
+        <v>91.5</v>
+      </c>
+      <c r="C7" s="11">
         <f t="shared" si="1"/>
-        <v>53.5</v>
+        <v>99.5</v>
       </c>
     </row>
   </sheetData>

--- a/03_Arbeitsjournal/Logfile.xlsx
+++ b/03_Arbeitsjournal/Logfile.xlsx
@@ -12,11 +12,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="110">
   <si>
     <t>Kategorien</t>
   </si>
   <si>
+    <t>Christian</t>
+  </si>
+  <si>
     <t>Zeit Christian</t>
   </si>
   <si>
@@ -26,54 +29,51 @@
     <t>Projektmanagement</t>
   </si>
   <si>
-    <t>Christian</t>
-  </si>
-  <si>
     <t>Remo</t>
   </si>
   <si>
     <t>Datum</t>
   </si>
   <si>
+    <t>Zeit (in h)</t>
+  </si>
+  <si>
+    <t>Kategorie</t>
+  </si>
+  <si>
+    <t>Kommentar</t>
+  </si>
+  <si>
     <t>Wissenserwerb</t>
   </si>
   <si>
-    <t>Zeit (in h)</t>
-  </si>
-  <si>
-    <t>Kategorie</t>
-  </si>
-  <si>
-    <t>Kommentar</t>
+    <t xml:space="preserve">Datum </t>
   </si>
   <si>
     <t>Programmierung</t>
   </si>
   <si>
-    <t xml:space="preserve">Datum </t>
+    <t>Kickoff</t>
   </si>
   <si>
     <t>Dokumentation</t>
   </si>
   <si>
+    <t>Teammeeting</t>
+  </si>
+  <si>
     <t>Design</t>
   </si>
   <si>
-    <t>Kickoff</t>
+    <t>Vorbereitung Requirement-Workshop</t>
+  </si>
+  <si>
+    <t>Kundenmeeting "Requirement-Workshop</t>
   </si>
   <si>
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Teammeeting</t>
-  </si>
-  <si>
-    <t>Vorbereitung Requirement-Workshop</t>
-  </si>
-  <si>
-    <t>Kundenmeeting "Requirement-Workshop</t>
-  </si>
-  <si>
     <t>Nachbearbeitung Kundenmeeting</t>
   </si>
   <si>
@@ -228,6 +228,120 @@
   </si>
   <si>
     <t>Projektwoche Tag 3 (Kundenmeeting)</t>
+  </si>
+  <si>
+    <t>Projektwoche Tag 4 (Protokoll von Review-Meeting Release 0.2 verfassen)</t>
+  </si>
+  <si>
+    <t>Projektwoche Tag 4</t>
+  </si>
+  <si>
+    <t>Projektwoche Tag 4 (Diverses, Korrespondenz mit Kunde)</t>
+  </si>
+  <si>
+    <t>Projektwoche Tag 4 (Line Chart)</t>
+  </si>
+  <si>
+    <t>Projektwoch Tag 5 (Bildrecherche ESA und Design-Entwurf für About/Contact)</t>
+  </si>
+  <si>
+    <t>Projektwoche Tag 5</t>
+  </si>
+  <si>
+    <t>Fehlerbehebung / Refactoring / Data Table</t>
+  </si>
+  <si>
+    <t>Fehlerbehebung / Refactoring</t>
+  </si>
+  <si>
+    <t>Spectraldiagramm Frontend + Backend (Team meeting)</t>
+  </si>
+  <si>
+    <t>Recherche: Laden einer externen Datei für Specchio</t>
+  </si>
+  <si>
+    <t>Spectraldiagramm Frontend + Backend (@home)</t>
+  </si>
+  <si>
+    <t>Zoom-Options für Line Chart</t>
+  </si>
+  <si>
+    <t>tabs, datalinks, refactoring</t>
+  </si>
+  <si>
+    <t>Recherche in Specchio Dok zur Abfrage von Daten für Line Chart</t>
+  </si>
+  <si>
+    <t>google</t>
+  </si>
+  <si>
+    <t>Zusammenstellung neuer Erkenntnisse für Line Chart, neue Library "HighCharts"</t>
+  </si>
+  <si>
+    <t>trello</t>
+  </si>
+  <si>
+    <t>Recherche in Specchio Dok zur Benennung der einzelnen Tabs</t>
+  </si>
+  <si>
+    <t>zip / csv - export (backend / frontend)</t>
+  </si>
+  <si>
+    <t>Recherche PDF-Export-Library</t>
+  </si>
+  <si>
+    <t>Probleme mit Git; Projekt neu aufsetzen</t>
+  </si>
+  <si>
+    <t>problembehandlung workspace christian</t>
+  </si>
+  <si>
+    <t>Rubrik "About" und "Contact" implementieren / Diverse Anpassungen (Schrift, responsive Navbar, ...)</t>
+  </si>
+  <si>
+    <t>bugfixing export + GUI</t>
+  </si>
+  <si>
+    <t>Fehlermeldung-Pages erstellen, Footer</t>
+  </si>
+  <si>
+    <t>Validierung, bugfixing, refactoring</t>
+  </si>
+  <si>
+    <t>PDF-Export-Implementation</t>
+  </si>
+  <si>
+    <t>Validierung, regex, messagebox etc.</t>
+  </si>
+  <si>
+    <t>Fehlermeldung-Pages in Glassfish-Server hinterlegen, Von WAR externen Files einlesen und speichern</t>
+  </si>
+  <si>
+    <t>Validierung, frontend, backend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team-Meeting (Umgesetzte Bestandteile der Web App zusammentragen für Release 1.0, Fragen vorbereiten für Release 1.0, Abnahme und Testing besprechen) </t>
+  </si>
+  <si>
+    <t>Validierung</t>
+  </si>
+  <si>
+    <t>Passwort-File einlesen für Deployte Software</t>
+  </si>
+  <si>
+    <t>Detail view metadata</t>
+  </si>
+  <si>
+    <t>Favicon erstellen, Vorbereitungen für Review Release 1.0</t>
+  </si>
+  <si>
+    <t>Teamsitzung: Letzte Anpassungen für Release 1.0 (Hintergrundbilder, Resultatlliste, Detail View, Print CSS)</t>
+  </si>
+  <si>
+    <t>Kundenmeeting Release 1.0</t>
+  </si>
+  <si>
+    <t>Team-Meeting (File einlesen von Glassfish und in WAR ablegen)</t>
   </si>
 </sst>
 </file>
@@ -346,11 +460,11 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -371,8 +485,8 @@
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
@@ -421,11 +535,11 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>4</v>
+      <c r="A1" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="4"/>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -434,25 +548,25 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -463,10 +577,10 @@
         <v>2.0</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E3" s="7">
         <v>42625.0</v>
@@ -475,10 +589,10 @@
         <v>2.0</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>4</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="I3" s="9"/>
     </row>
@@ -490,10 +604,10 @@
         <v>3.0</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="E4" s="7">
         <v>42633.0</v>
@@ -502,10 +616,10 @@
         <v>3.0</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="I4" s="9"/>
     </row>
@@ -517,10 +631,10 @@
         <v>2.0</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E5" s="7">
         <v>42635.0</v>
@@ -529,10 +643,10 @@
         <v>2.0</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>18</v>
+        <v>4</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="I5" s="9"/>
     </row>
@@ -544,10 +658,10 @@
         <v>2.5</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>4</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="E6" s="7">
         <v>42635.0</v>
@@ -556,10 +670,10 @@
         <v>2.5</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>19</v>
+        <v>4</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="I6" s="9"/>
     </row>
@@ -571,9 +685,9 @@
         <v>1.0</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="7">
@@ -583,16 +697,16 @@
         <v>1.0</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I7" s="9"/>
     </row>
     <row r="8">
       <c r="A8" s="7"/>
-      <c r="B8" s="12"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="9"/>
       <c r="D8" s="4"/>
       <c r="E8" s="7">
@@ -602,9 +716,9 @@
         <v>1.0</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I8" s="9"/>
@@ -617,10 +731,10 @@
         <v>3.0</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="E9" s="7">
         <v>42642.0</v>
@@ -629,10 +743,10 @@
         <v>3.0</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="I9" s="9"/>
     </row>
@@ -644,9 +758,9 @@
         <v>1.0</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="7">
@@ -656,9 +770,9 @@
         <v>2.0</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="9"/>
@@ -673,9 +787,9 @@
         <v>0.5</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="7">
@@ -685,9 +799,9 @@
         <v>1.0</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J11" s="9"/>
@@ -701,12 +815,12 @@
         <v>6.0</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="12"/>
+      <c r="F12" s="11"/>
       <c r="G12" s="9"/>
       <c r="H12" s="4"/>
       <c r="J12" s="9"/>
@@ -720,9 +834,9 @@
         <v>2.5</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="7">
@@ -732,9 +846,9 @@
         <v>2.5</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -746,12 +860,12 @@
         <v>1.0</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="12"/>
+      <c r="F14" s="11"/>
       <c r="G14" s="9"/>
       <c r="H14" s="4"/>
     </row>
@@ -763,9 +877,9 @@
         <v>2.0</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="13">
@@ -775,9 +889,9 @@
         <v>0.5</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -789,12 +903,12 @@
         <v>1.0</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="12"/>
+      <c r="F16" s="11"/>
       <c r="G16" s="9"/>
       <c r="H16" s="4"/>
     </row>
@@ -806,9 +920,9 @@
         <v>2.0</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E17" s="13">
@@ -818,15 +932,15 @@
         <v>1.0</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7"/>
-      <c r="B18" s="12"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="9"/>
       <c r="D18" s="4"/>
       <c r="E18" s="13">
@@ -836,9 +950,9 @@
         <v>3.0</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -850,9 +964,9 @@
         <v>1.0</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="13">
@@ -862,7 +976,7 @@
         <v>1.0</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>33</v>
@@ -877,10 +991,10 @@
         <v>0.5</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="E20" s="13">
         <v>42657.0</v>
@@ -889,10 +1003,10 @@
         <v>0.5</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I20" s="14"/>
     </row>
@@ -904,9 +1018,9 @@
         <v>1.0</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E21" s="13">
@@ -916,14 +1030,14 @@
         <v>4.0</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="12"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="9"/>
       <c r="D22" s="4"/>
       <c r="E22" s="13">
@@ -933,7 +1047,7 @@
         <v>2.0</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H22" s="16" t="s">
         <v>32</v>
@@ -947,9 +1061,9 @@
         <v>2.0</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E23" s="13">
@@ -959,7 +1073,7 @@
         <v>2.0</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H23" s="17" t="s">
         <v>36</v>
@@ -977,14 +1091,14 @@
         <v>3.0</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H24" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="12"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="9"/>
       <c r="D25" s="4"/>
       <c r="E25" s="13">
@@ -994,9 +1108,9 @@
         <v>2.0</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1008,9 +1122,9 @@
         <v>4.0</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E26" s="13">
@@ -1020,9 +1134,9 @@
         <v>4.0</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1034,12 +1148,12 @@
         <v>0.5</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="12"/>
+      <c r="F27" s="11"/>
       <c r="G27" s="9"/>
       <c r="H27" s="4"/>
     </row>
@@ -1051,12 +1165,12 @@
         <v>1.0</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="12"/>
+      <c r="F28" s="11"/>
       <c r="G28" s="9"/>
       <c r="H28" s="4"/>
     </row>
@@ -1068,12 +1182,12 @@
         <v>1.5</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F29" s="12"/>
+      <c r="F29" s="11"/>
       <c r="G29" s="9"/>
       <c r="H29" s="4"/>
     </row>
@@ -1085,9 +1199,9 @@
         <v>2.0</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E30" s="13">
@@ -1097,9 +1211,9 @@
         <v>2.0</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1111,12 +1225,12 @@
         <v>1.5</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F31" s="12"/>
+      <c r="F31" s="11"/>
       <c r="G31" s="9"/>
       <c r="H31" s="4"/>
     </row>
@@ -1128,12 +1242,12 @@
         <v>1.0</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="12"/>
+      <c r="F32" s="11"/>
       <c r="G32" s="9"/>
       <c r="H32" s="4"/>
     </row>
@@ -1145,12 +1259,12 @@
         <v>0.5</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F33" s="12"/>
+      <c r="F33" s="11"/>
       <c r="G33" s="9"/>
       <c r="H33" s="4"/>
     </row>
@@ -1162,9 +1276,9 @@
         <v>1.5</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E34" s="13">
@@ -1174,9 +1288,9 @@
         <v>0.5</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1188,9 +1302,9 @@
         <v>1.0</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E35" s="13">
@@ -1200,9 +1314,9 @@
         <v>1.0</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1214,9 +1328,9 @@
         <v>1.0</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E36" s="13">
@@ -1226,9 +1340,9 @@
         <v>4.0</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1240,9 +1354,9 @@
         <v>4.0</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E37" s="13">
@@ -1252,9 +1366,9 @@
         <v>3.0</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1266,9 +1380,9 @@
         <v>1.0</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E38" s="13">
@@ -1278,9 +1392,9 @@
         <v>1.0</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1292,9 +1406,9 @@
         <v>1.0</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E39" s="13">
@@ -1304,9 +1418,9 @@
         <v>2.0</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1318,12 +1432,12 @@
         <v>1.0</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F40" s="12"/>
+      <c r="F40" s="11"/>
       <c r="G40" s="9"/>
       <c r="H40" s="4"/>
     </row>
@@ -1335,9 +1449,9 @@
         <v>2.5</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1349,9 +1463,9 @@
         <v>2.0</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E42" s="13">
@@ -1361,9 +1475,9 @@
         <v>2.0</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="3" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1375,9 +1489,9 @@
         <v>1.0</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E43" s="13">
@@ -1387,9 +1501,9 @@
         <v>2.5</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1397,7 +1511,7 @@
       <c r="A44" s="13"/>
       <c r="B44" s="8"/>
       <c r="C44" s="9"/>
-      <c r="D44" s="2"/>
+      <c r="D44" s="3"/>
       <c r="E44" s="13">
         <v>42693.0</v>
       </c>
@@ -1405,14 +1519,14 @@
         <v>2.5</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="45">
-      <c r="B45" s="12"/>
+      <c r="B45" s="11"/>
       <c r="C45" s="9"/>
       <c r="D45" s="4"/>
       <c r="E45" s="13">
@@ -1422,14 +1536,14 @@
         <v>2.5</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="46">
-      <c r="B46" s="12"/>
+      <c r="B46" s="11"/>
       <c r="C46" s="9"/>
       <c r="D46" s="4"/>
       <c r="E46" s="13">
@@ -1439,14 +1553,14 @@
         <v>1.0</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="47">
-      <c r="B47" s="12"/>
+      <c r="B47" s="11"/>
       <c r="C47" s="9"/>
       <c r="D47" s="4"/>
       <c r="E47" s="13">
@@ -1456,14 +1570,14 @@
         <v>4.0</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="48">
-      <c r="B48" s="12"/>
+      <c r="B48" s="11"/>
       <c r="C48" s="9"/>
       <c r="D48" s="4"/>
       <c r="E48" s="13">
@@ -1473,9 +1587,9 @@
         <v>2.0</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="3" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1487,9 +1601,9 @@
         <v>4.0</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E49" s="13">
@@ -1499,9 +1613,9 @@
         <v>1.0</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="3" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1513,9 +1627,9 @@
         <v>2.0</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>67</v>
       </c>
       <c r="E50" s="13">
@@ -1525,9 +1639,9 @@
         <v>7.0</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="3" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1539,9 +1653,9 @@
         <v>5.0</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>67</v>
       </c>
       <c r="E51" s="13">
@@ -1551,9 +1665,9 @@
         <v>1.0</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51" s="3" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1565,9 +1679,9 @@
         <v>2.0</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>67</v>
       </c>
       <c r="E52" s="13">
@@ -1577,9 +1691,9 @@
         <v>1.0</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H52" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" s="3" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1591,9 +1705,9 @@
         <v>2.0</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>68</v>
       </c>
       <c r="E53" s="13">
@@ -1603,9 +1717,9 @@
         <v>6.0</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="3" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1617,9 +1731,9 @@
         <v>5.0</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>68</v>
       </c>
       <c r="E54" s="13">
@@ -1629,9 +1743,9 @@
         <v>1.0</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H54" s="3" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1643,9 +1757,9 @@
         <v>1.0</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>69</v>
       </c>
       <c r="E55" s="13">
@@ -1655,9 +1769,9 @@
         <v>1.0</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" s="3" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1669,9 +1783,9 @@
         <v>4.5</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>70</v>
       </c>
       <c r="E56" s="13">
@@ -1681,9 +1795,9 @@
         <v>4.5</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="3" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1695,9 +1809,9 @@
         <v>4.0</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>71</v>
       </c>
       <c r="E57" s="13">
@@ -1707,5894 +1821,6309 @@
         <v>4.0</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="58">
-      <c r="B58" s="12"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="4"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="4"/>
+      <c r="A58" s="13">
+        <v>42705.0</v>
+      </c>
+      <c r="B58" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E58" s="7">
+        <v>42705.0</v>
+      </c>
+      <c r="F58" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="59">
-      <c r="B59" s="12"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="4"/>
-      <c r="F59" s="12"/>
+      <c r="A59" s="13">
+        <v>42705.0</v>
+      </c>
+      <c r="B59" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F59" s="11"/>
       <c r="G59" s="9"/>
       <c r="H59" s="4"/>
     </row>
     <row r="60">
-      <c r="B60" s="12"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="4"/>
-      <c r="F60" s="12"/>
+      <c r="A60" s="13">
+        <v>42705.0</v>
+      </c>
+      <c r="B60" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F60" s="11"/>
       <c r="G60" s="9"/>
       <c r="H60" s="4"/>
     </row>
     <row r="61">
-      <c r="B61" s="12"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="4"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="4"/>
+      <c r="A61" s="13">
+        <v>42706.0</v>
+      </c>
+      <c r="B61" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E61" s="7">
+        <v>42706.0</v>
+      </c>
+      <c r="F61" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="62">
-      <c r="B62" s="12"/>
+      <c r="B62" s="11"/>
       <c r="C62" s="9"/>
       <c r="D62" s="4"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="4"/>
+      <c r="E62" s="7">
+        <v>42709.0</v>
+      </c>
+      <c r="F62" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="63">
-      <c r="B63" s="12"/>
+      <c r="B63" s="11"/>
       <c r="C63" s="9"/>
       <c r="D63" s="4"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="4"/>
+      <c r="E63" s="7">
+        <v>42710.0</v>
+      </c>
+      <c r="F63" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="64">
-      <c r="B64" s="12"/>
+      <c r="B64" s="11"/>
       <c r="C64" s="9"/>
       <c r="D64" s="4"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="4"/>
+      <c r="E64" s="7">
+        <v>42711.0</v>
+      </c>
+      <c r="F64" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="65">
-      <c r="B65" s="12"/>
+      <c r="A65" s="13"/>
+      <c r="B65" s="11"/>
       <c r="C65" s="9"/>
       <c r="D65" s="4"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="4"/>
+      <c r="E65" s="7">
+        <v>42711.0</v>
+      </c>
+      <c r="F65" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="66">
-      <c r="B66" s="12"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="4"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="4"/>
+      <c r="A66" s="13">
+        <v>42712.0</v>
+      </c>
+      <c r="B66" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E66" s="13">
+        <v>42712.0</v>
+      </c>
+      <c r="F66" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="67">
-      <c r="B67" s="12"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="4"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="4"/>
+      <c r="A67" s="13">
+        <v>42712.0</v>
+      </c>
+      <c r="B67" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E67" s="13">
+        <v>42712.0</v>
+      </c>
+      <c r="F67" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="68">
-      <c r="B68" s="12"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="4"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="4"/>
+      <c r="A68" s="13">
+        <v>42712.0</v>
+      </c>
+      <c r="B68" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E68" s="13">
+        <v>42714.0</v>
+      </c>
+      <c r="F68" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="69">
-      <c r="B69" s="12"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="4"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="4"/>
+      <c r="A69" s="13">
+        <v>42713.0</v>
+      </c>
+      <c r="B69" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E69" s="13">
+        <v>42714.0</v>
+      </c>
+      <c r="F69" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="70">
-      <c r="B70" s="12"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="4"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="4"/>
+      <c r="A70" s="13">
+        <v>42714.0</v>
+      </c>
+      <c r="B70" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E70" s="13">
+        <v>42714.0</v>
+      </c>
+      <c r="F70" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="71">
-      <c r="B71" s="12"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="4"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="4"/>
+      <c r="A71" s="13">
+        <v>42714.0</v>
+      </c>
+      <c r="B71" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E71" s="13">
+        <v>42715.0</v>
+      </c>
+      <c r="F71" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="72">
-      <c r="B72" s="12"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="4"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="4"/>
+      <c r="A72" s="13">
+        <v>42714.0</v>
+      </c>
+      <c r="B72" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E72" s="13">
+        <v>42715.0</v>
+      </c>
+      <c r="F72" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="73">
-      <c r="B73" s="12"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="4"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="4"/>
+      <c r="A73" s="13">
+        <v>42714.0</v>
+      </c>
+      <c r="B73" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E73" s="13">
+        <v>42715.0</v>
+      </c>
+      <c r="F73" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="74">
-      <c r="B74" s="12"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="4"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="4"/>
+      <c r="A74" s="13">
+        <v>42715.0</v>
+      </c>
+      <c r="B74" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E74" s="13">
+        <v>42716.0</v>
+      </c>
+      <c r="F74" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="75">
-      <c r="B75" s="12"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="4"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="4"/>
+      <c r="A75" s="13">
+        <v>42716.0</v>
+      </c>
+      <c r="B75" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E75" s="13">
+        <v>42717.0</v>
+      </c>
+      <c r="F75" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="76">
-      <c r="B76" s="12"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="4"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="4"/>
+      <c r="A76" s="13">
+        <v>42717.0</v>
+      </c>
+      <c r="B76" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E76" s="13">
+        <v>42717.0</v>
+      </c>
+      <c r="F76" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="77">
-      <c r="B77" s="12"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="4"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="4"/>
+      <c r="A77" s="13">
+        <v>42718.0</v>
+      </c>
+      <c r="B77" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E77" s="13">
+        <v>42718.0</v>
+      </c>
+      <c r="F77" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="78">
-      <c r="B78" s="12"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="4"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="4"/>
+      <c r="A78" s="13">
+        <v>42719.0</v>
+      </c>
+      <c r="B78" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E78" s="13">
+        <v>42718.0</v>
+      </c>
+      <c r="F78" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="79">
-      <c r="B79" s="12"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="4"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="4"/>
+      <c r="A79" s="13">
+        <v>42719.0</v>
+      </c>
+      <c r="B79" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E79" s="13">
+        <v>42719.0</v>
+      </c>
+      <c r="F79" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="80">
-      <c r="B80" s="12"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="4"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="4"/>
+      <c r="A80" s="13">
+        <v>42719.0</v>
+      </c>
+      <c r="B80" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E80" s="13">
+        <v>42719.0</v>
+      </c>
+      <c r="F80" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="81">
-      <c r="B81" s="12"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="4"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="4"/>
+      <c r="A81" s="13">
+        <v>42720.0</v>
+      </c>
+      <c r="B81" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E81" s="13">
+        <v>42720.0</v>
+      </c>
+      <c r="F81" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="82">
-      <c r="B82" s="12"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="4"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="4"/>
+      <c r="A82" s="13">
+        <v>42720.0</v>
+      </c>
+      <c r="B82" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E82" s="13">
+        <v>42720.0</v>
+      </c>
+      <c r="F82" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="83">
-      <c r="B83" s="12"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="4"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="4"/>
+      <c r="A83" s="13">
+        <v>42720.0</v>
+      </c>
+      <c r="B83" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E83" s="13">
+        <v>42720.0</v>
+      </c>
+      <c r="F83" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="84">
-      <c r="B84" s="12"/>
+      <c r="B84" s="11"/>
       <c r="C84" s="9"/>
       <c r="D84" s="4"/>
-      <c r="F84" s="12"/>
+      <c r="F84" s="11"/>
       <c r="G84" s="9"/>
       <c r="H84" s="4"/>
     </row>
     <row r="85">
-      <c r="B85" s="12"/>
+      <c r="B85" s="11"/>
       <c r="C85" s="9"/>
       <c r="D85" s="4"/>
-      <c r="F85" s="12"/>
+      <c r="F85" s="11"/>
       <c r="G85" s="9"/>
       <c r="H85" s="4"/>
     </row>
     <row r="86">
-      <c r="B86" s="12"/>
+      <c r="B86" s="11"/>
       <c r="C86" s="9"/>
       <c r="D86" s="4"/>
-      <c r="F86" s="12"/>
+      <c r="F86" s="11"/>
       <c r="G86" s="9"/>
       <c r="H86" s="4"/>
     </row>
     <row r="87">
-      <c r="B87" s="12"/>
+      <c r="B87" s="11"/>
       <c r="C87" s="9"/>
       <c r="D87" s="4"/>
-      <c r="F87" s="12"/>
+      <c r="F87" s="11"/>
       <c r="G87" s="9"/>
       <c r="H87" s="4"/>
     </row>
     <row r="88">
-      <c r="B88" s="12"/>
+      <c r="B88" s="11"/>
       <c r="C88" s="9"/>
       <c r="D88" s="4"/>
-      <c r="F88" s="12"/>
+      <c r="F88" s="11"/>
       <c r="G88" s="9"/>
       <c r="H88" s="4"/>
     </row>
     <row r="89">
-      <c r="B89" s="12"/>
+      <c r="B89" s="11"/>
       <c r="C89" s="9"/>
       <c r="D89" s="4"/>
-      <c r="F89" s="12"/>
+      <c r="F89" s="11"/>
       <c r="G89" s="9"/>
       <c r="H89" s="4"/>
     </row>
     <row r="90">
-      <c r="B90" s="12"/>
+      <c r="B90" s="11"/>
       <c r="C90" s="9"/>
       <c r="D90" s="4"/>
-      <c r="F90" s="12"/>
+      <c r="F90" s="11"/>
       <c r="G90" s="9"/>
       <c r="H90" s="4"/>
     </row>
     <row r="91">
-      <c r="B91" s="12"/>
+      <c r="B91" s="11"/>
       <c r="C91" s="9"/>
       <c r="D91" s="4"/>
-      <c r="F91" s="12"/>
+      <c r="F91" s="11"/>
       <c r="G91" s="9"/>
       <c r="H91" s="4"/>
     </row>
     <row r="92">
-      <c r="B92" s="12"/>
+      <c r="B92" s="11"/>
       <c r="C92" s="9"/>
       <c r="D92" s="4"/>
-      <c r="F92" s="12"/>
+      <c r="F92" s="11"/>
       <c r="G92" s="9"/>
       <c r="H92" s="4"/>
     </row>
     <row r="93">
-      <c r="B93" s="12"/>
+      <c r="B93" s="11"/>
       <c r="C93" s="9"/>
       <c r="D93" s="4"/>
-      <c r="F93" s="12"/>
+      <c r="F93" s="11"/>
       <c r="G93" s="9"/>
       <c r="H93" s="4"/>
     </row>
     <row r="94">
-      <c r="B94" s="12"/>
+      <c r="B94" s="11"/>
       <c r="C94" s="9"/>
       <c r="D94" s="4"/>
-      <c r="F94" s="12"/>
+      <c r="F94" s="11"/>
       <c r="G94" s="9"/>
       <c r="H94" s="4"/>
     </row>
     <row r="95">
-      <c r="B95" s="12"/>
+      <c r="B95" s="11"/>
       <c r="C95" s="9"/>
       <c r="D95" s="4"/>
-      <c r="F95" s="12"/>
+      <c r="F95" s="11"/>
       <c r="G95" s="9"/>
       <c r="H95" s="4"/>
     </row>
     <row r="96">
-      <c r="B96" s="12"/>
+      <c r="B96" s="11"/>
       <c r="C96" s="9"/>
       <c r="D96" s="4"/>
-      <c r="F96" s="12"/>
+      <c r="F96" s="11"/>
       <c r="G96" s="9"/>
       <c r="H96" s="4"/>
     </row>
     <row r="97">
-      <c r="B97" s="12"/>
+      <c r="B97" s="11"/>
       <c r="C97" s="9"/>
       <c r="D97" s="4"/>
-      <c r="F97" s="12"/>
+      <c r="F97" s="11"/>
       <c r="G97" s="9"/>
       <c r="H97" s="4"/>
     </row>
     <row r="98">
-      <c r="B98" s="12"/>
+      <c r="B98" s="11"/>
       <c r="C98" s="9"/>
       <c r="D98" s="4"/>
-      <c r="F98" s="12"/>
+      <c r="F98" s="11"/>
       <c r="G98" s="9"/>
       <c r="H98" s="4"/>
     </row>
     <row r="99">
-      <c r="B99" s="12"/>
+      <c r="B99" s="11"/>
       <c r="C99" s="9"/>
       <c r="D99" s="4"/>
-      <c r="F99" s="12"/>
+      <c r="F99" s="11"/>
       <c r="G99" s="9"/>
       <c r="H99" s="4"/>
     </row>
     <row r="100">
-      <c r="B100" s="12"/>
+      <c r="B100" s="11"/>
       <c r="C100" s="9"/>
       <c r="D100" s="4"/>
-      <c r="F100" s="12"/>
+      <c r="F100" s="11"/>
       <c r="G100" s="9"/>
       <c r="H100" s="4"/>
     </row>
     <row r="101">
-      <c r="B101" s="12"/>
+      <c r="B101" s="11"/>
       <c r="C101" s="9"/>
       <c r="D101" s="4"/>
-      <c r="F101" s="12"/>
+      <c r="F101" s="11"/>
       <c r="G101" s="9"/>
       <c r="H101" s="4"/>
     </row>
     <row r="102">
-      <c r="B102" s="12"/>
+      <c r="B102" s="11"/>
       <c r="C102" s="9"/>
       <c r="D102" s="4"/>
-      <c r="F102" s="12"/>
+      <c r="F102" s="11"/>
       <c r="G102" s="9"/>
       <c r="H102" s="4"/>
     </row>
     <row r="103">
-      <c r="B103" s="12"/>
+      <c r="B103" s="11"/>
       <c r="C103" s="9"/>
       <c r="D103" s="4"/>
-      <c r="F103" s="12"/>
+      <c r="F103" s="11"/>
       <c r="G103" s="9"/>
       <c r="H103" s="4"/>
     </row>
     <row r="104">
-      <c r="B104" s="12"/>
+      <c r="B104" s="11"/>
       <c r="C104" s="9"/>
       <c r="D104" s="4"/>
-      <c r="F104" s="12"/>
+      <c r="F104" s="11"/>
       <c r="G104" s="9"/>
       <c r="H104" s="4"/>
     </row>
     <row r="105">
-      <c r="B105" s="12"/>
+      <c r="B105" s="11"/>
       <c r="C105" s="9"/>
       <c r="D105" s="4"/>
-      <c r="F105" s="12"/>
+      <c r="F105" s="11"/>
       <c r="G105" s="9"/>
       <c r="H105" s="4"/>
     </row>
     <row r="106">
-      <c r="B106" s="12"/>
+      <c r="B106" s="11"/>
       <c r="C106" s="9"/>
       <c r="D106" s="4"/>
-      <c r="F106" s="12"/>
+      <c r="F106" s="11"/>
       <c r="G106" s="9"/>
       <c r="H106" s="4"/>
     </row>
     <row r="107">
-      <c r="B107" s="12"/>
+      <c r="B107" s="11"/>
       <c r="C107" s="9"/>
       <c r="D107" s="4"/>
-      <c r="F107" s="12"/>
+      <c r="F107" s="11"/>
       <c r="G107" s="9"/>
       <c r="H107" s="4"/>
     </row>
     <row r="108">
-      <c r="B108" s="12"/>
+      <c r="B108" s="11"/>
       <c r="C108" s="9"/>
       <c r="D108" s="4"/>
-      <c r="F108" s="12"/>
+      <c r="F108" s="11"/>
       <c r="G108" s="9"/>
       <c r="H108" s="4"/>
     </row>
     <row r="109">
-      <c r="B109" s="12"/>
+      <c r="B109" s="11"/>
       <c r="C109" s="9"/>
       <c r="D109" s="4"/>
-      <c r="F109" s="12"/>
+      <c r="F109" s="11"/>
       <c r="G109" s="9"/>
       <c r="H109" s="4"/>
     </row>
     <row r="110">
-      <c r="B110" s="12"/>
+      <c r="B110" s="11"/>
       <c r="C110" s="9"/>
       <c r="D110" s="4"/>
-      <c r="F110" s="12"/>
+      <c r="F110" s="11"/>
       <c r="G110" s="9"/>
       <c r="H110" s="4"/>
     </row>
     <row r="111">
-      <c r="B111" s="12"/>
+      <c r="B111" s="11"/>
       <c r="C111" s="9"/>
       <c r="D111" s="4"/>
-      <c r="F111" s="12"/>
+      <c r="F111" s="11"/>
       <c r="G111" s="9"/>
       <c r="H111" s="4"/>
     </row>
     <row r="112">
-      <c r="B112" s="12"/>
+      <c r="B112" s="11"/>
       <c r="C112" s="9"/>
       <c r="D112" s="4"/>
-      <c r="F112" s="12"/>
+      <c r="F112" s="11"/>
       <c r="G112" s="9"/>
       <c r="H112" s="4"/>
     </row>
     <row r="113">
-      <c r="B113" s="12"/>
+      <c r="B113" s="11"/>
       <c r="C113" s="9"/>
       <c r="D113" s="4"/>
-      <c r="F113" s="12"/>
+      <c r="F113" s="11"/>
       <c r="G113" s="9"/>
       <c r="H113" s="4"/>
     </row>
     <row r="114">
-      <c r="B114" s="12"/>
+      <c r="B114" s="11"/>
       <c r="C114" s="9"/>
       <c r="D114" s="4"/>
-      <c r="F114" s="12"/>
+      <c r="F114" s="11"/>
       <c r="G114" s="9"/>
       <c r="H114" s="4"/>
     </row>
     <row r="115">
-      <c r="B115" s="12"/>
+      <c r="B115" s="11"/>
       <c r="C115" s="9"/>
       <c r="D115" s="4"/>
-      <c r="F115" s="12"/>
+      <c r="F115" s="11"/>
       <c r="G115" s="9"/>
       <c r="H115" s="4"/>
     </row>
     <row r="116">
-      <c r="B116" s="12"/>
+      <c r="B116" s="11"/>
       <c r="C116" s="9"/>
       <c r="D116" s="4"/>
-      <c r="F116" s="12"/>
+      <c r="F116" s="11"/>
       <c r="G116" s="9"/>
       <c r="H116" s="4"/>
     </row>
     <row r="117">
-      <c r="B117" s="12"/>
+      <c r="B117" s="11"/>
       <c r="C117" s="9"/>
       <c r="D117" s="4"/>
-      <c r="F117" s="12"/>
+      <c r="F117" s="11"/>
       <c r="G117" s="9"/>
       <c r="H117" s="4"/>
     </row>
     <row r="118">
-      <c r="B118" s="12"/>
+      <c r="B118" s="11"/>
       <c r="C118" s="9"/>
       <c r="D118" s="4"/>
-      <c r="F118" s="12"/>
+      <c r="F118" s="11"/>
       <c r="G118" s="9"/>
       <c r="H118" s="4"/>
     </row>
     <row r="119">
-      <c r="B119" s="12"/>
+      <c r="B119" s="11"/>
       <c r="C119" s="9"/>
       <c r="D119" s="4"/>
-      <c r="F119" s="12"/>
+      <c r="F119" s="11"/>
       <c r="G119" s="9"/>
       <c r="H119" s="4"/>
     </row>
     <row r="120">
-      <c r="B120" s="12"/>
+      <c r="B120" s="11"/>
       <c r="C120" s="9"/>
       <c r="D120" s="4"/>
-      <c r="F120" s="12"/>
+      <c r="F120" s="11"/>
       <c r="G120" s="9"/>
       <c r="H120" s="4"/>
     </row>
     <row r="121">
-      <c r="B121" s="12"/>
+      <c r="B121" s="11"/>
       <c r="C121" s="9"/>
       <c r="D121" s="4"/>
-      <c r="F121" s="12"/>
+      <c r="F121" s="11"/>
       <c r="G121" s="9"/>
       <c r="H121" s="4"/>
     </row>
     <row r="122">
-      <c r="B122" s="12"/>
+      <c r="B122" s="11"/>
       <c r="C122" s="9"/>
       <c r="D122" s="4"/>
-      <c r="F122" s="12"/>
+      <c r="F122" s="11"/>
       <c r="G122" s="9"/>
       <c r="H122" s="4"/>
     </row>
     <row r="123">
-      <c r="B123" s="12"/>
+      <c r="B123" s="11"/>
       <c r="C123" s="9"/>
       <c r="D123" s="4"/>
-      <c r="F123" s="12"/>
+      <c r="F123" s="11"/>
       <c r="G123" s="9"/>
       <c r="H123" s="4"/>
     </row>
     <row r="124">
-      <c r="B124" s="12"/>
+      <c r="B124" s="11"/>
       <c r="C124" s="9"/>
       <c r="D124" s="4"/>
-      <c r="F124" s="12"/>
+      <c r="F124" s="11"/>
       <c r="G124" s="9"/>
       <c r="H124" s="4"/>
     </row>
     <row r="125">
-      <c r="B125" s="12"/>
+      <c r="B125" s="11"/>
       <c r="C125" s="9"/>
       <c r="D125" s="4"/>
-      <c r="F125" s="12"/>
+      <c r="F125" s="11"/>
       <c r="G125" s="9"/>
       <c r="H125" s="4"/>
     </row>
     <row r="126">
-      <c r="B126" s="12"/>
+      <c r="B126" s="11"/>
       <c r="C126" s="9"/>
       <c r="D126" s="4"/>
-      <c r="F126" s="12"/>
+      <c r="F126" s="11"/>
       <c r="G126" s="9"/>
       <c r="H126" s="4"/>
     </row>
     <row r="127">
-      <c r="B127" s="12"/>
+      <c r="B127" s="11"/>
       <c r="C127" s="9"/>
       <c r="D127" s="4"/>
-      <c r="F127" s="12"/>
+      <c r="F127" s="11"/>
       <c r="G127" s="9"/>
       <c r="H127" s="4"/>
     </row>
     <row r="128">
-      <c r="B128" s="12"/>
+      <c r="B128" s="11"/>
       <c r="C128" s="9"/>
       <c r="D128" s="4"/>
-      <c r="F128" s="12"/>
+      <c r="F128" s="11"/>
       <c r="G128" s="9"/>
       <c r="H128" s="4"/>
     </row>
     <row r="129">
-      <c r="B129" s="12"/>
+      <c r="B129" s="11"/>
       <c r="C129" s="9"/>
       <c r="D129" s="4"/>
-      <c r="F129" s="12"/>
+      <c r="F129" s="11"/>
       <c r="G129" s="9"/>
       <c r="H129" s="4"/>
     </row>
     <row r="130">
-      <c r="B130" s="12"/>
+      <c r="B130" s="11"/>
       <c r="C130" s="9"/>
       <c r="D130" s="4"/>
-      <c r="F130" s="12"/>
+      <c r="F130" s="11"/>
       <c r="G130" s="9"/>
       <c r="H130" s="4"/>
     </row>
     <row r="131">
-      <c r="B131" s="12"/>
+      <c r="B131" s="11"/>
       <c r="C131" s="9"/>
       <c r="D131" s="4"/>
-      <c r="F131" s="12"/>
+      <c r="F131" s="11"/>
       <c r="G131" s="9"/>
       <c r="H131" s="4"/>
     </row>
     <row r="132">
-      <c r="B132" s="12"/>
+      <c r="B132" s="11"/>
       <c r="C132" s="9"/>
       <c r="D132" s="4"/>
-      <c r="F132" s="12"/>
+      <c r="F132" s="11"/>
       <c r="G132" s="9"/>
       <c r="H132" s="4"/>
     </row>
     <row r="133">
-      <c r="B133" s="12"/>
+      <c r="B133" s="11"/>
       <c r="C133" s="9"/>
       <c r="D133" s="4"/>
-      <c r="F133" s="12"/>
+      <c r="F133" s="11"/>
       <c r="G133" s="9"/>
       <c r="H133" s="4"/>
     </row>
     <row r="134">
-      <c r="B134" s="12"/>
+      <c r="B134" s="11"/>
       <c r="C134" s="9"/>
       <c r="D134" s="4"/>
-      <c r="F134" s="12"/>
+      <c r="F134" s="11"/>
       <c r="G134" s="9"/>
       <c r="H134" s="4"/>
     </row>
     <row r="135">
-      <c r="B135" s="12"/>
+      <c r="B135" s="11"/>
       <c r="C135" s="9"/>
       <c r="D135" s="4"/>
-      <c r="F135" s="12"/>
+      <c r="F135" s="11"/>
       <c r="G135" s="9"/>
       <c r="H135" s="4"/>
     </row>
     <row r="136">
-      <c r="B136" s="12"/>
+      <c r="B136" s="11"/>
       <c r="C136" s="9"/>
       <c r="D136" s="4"/>
-      <c r="F136" s="12"/>
+      <c r="F136" s="11"/>
       <c r="G136" s="9"/>
       <c r="H136" s="4"/>
     </row>
     <row r="137">
-      <c r="B137" s="12"/>
+      <c r="B137" s="11"/>
       <c r="C137" s="9"/>
       <c r="D137" s="4"/>
-      <c r="F137" s="12"/>
+      <c r="F137" s="11"/>
       <c r="G137" s="9"/>
       <c r="H137" s="4"/>
     </row>
     <row r="138">
-      <c r="B138" s="12"/>
+      <c r="B138" s="11"/>
       <c r="C138" s="9"/>
       <c r="D138" s="4"/>
-      <c r="F138" s="12"/>
+      <c r="F138" s="11"/>
       <c r="G138" s="9"/>
       <c r="H138" s="4"/>
     </row>
     <row r="139">
-      <c r="B139" s="12"/>
+      <c r="B139" s="11"/>
       <c r="C139" s="9"/>
       <c r="D139" s="4"/>
-      <c r="F139" s="12"/>
+      <c r="F139" s="11"/>
       <c r="G139" s="9"/>
       <c r="H139" s="4"/>
     </row>
     <row r="140">
-      <c r="B140" s="12"/>
+      <c r="B140" s="11"/>
       <c r="C140" s="9"/>
       <c r="D140" s="4"/>
-      <c r="F140" s="12"/>
+      <c r="F140" s="11"/>
       <c r="G140" s="9"/>
       <c r="H140" s="4"/>
     </row>
     <row r="141">
-      <c r="B141" s="12"/>
+      <c r="B141" s="11"/>
       <c r="C141" s="9"/>
       <c r="D141" s="4"/>
-      <c r="F141" s="12"/>
+      <c r="F141" s="11"/>
       <c r="G141" s="9"/>
       <c r="H141" s="4"/>
     </row>
     <row r="142">
-      <c r="B142" s="12"/>
+      <c r="B142" s="11"/>
       <c r="C142" s="9"/>
       <c r="D142" s="4"/>
-      <c r="F142" s="12"/>
+      <c r="F142" s="11"/>
       <c r="G142" s="9"/>
       <c r="H142" s="4"/>
     </row>
     <row r="143">
-      <c r="B143" s="12"/>
+      <c r="B143" s="11"/>
       <c r="C143" s="9"/>
       <c r="D143" s="4"/>
-      <c r="F143" s="12"/>
+      <c r="F143" s="11"/>
       <c r="G143" s="9"/>
       <c r="H143" s="4"/>
     </row>
     <row r="144">
-      <c r="B144" s="12"/>
+      <c r="B144" s="11"/>
       <c r="C144" s="9"/>
       <c r="D144" s="4"/>
-      <c r="F144" s="12"/>
+      <c r="F144" s="11"/>
       <c r="G144" s="9"/>
       <c r="H144" s="4"/>
     </row>
     <row r="145">
-      <c r="B145" s="12"/>
+      <c r="B145" s="11"/>
       <c r="C145" s="9"/>
       <c r="D145" s="4"/>
-      <c r="F145" s="12"/>
+      <c r="F145" s="11"/>
       <c r="G145" s="9"/>
       <c r="H145" s="4"/>
     </row>
     <row r="146">
-      <c r="B146" s="12"/>
+      <c r="B146" s="11"/>
       <c r="C146" s="9"/>
       <c r="D146" s="4"/>
-      <c r="F146" s="12"/>
+      <c r="F146" s="11"/>
       <c r="G146" s="9"/>
       <c r="H146" s="4"/>
     </row>
     <row r="147">
-      <c r="B147" s="12"/>
+      <c r="B147" s="11"/>
       <c r="C147" s="9"/>
       <c r="D147" s="4"/>
-      <c r="F147" s="12"/>
+      <c r="F147" s="11"/>
       <c r="G147" s="9"/>
       <c r="H147" s="4"/>
     </row>
     <row r="148">
-      <c r="B148" s="12"/>
+      <c r="B148" s="11"/>
       <c r="C148" s="9"/>
       <c r="D148" s="4"/>
-      <c r="F148" s="12"/>
+      <c r="F148" s="11"/>
       <c r="G148" s="9"/>
       <c r="H148" s="4"/>
     </row>
     <row r="149">
-      <c r="B149" s="12"/>
+      <c r="B149" s="11"/>
       <c r="C149" s="9"/>
       <c r="D149" s="4"/>
-      <c r="F149" s="12"/>
+      <c r="F149" s="11"/>
       <c r="G149" s="9"/>
       <c r="H149" s="4"/>
     </row>
     <row r="150">
-      <c r="B150" s="12"/>
+      <c r="B150" s="11"/>
       <c r="C150" s="9"/>
       <c r="D150" s="4"/>
-      <c r="F150" s="12"/>
+      <c r="F150" s="11"/>
       <c r="G150" s="9"/>
       <c r="H150" s="4"/>
     </row>
     <row r="151">
-      <c r="B151" s="12"/>
+      <c r="B151" s="11"/>
       <c r="C151" s="9"/>
       <c r="D151" s="4"/>
-      <c r="F151" s="12"/>
+      <c r="F151" s="11"/>
       <c r="G151" s="9"/>
       <c r="H151" s="4"/>
     </row>
     <row r="152">
-      <c r="B152" s="12"/>
+      <c r="B152" s="11"/>
       <c r="C152" s="9"/>
       <c r="D152" s="4"/>
-      <c r="F152" s="12"/>
+      <c r="F152" s="11"/>
       <c r="G152" s="9"/>
       <c r="H152" s="4"/>
     </row>
     <row r="153">
-      <c r="B153" s="12"/>
+      <c r="B153" s="11"/>
       <c r="C153" s="9"/>
       <c r="D153" s="4"/>
-      <c r="F153" s="12"/>
+      <c r="F153" s="11"/>
       <c r="G153" s="9"/>
       <c r="H153" s="4"/>
     </row>
     <row r="154">
-      <c r="B154" s="12"/>
+      <c r="B154" s="11"/>
       <c r="C154" s="9"/>
       <c r="D154" s="4"/>
-      <c r="F154" s="12"/>
+      <c r="F154" s="11"/>
       <c r="G154" s="9"/>
       <c r="H154" s="4"/>
     </row>
     <row r="155">
-      <c r="B155" s="12"/>
+      <c r="B155" s="11"/>
       <c r="C155" s="9"/>
       <c r="D155" s="4"/>
-      <c r="F155" s="12"/>
+      <c r="F155" s="11"/>
       <c r="G155" s="9"/>
       <c r="H155" s="4"/>
     </row>
     <row r="156">
-      <c r="B156" s="12"/>
+      <c r="B156" s="11"/>
       <c r="C156" s="9"/>
       <c r="D156" s="4"/>
-      <c r="F156" s="12"/>
+      <c r="F156" s="11"/>
       <c r="G156" s="9"/>
       <c r="H156" s="4"/>
     </row>
     <row r="157">
-      <c r="B157" s="12"/>
+      <c r="B157" s="11"/>
       <c r="C157" s="9"/>
       <c r="D157" s="4"/>
-      <c r="F157" s="12"/>
+      <c r="F157" s="11"/>
       <c r="G157" s="9"/>
       <c r="H157" s="4"/>
     </row>
     <row r="158">
-      <c r="B158" s="12"/>
+      <c r="B158" s="11"/>
       <c r="C158" s="9"/>
       <c r="D158" s="4"/>
-      <c r="F158" s="12"/>
+      <c r="F158" s="11"/>
       <c r="G158" s="9"/>
       <c r="H158" s="4"/>
     </row>
     <row r="159">
-      <c r="B159" s="12"/>
+      <c r="B159" s="11"/>
       <c r="C159" s="9"/>
       <c r="D159" s="4"/>
-      <c r="F159" s="12"/>
+      <c r="F159" s="11"/>
       <c r="G159" s="9"/>
       <c r="H159" s="4"/>
     </row>
     <row r="160">
-      <c r="B160" s="12"/>
+      <c r="B160" s="11"/>
       <c r="C160" s="9"/>
       <c r="D160" s="4"/>
-      <c r="F160" s="12"/>
+      <c r="F160" s="11"/>
       <c r="G160" s="9"/>
       <c r="H160" s="4"/>
     </row>
     <row r="161">
-      <c r="B161" s="12"/>
+      <c r="B161" s="11"/>
       <c r="C161" s="9"/>
       <c r="D161" s="4"/>
-      <c r="F161" s="12"/>
+      <c r="F161" s="11"/>
       <c r="G161" s="9"/>
       <c r="H161" s="4"/>
     </row>
     <row r="162">
-      <c r="B162" s="12"/>
+      <c r="B162" s="11"/>
       <c r="C162" s="9"/>
       <c r="D162" s="4"/>
-      <c r="F162" s="12"/>
+      <c r="F162" s="11"/>
       <c r="G162" s="9"/>
       <c r="H162" s="4"/>
     </row>
     <row r="163">
-      <c r="B163" s="12"/>
+      <c r="B163" s="11"/>
       <c r="C163" s="9"/>
       <c r="D163" s="4"/>
-      <c r="F163" s="12"/>
+      <c r="F163" s="11"/>
       <c r="G163" s="9"/>
       <c r="H163" s="4"/>
     </row>
     <row r="164">
-      <c r="B164" s="12"/>
+      <c r="B164" s="11"/>
       <c r="C164" s="9"/>
       <c r="D164" s="4"/>
-      <c r="F164" s="12"/>
+      <c r="F164" s="11"/>
       <c r="G164" s="9"/>
       <c r="H164" s="4"/>
     </row>
     <row r="165">
-      <c r="B165" s="12"/>
+      <c r="B165" s="11"/>
       <c r="C165" s="9"/>
       <c r="D165" s="4"/>
-      <c r="F165" s="12"/>
+      <c r="F165" s="11"/>
       <c r="G165" s="9"/>
       <c r="H165" s="4"/>
     </row>
     <row r="166">
-      <c r="B166" s="12"/>
+      <c r="B166" s="11"/>
       <c r="C166" s="9"/>
       <c r="D166" s="4"/>
-      <c r="F166" s="12"/>
+      <c r="F166" s="11"/>
       <c r="G166" s="9"/>
       <c r="H166" s="4"/>
     </row>
     <row r="167">
-      <c r="B167" s="12"/>
+      <c r="B167" s="11"/>
       <c r="C167" s="9"/>
       <c r="D167" s="4"/>
-      <c r="F167" s="12"/>
+      <c r="F167" s="11"/>
       <c r="G167" s="9"/>
       <c r="H167" s="4"/>
     </row>
     <row r="168">
-      <c r="B168" s="12"/>
+      <c r="B168" s="11"/>
       <c r="C168" s="9"/>
       <c r="D168" s="4"/>
-      <c r="F168" s="12"/>
+      <c r="F168" s="11"/>
       <c r="G168" s="9"/>
       <c r="H168" s="4"/>
     </row>
     <row r="169">
-      <c r="B169" s="12"/>
+      <c r="B169" s="11"/>
       <c r="C169" s="9"/>
       <c r="D169" s="4"/>
-      <c r="F169" s="12"/>
+      <c r="F169" s="11"/>
       <c r="G169" s="9"/>
       <c r="H169" s="4"/>
     </row>
     <row r="170">
-      <c r="B170" s="12"/>
+      <c r="B170" s="11"/>
       <c r="C170" s="9"/>
       <c r="D170" s="4"/>
-      <c r="F170" s="12"/>
+      <c r="F170" s="11"/>
       <c r="G170" s="9"/>
       <c r="H170" s="4"/>
     </row>
     <row r="171">
-      <c r="B171" s="12"/>
+      <c r="B171" s="11"/>
       <c r="C171" s="9"/>
       <c r="D171" s="4"/>
-      <c r="F171" s="12"/>
+      <c r="F171" s="11"/>
       <c r="G171" s="9"/>
       <c r="H171" s="4"/>
     </row>
     <row r="172">
-      <c r="B172" s="12"/>
+      <c r="B172" s="11"/>
       <c r="C172" s="9"/>
       <c r="D172" s="4"/>
-      <c r="F172" s="12"/>
+      <c r="F172" s="11"/>
       <c r="G172" s="9"/>
       <c r="H172" s="4"/>
     </row>
     <row r="173">
-      <c r="B173" s="12"/>
+      <c r="B173" s="11"/>
       <c r="C173" s="9"/>
       <c r="D173" s="4"/>
-      <c r="F173" s="12"/>
+      <c r="F173" s="11"/>
       <c r="G173" s="9"/>
       <c r="H173" s="4"/>
     </row>
     <row r="174">
-      <c r="B174" s="12"/>
+      <c r="B174" s="11"/>
       <c r="C174" s="9"/>
       <c r="D174" s="4"/>
-      <c r="F174" s="12"/>
+      <c r="F174" s="11"/>
       <c r="G174" s="9"/>
       <c r="H174" s="4"/>
     </row>
     <row r="175">
-      <c r="B175" s="12"/>
+      <c r="B175" s="11"/>
       <c r="C175" s="9"/>
       <c r="D175" s="4"/>
-      <c r="F175" s="12"/>
+      <c r="F175" s="11"/>
       <c r="G175" s="9"/>
       <c r="H175" s="4"/>
     </row>
     <row r="176">
-      <c r="B176" s="12"/>
+      <c r="B176" s="11"/>
       <c r="C176" s="9"/>
       <c r="D176" s="4"/>
-      <c r="F176" s="12"/>
+      <c r="F176" s="11"/>
       <c r="G176" s="9"/>
       <c r="H176" s="4"/>
     </row>
     <row r="177">
-      <c r="B177" s="12"/>
+      <c r="B177" s="11"/>
       <c r="C177" s="9"/>
       <c r="D177" s="4"/>
-      <c r="F177" s="12"/>
+      <c r="F177" s="11"/>
       <c r="G177" s="9"/>
       <c r="H177" s="4"/>
     </row>
     <row r="178">
-      <c r="B178" s="12"/>
+      <c r="B178" s="11"/>
       <c r="C178" s="9"/>
       <c r="D178" s="4"/>
-      <c r="F178" s="12"/>
+      <c r="F178" s="11"/>
       <c r="G178" s="9"/>
       <c r="H178" s="4"/>
     </row>
     <row r="179">
-      <c r="B179" s="12"/>
+      <c r="B179" s="11"/>
       <c r="C179" s="9"/>
       <c r="D179" s="4"/>
-      <c r="F179" s="12"/>
+      <c r="F179" s="11"/>
       <c r="G179" s="9"/>
       <c r="H179" s="4"/>
     </row>
     <row r="180">
-      <c r="B180" s="12"/>
+      <c r="B180" s="11"/>
       <c r="C180" s="9"/>
       <c r="D180" s="4"/>
-      <c r="F180" s="12"/>
+      <c r="F180" s="11"/>
       <c r="G180" s="9"/>
       <c r="H180" s="4"/>
     </row>
     <row r="181">
-      <c r="B181" s="12"/>
+      <c r="B181" s="11"/>
       <c r="C181" s="9"/>
       <c r="D181" s="4"/>
-      <c r="F181" s="12"/>
+      <c r="F181" s="11"/>
       <c r="G181" s="9"/>
       <c r="H181" s="4"/>
     </row>
     <row r="182">
-      <c r="B182" s="12"/>
+      <c r="B182" s="11"/>
       <c r="C182" s="9"/>
       <c r="D182" s="4"/>
-      <c r="F182" s="12"/>
+      <c r="F182" s="11"/>
       <c r="G182" s="9"/>
       <c r="H182" s="4"/>
     </row>
     <row r="183">
-      <c r="B183" s="12"/>
+      <c r="B183" s="11"/>
       <c r="C183" s="9"/>
       <c r="D183" s="4"/>
-      <c r="F183" s="12"/>
+      <c r="F183" s="11"/>
       <c r="G183" s="9"/>
       <c r="H183" s="4"/>
     </row>
     <row r="184">
-      <c r="B184" s="12"/>
+      <c r="B184" s="11"/>
       <c r="C184" s="9"/>
       <c r="D184" s="4"/>
-      <c r="F184" s="12"/>
+      <c r="F184" s="11"/>
       <c r="G184" s="9"/>
       <c r="H184" s="4"/>
     </row>
     <row r="185">
-      <c r="B185" s="12"/>
+      <c r="B185" s="11"/>
       <c r="C185" s="9"/>
       <c r="D185" s="4"/>
-      <c r="F185" s="12"/>
+      <c r="F185" s="11"/>
       <c r="G185" s="9"/>
       <c r="H185" s="4"/>
     </row>
     <row r="186">
-      <c r="B186" s="12"/>
+      <c r="B186" s="11"/>
       <c r="C186" s="9"/>
       <c r="D186" s="4"/>
-      <c r="F186" s="12"/>
+      <c r="F186" s="11"/>
       <c r="G186" s="9"/>
       <c r="H186" s="4"/>
     </row>
     <row r="187">
-      <c r="B187" s="12"/>
+      <c r="B187" s="11"/>
       <c r="C187" s="9"/>
       <c r="D187" s="4"/>
-      <c r="F187" s="12"/>
+      <c r="F187" s="11"/>
       <c r="G187" s="9"/>
       <c r="H187" s="4"/>
     </row>
     <row r="188">
-      <c r="B188" s="12"/>
+      <c r="B188" s="11"/>
       <c r="C188" s="9"/>
       <c r="D188" s="4"/>
-      <c r="F188" s="12"/>
+      <c r="F188" s="11"/>
       <c r="G188" s="9"/>
       <c r="H188" s="4"/>
     </row>
     <row r="189">
-      <c r="B189" s="12"/>
+      <c r="B189" s="11"/>
       <c r="C189" s="9"/>
       <c r="D189" s="4"/>
-      <c r="F189" s="12"/>
+      <c r="F189" s="11"/>
       <c r="G189" s="9"/>
       <c r="H189" s="4"/>
     </row>
     <row r="190">
-      <c r="B190" s="12"/>
+      <c r="B190" s="11"/>
       <c r="C190" s="9"/>
       <c r="D190" s="4"/>
-      <c r="F190" s="12"/>
+      <c r="F190" s="11"/>
       <c r="G190" s="9"/>
       <c r="H190" s="4"/>
     </row>
     <row r="191">
-      <c r="B191" s="12"/>
+      <c r="B191" s="11"/>
       <c r="C191" s="9"/>
       <c r="D191" s="4"/>
-      <c r="F191" s="12"/>
+      <c r="F191" s="11"/>
       <c r="G191" s="9"/>
       <c r="H191" s="4"/>
     </row>
     <row r="192">
-      <c r="B192" s="12"/>
+      <c r="B192" s="11"/>
       <c r="C192" s="9"/>
       <c r="D192" s="4"/>
-      <c r="F192" s="12"/>
+      <c r="F192" s="11"/>
       <c r="G192" s="9"/>
       <c r="H192" s="4"/>
     </row>
     <row r="193">
-      <c r="B193" s="12"/>
+      <c r="B193" s="11"/>
       <c r="C193" s="9"/>
       <c r="D193" s="4"/>
-      <c r="F193" s="12"/>
+      <c r="F193" s="11"/>
       <c r="G193" s="9"/>
       <c r="H193" s="4"/>
     </row>
     <row r="194">
-      <c r="B194" s="12"/>
+      <c r="B194" s="11"/>
       <c r="C194" s="9"/>
       <c r="D194" s="4"/>
-      <c r="F194" s="12"/>
+      <c r="F194" s="11"/>
       <c r="G194" s="9"/>
       <c r="H194" s="4"/>
     </row>
     <row r="195">
-      <c r="B195" s="12"/>
+      <c r="B195" s="11"/>
       <c r="C195" s="9"/>
       <c r="D195" s="4"/>
-      <c r="F195" s="12"/>
+      <c r="F195" s="11"/>
       <c r="G195" s="9"/>
       <c r="H195" s="4"/>
     </row>
     <row r="196">
-      <c r="B196" s="12"/>
+      <c r="B196" s="11"/>
       <c r="C196" s="9"/>
       <c r="D196" s="4"/>
-      <c r="F196" s="12"/>
+      <c r="F196" s="11"/>
       <c r="G196" s="9"/>
       <c r="H196" s="4"/>
     </row>
     <row r="197">
-      <c r="B197" s="12"/>
+      <c r="B197" s="11"/>
       <c r="C197" s="9"/>
       <c r="D197" s="4"/>
-      <c r="F197" s="12"/>
+      <c r="F197" s="11"/>
       <c r="G197" s="9"/>
       <c r="H197" s="4"/>
     </row>
     <row r="198">
-      <c r="B198" s="12"/>
+      <c r="B198" s="11"/>
       <c r="C198" s="9"/>
       <c r="D198" s="4"/>
-      <c r="F198" s="12"/>
+      <c r="F198" s="11"/>
       <c r="G198" s="9"/>
       <c r="H198" s="4"/>
     </row>
     <row r="199">
-      <c r="B199" s="12"/>
+      <c r="B199" s="11"/>
       <c r="C199" s="9"/>
       <c r="D199" s="4"/>
-      <c r="F199" s="12"/>
+      <c r="F199" s="11"/>
       <c r="G199" s="9"/>
       <c r="H199" s="4"/>
     </row>
     <row r="200">
-      <c r="B200" s="12"/>
+      <c r="B200" s="11"/>
       <c r="C200" s="9"/>
       <c r="D200" s="4"/>
-      <c r="F200" s="12"/>
+      <c r="F200" s="11"/>
       <c r="G200" s="9"/>
       <c r="H200" s="4"/>
     </row>
     <row r="201">
-      <c r="B201" s="12"/>
+      <c r="B201" s="11"/>
       <c r="D201" s="4"/>
-      <c r="F201" s="12"/>
+      <c r="F201" s="11"/>
       <c r="H201" s="4"/>
     </row>
     <row r="202">
-      <c r="B202" s="12"/>
+      <c r="B202" s="11"/>
       <c r="D202" s="4"/>
-      <c r="F202" s="12"/>
+      <c r="F202" s="11"/>
       <c r="H202" s="4"/>
     </row>
     <row r="203">
-      <c r="B203" s="12"/>
+      <c r="B203" s="11"/>
       <c r="D203" s="4"/>
-      <c r="F203" s="12"/>
+      <c r="F203" s="11"/>
       <c r="H203" s="4"/>
     </row>
     <row r="204">
-      <c r="B204" s="12"/>
+      <c r="B204" s="11"/>
       <c r="D204" s="4"/>
-      <c r="F204" s="12"/>
+      <c r="F204" s="11"/>
       <c r="H204" s="4"/>
     </row>
     <row r="205">
-      <c r="B205" s="12"/>
+      <c r="B205" s="11"/>
       <c r="D205" s="4"/>
-      <c r="F205" s="12"/>
+      <c r="F205" s="11"/>
       <c r="H205" s="4"/>
     </row>
     <row r="206">
-      <c r="B206" s="12"/>
+      <c r="B206" s="11"/>
       <c r="D206" s="4"/>
-      <c r="F206" s="12"/>
+      <c r="F206" s="11"/>
       <c r="H206" s="4"/>
     </row>
     <row r="207">
-      <c r="B207" s="12"/>
+      <c r="B207" s="11"/>
       <c r="D207" s="4"/>
-      <c r="F207" s="12"/>
+      <c r="F207" s="11"/>
       <c r="H207" s="4"/>
     </row>
     <row r="208">
-      <c r="B208" s="12"/>
+      <c r="B208" s="11"/>
       <c r="D208" s="4"/>
-      <c r="F208" s="12"/>
+      <c r="F208" s="11"/>
       <c r="H208" s="4"/>
     </row>
     <row r="209">
-      <c r="B209" s="12"/>
+      <c r="B209" s="11"/>
       <c r="D209" s="4"/>
-      <c r="F209" s="12"/>
+      <c r="F209" s="11"/>
       <c r="H209" s="4"/>
     </row>
     <row r="210">
-      <c r="B210" s="12"/>
+      <c r="B210" s="11"/>
       <c r="D210" s="4"/>
-      <c r="F210" s="12"/>
+      <c r="F210" s="11"/>
       <c r="H210" s="4"/>
     </row>
     <row r="211">
-      <c r="B211" s="12"/>
+      <c r="B211" s="11"/>
       <c r="D211" s="4"/>
-      <c r="F211" s="12"/>
+      <c r="F211" s="11"/>
       <c r="H211" s="4"/>
     </row>
     <row r="212">
-      <c r="B212" s="12"/>
+      <c r="B212" s="11"/>
       <c r="D212" s="4"/>
-      <c r="F212" s="12"/>
+      <c r="F212" s="11"/>
       <c r="H212" s="4"/>
     </row>
     <row r="213">
-      <c r="B213" s="12"/>
+      <c r="B213" s="11"/>
       <c r="D213" s="4"/>
-      <c r="F213" s="12"/>
+      <c r="F213" s="11"/>
       <c r="H213" s="4"/>
     </row>
     <row r="214">
-      <c r="B214" s="12"/>
+      <c r="B214" s="11"/>
       <c r="D214" s="4"/>
-      <c r="F214" s="12"/>
+      <c r="F214" s="11"/>
       <c r="H214" s="4"/>
     </row>
     <row r="215">
-      <c r="B215" s="12"/>
+      <c r="B215" s="11"/>
       <c r="D215" s="4"/>
-      <c r="F215" s="12"/>
+      <c r="F215" s="11"/>
       <c r="H215" s="4"/>
     </row>
     <row r="216">
-      <c r="B216" s="12"/>
+      <c r="B216" s="11"/>
       <c r="D216" s="4"/>
-      <c r="F216" s="12"/>
+      <c r="F216" s="11"/>
       <c r="H216" s="4"/>
     </row>
     <row r="217">
-      <c r="B217" s="12"/>
+      <c r="B217" s="11"/>
       <c r="D217" s="4"/>
-      <c r="F217" s="12"/>
+      <c r="F217" s="11"/>
       <c r="H217" s="4"/>
     </row>
     <row r="218">
-      <c r="B218" s="12"/>
+      <c r="B218" s="11"/>
       <c r="D218" s="4"/>
-      <c r="F218" s="12"/>
+      <c r="F218" s="11"/>
       <c r="H218" s="4"/>
     </row>
     <row r="219">
-      <c r="B219" s="12"/>
+      <c r="B219" s="11"/>
       <c r="D219" s="4"/>
-      <c r="F219" s="12"/>
+      <c r="F219" s="11"/>
       <c r="H219" s="4"/>
     </row>
     <row r="220">
-      <c r="B220" s="12"/>
+      <c r="B220" s="11"/>
       <c r="D220" s="4"/>
-      <c r="F220" s="12"/>
+      <c r="F220" s="11"/>
       <c r="H220" s="4"/>
     </row>
     <row r="221">
-      <c r="B221" s="12"/>
+      <c r="B221" s="11"/>
       <c r="D221" s="4"/>
-      <c r="F221" s="12"/>
+      <c r="F221" s="11"/>
       <c r="H221" s="4"/>
     </row>
     <row r="222">
-      <c r="B222" s="12"/>
+      <c r="B222" s="11"/>
       <c r="D222" s="4"/>
-      <c r="F222" s="12"/>
+      <c r="F222" s="11"/>
       <c r="H222" s="4"/>
     </row>
     <row r="223">
-      <c r="B223" s="12"/>
+      <c r="B223" s="11"/>
       <c r="D223" s="4"/>
-      <c r="F223" s="12"/>
+      <c r="F223" s="11"/>
       <c r="H223" s="4"/>
     </row>
     <row r="224">
-      <c r="B224" s="12"/>
+      <c r="B224" s="11"/>
       <c r="D224" s="4"/>
-      <c r="F224" s="12"/>
+      <c r="F224" s="11"/>
       <c r="H224" s="4"/>
     </row>
     <row r="225">
-      <c r="B225" s="12"/>
+      <c r="B225" s="11"/>
       <c r="D225" s="4"/>
-      <c r="F225" s="12"/>
+      <c r="F225" s="11"/>
       <c r="H225" s="4"/>
     </row>
     <row r="226">
-      <c r="B226" s="12"/>
+      <c r="B226" s="11"/>
       <c r="D226" s="4"/>
-      <c r="F226" s="12"/>
+      <c r="F226" s="11"/>
       <c r="H226" s="4"/>
     </row>
     <row r="227">
-      <c r="B227" s="12"/>
+      <c r="B227" s="11"/>
       <c r="D227" s="4"/>
-      <c r="F227" s="12"/>
+      <c r="F227" s="11"/>
       <c r="H227" s="4"/>
     </row>
     <row r="228">
-      <c r="B228" s="12"/>
+      <c r="B228" s="11"/>
       <c r="D228" s="4"/>
-      <c r="F228" s="12"/>
+      <c r="F228" s="11"/>
       <c r="H228" s="4"/>
     </row>
     <row r="229">
-      <c r="B229" s="12"/>
+      <c r="B229" s="11"/>
       <c r="D229" s="4"/>
-      <c r="F229" s="12"/>
+      <c r="F229" s="11"/>
       <c r="H229" s="4"/>
     </row>
     <row r="230">
-      <c r="B230" s="12"/>
+      <c r="B230" s="11"/>
       <c r="D230" s="4"/>
-      <c r="F230" s="12"/>
+      <c r="F230" s="11"/>
       <c r="H230" s="4"/>
     </row>
     <row r="231">
-      <c r="B231" s="12"/>
+      <c r="B231" s="11"/>
       <c r="D231" s="4"/>
-      <c r="F231" s="12"/>
+      <c r="F231" s="11"/>
       <c r="H231" s="4"/>
     </row>
     <row r="232">
-      <c r="B232" s="12"/>
+      <c r="B232" s="11"/>
       <c r="D232" s="4"/>
-      <c r="F232" s="12"/>
+      <c r="F232" s="11"/>
       <c r="H232" s="4"/>
     </row>
     <row r="233">
-      <c r="B233" s="12"/>
+      <c r="B233" s="11"/>
       <c r="D233" s="4"/>
-      <c r="F233" s="12"/>
+      <c r="F233" s="11"/>
       <c r="H233" s="4"/>
     </row>
     <row r="234">
-      <c r="B234" s="12"/>
+      <c r="B234" s="11"/>
       <c r="D234" s="4"/>
-      <c r="F234" s="12"/>
+      <c r="F234" s="11"/>
       <c r="H234" s="4"/>
     </row>
     <row r="235">
-      <c r="B235" s="12"/>
+      <c r="B235" s="11"/>
       <c r="D235" s="4"/>
-      <c r="F235" s="12"/>
+      <c r="F235" s="11"/>
       <c r="H235" s="4"/>
     </row>
     <row r="236">
-      <c r="B236" s="12"/>
+      <c r="B236" s="11"/>
       <c r="D236" s="4"/>
-      <c r="F236" s="12"/>
+      <c r="F236" s="11"/>
       <c r="H236" s="4"/>
     </row>
     <row r="237">
-      <c r="B237" s="12"/>
+      <c r="B237" s="11"/>
       <c r="D237" s="4"/>
-      <c r="F237" s="12"/>
+      <c r="F237" s="11"/>
       <c r="H237" s="4"/>
     </row>
     <row r="238">
-      <c r="B238" s="12"/>
+      <c r="B238" s="11"/>
       <c r="D238" s="4"/>
-      <c r="F238" s="12"/>
+      <c r="F238" s="11"/>
       <c r="H238" s="4"/>
     </row>
     <row r="239">
-      <c r="B239" s="12"/>
+      <c r="B239" s="11"/>
       <c r="D239" s="4"/>
-      <c r="F239" s="12"/>
+      <c r="F239" s="11"/>
       <c r="H239" s="4"/>
     </row>
     <row r="240">
-      <c r="B240" s="12"/>
+      <c r="B240" s="11"/>
       <c r="D240" s="4"/>
-      <c r="F240" s="12"/>
+      <c r="F240" s="11"/>
       <c r="H240" s="4"/>
     </row>
     <row r="241">
-      <c r="B241" s="12"/>
+      <c r="B241" s="11"/>
       <c r="D241" s="4"/>
-      <c r="F241" s="12"/>
+      <c r="F241" s="11"/>
       <c r="H241" s="4"/>
     </row>
     <row r="242">
-      <c r="B242" s="12"/>
+      <c r="B242" s="11"/>
       <c r="D242" s="4"/>
-      <c r="F242" s="12"/>
+      <c r="F242" s="11"/>
       <c r="H242" s="4"/>
     </row>
     <row r="243">
-      <c r="B243" s="12"/>
+      <c r="B243" s="11"/>
       <c r="D243" s="4"/>
-      <c r="F243" s="12"/>
+      <c r="F243" s="11"/>
       <c r="H243" s="4"/>
     </row>
     <row r="244">
-      <c r="B244" s="12"/>
+      <c r="B244" s="11"/>
       <c r="D244" s="4"/>
-      <c r="F244" s="12"/>
+      <c r="F244" s="11"/>
       <c r="H244" s="4"/>
     </row>
     <row r="245">
-      <c r="B245" s="12"/>
+      <c r="B245" s="11"/>
       <c r="D245" s="4"/>
-      <c r="F245" s="12"/>
+      <c r="F245" s="11"/>
       <c r="H245" s="4"/>
     </row>
     <row r="246">
-      <c r="B246" s="12"/>
+      <c r="B246" s="11"/>
       <c r="D246" s="4"/>
-      <c r="F246" s="12"/>
+      <c r="F246" s="11"/>
       <c r="H246" s="4"/>
     </row>
     <row r="247">
-      <c r="B247" s="12"/>
+      <c r="B247" s="11"/>
       <c r="D247" s="4"/>
-      <c r="F247" s="12"/>
+      <c r="F247" s="11"/>
       <c r="H247" s="4"/>
     </row>
     <row r="248">
-      <c r="B248" s="12"/>
+      <c r="B248" s="11"/>
       <c r="D248" s="4"/>
-      <c r="F248" s="12"/>
+      <c r="F248" s="11"/>
       <c r="H248" s="4"/>
     </row>
     <row r="249">
-      <c r="B249" s="12"/>
+      <c r="B249" s="11"/>
       <c r="D249" s="4"/>
-      <c r="F249" s="12"/>
+      <c r="F249" s="11"/>
       <c r="H249" s="4"/>
     </row>
     <row r="250">
-      <c r="B250" s="12"/>
+      <c r="B250" s="11"/>
       <c r="D250" s="4"/>
-      <c r="F250" s="12"/>
+      <c r="F250" s="11"/>
       <c r="H250" s="4"/>
     </row>
     <row r="251">
-      <c r="B251" s="12"/>
+      <c r="B251" s="11"/>
       <c r="D251" s="4"/>
-      <c r="F251" s="12"/>
+      <c r="F251" s="11"/>
       <c r="H251" s="4"/>
     </row>
     <row r="252">
-      <c r="B252" s="12"/>
+      <c r="B252" s="11"/>
       <c r="D252" s="4"/>
-      <c r="F252" s="12"/>
+      <c r="F252" s="11"/>
       <c r="H252" s="4"/>
     </row>
     <row r="253">
-      <c r="B253" s="12"/>
+      <c r="B253" s="11"/>
       <c r="D253" s="4"/>
-      <c r="F253" s="12"/>
+      <c r="F253" s="11"/>
       <c r="H253" s="4"/>
     </row>
     <row r="254">
-      <c r="B254" s="12"/>
+      <c r="B254" s="11"/>
       <c r="D254" s="4"/>
-      <c r="F254" s="12"/>
+      <c r="F254" s="11"/>
       <c r="H254" s="4"/>
     </row>
     <row r="255">
-      <c r="B255" s="12"/>
+      <c r="B255" s="11"/>
       <c r="D255" s="4"/>
-      <c r="F255" s="12"/>
+      <c r="F255" s="11"/>
       <c r="H255" s="4"/>
     </row>
     <row r="256">
-      <c r="B256" s="12"/>
+      <c r="B256" s="11"/>
       <c r="D256" s="4"/>
-      <c r="F256" s="12"/>
+      <c r="F256" s="11"/>
       <c r="H256" s="4"/>
     </row>
     <row r="257">
-      <c r="B257" s="12"/>
+      <c r="B257" s="11"/>
       <c r="D257" s="4"/>
-      <c r="F257" s="12"/>
+      <c r="F257" s="11"/>
       <c r="H257" s="4"/>
     </row>
     <row r="258">
-      <c r="B258" s="12"/>
+      <c r="B258" s="11"/>
       <c r="D258" s="4"/>
-      <c r="F258" s="12"/>
+      <c r="F258" s="11"/>
       <c r="H258" s="4"/>
     </row>
     <row r="259">
-      <c r="B259" s="12"/>
+      <c r="B259" s="11"/>
       <c r="D259" s="4"/>
-      <c r="F259" s="12"/>
+      <c r="F259" s="11"/>
       <c r="H259" s="4"/>
     </row>
     <row r="260">
-      <c r="B260" s="12"/>
+      <c r="B260" s="11"/>
       <c r="D260" s="4"/>
-      <c r="F260" s="12"/>
+      <c r="F260" s="11"/>
       <c r="H260" s="4"/>
     </row>
     <row r="261">
-      <c r="B261" s="12"/>
+      <c r="B261" s="11"/>
       <c r="D261" s="4"/>
-      <c r="F261" s="12"/>
+      <c r="F261" s="11"/>
       <c r="H261" s="4"/>
     </row>
     <row r="262">
-      <c r="B262" s="12"/>
+      <c r="B262" s="11"/>
       <c r="D262" s="4"/>
-      <c r="F262" s="12"/>
+      <c r="F262" s="11"/>
       <c r="H262" s="4"/>
     </row>
     <row r="263">
-      <c r="B263" s="12"/>
+      <c r="B263" s="11"/>
       <c r="D263" s="4"/>
-      <c r="F263" s="12"/>
+      <c r="F263" s="11"/>
       <c r="H263" s="4"/>
     </row>
     <row r="264">
-      <c r="B264" s="12"/>
+      <c r="B264" s="11"/>
       <c r="D264" s="4"/>
-      <c r="F264" s="12"/>
+      <c r="F264" s="11"/>
       <c r="H264" s="4"/>
     </row>
     <row r="265">
-      <c r="B265" s="12"/>
+      <c r="B265" s="11"/>
       <c r="D265" s="4"/>
-      <c r="F265" s="12"/>
+      <c r="F265" s="11"/>
       <c r="H265" s="4"/>
     </row>
     <row r="266">
-      <c r="B266" s="12"/>
+      <c r="B266" s="11"/>
       <c r="D266" s="4"/>
-      <c r="F266" s="12"/>
+      <c r="F266" s="11"/>
       <c r="H266" s="4"/>
     </row>
     <row r="267">
-      <c r="B267" s="12"/>
+      <c r="B267" s="11"/>
       <c r="D267" s="4"/>
-      <c r="F267" s="12"/>
+      <c r="F267" s="11"/>
       <c r="H267" s="4"/>
     </row>
     <row r="268">
-      <c r="B268" s="12"/>
+      <c r="B268" s="11"/>
       <c r="D268" s="4"/>
-      <c r="F268" s="12"/>
+      <c r="F268" s="11"/>
       <c r="H268" s="4"/>
     </row>
     <row r="269">
-      <c r="B269" s="12"/>
+      <c r="B269" s="11"/>
       <c r="D269" s="4"/>
-      <c r="F269" s="12"/>
+      <c r="F269" s="11"/>
       <c r="H269" s="4"/>
     </row>
     <row r="270">
-      <c r="B270" s="12"/>
+      <c r="B270" s="11"/>
       <c r="D270" s="4"/>
-      <c r="F270" s="12"/>
+      <c r="F270" s="11"/>
       <c r="H270" s="4"/>
     </row>
     <row r="271">
-      <c r="B271" s="12"/>
+      <c r="B271" s="11"/>
       <c r="D271" s="4"/>
-      <c r="F271" s="12"/>
+      <c r="F271" s="11"/>
       <c r="H271" s="4"/>
     </row>
     <row r="272">
-      <c r="B272" s="12"/>
+      <c r="B272" s="11"/>
       <c r="D272" s="4"/>
-      <c r="F272" s="12"/>
+      <c r="F272" s="11"/>
       <c r="H272" s="4"/>
     </row>
     <row r="273">
-      <c r="B273" s="12"/>
+      <c r="B273" s="11"/>
       <c r="D273" s="4"/>
-      <c r="F273" s="12"/>
+      <c r="F273" s="11"/>
       <c r="H273" s="4"/>
     </row>
     <row r="274">
-      <c r="B274" s="12"/>
+      <c r="B274" s="11"/>
       <c r="D274" s="4"/>
-      <c r="F274" s="12"/>
+      <c r="F274" s="11"/>
       <c r="H274" s="4"/>
     </row>
     <row r="275">
-      <c r="B275" s="12"/>
+      <c r="B275" s="11"/>
       <c r="D275" s="4"/>
-      <c r="F275" s="12"/>
+      <c r="F275" s="11"/>
       <c r="H275" s="4"/>
     </row>
     <row r="276">
-      <c r="B276" s="12"/>
+      <c r="B276" s="11"/>
       <c r="D276" s="4"/>
-      <c r="F276" s="12"/>
+      <c r="F276" s="11"/>
       <c r="H276" s="4"/>
     </row>
     <row r="277">
-      <c r="B277" s="12"/>
+      <c r="B277" s="11"/>
       <c r="D277" s="4"/>
-      <c r="F277" s="12"/>
+      <c r="F277" s="11"/>
       <c r="H277" s="4"/>
     </row>
     <row r="278">
-      <c r="B278" s="12"/>
+      <c r="B278" s="11"/>
       <c r="D278" s="4"/>
-      <c r="F278" s="12"/>
+      <c r="F278" s="11"/>
       <c r="H278" s="4"/>
     </row>
     <row r="279">
-      <c r="B279" s="12"/>
+      <c r="B279" s="11"/>
       <c r="D279" s="4"/>
-      <c r="F279" s="12"/>
+      <c r="F279" s="11"/>
       <c r="H279" s="4"/>
     </row>
     <row r="280">
-      <c r="B280" s="12"/>
+      <c r="B280" s="11"/>
       <c r="D280" s="4"/>
-      <c r="F280" s="12"/>
+      <c r="F280" s="11"/>
       <c r="H280" s="4"/>
     </row>
     <row r="281">
-      <c r="B281" s="12"/>
+      <c r="B281" s="11"/>
       <c r="D281" s="4"/>
-      <c r="F281" s="12"/>
+      <c r="F281" s="11"/>
       <c r="H281" s="4"/>
     </row>
     <row r="282">
-      <c r="B282" s="12"/>
+      <c r="B282" s="11"/>
       <c r="D282" s="4"/>
-      <c r="F282" s="12"/>
+      <c r="F282" s="11"/>
       <c r="H282" s="4"/>
     </row>
     <row r="283">
-      <c r="B283" s="12"/>
+      <c r="B283" s="11"/>
       <c r="D283" s="4"/>
-      <c r="F283" s="12"/>
+      <c r="F283" s="11"/>
       <c r="H283" s="4"/>
     </row>
     <row r="284">
-      <c r="B284" s="12"/>
+      <c r="B284" s="11"/>
       <c r="D284" s="4"/>
-      <c r="F284" s="12"/>
+      <c r="F284" s="11"/>
       <c r="H284" s="4"/>
     </row>
     <row r="285">
-      <c r="B285" s="12"/>
+      <c r="B285" s="11"/>
       <c r="D285" s="4"/>
-      <c r="F285" s="12"/>
+      <c r="F285" s="11"/>
       <c r="H285" s="4"/>
     </row>
     <row r="286">
-      <c r="B286" s="12"/>
+      <c r="B286" s="11"/>
       <c r="D286" s="4"/>
-      <c r="F286" s="12"/>
+      <c r="F286" s="11"/>
       <c r="H286" s="4"/>
     </row>
     <row r="287">
-      <c r="B287" s="12"/>
+      <c r="B287" s="11"/>
       <c r="D287" s="4"/>
-      <c r="F287" s="12"/>
+      <c r="F287" s="11"/>
       <c r="H287" s="4"/>
     </row>
     <row r="288">
-      <c r="B288" s="12"/>
+      <c r="B288" s="11"/>
       <c r="D288" s="4"/>
-      <c r="F288" s="12"/>
+      <c r="F288" s="11"/>
       <c r="H288" s="4"/>
     </row>
     <row r="289">
-      <c r="B289" s="12"/>
+      <c r="B289" s="11"/>
       <c r="D289" s="4"/>
-      <c r="F289" s="12"/>
+      <c r="F289" s="11"/>
       <c r="H289" s="4"/>
     </row>
     <row r="290">
-      <c r="B290" s="12"/>
+      <c r="B290" s="11"/>
       <c r="D290" s="4"/>
-      <c r="F290" s="12"/>
+      <c r="F290" s="11"/>
       <c r="H290" s="4"/>
     </row>
     <row r="291">
-      <c r="B291" s="12"/>
+      <c r="B291" s="11"/>
       <c r="D291" s="4"/>
-      <c r="F291" s="12"/>
+      <c r="F291" s="11"/>
       <c r="H291" s="4"/>
     </row>
     <row r="292">
-      <c r="B292" s="12"/>
+      <c r="B292" s="11"/>
       <c r="D292" s="4"/>
-      <c r="F292" s="12"/>
+      <c r="F292" s="11"/>
       <c r="H292" s="4"/>
     </row>
     <row r="293">
-      <c r="B293" s="12"/>
+      <c r="B293" s="11"/>
       <c r="D293" s="4"/>
-      <c r="F293" s="12"/>
+      <c r="F293" s="11"/>
       <c r="H293" s="4"/>
     </row>
     <row r="294">
-      <c r="B294" s="12"/>
+      <c r="B294" s="11"/>
       <c r="D294" s="4"/>
-      <c r="F294" s="12"/>
+      <c r="F294" s="11"/>
       <c r="H294" s="4"/>
     </row>
     <row r="295">
-      <c r="B295" s="12"/>
+      <c r="B295" s="11"/>
       <c r="D295" s="4"/>
-      <c r="F295" s="12"/>
+      <c r="F295" s="11"/>
       <c r="H295" s="4"/>
     </row>
     <row r="296">
-      <c r="B296" s="12"/>
+      <c r="B296" s="11"/>
       <c r="D296" s="4"/>
-      <c r="F296" s="12"/>
+      <c r="F296" s="11"/>
       <c r="H296" s="4"/>
     </row>
     <row r="297">
-      <c r="B297" s="12"/>
+      <c r="B297" s="11"/>
       <c r="D297" s="4"/>
-      <c r="F297" s="12"/>
+      <c r="F297" s="11"/>
       <c r="H297" s="4"/>
     </row>
     <row r="298">
-      <c r="B298" s="12"/>
+      <c r="B298" s="11"/>
       <c r="D298" s="4"/>
-      <c r="F298" s="12"/>
+      <c r="F298" s="11"/>
       <c r="H298" s="4"/>
     </row>
     <row r="299">
-      <c r="B299" s="12"/>
+      <c r="B299" s="11"/>
       <c r="D299" s="4"/>
-      <c r="F299" s="12"/>
+      <c r="F299" s="11"/>
       <c r="H299" s="4"/>
     </row>
     <row r="300">
-      <c r="B300" s="12"/>
+      <c r="B300" s="11"/>
       <c r="D300" s="4"/>
-      <c r="F300" s="12"/>
+      <c r="F300" s="11"/>
       <c r="H300" s="4"/>
     </row>
     <row r="301">
-      <c r="B301" s="12"/>
+      <c r="B301" s="11"/>
       <c r="D301" s="4"/>
-      <c r="F301" s="12"/>
+      <c r="F301" s="11"/>
       <c r="H301" s="4"/>
     </row>
     <row r="302">
-      <c r="B302" s="12"/>
+      <c r="B302" s="11"/>
       <c r="D302" s="4"/>
-      <c r="F302" s="12"/>
+      <c r="F302" s="11"/>
       <c r="H302" s="4"/>
     </row>
     <row r="303">
-      <c r="B303" s="12"/>
+      <c r="B303" s="11"/>
       <c r="D303" s="4"/>
-      <c r="F303" s="12"/>
+      <c r="F303" s="11"/>
       <c r="H303" s="4"/>
     </row>
     <row r="304">
-      <c r="B304" s="12"/>
+      <c r="B304" s="11"/>
       <c r="D304" s="4"/>
-      <c r="F304" s="12"/>
+      <c r="F304" s="11"/>
       <c r="H304" s="4"/>
     </row>
     <row r="305">
-      <c r="B305" s="12"/>
+      <c r="B305" s="11"/>
       <c r="D305" s="4"/>
-      <c r="F305" s="12"/>
+      <c r="F305" s="11"/>
       <c r="H305" s="4"/>
     </row>
     <row r="306">
-      <c r="B306" s="12"/>
+      <c r="B306" s="11"/>
       <c r="D306" s="4"/>
-      <c r="F306" s="12"/>
+      <c r="F306" s="11"/>
       <c r="H306" s="4"/>
     </row>
     <row r="307">
-      <c r="B307" s="12"/>
+      <c r="B307" s="11"/>
       <c r="D307" s="4"/>
-      <c r="F307" s="12"/>
+      <c r="F307" s="11"/>
       <c r="H307" s="4"/>
     </row>
     <row r="308">
-      <c r="B308" s="12"/>
+      <c r="B308" s="11"/>
       <c r="D308" s="4"/>
-      <c r="F308" s="12"/>
+      <c r="F308" s="11"/>
       <c r="H308" s="4"/>
     </row>
     <row r="309">
-      <c r="B309" s="12"/>
+      <c r="B309" s="11"/>
       <c r="D309" s="4"/>
-      <c r="F309" s="12"/>
+      <c r="F309" s="11"/>
       <c r="H309" s="4"/>
     </row>
     <row r="310">
-      <c r="B310" s="12"/>
+      <c r="B310" s="11"/>
       <c r="D310" s="4"/>
-      <c r="F310" s="12"/>
+      <c r="F310" s="11"/>
       <c r="H310" s="4"/>
     </row>
     <row r="311">
-      <c r="B311" s="12"/>
+      <c r="B311" s="11"/>
       <c r="D311" s="4"/>
-      <c r="F311" s="12"/>
+      <c r="F311" s="11"/>
       <c r="H311" s="4"/>
     </row>
     <row r="312">
-      <c r="B312" s="12"/>
+      <c r="B312" s="11"/>
       <c r="D312" s="4"/>
-      <c r="F312" s="12"/>
+      <c r="F312" s="11"/>
       <c r="H312" s="4"/>
     </row>
     <row r="313">
-      <c r="B313" s="12"/>
+      <c r="B313" s="11"/>
       <c r="D313" s="4"/>
-      <c r="F313" s="12"/>
+      <c r="F313" s="11"/>
       <c r="H313" s="4"/>
     </row>
     <row r="314">
-      <c r="B314" s="12"/>
+      <c r="B314" s="11"/>
       <c r="D314" s="4"/>
-      <c r="F314" s="12"/>
+      <c r="F314" s="11"/>
       <c r="H314" s="4"/>
     </row>
     <row r="315">
-      <c r="B315" s="12"/>
+      <c r="B315" s="11"/>
       <c r="D315" s="4"/>
-      <c r="F315" s="12"/>
+      <c r="F315" s="11"/>
       <c r="H315" s="4"/>
     </row>
     <row r="316">
-      <c r="B316" s="12"/>
+      <c r="B316" s="11"/>
       <c r="D316" s="4"/>
-      <c r="F316" s="12"/>
+      <c r="F316" s="11"/>
       <c r="H316" s="4"/>
     </row>
     <row r="317">
-      <c r="B317" s="12"/>
+      <c r="B317" s="11"/>
       <c r="D317" s="4"/>
-      <c r="F317" s="12"/>
+      <c r="F317" s="11"/>
       <c r="H317" s="4"/>
     </row>
     <row r="318">
-      <c r="B318" s="12"/>
+      <c r="B318" s="11"/>
       <c r="D318" s="4"/>
-      <c r="F318" s="12"/>
+      <c r="F318" s="11"/>
       <c r="H318" s="4"/>
     </row>
     <row r="319">
-      <c r="B319" s="12"/>
+      <c r="B319" s="11"/>
       <c r="D319" s="4"/>
-      <c r="F319" s="12"/>
+      <c r="F319" s="11"/>
       <c r="H319" s="4"/>
     </row>
     <row r="320">
-      <c r="B320" s="12"/>
+      <c r="B320" s="11"/>
       <c r="D320" s="4"/>
-      <c r="F320" s="12"/>
+      <c r="F320" s="11"/>
       <c r="H320" s="4"/>
     </row>
     <row r="321">
-      <c r="B321" s="12"/>
+      <c r="B321" s="11"/>
       <c r="D321" s="4"/>
-      <c r="F321" s="12"/>
+      <c r="F321" s="11"/>
       <c r="H321" s="4"/>
     </row>
     <row r="322">
-      <c r="B322" s="12"/>
+      <c r="B322" s="11"/>
       <c r="D322" s="4"/>
-      <c r="F322" s="12"/>
+      <c r="F322" s="11"/>
       <c r="H322" s="4"/>
     </row>
     <row r="323">
-      <c r="B323" s="12"/>
+      <c r="B323" s="11"/>
       <c r="D323" s="4"/>
-      <c r="F323" s="12"/>
+      <c r="F323" s="11"/>
       <c r="H323" s="4"/>
     </row>
     <row r="324">
-      <c r="B324" s="12"/>
+      <c r="B324" s="11"/>
       <c r="D324" s="4"/>
-      <c r="F324" s="12"/>
+      <c r="F324" s="11"/>
       <c r="H324" s="4"/>
     </row>
     <row r="325">
-      <c r="B325" s="12"/>
+      <c r="B325" s="11"/>
       <c r="D325" s="4"/>
-      <c r="F325" s="12"/>
+      <c r="F325" s="11"/>
       <c r="H325" s="4"/>
     </row>
     <row r="326">
-      <c r="B326" s="12"/>
+      <c r="B326" s="11"/>
       <c r="D326" s="4"/>
-      <c r="F326" s="12"/>
+      <c r="F326" s="11"/>
       <c r="H326" s="4"/>
     </row>
     <row r="327">
-      <c r="B327" s="12"/>
+      <c r="B327" s="11"/>
       <c r="D327" s="4"/>
-      <c r="F327" s="12"/>
+      <c r="F327" s="11"/>
       <c r="H327" s="4"/>
     </row>
     <row r="328">
-      <c r="B328" s="12"/>
+      <c r="B328" s="11"/>
       <c r="D328" s="4"/>
-      <c r="F328" s="12"/>
+      <c r="F328" s="11"/>
       <c r="H328" s="4"/>
     </row>
     <row r="329">
-      <c r="B329" s="12"/>
+      <c r="B329" s="11"/>
       <c r="D329" s="4"/>
-      <c r="F329" s="12"/>
+      <c r="F329" s="11"/>
       <c r="H329" s="4"/>
     </row>
     <row r="330">
-      <c r="B330" s="12"/>
+      <c r="B330" s="11"/>
       <c r="D330" s="4"/>
-      <c r="F330" s="12"/>
+      <c r="F330" s="11"/>
       <c r="H330" s="4"/>
     </row>
     <row r="331">
-      <c r="B331" s="12"/>
+      <c r="B331" s="11"/>
       <c r="D331" s="4"/>
-      <c r="F331" s="12"/>
+      <c r="F331" s="11"/>
       <c r="H331" s="4"/>
     </row>
     <row r="332">
-      <c r="B332" s="12"/>
+      <c r="B332" s="11"/>
       <c r="D332" s="4"/>
-      <c r="F332" s="12"/>
+      <c r="F332" s="11"/>
       <c r="H332" s="4"/>
     </row>
     <row r="333">
-      <c r="B333" s="12"/>
+      <c r="B333" s="11"/>
       <c r="D333" s="4"/>
-      <c r="F333" s="12"/>
+      <c r="F333" s="11"/>
       <c r="H333" s="4"/>
     </row>
     <row r="334">
-      <c r="B334" s="12"/>
+      <c r="B334" s="11"/>
       <c r="D334" s="4"/>
-      <c r="F334" s="12"/>
+      <c r="F334" s="11"/>
       <c r="H334" s="4"/>
     </row>
     <row r="335">
-      <c r="B335" s="12"/>
+      <c r="B335" s="11"/>
       <c r="D335" s="4"/>
-      <c r="F335" s="12"/>
+      <c r="F335" s="11"/>
       <c r="H335" s="4"/>
     </row>
     <row r="336">
-      <c r="B336" s="12"/>
+      <c r="B336" s="11"/>
       <c r="D336" s="4"/>
-      <c r="F336" s="12"/>
+      <c r="F336" s="11"/>
       <c r="H336" s="4"/>
     </row>
     <row r="337">
-      <c r="B337" s="12"/>
+      <c r="B337" s="11"/>
       <c r="D337" s="4"/>
-      <c r="F337" s="12"/>
+      <c r="F337" s="11"/>
       <c r="H337" s="4"/>
     </row>
     <row r="338">
-      <c r="B338" s="12"/>
+      <c r="B338" s="11"/>
       <c r="D338" s="4"/>
-      <c r="F338" s="12"/>
+      <c r="F338" s="11"/>
       <c r="H338" s="4"/>
     </row>
     <row r="339">
-      <c r="B339" s="12"/>
+      <c r="B339" s="11"/>
       <c r="D339" s="4"/>
-      <c r="F339" s="12"/>
+      <c r="F339" s="11"/>
       <c r="H339" s="4"/>
     </row>
     <row r="340">
-      <c r="B340" s="12"/>
+      <c r="B340" s="11"/>
       <c r="D340" s="4"/>
-      <c r="F340" s="12"/>
+      <c r="F340" s="11"/>
       <c r="H340" s="4"/>
     </row>
     <row r="341">
-      <c r="B341" s="12"/>
+      <c r="B341" s="11"/>
       <c r="D341" s="4"/>
-      <c r="F341" s="12"/>
+      <c r="F341" s="11"/>
       <c r="H341" s="4"/>
     </row>
     <row r="342">
-      <c r="B342" s="12"/>
+      <c r="B342" s="11"/>
       <c r="D342" s="4"/>
-      <c r="F342" s="12"/>
+      <c r="F342" s="11"/>
       <c r="H342" s="4"/>
     </row>
     <row r="343">
-      <c r="B343" s="12"/>
+      <c r="B343" s="11"/>
       <c r="D343" s="4"/>
-      <c r="F343" s="12"/>
+      <c r="F343" s="11"/>
       <c r="H343" s="4"/>
     </row>
     <row r="344">
-      <c r="B344" s="12"/>
+      <c r="B344" s="11"/>
       <c r="D344" s="4"/>
-      <c r="F344" s="12"/>
+      <c r="F344" s="11"/>
       <c r="H344" s="4"/>
     </row>
     <row r="345">
-      <c r="B345" s="12"/>
+      <c r="B345" s="11"/>
       <c r="D345" s="4"/>
-      <c r="F345" s="12"/>
+      <c r="F345" s="11"/>
       <c r="H345" s="4"/>
     </row>
     <row r="346">
-      <c r="B346" s="12"/>
+      <c r="B346" s="11"/>
       <c r="D346" s="4"/>
-      <c r="F346" s="12"/>
+      <c r="F346" s="11"/>
       <c r="H346" s="4"/>
     </row>
     <row r="347">
-      <c r="B347" s="12"/>
+      <c r="B347" s="11"/>
       <c r="D347" s="4"/>
-      <c r="F347" s="12"/>
+      <c r="F347" s="11"/>
       <c r="H347" s="4"/>
     </row>
     <row r="348">
-      <c r="B348" s="12"/>
+      <c r="B348" s="11"/>
       <c r="D348" s="4"/>
-      <c r="F348" s="12"/>
+      <c r="F348" s="11"/>
       <c r="H348" s="4"/>
     </row>
     <row r="349">
-      <c r="B349" s="12"/>
+      <c r="B349" s="11"/>
       <c r="D349" s="4"/>
-      <c r="F349" s="12"/>
+      <c r="F349" s="11"/>
       <c r="H349" s="4"/>
     </row>
     <row r="350">
-      <c r="B350" s="12"/>
+      <c r="B350" s="11"/>
       <c r="D350" s="4"/>
-      <c r="F350" s="12"/>
+      <c r="F350" s="11"/>
       <c r="H350" s="4"/>
     </row>
     <row r="351">
-      <c r="B351" s="12"/>
+      <c r="B351" s="11"/>
       <c r="D351" s="4"/>
-      <c r="F351" s="12"/>
+      <c r="F351" s="11"/>
       <c r="H351" s="4"/>
     </row>
     <row r="352">
-      <c r="B352" s="12"/>
+      <c r="B352" s="11"/>
       <c r="D352" s="4"/>
-      <c r="F352" s="12"/>
+      <c r="F352" s="11"/>
       <c r="H352" s="4"/>
     </row>
     <row r="353">
-      <c r="B353" s="12"/>
+      <c r="B353" s="11"/>
       <c r="D353" s="4"/>
-      <c r="F353" s="12"/>
+      <c r="F353" s="11"/>
       <c r="H353" s="4"/>
     </row>
     <row r="354">
-      <c r="B354" s="12"/>
+      <c r="B354" s="11"/>
       <c r="D354" s="4"/>
-      <c r="F354" s="12"/>
+      <c r="F354" s="11"/>
       <c r="H354" s="4"/>
     </row>
     <row r="355">
-      <c r="B355" s="12"/>
+      <c r="B355" s="11"/>
       <c r="D355" s="4"/>
-      <c r="F355" s="12"/>
+      <c r="F355" s="11"/>
       <c r="H355" s="4"/>
     </row>
     <row r="356">
-      <c r="B356" s="12"/>
+      <c r="B356" s="11"/>
       <c r="D356" s="4"/>
-      <c r="F356" s="12"/>
+      <c r="F356" s="11"/>
       <c r="H356" s="4"/>
     </row>
     <row r="357">
-      <c r="B357" s="12"/>
+      <c r="B357" s="11"/>
       <c r="D357" s="4"/>
-      <c r="F357" s="12"/>
+      <c r="F357" s="11"/>
       <c r="H357" s="4"/>
     </row>
     <row r="358">
-      <c r="B358" s="12"/>
+      <c r="B358" s="11"/>
       <c r="D358" s="4"/>
-      <c r="F358" s="12"/>
+      <c r="F358" s="11"/>
       <c r="H358" s="4"/>
     </row>
     <row r="359">
-      <c r="B359" s="12"/>
+      <c r="B359" s="11"/>
       <c r="D359" s="4"/>
-      <c r="F359" s="12"/>
+      <c r="F359" s="11"/>
       <c r="H359" s="4"/>
     </row>
     <row r="360">
-      <c r="B360" s="12"/>
+      <c r="B360" s="11"/>
       <c r="D360" s="4"/>
-      <c r="F360" s="12"/>
+      <c r="F360" s="11"/>
       <c r="H360" s="4"/>
     </row>
     <row r="361">
-      <c r="B361" s="12"/>
+      <c r="B361" s="11"/>
       <c r="D361" s="4"/>
-      <c r="F361" s="12"/>
+      <c r="F361" s="11"/>
       <c r="H361" s="4"/>
     </row>
     <row r="362">
-      <c r="B362" s="12"/>
+      <c r="B362" s="11"/>
       <c r="D362" s="4"/>
-      <c r="F362" s="12"/>
+      <c r="F362" s="11"/>
       <c r="H362" s="4"/>
     </row>
     <row r="363">
-      <c r="B363" s="12"/>
+      <c r="B363" s="11"/>
       <c r="D363" s="4"/>
-      <c r="F363" s="12"/>
+      <c r="F363" s="11"/>
       <c r="H363" s="4"/>
     </row>
     <row r="364">
-      <c r="B364" s="12"/>
+      <c r="B364" s="11"/>
       <c r="D364" s="4"/>
-      <c r="F364" s="12"/>
+      <c r="F364" s="11"/>
       <c r="H364" s="4"/>
     </row>
     <row r="365">
-      <c r="B365" s="12"/>
+      <c r="B365" s="11"/>
       <c r="D365" s="4"/>
-      <c r="F365" s="12"/>
+      <c r="F365" s="11"/>
       <c r="H365" s="4"/>
     </row>
     <row r="366">
-      <c r="B366" s="12"/>
+      <c r="B366" s="11"/>
       <c r="D366" s="4"/>
-      <c r="F366" s="12"/>
+      <c r="F366" s="11"/>
       <c r="H366" s="4"/>
     </row>
     <row r="367">
-      <c r="B367" s="12"/>
+      <c r="B367" s="11"/>
       <c r="D367" s="4"/>
-      <c r="F367" s="12"/>
+      <c r="F367" s="11"/>
       <c r="H367" s="4"/>
     </row>
     <row r="368">
-      <c r="B368" s="12"/>
+      <c r="B368" s="11"/>
       <c r="D368" s="4"/>
-      <c r="F368" s="12"/>
+      <c r="F368" s="11"/>
       <c r="H368" s="4"/>
     </row>
     <row r="369">
-      <c r="B369" s="12"/>
+      <c r="B369" s="11"/>
       <c r="D369" s="4"/>
-      <c r="F369" s="12"/>
+      <c r="F369" s="11"/>
       <c r="H369" s="4"/>
     </row>
     <row r="370">
-      <c r="B370" s="12"/>
+      <c r="B370" s="11"/>
       <c r="D370" s="4"/>
-      <c r="F370" s="12"/>
+      <c r="F370" s="11"/>
       <c r="H370" s="4"/>
     </row>
     <row r="371">
-      <c r="B371" s="12"/>
+      <c r="B371" s="11"/>
       <c r="D371" s="4"/>
-      <c r="F371" s="12"/>
+      <c r="F371" s="11"/>
       <c r="H371" s="4"/>
     </row>
     <row r="372">
-      <c r="B372" s="12"/>
+      <c r="B372" s="11"/>
       <c r="D372" s="4"/>
-      <c r="F372" s="12"/>
+      <c r="F372" s="11"/>
       <c r="H372" s="4"/>
     </row>
     <row r="373">
-      <c r="B373" s="12"/>
+      <c r="B373" s="11"/>
       <c r="D373" s="4"/>
-      <c r="F373" s="12"/>
+      <c r="F373" s="11"/>
       <c r="H373" s="4"/>
     </row>
     <row r="374">
-      <c r="B374" s="12"/>
+      <c r="B374" s="11"/>
       <c r="D374" s="4"/>
-      <c r="F374" s="12"/>
+      <c r="F374" s="11"/>
       <c r="H374" s="4"/>
     </row>
     <row r="375">
-      <c r="B375" s="12"/>
+      <c r="B375" s="11"/>
       <c r="D375" s="4"/>
-      <c r="F375" s="12"/>
+      <c r="F375" s="11"/>
       <c r="H375" s="4"/>
     </row>
     <row r="376">
-      <c r="B376" s="12"/>
+      <c r="B376" s="11"/>
       <c r="D376" s="4"/>
-      <c r="F376" s="12"/>
+      <c r="F376" s="11"/>
       <c r="H376" s="4"/>
     </row>
     <row r="377">
-      <c r="B377" s="12"/>
+      <c r="B377" s="11"/>
       <c r="D377" s="4"/>
-      <c r="F377" s="12"/>
+      <c r="F377" s="11"/>
       <c r="H377" s="4"/>
     </row>
     <row r="378">
-      <c r="B378" s="12"/>
+      <c r="B378" s="11"/>
       <c r="D378" s="4"/>
-      <c r="F378" s="12"/>
+      <c r="F378" s="11"/>
       <c r="H378" s="4"/>
     </row>
     <row r="379">
-      <c r="B379" s="12"/>
+      <c r="B379" s="11"/>
       <c r="D379" s="4"/>
-      <c r="F379" s="12"/>
+      <c r="F379" s="11"/>
       <c r="H379" s="4"/>
     </row>
     <row r="380">
-      <c r="B380" s="12"/>
+      <c r="B380" s="11"/>
       <c r="D380" s="4"/>
-      <c r="F380" s="12"/>
+      <c r="F380" s="11"/>
       <c r="H380" s="4"/>
     </row>
     <row r="381">
-      <c r="B381" s="12"/>
+      <c r="B381" s="11"/>
       <c r="D381" s="4"/>
-      <c r="F381" s="12"/>
+      <c r="F381" s="11"/>
       <c r="H381" s="4"/>
     </row>
     <row r="382">
-      <c r="B382" s="12"/>
+      <c r="B382" s="11"/>
       <c r="D382" s="4"/>
-      <c r="F382" s="12"/>
+      <c r="F382" s="11"/>
       <c r="H382" s="4"/>
     </row>
     <row r="383">
-      <c r="B383" s="12"/>
+      <c r="B383" s="11"/>
       <c r="D383" s="4"/>
-      <c r="F383" s="12"/>
+      <c r="F383" s="11"/>
       <c r="H383" s="4"/>
     </row>
     <row r="384">
-      <c r="B384" s="12"/>
+      <c r="B384" s="11"/>
       <c r="D384" s="4"/>
-      <c r="F384" s="12"/>
+      <c r="F384" s="11"/>
       <c r="H384" s="4"/>
     </row>
     <row r="385">
-      <c r="B385" s="12"/>
+      <c r="B385" s="11"/>
       <c r="D385" s="4"/>
-      <c r="F385" s="12"/>
+      <c r="F385" s="11"/>
       <c r="H385" s="4"/>
     </row>
     <row r="386">
-      <c r="B386" s="12"/>
+      <c r="B386" s="11"/>
       <c r="D386" s="4"/>
-      <c r="F386" s="12"/>
+      <c r="F386" s="11"/>
       <c r="H386" s="4"/>
     </row>
     <row r="387">
-      <c r="B387" s="12"/>
+      <c r="B387" s="11"/>
       <c r="D387" s="4"/>
-      <c r="F387" s="12"/>
+      <c r="F387" s="11"/>
       <c r="H387" s="4"/>
     </row>
     <row r="388">
-      <c r="B388" s="12"/>
+      <c r="B388" s="11"/>
       <c r="D388" s="4"/>
-      <c r="F388" s="12"/>
+      <c r="F388" s="11"/>
       <c r="H388" s="4"/>
     </row>
     <row r="389">
-      <c r="B389" s="12"/>
+      <c r="B389" s="11"/>
       <c r="D389" s="4"/>
-      <c r="F389" s="12"/>
+      <c r="F389" s="11"/>
       <c r="H389" s="4"/>
     </row>
     <row r="390">
-      <c r="B390" s="12"/>
+      <c r="B390" s="11"/>
       <c r="D390" s="4"/>
-      <c r="F390" s="12"/>
+      <c r="F390" s="11"/>
       <c r="H390" s="4"/>
     </row>
     <row r="391">
-      <c r="B391" s="12"/>
+      <c r="B391" s="11"/>
       <c r="D391" s="4"/>
-      <c r="F391" s="12"/>
+      <c r="F391" s="11"/>
       <c r="H391" s="4"/>
     </row>
     <row r="392">
-      <c r="B392" s="12"/>
+      <c r="B392" s="11"/>
       <c r="D392" s="4"/>
-      <c r="F392" s="12"/>
+      <c r="F392" s="11"/>
       <c r="H392" s="4"/>
     </row>
     <row r="393">
-      <c r="B393" s="12"/>
+      <c r="B393" s="11"/>
       <c r="D393" s="4"/>
-      <c r="F393" s="12"/>
+      <c r="F393" s="11"/>
       <c r="H393" s="4"/>
     </row>
     <row r="394">
-      <c r="B394" s="12"/>
+      <c r="B394" s="11"/>
       <c r="D394" s="4"/>
-      <c r="F394" s="12"/>
+      <c r="F394" s="11"/>
       <c r="H394" s="4"/>
     </row>
     <row r="395">
-      <c r="B395" s="12"/>
+      <c r="B395" s="11"/>
       <c r="D395" s="4"/>
-      <c r="F395" s="12"/>
+      <c r="F395" s="11"/>
       <c r="H395" s="4"/>
     </row>
     <row r="396">
-      <c r="B396" s="12"/>
+      <c r="B396" s="11"/>
       <c r="D396" s="4"/>
-      <c r="F396" s="12"/>
+      <c r="F396" s="11"/>
       <c r="H396" s="4"/>
     </row>
     <row r="397">
-      <c r="B397" s="12"/>
+      <c r="B397" s="11"/>
       <c r="D397" s="4"/>
-      <c r="F397" s="12"/>
+      <c r="F397" s="11"/>
       <c r="H397" s="4"/>
     </row>
     <row r="398">
-      <c r="B398" s="12"/>
+      <c r="B398" s="11"/>
       <c r="D398" s="4"/>
-      <c r="F398" s="12"/>
+      <c r="F398" s="11"/>
       <c r="H398" s="4"/>
     </row>
     <row r="399">
-      <c r="B399" s="12"/>
+      <c r="B399" s="11"/>
       <c r="D399" s="4"/>
-      <c r="F399" s="12"/>
+      <c r="F399" s="11"/>
       <c r="H399" s="4"/>
     </row>
     <row r="400">
-      <c r="B400" s="12"/>
+      <c r="B400" s="11"/>
       <c r="D400" s="4"/>
-      <c r="F400" s="12"/>
+      <c r="F400" s="11"/>
       <c r="H400" s="4"/>
     </row>
     <row r="401">
-      <c r="B401" s="12"/>
+      <c r="B401" s="11"/>
       <c r="D401" s="4"/>
-      <c r="F401" s="12"/>
+      <c r="F401" s="11"/>
       <c r="H401" s="4"/>
     </row>
     <row r="402">
-      <c r="B402" s="12"/>
+      <c r="B402" s="11"/>
       <c r="D402" s="4"/>
-      <c r="F402" s="12"/>
+      <c r="F402" s="11"/>
       <c r="H402" s="4"/>
     </row>
     <row r="403">
-      <c r="B403" s="12"/>
+      <c r="B403" s="11"/>
       <c r="D403" s="4"/>
-      <c r="F403" s="12"/>
+      <c r="F403" s="11"/>
       <c r="H403" s="4"/>
     </row>
     <row r="404">
-      <c r="B404" s="12"/>
+      <c r="B404" s="11"/>
       <c r="D404" s="4"/>
-      <c r="F404" s="12"/>
+      <c r="F404" s="11"/>
       <c r="H404" s="4"/>
     </row>
     <row r="405">
-      <c r="B405" s="12"/>
+      <c r="B405" s="11"/>
       <c r="D405" s="4"/>
-      <c r="F405" s="12"/>
+      <c r="F405" s="11"/>
       <c r="H405" s="4"/>
     </row>
     <row r="406">
-      <c r="B406" s="12"/>
+      <c r="B406" s="11"/>
       <c r="D406" s="4"/>
-      <c r="F406" s="12"/>
+      <c r="F406" s="11"/>
       <c r="H406" s="4"/>
     </row>
     <row r="407">
-      <c r="B407" s="12"/>
+      <c r="B407" s="11"/>
       <c r="D407" s="4"/>
-      <c r="F407" s="12"/>
+      <c r="F407" s="11"/>
       <c r="H407" s="4"/>
     </row>
     <row r="408">
-      <c r="B408" s="12"/>
+      <c r="B408" s="11"/>
       <c r="D408" s="4"/>
-      <c r="F408" s="12"/>
+      <c r="F408" s="11"/>
       <c r="H408" s="4"/>
     </row>
     <row r="409">
-      <c r="B409" s="12"/>
+      <c r="B409" s="11"/>
       <c r="D409" s="4"/>
-      <c r="F409" s="12"/>
+      <c r="F409" s="11"/>
       <c r="H409" s="4"/>
     </row>
     <row r="410">
-      <c r="B410" s="12"/>
+      <c r="B410" s="11"/>
       <c r="D410" s="4"/>
-      <c r="F410" s="12"/>
+      <c r="F410" s="11"/>
       <c r="H410" s="4"/>
     </row>
     <row r="411">
-      <c r="B411" s="12"/>
+      <c r="B411" s="11"/>
       <c r="D411" s="4"/>
-      <c r="F411" s="12"/>
+      <c r="F411" s="11"/>
       <c r="H411" s="4"/>
     </row>
     <row r="412">
-      <c r="B412" s="12"/>
+      <c r="B412" s="11"/>
       <c r="D412" s="4"/>
-      <c r="F412" s="12"/>
+      <c r="F412" s="11"/>
       <c r="H412" s="4"/>
     </row>
     <row r="413">
-      <c r="B413" s="12"/>
+      <c r="B413" s="11"/>
       <c r="D413" s="4"/>
-      <c r="F413" s="12"/>
+      <c r="F413" s="11"/>
       <c r="H413" s="4"/>
     </row>
     <row r="414">
-      <c r="B414" s="12"/>
+      <c r="B414" s="11"/>
       <c r="D414" s="4"/>
-      <c r="F414" s="12"/>
+      <c r="F414" s="11"/>
       <c r="H414" s="4"/>
     </row>
     <row r="415">
-      <c r="B415" s="12"/>
+      <c r="B415" s="11"/>
       <c r="D415" s="4"/>
-      <c r="F415" s="12"/>
+      <c r="F415" s="11"/>
       <c r="H415" s="4"/>
     </row>
     <row r="416">
-      <c r="B416" s="12"/>
+      <c r="B416" s="11"/>
       <c r="D416" s="4"/>
-      <c r="F416" s="12"/>
+      <c r="F416" s="11"/>
       <c r="H416" s="4"/>
     </row>
     <row r="417">
-      <c r="B417" s="12"/>
+      <c r="B417" s="11"/>
       <c r="D417" s="4"/>
-      <c r="F417" s="12"/>
+      <c r="F417" s="11"/>
       <c r="H417" s="4"/>
     </row>
     <row r="418">
-      <c r="B418" s="12"/>
+      <c r="B418" s="11"/>
       <c r="D418" s="4"/>
-      <c r="F418" s="12"/>
+      <c r="F418" s="11"/>
       <c r="H418" s="4"/>
     </row>
     <row r="419">
-      <c r="B419" s="12"/>
+      <c r="B419" s="11"/>
       <c r="D419" s="4"/>
-      <c r="F419" s="12"/>
+      <c r="F419" s="11"/>
       <c r="H419" s="4"/>
     </row>
     <row r="420">
-      <c r="B420" s="12"/>
+      <c r="B420" s="11"/>
       <c r="D420" s="4"/>
-      <c r="F420" s="12"/>
+      <c r="F420" s="11"/>
       <c r="H420" s="4"/>
     </row>
     <row r="421">
-      <c r="B421" s="12"/>
+      <c r="B421" s="11"/>
       <c r="D421" s="4"/>
-      <c r="F421" s="12"/>
+      <c r="F421" s="11"/>
       <c r="H421" s="4"/>
     </row>
     <row r="422">
-      <c r="B422" s="12"/>
+      <c r="B422" s="11"/>
       <c r="D422" s="4"/>
-      <c r="F422" s="12"/>
+      <c r="F422" s="11"/>
       <c r="H422" s="4"/>
     </row>
     <row r="423">
-      <c r="B423" s="12"/>
+      <c r="B423" s="11"/>
       <c r="D423" s="4"/>
-      <c r="F423" s="12"/>
+      <c r="F423" s="11"/>
       <c r="H423" s="4"/>
     </row>
     <row r="424">
-      <c r="B424" s="12"/>
+      <c r="B424" s="11"/>
       <c r="D424" s="4"/>
-      <c r="F424" s="12"/>
+      <c r="F424" s="11"/>
       <c r="H424" s="4"/>
     </row>
     <row r="425">
-      <c r="B425" s="12"/>
+      <c r="B425" s="11"/>
       <c r="D425" s="4"/>
-      <c r="F425" s="12"/>
+      <c r="F425" s="11"/>
       <c r="H425" s="4"/>
     </row>
     <row r="426">
-      <c r="B426" s="12"/>
+      <c r="B426" s="11"/>
       <c r="D426" s="4"/>
-      <c r="F426" s="12"/>
+      <c r="F426" s="11"/>
       <c r="H426" s="4"/>
     </row>
     <row r="427">
-      <c r="B427" s="12"/>
+      <c r="B427" s="11"/>
       <c r="D427" s="4"/>
-      <c r="F427" s="12"/>
+      <c r="F427" s="11"/>
       <c r="H427" s="4"/>
     </row>
     <row r="428">
-      <c r="B428" s="12"/>
+      <c r="B428" s="11"/>
       <c r="D428" s="4"/>
-      <c r="F428" s="12"/>
+      <c r="F428" s="11"/>
       <c r="H428" s="4"/>
     </row>
     <row r="429">
-      <c r="B429" s="12"/>
+      <c r="B429" s="11"/>
       <c r="D429" s="4"/>
-      <c r="F429" s="12"/>
+      <c r="F429" s="11"/>
       <c r="H429" s="4"/>
     </row>
     <row r="430">
-      <c r="B430" s="12"/>
+      <c r="B430" s="11"/>
       <c r="D430" s="4"/>
-      <c r="F430" s="12"/>
+      <c r="F430" s="11"/>
       <c r="H430" s="4"/>
     </row>
     <row r="431">
-      <c r="B431" s="12"/>
+      <c r="B431" s="11"/>
       <c r="D431" s="4"/>
-      <c r="F431" s="12"/>
+      <c r="F431" s="11"/>
       <c r="H431" s="4"/>
     </row>
     <row r="432">
-      <c r="B432" s="12"/>
+      <c r="B432" s="11"/>
       <c r="D432" s="4"/>
-      <c r="F432" s="12"/>
+      <c r="F432" s="11"/>
       <c r="H432" s="4"/>
     </row>
     <row r="433">
-      <c r="B433" s="12"/>
+      <c r="B433" s="11"/>
       <c r="D433" s="4"/>
-      <c r="F433" s="12"/>
+      <c r="F433" s="11"/>
       <c r="H433" s="4"/>
     </row>
     <row r="434">
-      <c r="B434" s="12"/>
+      <c r="B434" s="11"/>
       <c r="D434" s="4"/>
-      <c r="F434" s="12"/>
+      <c r="F434" s="11"/>
       <c r="H434" s="4"/>
     </row>
     <row r="435">
-      <c r="B435" s="12"/>
+      <c r="B435" s="11"/>
       <c r="D435" s="4"/>
-      <c r="F435" s="12"/>
+      <c r="F435" s="11"/>
       <c r="H435" s="4"/>
     </row>
     <row r="436">
-      <c r="B436" s="12"/>
+      <c r="B436" s="11"/>
       <c r="D436" s="4"/>
-      <c r="F436" s="12"/>
+      <c r="F436" s="11"/>
       <c r="H436" s="4"/>
     </row>
     <row r="437">
-      <c r="B437" s="12"/>
+      <c r="B437" s="11"/>
       <c r="D437" s="4"/>
-      <c r="F437" s="12"/>
+      <c r="F437" s="11"/>
       <c r="H437" s="4"/>
     </row>
     <row r="438">
-      <c r="B438" s="12"/>
+      <c r="B438" s="11"/>
       <c r="D438" s="4"/>
-      <c r="F438" s="12"/>
+      <c r="F438" s="11"/>
       <c r="H438" s="4"/>
     </row>
     <row r="439">
-      <c r="B439" s="12"/>
+      <c r="B439" s="11"/>
       <c r="D439" s="4"/>
-      <c r="F439" s="12"/>
+      <c r="F439" s="11"/>
       <c r="H439" s="4"/>
     </row>
     <row r="440">
-      <c r="B440" s="12"/>
+      <c r="B440" s="11"/>
       <c r="D440" s="4"/>
-      <c r="F440" s="12"/>
+      <c r="F440" s="11"/>
       <c r="H440" s="4"/>
     </row>
     <row r="441">
-      <c r="B441" s="12"/>
+      <c r="B441" s="11"/>
       <c r="D441" s="4"/>
-      <c r="F441" s="12"/>
+      <c r="F441" s="11"/>
       <c r="H441" s="4"/>
     </row>
     <row r="442">
-      <c r="B442" s="12"/>
+      <c r="B442" s="11"/>
       <c r="D442" s="4"/>
-      <c r="F442" s="12"/>
+      <c r="F442" s="11"/>
       <c r="H442" s="4"/>
     </row>
     <row r="443">
-      <c r="B443" s="12"/>
+      <c r="B443" s="11"/>
       <c r="D443" s="4"/>
-      <c r="F443" s="12"/>
+      <c r="F443" s="11"/>
       <c r="H443" s="4"/>
     </row>
     <row r="444">
-      <c r="B444" s="12"/>
+      <c r="B444" s="11"/>
       <c r="D444" s="4"/>
-      <c r="F444" s="12"/>
+      <c r="F444" s="11"/>
       <c r="H444" s="4"/>
     </row>
     <row r="445">
-      <c r="B445" s="12"/>
+      <c r="B445" s="11"/>
       <c r="D445" s="4"/>
-      <c r="F445" s="12"/>
+      <c r="F445" s="11"/>
       <c r="H445" s="4"/>
     </row>
     <row r="446">
-      <c r="B446" s="12"/>
+      <c r="B446" s="11"/>
       <c r="D446" s="4"/>
-      <c r="F446" s="12"/>
+      <c r="F446" s="11"/>
       <c r="H446" s="4"/>
     </row>
     <row r="447">
-      <c r="B447" s="12"/>
+      <c r="B447" s="11"/>
       <c r="D447" s="4"/>
-      <c r="F447" s="12"/>
+      <c r="F447" s="11"/>
       <c r="H447" s="4"/>
     </row>
     <row r="448">
-      <c r="B448" s="12"/>
+      <c r="B448" s="11"/>
       <c r="D448" s="4"/>
-      <c r="F448" s="12"/>
+      <c r="F448" s="11"/>
       <c r="H448" s="4"/>
     </row>
     <row r="449">
-      <c r="B449" s="12"/>
+      <c r="B449" s="11"/>
       <c r="D449" s="4"/>
-      <c r="F449" s="12"/>
+      <c r="F449" s="11"/>
       <c r="H449" s="4"/>
     </row>
     <row r="450">
-      <c r="B450" s="12"/>
+      <c r="B450" s="11"/>
       <c r="D450" s="4"/>
-      <c r="F450" s="12"/>
+      <c r="F450" s="11"/>
       <c r="H450" s="4"/>
     </row>
     <row r="451">
-      <c r="B451" s="12"/>
+      <c r="B451" s="11"/>
       <c r="D451" s="4"/>
-      <c r="F451" s="12"/>
+      <c r="F451" s="11"/>
       <c r="H451" s="4"/>
     </row>
     <row r="452">
-      <c r="B452" s="12"/>
+      <c r="B452" s="11"/>
       <c r="D452" s="4"/>
-      <c r="F452" s="12"/>
+      <c r="F452" s="11"/>
       <c r="H452" s="4"/>
     </row>
     <row r="453">
-      <c r="B453" s="12"/>
+      <c r="B453" s="11"/>
       <c r="D453" s="4"/>
-      <c r="F453" s="12"/>
+      <c r="F453" s="11"/>
       <c r="H453" s="4"/>
     </row>
     <row r="454">
-      <c r="B454" s="12"/>
+      <c r="B454" s="11"/>
       <c r="D454" s="4"/>
-      <c r="F454" s="12"/>
+      <c r="F454" s="11"/>
       <c r="H454" s="4"/>
     </row>
     <row r="455">
-      <c r="B455" s="12"/>
+      <c r="B455" s="11"/>
       <c r="D455" s="4"/>
-      <c r="F455" s="12"/>
+      <c r="F455" s="11"/>
       <c r="H455" s="4"/>
     </row>
     <row r="456">
-      <c r="B456" s="12"/>
+      <c r="B456" s="11"/>
       <c r="D456" s="4"/>
-      <c r="F456" s="12"/>
+      <c r="F456" s="11"/>
       <c r="H456" s="4"/>
     </row>
     <row r="457">
-      <c r="B457" s="12"/>
+      <c r="B457" s="11"/>
       <c r="D457" s="4"/>
-      <c r="F457" s="12"/>
+      <c r="F457" s="11"/>
       <c r="H457" s="4"/>
     </row>
     <row r="458">
-      <c r="B458" s="12"/>
+      <c r="B458" s="11"/>
       <c r="D458" s="4"/>
-      <c r="F458" s="12"/>
+      <c r="F458" s="11"/>
       <c r="H458" s="4"/>
     </row>
     <row r="459">
-      <c r="B459" s="12"/>
+      <c r="B459" s="11"/>
       <c r="D459" s="4"/>
-      <c r="F459" s="12"/>
+      <c r="F459" s="11"/>
       <c r="H459" s="4"/>
     </row>
     <row r="460">
-      <c r="B460" s="12"/>
+      <c r="B460" s="11"/>
       <c r="D460" s="4"/>
-      <c r="F460" s="12"/>
+      <c r="F460" s="11"/>
       <c r="H460" s="4"/>
     </row>
     <row r="461">
-      <c r="B461" s="12"/>
+      <c r="B461" s="11"/>
       <c r="D461" s="4"/>
-      <c r="F461" s="12"/>
+      <c r="F461" s="11"/>
       <c r="H461" s="4"/>
     </row>
     <row r="462">
-      <c r="B462" s="12"/>
+      <c r="B462" s="11"/>
       <c r="D462" s="4"/>
-      <c r="F462" s="12"/>
+      <c r="F462" s="11"/>
       <c r="H462" s="4"/>
     </row>
     <row r="463">
-      <c r="B463" s="12"/>
+      <c r="B463" s="11"/>
       <c r="D463" s="4"/>
-      <c r="F463" s="12"/>
+      <c r="F463" s="11"/>
       <c r="H463" s="4"/>
     </row>
     <row r="464">
-      <c r="B464" s="12"/>
+      <c r="B464" s="11"/>
       <c r="D464" s="4"/>
-      <c r="F464" s="12"/>
+      <c r="F464" s="11"/>
       <c r="H464" s="4"/>
     </row>
     <row r="465">
-      <c r="B465" s="12"/>
+      <c r="B465" s="11"/>
       <c r="D465" s="4"/>
-      <c r="F465" s="12"/>
+      <c r="F465" s="11"/>
       <c r="H465" s="4"/>
     </row>
     <row r="466">
-      <c r="B466" s="12"/>
+      <c r="B466" s="11"/>
       <c r="D466" s="4"/>
-      <c r="F466" s="12"/>
+      <c r="F466" s="11"/>
       <c r="H466" s="4"/>
     </row>
     <row r="467">
-      <c r="B467" s="12"/>
+      <c r="B467" s="11"/>
       <c r="D467" s="4"/>
-      <c r="F467" s="12"/>
+      <c r="F467" s="11"/>
       <c r="H467" s="4"/>
     </row>
     <row r="468">
-      <c r="B468" s="12"/>
+      <c r="B468" s="11"/>
       <c r="D468" s="4"/>
-      <c r="F468" s="12"/>
+      <c r="F468" s="11"/>
       <c r="H468" s="4"/>
     </row>
     <row r="469">
-      <c r="B469" s="12"/>
+      <c r="B469" s="11"/>
       <c r="D469" s="4"/>
-      <c r="F469" s="12"/>
+      <c r="F469" s="11"/>
       <c r="H469" s="4"/>
     </row>
     <row r="470">
-      <c r="B470" s="12"/>
+      <c r="B470" s="11"/>
       <c r="D470" s="4"/>
-      <c r="F470" s="12"/>
+      <c r="F470" s="11"/>
       <c r="H470" s="4"/>
     </row>
     <row r="471">
-      <c r="B471" s="12"/>
+      <c r="B471" s="11"/>
       <c r="D471" s="4"/>
-      <c r="F471" s="12"/>
+      <c r="F471" s="11"/>
       <c r="H471" s="4"/>
     </row>
     <row r="472">
-      <c r="B472" s="12"/>
+      <c r="B472" s="11"/>
       <c r="D472" s="4"/>
-      <c r="F472" s="12"/>
+      <c r="F472" s="11"/>
       <c r="H472" s="4"/>
     </row>
     <row r="473">
-      <c r="B473" s="12"/>
+      <c r="B473" s="11"/>
       <c r="D473" s="4"/>
-      <c r="F473" s="12"/>
+      <c r="F473" s="11"/>
       <c r="H473" s="4"/>
     </row>
     <row r="474">
-      <c r="B474" s="12"/>
+      <c r="B474" s="11"/>
       <c r="D474" s="4"/>
-      <c r="F474" s="12"/>
+      <c r="F474" s="11"/>
       <c r="H474" s="4"/>
     </row>
     <row r="475">
-      <c r="B475" s="12"/>
+      <c r="B475" s="11"/>
       <c r="D475" s="4"/>
-      <c r="F475" s="12"/>
+      <c r="F475" s="11"/>
       <c r="H475" s="4"/>
     </row>
     <row r="476">
-      <c r="B476" s="12"/>
+      <c r="B476" s="11"/>
       <c r="D476" s="4"/>
-      <c r="F476" s="12"/>
+      <c r="F476" s="11"/>
       <c r="H476" s="4"/>
     </row>
     <row r="477">
-      <c r="B477" s="12"/>
+      <c r="B477" s="11"/>
       <c r="D477" s="4"/>
-      <c r="F477" s="12"/>
+      <c r="F477" s="11"/>
       <c r="H477" s="4"/>
     </row>
     <row r="478">
-      <c r="B478" s="12"/>
+      <c r="B478" s="11"/>
       <c r="D478" s="4"/>
-      <c r="F478" s="12"/>
+      <c r="F478" s="11"/>
       <c r="H478" s="4"/>
     </row>
     <row r="479">
-      <c r="B479" s="12"/>
+      <c r="B479" s="11"/>
       <c r="D479" s="4"/>
-      <c r="F479" s="12"/>
+      <c r="F479" s="11"/>
       <c r="H479" s="4"/>
     </row>
     <row r="480">
-      <c r="B480" s="12"/>
+      <c r="B480" s="11"/>
       <c r="D480" s="4"/>
-      <c r="F480" s="12"/>
+      <c r="F480" s="11"/>
       <c r="H480" s="4"/>
     </row>
     <row r="481">
-      <c r="B481" s="12"/>
+      <c r="B481" s="11"/>
       <c r="D481" s="4"/>
-      <c r="F481" s="12"/>
+      <c r="F481" s="11"/>
       <c r="H481" s="4"/>
     </row>
     <row r="482">
-      <c r="B482" s="12"/>
+      <c r="B482" s="11"/>
       <c r="D482" s="4"/>
-      <c r="F482" s="12"/>
+      <c r="F482" s="11"/>
       <c r="H482" s="4"/>
     </row>
     <row r="483">
-      <c r="B483" s="12"/>
+      <c r="B483" s="11"/>
       <c r="D483" s="4"/>
-      <c r="F483" s="12"/>
+      <c r="F483" s="11"/>
       <c r="H483" s="4"/>
     </row>
     <row r="484">
-      <c r="B484" s="12"/>
+      <c r="B484" s="11"/>
       <c r="D484" s="4"/>
-      <c r="F484" s="12"/>
+      <c r="F484" s="11"/>
       <c r="H484" s="4"/>
     </row>
     <row r="485">
-      <c r="B485" s="12"/>
+      <c r="B485" s="11"/>
       <c r="D485" s="4"/>
-      <c r="F485" s="12"/>
+      <c r="F485" s="11"/>
       <c r="H485" s="4"/>
     </row>
     <row r="486">
-      <c r="B486" s="12"/>
+      <c r="B486" s="11"/>
       <c r="D486" s="4"/>
-      <c r="F486" s="12"/>
+      <c r="F486" s="11"/>
       <c r="H486" s="4"/>
     </row>
     <row r="487">
-      <c r="B487" s="12"/>
+      <c r="B487" s="11"/>
       <c r="D487" s="4"/>
-      <c r="F487" s="12"/>
+      <c r="F487" s="11"/>
       <c r="H487" s="4"/>
     </row>
     <row r="488">
-      <c r="B488" s="12"/>
+      <c r="B488" s="11"/>
       <c r="D488" s="4"/>
-      <c r="F488" s="12"/>
+      <c r="F488" s="11"/>
       <c r="H488" s="4"/>
     </row>
     <row r="489">
-      <c r="B489" s="12"/>
+      <c r="B489" s="11"/>
       <c r="D489" s="4"/>
-      <c r="F489" s="12"/>
+      <c r="F489" s="11"/>
       <c r="H489" s="4"/>
     </row>
     <row r="490">
-      <c r="B490" s="12"/>
+      <c r="B490" s="11"/>
       <c r="D490" s="4"/>
-      <c r="F490" s="12"/>
+      <c r="F490" s="11"/>
       <c r="H490" s="4"/>
     </row>
     <row r="491">
-      <c r="B491" s="12"/>
+      <c r="B491" s="11"/>
       <c r="D491" s="4"/>
-      <c r="F491" s="12"/>
+      <c r="F491" s="11"/>
       <c r="H491" s="4"/>
     </row>
     <row r="492">
-      <c r="B492" s="12"/>
+      <c r="B492" s="11"/>
       <c r="D492" s="4"/>
-      <c r="F492" s="12"/>
+      <c r="F492" s="11"/>
       <c r="H492" s="4"/>
     </row>
     <row r="493">
-      <c r="B493" s="12"/>
+      <c r="B493" s="11"/>
       <c r="D493" s="4"/>
-      <c r="F493" s="12"/>
+      <c r="F493" s="11"/>
       <c r="H493" s="4"/>
     </row>
     <row r="494">
-      <c r="B494" s="12"/>
+      <c r="B494" s="11"/>
       <c r="D494" s="4"/>
-      <c r="F494" s="12"/>
+      <c r="F494" s="11"/>
       <c r="H494" s="4"/>
     </row>
     <row r="495">
-      <c r="B495" s="12"/>
+      <c r="B495" s="11"/>
       <c r="D495" s="4"/>
-      <c r="F495" s="12"/>
+      <c r="F495" s="11"/>
       <c r="H495" s="4"/>
     </row>
     <row r="496">
-      <c r="B496" s="12"/>
+      <c r="B496" s="11"/>
       <c r="D496" s="4"/>
-      <c r="F496" s="12"/>
+      <c r="F496" s="11"/>
       <c r="H496" s="4"/>
     </row>
     <row r="497">
-      <c r="B497" s="12"/>
+      <c r="B497" s="11"/>
       <c r="D497" s="4"/>
-      <c r="F497" s="12"/>
+      <c r="F497" s="11"/>
       <c r="H497" s="4"/>
     </row>
     <row r="498">
-      <c r="B498" s="12"/>
+      <c r="B498" s="11"/>
       <c r="D498" s="4"/>
-      <c r="F498" s="12"/>
+      <c r="F498" s="11"/>
       <c r="H498" s="4"/>
     </row>
     <row r="499">
-      <c r="B499" s="12"/>
+      <c r="B499" s="11"/>
       <c r="D499" s="4"/>
-      <c r="F499" s="12"/>
+      <c r="F499" s="11"/>
       <c r="H499" s="4"/>
     </row>
     <row r="500">
-      <c r="B500" s="12"/>
+      <c r="B500" s="11"/>
       <c r="D500" s="4"/>
-      <c r="F500" s="12"/>
+      <c r="F500" s="11"/>
       <c r="H500" s="4"/>
     </row>
     <row r="501">
-      <c r="B501" s="12"/>
+      <c r="B501" s="11"/>
       <c r="D501" s="4"/>
-      <c r="F501" s="12"/>
+      <c r="F501" s="11"/>
       <c r="H501" s="4"/>
     </row>
     <row r="502">
-      <c r="B502" s="12"/>
+      <c r="B502" s="11"/>
       <c r="D502" s="4"/>
-      <c r="F502" s="12"/>
+      <c r="F502" s="11"/>
       <c r="H502" s="4"/>
     </row>
     <row r="503">
-      <c r="B503" s="12"/>
+      <c r="B503" s="11"/>
       <c r="D503" s="4"/>
-      <c r="F503" s="12"/>
+      <c r="F503" s="11"/>
       <c r="H503" s="4"/>
     </row>
     <row r="504">
-      <c r="B504" s="12"/>
+      <c r="B504" s="11"/>
       <c r="D504" s="4"/>
-      <c r="F504" s="12"/>
+      <c r="F504" s="11"/>
       <c r="H504" s="4"/>
     </row>
     <row r="505">
-      <c r="B505" s="12"/>
+      <c r="B505" s="11"/>
       <c r="D505" s="4"/>
-      <c r="F505" s="12"/>
+      <c r="F505" s="11"/>
       <c r="H505" s="4"/>
     </row>
     <row r="506">
-      <c r="B506" s="12"/>
+      <c r="B506" s="11"/>
       <c r="D506" s="4"/>
-      <c r="F506" s="12"/>
+      <c r="F506" s="11"/>
       <c r="H506" s="4"/>
     </row>
     <row r="507">
-      <c r="B507" s="12"/>
+      <c r="B507" s="11"/>
       <c r="D507" s="4"/>
-      <c r="F507" s="12"/>
+      <c r="F507" s="11"/>
       <c r="H507" s="4"/>
     </row>
     <row r="508">
-      <c r="B508" s="12"/>
+      <c r="B508" s="11"/>
       <c r="D508" s="4"/>
-      <c r="F508" s="12"/>
+      <c r="F508" s="11"/>
       <c r="H508" s="4"/>
     </row>
     <row r="509">
-      <c r="B509" s="12"/>
+      <c r="B509" s="11"/>
       <c r="D509" s="4"/>
-      <c r="F509" s="12"/>
+      <c r="F509" s="11"/>
       <c r="H509" s="4"/>
     </row>
     <row r="510">
-      <c r="B510" s="12"/>
+      <c r="B510" s="11"/>
       <c r="D510" s="4"/>
-      <c r="F510" s="12"/>
+      <c r="F510" s="11"/>
       <c r="H510" s="4"/>
     </row>
     <row r="511">
-      <c r="B511" s="12"/>
+      <c r="B511" s="11"/>
       <c r="D511" s="4"/>
-      <c r="F511" s="12"/>
+      <c r="F511" s="11"/>
       <c r="H511" s="4"/>
     </row>
     <row r="512">
-      <c r="B512" s="12"/>
+      <c r="B512" s="11"/>
       <c r="D512" s="4"/>
-      <c r="F512" s="12"/>
+      <c r="F512" s="11"/>
       <c r="H512" s="4"/>
     </row>
     <row r="513">
-      <c r="B513" s="12"/>
+      <c r="B513" s="11"/>
       <c r="D513" s="4"/>
-      <c r="F513" s="12"/>
+      <c r="F513" s="11"/>
       <c r="H513" s="4"/>
     </row>
     <row r="514">
-      <c r="B514" s="12"/>
+      <c r="B514" s="11"/>
       <c r="D514" s="4"/>
-      <c r="F514" s="12"/>
+      <c r="F514" s="11"/>
       <c r="H514" s="4"/>
     </row>
     <row r="515">
-      <c r="B515" s="12"/>
+      <c r="B515" s="11"/>
       <c r="D515" s="4"/>
-      <c r="F515" s="12"/>
+      <c r="F515" s="11"/>
       <c r="H515" s="4"/>
     </row>
     <row r="516">
-      <c r="B516" s="12"/>
+      <c r="B516" s="11"/>
       <c r="D516" s="4"/>
-      <c r="F516" s="12"/>
+      <c r="F516" s="11"/>
       <c r="H516" s="4"/>
     </row>
     <row r="517">
-      <c r="B517" s="12"/>
+      <c r="B517" s="11"/>
       <c r="D517" s="4"/>
-      <c r="F517" s="12"/>
+      <c r="F517" s="11"/>
       <c r="H517" s="4"/>
     </row>
     <row r="518">
-      <c r="B518" s="12"/>
+      <c r="B518" s="11"/>
       <c r="D518" s="4"/>
-      <c r="F518" s="12"/>
+      <c r="F518" s="11"/>
       <c r="H518" s="4"/>
     </row>
     <row r="519">
-      <c r="B519" s="12"/>
+      <c r="B519" s="11"/>
       <c r="D519" s="4"/>
-      <c r="F519" s="12"/>
+      <c r="F519" s="11"/>
       <c r="H519" s="4"/>
     </row>
     <row r="520">
-      <c r="B520" s="12"/>
+      <c r="B520" s="11"/>
       <c r="D520" s="4"/>
-      <c r="F520" s="12"/>
+      <c r="F520" s="11"/>
       <c r="H520" s="4"/>
     </row>
     <row r="521">
-      <c r="B521" s="12"/>
+      <c r="B521" s="11"/>
       <c r="D521" s="4"/>
-      <c r="F521" s="12"/>
+      <c r="F521" s="11"/>
       <c r="H521" s="4"/>
     </row>
     <row r="522">
-      <c r="B522" s="12"/>
+      <c r="B522" s="11"/>
       <c r="D522" s="4"/>
-      <c r="F522" s="12"/>
+      <c r="F522" s="11"/>
       <c r="H522" s="4"/>
     </row>
     <row r="523">
-      <c r="B523" s="12"/>
+      <c r="B523" s="11"/>
       <c r="D523" s="4"/>
-      <c r="F523" s="12"/>
+      <c r="F523" s="11"/>
       <c r="H523" s="4"/>
     </row>
     <row r="524">
-      <c r="B524" s="12"/>
+      <c r="B524" s="11"/>
       <c r="D524" s="4"/>
-      <c r="F524" s="12"/>
+      <c r="F524" s="11"/>
       <c r="H524" s="4"/>
     </row>
     <row r="525">
-      <c r="B525" s="12"/>
+      <c r="B525" s="11"/>
       <c r="D525" s="4"/>
-      <c r="F525" s="12"/>
+      <c r="F525" s="11"/>
       <c r="H525" s="4"/>
     </row>
     <row r="526">
-      <c r="B526" s="12"/>
+      <c r="B526" s="11"/>
       <c r="D526" s="4"/>
-      <c r="F526" s="12"/>
+      <c r="F526" s="11"/>
       <c r="H526" s="4"/>
     </row>
     <row r="527">
-      <c r="B527" s="12"/>
+      <c r="B527" s="11"/>
       <c r="D527" s="4"/>
-      <c r="F527" s="12"/>
+      <c r="F527" s="11"/>
       <c r="H527" s="4"/>
     </row>
     <row r="528">
-      <c r="B528" s="12"/>
+      <c r="B528" s="11"/>
       <c r="D528" s="4"/>
-      <c r="F528" s="12"/>
+      <c r="F528" s="11"/>
       <c r="H528" s="4"/>
     </row>
     <row r="529">
-      <c r="B529" s="12"/>
+      <c r="B529" s="11"/>
       <c r="D529" s="4"/>
-      <c r="F529" s="12"/>
+      <c r="F529" s="11"/>
       <c r="H529" s="4"/>
     </row>
     <row r="530">
-      <c r="B530" s="12"/>
+      <c r="B530" s="11"/>
       <c r="D530" s="4"/>
-      <c r="F530" s="12"/>
+      <c r="F530" s="11"/>
       <c r="H530" s="4"/>
     </row>
     <row r="531">
-      <c r="B531" s="12"/>
+      <c r="B531" s="11"/>
       <c r="D531" s="4"/>
-      <c r="F531" s="12"/>
+      <c r="F531" s="11"/>
       <c r="H531" s="4"/>
     </row>
     <row r="532">
-      <c r="B532" s="12"/>
+      <c r="B532" s="11"/>
       <c r="D532" s="4"/>
-      <c r="F532" s="12"/>
+      <c r="F532" s="11"/>
       <c r="H532" s="4"/>
     </row>
     <row r="533">
-      <c r="B533" s="12"/>
+      <c r="B533" s="11"/>
       <c r="D533" s="4"/>
-      <c r="F533" s="12"/>
+      <c r="F533" s="11"/>
       <c r="H533" s="4"/>
     </row>
     <row r="534">
-      <c r="B534" s="12"/>
+      <c r="B534" s="11"/>
       <c r="D534" s="4"/>
-      <c r="F534" s="12"/>
+      <c r="F534" s="11"/>
       <c r="H534" s="4"/>
     </row>
     <row r="535">
-      <c r="B535" s="12"/>
+      <c r="B535" s="11"/>
       <c r="D535" s="4"/>
-      <c r="F535" s="12"/>
+      <c r="F535" s="11"/>
       <c r="H535" s="4"/>
     </row>
     <row r="536">
-      <c r="B536" s="12"/>
+      <c r="B536" s="11"/>
       <c r="D536" s="4"/>
-      <c r="F536" s="12"/>
+      <c r="F536" s="11"/>
       <c r="H536" s="4"/>
     </row>
     <row r="537">
-      <c r="B537" s="12"/>
+      <c r="B537" s="11"/>
       <c r="D537" s="4"/>
-      <c r="F537" s="12"/>
+      <c r="F537" s="11"/>
       <c r="H537" s="4"/>
     </row>
     <row r="538">
-      <c r="B538" s="12"/>
+      <c r="B538" s="11"/>
       <c r="D538" s="4"/>
-      <c r="F538" s="12"/>
+      <c r="F538" s="11"/>
       <c r="H538" s="4"/>
     </row>
     <row r="539">
-      <c r="B539" s="12"/>
+      <c r="B539" s="11"/>
       <c r="D539" s="4"/>
-      <c r="F539" s="12"/>
+      <c r="F539" s="11"/>
       <c r="H539" s="4"/>
     </row>
     <row r="540">
-      <c r="B540" s="12"/>
+      <c r="B540" s="11"/>
       <c r="D540" s="4"/>
-      <c r="F540" s="12"/>
+      <c r="F540" s="11"/>
       <c r="H540" s="4"/>
     </row>
     <row r="541">
-      <c r="B541" s="12"/>
+      <c r="B541" s="11"/>
       <c r="D541" s="4"/>
-      <c r="F541" s="12"/>
+      <c r="F541" s="11"/>
       <c r="H541" s="4"/>
     </row>
     <row r="542">
-      <c r="B542" s="12"/>
+      <c r="B542" s="11"/>
       <c r="D542" s="4"/>
-      <c r="F542" s="12"/>
+      <c r="F542" s="11"/>
       <c r="H542" s="4"/>
     </row>
     <row r="543">
-      <c r="B543" s="12"/>
+      <c r="B543" s="11"/>
       <c r="D543" s="4"/>
-      <c r="F543" s="12"/>
+      <c r="F543" s="11"/>
       <c r="H543" s="4"/>
     </row>
     <row r="544">
-      <c r="B544" s="12"/>
+      <c r="B544" s="11"/>
       <c r="D544" s="4"/>
-      <c r="F544" s="12"/>
+      <c r="F544" s="11"/>
       <c r="H544" s="4"/>
     </row>
     <row r="545">
-      <c r="B545" s="12"/>
+      <c r="B545" s="11"/>
       <c r="D545" s="4"/>
-      <c r="F545" s="12"/>
+      <c r="F545" s="11"/>
       <c r="H545" s="4"/>
     </row>
     <row r="546">
-      <c r="B546" s="12"/>
+      <c r="B546" s="11"/>
       <c r="D546" s="4"/>
-      <c r="F546" s="12"/>
+      <c r="F546" s="11"/>
       <c r="H546" s="4"/>
     </row>
     <row r="547">
-      <c r="B547" s="12"/>
+      <c r="B547" s="11"/>
       <c r="D547" s="4"/>
-      <c r="F547" s="12"/>
+      <c r="F547" s="11"/>
       <c r="H547" s="4"/>
     </row>
     <row r="548">
-      <c r="B548" s="12"/>
+      <c r="B548" s="11"/>
       <c r="D548" s="4"/>
-      <c r="F548" s="12"/>
+      <c r="F548" s="11"/>
       <c r="H548" s="4"/>
     </row>
     <row r="549">
-      <c r="B549" s="12"/>
+      <c r="B549" s="11"/>
       <c r="D549" s="4"/>
-      <c r="F549" s="12"/>
+      <c r="F549" s="11"/>
       <c r="H549" s="4"/>
     </row>
     <row r="550">
-      <c r="B550" s="12"/>
+      <c r="B550" s="11"/>
       <c r="D550" s="4"/>
-      <c r="F550" s="12"/>
+      <c r="F550" s="11"/>
       <c r="H550" s="4"/>
     </row>
     <row r="551">
-      <c r="B551" s="12"/>
+      <c r="B551" s="11"/>
       <c r="D551" s="4"/>
-      <c r="F551" s="12"/>
+      <c r="F551" s="11"/>
       <c r="H551" s="4"/>
     </row>
     <row r="552">
-      <c r="B552" s="12"/>
+      <c r="B552" s="11"/>
       <c r="D552" s="4"/>
-      <c r="F552" s="12"/>
+      <c r="F552" s="11"/>
       <c r="H552" s="4"/>
     </row>
     <row r="553">
-      <c r="B553" s="12"/>
+      <c r="B553" s="11"/>
       <c r="D553" s="4"/>
-      <c r="F553" s="12"/>
+      <c r="F553" s="11"/>
       <c r="H553" s="4"/>
     </row>
     <row r="554">
-      <c r="B554" s="12"/>
+      <c r="B554" s="11"/>
       <c r="D554" s="4"/>
-      <c r="F554" s="12"/>
+      <c r="F554" s="11"/>
       <c r="H554" s="4"/>
     </row>
     <row r="555">
-      <c r="B555" s="12"/>
+      <c r="B555" s="11"/>
       <c r="D555" s="4"/>
-      <c r="F555" s="12"/>
+      <c r="F555" s="11"/>
       <c r="H555" s="4"/>
     </row>
     <row r="556">
-      <c r="B556" s="12"/>
+      <c r="B556" s="11"/>
       <c r="D556" s="4"/>
-      <c r="F556" s="12"/>
+      <c r="F556" s="11"/>
       <c r="H556" s="4"/>
     </row>
     <row r="557">
-      <c r="B557" s="12"/>
+      <c r="B557" s="11"/>
       <c r="D557" s="4"/>
-      <c r="F557" s="12"/>
+      <c r="F557" s="11"/>
       <c r="H557" s="4"/>
     </row>
     <row r="558">
-      <c r="B558" s="12"/>
+      <c r="B558" s="11"/>
       <c r="D558" s="4"/>
-      <c r="F558" s="12"/>
+      <c r="F558" s="11"/>
       <c r="H558" s="4"/>
     </row>
     <row r="559">
-      <c r="B559" s="12"/>
+      <c r="B559" s="11"/>
       <c r="D559" s="4"/>
-      <c r="F559" s="12"/>
+      <c r="F559" s="11"/>
       <c r="H559" s="4"/>
     </row>
     <row r="560">
-      <c r="B560" s="12"/>
+      <c r="B560" s="11"/>
       <c r="D560" s="4"/>
-      <c r="F560" s="12"/>
+      <c r="F560" s="11"/>
       <c r="H560" s="4"/>
     </row>
     <row r="561">
-      <c r="B561" s="12"/>
+      <c r="B561" s="11"/>
       <c r="D561" s="4"/>
-      <c r="F561" s="12"/>
+      <c r="F561" s="11"/>
       <c r="H561" s="4"/>
     </row>
     <row r="562">
-      <c r="B562" s="12"/>
+      <c r="B562" s="11"/>
       <c r="D562" s="4"/>
-      <c r="F562" s="12"/>
+      <c r="F562" s="11"/>
       <c r="H562" s="4"/>
     </row>
     <row r="563">
-      <c r="B563" s="12"/>
+      <c r="B563" s="11"/>
       <c r="D563" s="4"/>
-      <c r="F563" s="12"/>
+      <c r="F563" s="11"/>
       <c r="H563" s="4"/>
     </row>
     <row r="564">
-      <c r="B564" s="12"/>
+      <c r="B564" s="11"/>
       <c r="D564" s="4"/>
-      <c r="F564" s="12"/>
+      <c r="F564" s="11"/>
       <c r="H564" s="4"/>
     </row>
     <row r="565">
-      <c r="B565" s="12"/>
+      <c r="B565" s="11"/>
       <c r="D565" s="4"/>
-      <c r="F565" s="12"/>
+      <c r="F565" s="11"/>
       <c r="H565" s="4"/>
     </row>
     <row r="566">
-      <c r="B566" s="12"/>
+      <c r="B566" s="11"/>
       <c r="D566" s="4"/>
-      <c r="F566" s="12"/>
+      <c r="F566" s="11"/>
       <c r="H566" s="4"/>
     </row>
     <row r="567">
-      <c r="B567" s="12"/>
+      <c r="B567" s="11"/>
       <c r="D567" s="4"/>
-      <c r="F567" s="12"/>
+      <c r="F567" s="11"/>
       <c r="H567" s="4"/>
     </row>
     <row r="568">
-      <c r="B568" s="12"/>
+      <c r="B568" s="11"/>
       <c r="D568" s="4"/>
-      <c r="F568" s="12"/>
+      <c r="F568" s="11"/>
       <c r="H568" s="4"/>
     </row>
     <row r="569">
-      <c r="B569" s="12"/>
+      <c r="B569" s="11"/>
       <c r="D569" s="4"/>
-      <c r="F569" s="12"/>
+      <c r="F569" s="11"/>
       <c r="H569" s="4"/>
     </row>
     <row r="570">
-      <c r="B570" s="12"/>
+      <c r="B570" s="11"/>
       <c r="D570" s="4"/>
-      <c r="F570" s="12"/>
+      <c r="F570" s="11"/>
       <c r="H570" s="4"/>
     </row>
     <row r="571">
-      <c r="B571" s="12"/>
+      <c r="B571" s="11"/>
       <c r="D571" s="4"/>
-      <c r="F571" s="12"/>
+      <c r="F571" s="11"/>
       <c r="H571" s="4"/>
     </row>
     <row r="572">
-      <c r="B572" s="12"/>
+      <c r="B572" s="11"/>
       <c r="D572" s="4"/>
-      <c r="F572" s="12"/>
+      <c r="F572" s="11"/>
       <c r="H572" s="4"/>
     </row>
     <row r="573">
-      <c r="B573" s="12"/>
+      <c r="B573" s="11"/>
       <c r="D573" s="4"/>
-      <c r="F573" s="12"/>
+      <c r="F573" s="11"/>
       <c r="H573" s="4"/>
     </row>
     <row r="574">
-      <c r="B574" s="12"/>
+      <c r="B574" s="11"/>
       <c r="D574" s="4"/>
-      <c r="F574" s="12"/>
+      <c r="F574" s="11"/>
       <c r="H574" s="4"/>
     </row>
     <row r="575">
-      <c r="B575" s="12"/>
+      <c r="B575" s="11"/>
       <c r="D575" s="4"/>
-      <c r="F575" s="12"/>
+      <c r="F575" s="11"/>
       <c r="H575" s="4"/>
     </row>
     <row r="576">
-      <c r="B576" s="12"/>
+      <c r="B576" s="11"/>
       <c r="D576" s="4"/>
-      <c r="F576" s="12"/>
+      <c r="F576" s="11"/>
       <c r="H576" s="4"/>
     </row>
     <row r="577">
-      <c r="B577" s="12"/>
+      <c r="B577" s="11"/>
       <c r="D577" s="4"/>
-      <c r="F577" s="12"/>
+      <c r="F577" s="11"/>
       <c r="H577" s="4"/>
     </row>
     <row r="578">
-      <c r="B578" s="12"/>
+      <c r="B578" s="11"/>
       <c r="D578" s="4"/>
-      <c r="F578" s="12"/>
+      <c r="F578" s="11"/>
       <c r="H578" s="4"/>
     </row>
     <row r="579">
-      <c r="B579" s="12"/>
+      <c r="B579" s="11"/>
       <c r="D579" s="4"/>
-      <c r="F579" s="12"/>
+      <c r="F579" s="11"/>
       <c r="H579" s="4"/>
     </row>
     <row r="580">
-      <c r="B580" s="12"/>
+      <c r="B580" s="11"/>
       <c r="D580" s="4"/>
-      <c r="F580" s="12"/>
+      <c r="F580" s="11"/>
       <c r="H580" s="4"/>
     </row>
     <row r="581">
-      <c r="B581" s="12"/>
+      <c r="B581" s="11"/>
       <c r="D581" s="4"/>
-      <c r="F581" s="12"/>
+      <c r="F581" s="11"/>
       <c r="H581" s="4"/>
     </row>
     <row r="582">
-      <c r="B582" s="12"/>
+      <c r="B582" s="11"/>
       <c r="D582" s="4"/>
-      <c r="F582" s="12"/>
+      <c r="F582" s="11"/>
       <c r="H582" s="4"/>
     </row>
     <row r="583">
-      <c r="B583" s="12"/>
+      <c r="B583" s="11"/>
       <c r="D583" s="4"/>
-      <c r="F583" s="12"/>
+      <c r="F583" s="11"/>
       <c r="H583" s="4"/>
     </row>
     <row r="584">
-      <c r="B584" s="12"/>
+      <c r="B584" s="11"/>
       <c r="D584" s="4"/>
-      <c r="F584" s="12"/>
+      <c r="F584" s="11"/>
       <c r="H584" s="4"/>
     </row>
     <row r="585">
-      <c r="B585" s="12"/>
+      <c r="B585" s="11"/>
       <c r="D585" s="4"/>
-      <c r="F585" s="12"/>
+      <c r="F585" s="11"/>
       <c r="H585" s="4"/>
     </row>
     <row r="586">
-      <c r="B586" s="12"/>
+      <c r="B586" s="11"/>
       <c r="D586" s="4"/>
-      <c r="F586" s="12"/>
+      <c r="F586" s="11"/>
       <c r="H586" s="4"/>
     </row>
     <row r="587">
-      <c r="B587" s="12"/>
+      <c r="B587" s="11"/>
       <c r="D587" s="4"/>
-      <c r="F587" s="12"/>
+      <c r="F587" s="11"/>
       <c r="H587" s="4"/>
     </row>
     <row r="588">
-      <c r="B588" s="12"/>
+      <c r="B588" s="11"/>
       <c r="D588" s="4"/>
-      <c r="F588" s="12"/>
+      <c r="F588" s="11"/>
       <c r="H588" s="4"/>
     </row>
     <row r="589">
-      <c r="B589" s="12"/>
+      <c r="B589" s="11"/>
       <c r="D589" s="4"/>
-      <c r="F589" s="12"/>
+      <c r="F589" s="11"/>
       <c r="H589" s="4"/>
     </row>
     <row r="590">
-      <c r="B590" s="12"/>
+      <c r="B590" s="11"/>
       <c r="D590" s="4"/>
-      <c r="F590" s="12"/>
+      <c r="F590" s="11"/>
       <c r="H590" s="4"/>
     </row>
     <row r="591">
-      <c r="B591" s="12"/>
+      <c r="B591" s="11"/>
       <c r="D591" s="4"/>
-      <c r="F591" s="12"/>
+      <c r="F591" s="11"/>
       <c r="H591" s="4"/>
     </row>
     <row r="592">
-      <c r="B592" s="12"/>
+      <c r="B592" s="11"/>
       <c r="D592" s="4"/>
-      <c r="F592" s="12"/>
+      <c r="F592" s="11"/>
       <c r="H592" s="4"/>
     </row>
     <row r="593">
-      <c r="B593" s="12"/>
+      <c r="B593" s="11"/>
       <c r="D593" s="4"/>
-      <c r="F593" s="12"/>
+      <c r="F593" s="11"/>
       <c r="H593" s="4"/>
     </row>
     <row r="594">
-      <c r="B594" s="12"/>
+      <c r="B594" s="11"/>
       <c r="D594" s="4"/>
-      <c r="F594" s="12"/>
+      <c r="F594" s="11"/>
       <c r="H594" s="4"/>
     </row>
     <row r="595">
-      <c r="B595" s="12"/>
+      <c r="B595" s="11"/>
       <c r="D595" s="4"/>
-      <c r="F595" s="12"/>
+      <c r="F595" s="11"/>
       <c r="H595" s="4"/>
     </row>
     <row r="596">
-      <c r="B596" s="12"/>
+      <c r="B596" s="11"/>
       <c r="D596" s="4"/>
-      <c r="F596" s="12"/>
+      <c r="F596" s="11"/>
       <c r="H596" s="4"/>
     </row>
     <row r="597">
-      <c r="B597" s="12"/>
+      <c r="B597" s="11"/>
       <c r="D597" s="4"/>
-      <c r="F597" s="12"/>
+      <c r="F597" s="11"/>
       <c r="H597" s="4"/>
     </row>
     <row r="598">
-      <c r="B598" s="12"/>
+      <c r="B598" s="11"/>
       <c r="D598" s="4"/>
-      <c r="F598" s="12"/>
+      <c r="F598" s="11"/>
       <c r="H598" s="4"/>
     </row>
     <row r="599">
-      <c r="B599" s="12"/>
+      <c r="B599" s="11"/>
       <c r="D599" s="4"/>
-      <c r="F599" s="12"/>
+      <c r="F599" s="11"/>
       <c r="H599" s="4"/>
     </row>
     <row r="600">
-      <c r="B600" s="12"/>
+      <c r="B600" s="11"/>
       <c r="D600" s="4"/>
-      <c r="F600" s="12"/>
+      <c r="F600" s="11"/>
       <c r="H600" s="4"/>
     </row>
     <row r="601">
-      <c r="B601" s="12"/>
+      <c r="B601" s="11"/>
       <c r="D601" s="4"/>
-      <c r="F601" s="12"/>
+      <c r="F601" s="11"/>
       <c r="H601" s="4"/>
     </row>
     <row r="602">
-      <c r="B602" s="12"/>
+      <c r="B602" s="11"/>
       <c r="D602" s="4"/>
-      <c r="F602" s="12"/>
+      <c r="F602" s="11"/>
       <c r="H602" s="4"/>
     </row>
     <row r="603">
-      <c r="B603" s="12"/>
+      <c r="B603" s="11"/>
       <c r="D603" s="4"/>
-      <c r="F603" s="12"/>
+      <c r="F603" s="11"/>
       <c r="H603" s="4"/>
     </row>
     <row r="604">
-      <c r="B604" s="12"/>
+      <c r="B604" s="11"/>
       <c r="D604" s="4"/>
-      <c r="F604" s="12"/>
+      <c r="F604" s="11"/>
       <c r="H604" s="4"/>
     </row>
     <row r="605">
-      <c r="B605" s="12"/>
+      <c r="B605" s="11"/>
       <c r="D605" s="4"/>
-      <c r="F605" s="12"/>
+      <c r="F605" s="11"/>
       <c r="H605" s="4"/>
     </row>
     <row r="606">
-      <c r="B606" s="12"/>
+      <c r="B606" s="11"/>
       <c r="D606" s="4"/>
-      <c r="F606" s="12"/>
+      <c r="F606" s="11"/>
       <c r="H606" s="4"/>
     </row>
     <row r="607">
-      <c r="B607" s="12"/>
+      <c r="B607" s="11"/>
       <c r="D607" s="4"/>
-      <c r="F607" s="12"/>
+      <c r="F607" s="11"/>
       <c r="H607" s="4"/>
     </row>
     <row r="608">
-      <c r="B608" s="12"/>
+      <c r="B608" s="11"/>
       <c r="D608" s="4"/>
-      <c r="F608" s="12"/>
+      <c r="F608" s="11"/>
       <c r="H608" s="4"/>
     </row>
     <row r="609">
-      <c r="B609" s="12"/>
+      <c r="B609" s="11"/>
       <c r="D609" s="4"/>
-      <c r="F609" s="12"/>
+      <c r="F609" s="11"/>
       <c r="H609" s="4"/>
     </row>
     <row r="610">
-      <c r="B610" s="12"/>
+      <c r="B610" s="11"/>
       <c r="D610" s="4"/>
-      <c r="F610" s="12"/>
+      <c r="F610" s="11"/>
       <c r="H610" s="4"/>
     </row>
     <row r="611">
-      <c r="B611" s="12"/>
+      <c r="B611" s="11"/>
       <c r="D611" s="4"/>
-      <c r="F611" s="12"/>
+      <c r="F611" s="11"/>
       <c r="H611" s="4"/>
     </row>
     <row r="612">
-      <c r="B612" s="12"/>
+      <c r="B612" s="11"/>
       <c r="D612" s="4"/>
-      <c r="F612" s="12"/>
+      <c r="F612" s="11"/>
       <c r="H612" s="4"/>
     </row>
     <row r="613">
-      <c r="B613" s="12"/>
+      <c r="B613" s="11"/>
       <c r="D613" s="4"/>
-      <c r="F613" s="12"/>
+      <c r="F613" s="11"/>
       <c r="H613" s="4"/>
     </row>
     <row r="614">
-      <c r="B614" s="12"/>
+      <c r="B614" s="11"/>
       <c r="D614" s="4"/>
-      <c r="F614" s="12"/>
+      <c r="F614" s="11"/>
       <c r="H614" s="4"/>
     </row>
     <row r="615">
-      <c r="B615" s="12"/>
+      <c r="B615" s="11"/>
       <c r="D615" s="4"/>
-      <c r="F615" s="12"/>
+      <c r="F615" s="11"/>
       <c r="H615" s="4"/>
     </row>
     <row r="616">
-      <c r="B616" s="12"/>
+      <c r="B616" s="11"/>
       <c r="D616" s="4"/>
-      <c r="F616" s="12"/>
+      <c r="F616" s="11"/>
       <c r="H616" s="4"/>
     </row>
     <row r="617">
-      <c r="B617" s="12"/>
+      <c r="B617" s="11"/>
       <c r="D617" s="4"/>
-      <c r="F617" s="12"/>
+      <c r="F617" s="11"/>
       <c r="H617" s="4"/>
     </row>
     <row r="618">
-      <c r="B618" s="12"/>
+      <c r="B618" s="11"/>
       <c r="D618" s="4"/>
-      <c r="F618" s="12"/>
+      <c r="F618" s="11"/>
       <c r="H618" s="4"/>
     </row>
     <row r="619">
-      <c r="B619" s="12"/>
+      <c r="B619" s="11"/>
       <c r="D619" s="4"/>
-      <c r="F619" s="12"/>
+      <c r="F619" s="11"/>
       <c r="H619" s="4"/>
     </row>
     <row r="620">
-      <c r="B620" s="12"/>
+      <c r="B620" s="11"/>
       <c r="D620" s="4"/>
-      <c r="F620" s="12"/>
+      <c r="F620" s="11"/>
       <c r="H620" s="4"/>
     </row>
     <row r="621">
-      <c r="B621" s="12"/>
+      <c r="B621" s="11"/>
       <c r="D621" s="4"/>
-      <c r="F621" s="12"/>
+      <c r="F621" s="11"/>
       <c r="H621" s="4"/>
     </row>
     <row r="622">
-      <c r="B622" s="12"/>
+      <c r="B622" s="11"/>
       <c r="D622" s="4"/>
-      <c r="F622" s="12"/>
+      <c r="F622" s="11"/>
       <c r="H622" s="4"/>
     </row>
     <row r="623">
-      <c r="B623" s="12"/>
+      <c r="B623" s="11"/>
       <c r="D623" s="4"/>
-      <c r="F623" s="12"/>
+      <c r="F623" s="11"/>
       <c r="H623" s="4"/>
     </row>
     <row r="624">
-      <c r="B624" s="12"/>
+      <c r="B624" s="11"/>
       <c r="D624" s="4"/>
-      <c r="F624" s="12"/>
+      <c r="F624" s="11"/>
       <c r="H624" s="4"/>
     </row>
     <row r="625">
-      <c r="B625" s="12"/>
+      <c r="B625" s="11"/>
       <c r="D625" s="4"/>
-      <c r="F625" s="12"/>
+      <c r="F625" s="11"/>
       <c r="H625" s="4"/>
     </row>
     <row r="626">
-      <c r="B626" s="12"/>
+      <c r="B626" s="11"/>
       <c r="D626" s="4"/>
-      <c r="F626" s="12"/>
+      <c r="F626" s="11"/>
       <c r="H626" s="4"/>
     </row>
     <row r="627">
-      <c r="B627" s="12"/>
+      <c r="B627" s="11"/>
       <c r="D627" s="4"/>
-      <c r="F627" s="12"/>
+      <c r="F627" s="11"/>
       <c r="H627" s="4"/>
     </row>
     <row r="628">
-      <c r="B628" s="12"/>
+      <c r="B628" s="11"/>
       <c r="D628" s="4"/>
-      <c r="F628" s="12"/>
+      <c r="F628" s="11"/>
       <c r="H628" s="4"/>
     </row>
     <row r="629">
-      <c r="B629" s="12"/>
+      <c r="B629" s="11"/>
       <c r="D629" s="4"/>
-      <c r="F629" s="12"/>
+      <c r="F629" s="11"/>
       <c r="H629" s="4"/>
     </row>
     <row r="630">
-      <c r="B630" s="12"/>
+      <c r="B630" s="11"/>
       <c r="D630" s="4"/>
-      <c r="F630" s="12"/>
+      <c r="F630" s="11"/>
       <c r="H630" s="4"/>
     </row>
     <row r="631">
-      <c r="B631" s="12"/>
+      <c r="B631" s="11"/>
       <c r="D631" s="4"/>
-      <c r="F631" s="12"/>
+      <c r="F631" s="11"/>
       <c r="H631" s="4"/>
     </row>
     <row r="632">
-      <c r="B632" s="12"/>
+      <c r="B632" s="11"/>
       <c r="D632" s="4"/>
-      <c r="F632" s="12"/>
+      <c r="F632" s="11"/>
       <c r="H632" s="4"/>
     </row>
     <row r="633">
-      <c r="B633" s="12"/>
+      <c r="B633" s="11"/>
       <c r="D633" s="4"/>
-      <c r="F633" s="12"/>
+      <c r="F633" s="11"/>
       <c r="H633" s="4"/>
     </row>
     <row r="634">
-      <c r="B634" s="12"/>
+      <c r="B634" s="11"/>
       <c r="D634" s="4"/>
-      <c r="F634" s="12"/>
+      <c r="F634" s="11"/>
       <c r="H634" s="4"/>
     </row>
     <row r="635">
-      <c r="B635" s="12"/>
+      <c r="B635" s="11"/>
       <c r="D635" s="4"/>
-      <c r="F635" s="12"/>
+      <c r="F635" s="11"/>
       <c r="H635" s="4"/>
     </row>
     <row r="636">
-      <c r="B636" s="12"/>
+      <c r="B636" s="11"/>
       <c r="D636" s="4"/>
-      <c r="F636" s="12"/>
+      <c r="F636" s="11"/>
       <c r="H636" s="4"/>
     </row>
     <row r="637">
-      <c r="B637" s="12"/>
+      <c r="B637" s="11"/>
       <c r="D637" s="4"/>
-      <c r="F637" s="12"/>
+      <c r="F637" s="11"/>
       <c r="H637" s="4"/>
     </row>
     <row r="638">
-      <c r="B638" s="12"/>
+      <c r="B638" s="11"/>
       <c r="D638" s="4"/>
-      <c r="F638" s="12"/>
+      <c r="F638" s="11"/>
       <c r="H638" s="4"/>
     </row>
     <row r="639">
-      <c r="B639" s="12"/>
+      <c r="B639" s="11"/>
       <c r="D639" s="4"/>
-      <c r="F639" s="12"/>
+      <c r="F639" s="11"/>
       <c r="H639" s="4"/>
     </row>
     <row r="640">
-      <c r="B640" s="12"/>
+      <c r="B640" s="11"/>
       <c r="D640" s="4"/>
-      <c r="F640" s="12"/>
+      <c r="F640" s="11"/>
       <c r="H640" s="4"/>
     </row>
     <row r="641">
-      <c r="B641" s="12"/>
+      <c r="B641" s="11"/>
       <c r="D641" s="4"/>
-      <c r="F641" s="12"/>
+      <c r="F641" s="11"/>
       <c r="H641" s="4"/>
     </row>
     <row r="642">
-      <c r="B642" s="12"/>
+      <c r="B642" s="11"/>
       <c r="D642" s="4"/>
-      <c r="F642" s="12"/>
+      <c r="F642" s="11"/>
       <c r="H642" s="4"/>
     </row>
     <row r="643">
-      <c r="B643" s="12"/>
+      <c r="B643" s="11"/>
       <c r="D643" s="4"/>
-      <c r="F643" s="12"/>
+      <c r="F643" s="11"/>
       <c r="H643" s="4"/>
     </row>
     <row r="644">
-      <c r="B644" s="12"/>
+      <c r="B644" s="11"/>
       <c r="D644" s="4"/>
-      <c r="F644" s="12"/>
+      <c r="F644" s="11"/>
       <c r="H644" s="4"/>
     </row>
     <row r="645">
-      <c r="B645" s="12"/>
+      <c r="B645" s="11"/>
       <c r="D645" s="4"/>
-      <c r="F645" s="12"/>
+      <c r="F645" s="11"/>
       <c r="H645" s="4"/>
     </row>
     <row r="646">
-      <c r="B646" s="12"/>
+      <c r="B646" s="11"/>
       <c r="D646" s="4"/>
-      <c r="F646" s="12"/>
+      <c r="F646" s="11"/>
       <c r="H646" s="4"/>
     </row>
     <row r="647">
-      <c r="B647" s="12"/>
+      <c r="B647" s="11"/>
       <c r="D647" s="4"/>
-      <c r="F647" s="12"/>
+      <c r="F647" s="11"/>
       <c r="H647" s="4"/>
     </row>
     <row r="648">
-      <c r="B648" s="12"/>
+      <c r="B648" s="11"/>
       <c r="D648" s="4"/>
-      <c r="F648" s="12"/>
+      <c r="F648" s="11"/>
       <c r="H648" s="4"/>
     </row>
     <row r="649">
-      <c r="B649" s="12"/>
+      <c r="B649" s="11"/>
       <c r="D649" s="4"/>
-      <c r="F649" s="12"/>
+      <c r="F649" s="11"/>
       <c r="H649" s="4"/>
     </row>
     <row r="650">
-      <c r="B650" s="12"/>
+      <c r="B650" s="11"/>
       <c r="D650" s="4"/>
-      <c r="F650" s="12"/>
+      <c r="F650" s="11"/>
       <c r="H650" s="4"/>
     </row>
     <row r="651">
-      <c r="B651" s="12"/>
+      <c r="B651" s="11"/>
       <c r="D651" s="4"/>
-      <c r="F651" s="12"/>
+      <c r="F651" s="11"/>
       <c r="H651" s="4"/>
     </row>
     <row r="652">
-      <c r="B652" s="12"/>
+      <c r="B652" s="11"/>
       <c r="D652" s="4"/>
-      <c r="F652" s="12"/>
+      <c r="F652" s="11"/>
       <c r="H652" s="4"/>
     </row>
     <row r="653">
-      <c r="B653" s="12"/>
+      <c r="B653" s="11"/>
       <c r="D653" s="4"/>
-      <c r="F653" s="12"/>
+      <c r="F653" s="11"/>
       <c r="H653" s="4"/>
     </row>
     <row r="654">
-      <c r="B654" s="12"/>
+      <c r="B654" s="11"/>
       <c r="D654" s="4"/>
-      <c r="F654" s="12"/>
+      <c r="F654" s="11"/>
       <c r="H654" s="4"/>
     </row>
     <row r="655">
-      <c r="B655" s="12"/>
+      <c r="B655" s="11"/>
       <c r="D655" s="4"/>
-      <c r="F655" s="12"/>
+      <c r="F655" s="11"/>
       <c r="H655" s="4"/>
     </row>
     <row r="656">
-      <c r="B656" s="12"/>
+      <c r="B656" s="11"/>
       <c r="D656" s="4"/>
-      <c r="F656" s="12"/>
+      <c r="F656" s="11"/>
       <c r="H656" s="4"/>
     </row>
     <row r="657">
-      <c r="B657" s="12"/>
+      <c r="B657" s="11"/>
       <c r="D657" s="4"/>
-      <c r="F657" s="12"/>
+      <c r="F657" s="11"/>
       <c r="H657" s="4"/>
     </row>
     <row r="658">
-      <c r="B658" s="12"/>
+      <c r="B658" s="11"/>
       <c r="D658" s="4"/>
-      <c r="F658" s="12"/>
+      <c r="F658" s="11"/>
       <c r="H658" s="4"/>
     </row>
     <row r="659">
-      <c r="B659" s="12"/>
+      <c r="B659" s="11"/>
       <c r="D659" s="4"/>
-      <c r="F659" s="12"/>
+      <c r="F659" s="11"/>
       <c r="H659" s="4"/>
     </row>
     <row r="660">
-      <c r="B660" s="12"/>
+      <c r="B660" s="11"/>
       <c r="D660" s="4"/>
-      <c r="F660" s="12"/>
+      <c r="F660" s="11"/>
       <c r="H660" s="4"/>
     </row>
     <row r="661">
-      <c r="B661" s="12"/>
+      <c r="B661" s="11"/>
       <c r="D661" s="4"/>
-      <c r="F661" s="12"/>
+      <c r="F661" s="11"/>
       <c r="H661" s="4"/>
     </row>
     <row r="662">
-      <c r="B662" s="12"/>
+      <c r="B662" s="11"/>
       <c r="D662" s="4"/>
-      <c r="F662" s="12"/>
+      <c r="F662" s="11"/>
       <c r="H662" s="4"/>
     </row>
     <row r="663">
-      <c r="B663" s="12"/>
+      <c r="B663" s="11"/>
       <c r="D663" s="4"/>
-      <c r="F663" s="12"/>
+      <c r="F663" s="11"/>
       <c r="H663" s="4"/>
     </row>
     <row r="664">
-      <c r="B664" s="12"/>
+      <c r="B664" s="11"/>
       <c r="D664" s="4"/>
-      <c r="F664" s="12"/>
+      <c r="F664" s="11"/>
       <c r="H664" s="4"/>
     </row>
     <row r="665">
-      <c r="B665" s="12"/>
+      <c r="B665" s="11"/>
       <c r="D665" s="4"/>
-      <c r="F665" s="12"/>
+      <c r="F665" s="11"/>
       <c r="H665" s="4"/>
     </row>
     <row r="666">
-      <c r="B666" s="12"/>
+      <c r="B666" s="11"/>
       <c r="D666" s="4"/>
-      <c r="F666" s="12"/>
+      <c r="F666" s="11"/>
       <c r="H666" s="4"/>
     </row>
     <row r="667">
-      <c r="B667" s="12"/>
+      <c r="B667" s="11"/>
       <c r="D667" s="4"/>
-      <c r="F667" s="12"/>
+      <c r="F667" s="11"/>
       <c r="H667" s="4"/>
     </row>
     <row r="668">
-      <c r="B668" s="12"/>
+      <c r="B668" s="11"/>
       <c r="D668" s="4"/>
-      <c r="F668" s="12"/>
+      <c r="F668" s="11"/>
       <c r="H668" s="4"/>
     </row>
     <row r="669">
-      <c r="B669" s="12"/>
+      <c r="B669" s="11"/>
       <c r="D669" s="4"/>
-      <c r="F669" s="12"/>
+      <c r="F669" s="11"/>
       <c r="H669" s="4"/>
     </row>
     <row r="670">
-      <c r="B670" s="12"/>
+      <c r="B670" s="11"/>
       <c r="D670" s="4"/>
-      <c r="F670" s="12"/>
+      <c r="F670" s="11"/>
       <c r="H670" s="4"/>
     </row>
     <row r="671">
-      <c r="B671" s="12"/>
+      <c r="B671" s="11"/>
       <c r="D671" s="4"/>
-      <c r="F671" s="12"/>
+      <c r="F671" s="11"/>
       <c r="H671" s="4"/>
     </row>
     <row r="672">
-      <c r="B672" s="12"/>
+      <c r="B672" s="11"/>
       <c r="D672" s="4"/>
-      <c r="F672" s="12"/>
+      <c r="F672" s="11"/>
       <c r="H672" s="4"/>
     </row>
     <row r="673">
-      <c r="B673" s="12"/>
+      <c r="B673" s="11"/>
       <c r="D673" s="4"/>
-      <c r="F673" s="12"/>
+      <c r="F673" s="11"/>
       <c r="H673" s="4"/>
     </row>
     <row r="674">
-      <c r="B674" s="12"/>
+      <c r="B674" s="11"/>
       <c r="D674" s="4"/>
-      <c r="F674" s="12"/>
+      <c r="F674" s="11"/>
       <c r="H674" s="4"/>
     </row>
     <row r="675">
-      <c r="B675" s="12"/>
+      <c r="B675" s="11"/>
       <c r="D675" s="4"/>
-      <c r="F675" s="12"/>
+      <c r="F675" s="11"/>
       <c r="H675" s="4"/>
     </row>
     <row r="676">
-      <c r="B676" s="12"/>
+      <c r="B676" s="11"/>
       <c r="D676" s="4"/>
-      <c r="F676" s="12"/>
+      <c r="F676" s="11"/>
       <c r="H676" s="4"/>
     </row>
     <row r="677">
-      <c r="B677" s="12"/>
+      <c r="B677" s="11"/>
       <c r="D677" s="4"/>
-      <c r="F677" s="12"/>
+      <c r="F677" s="11"/>
       <c r="H677" s="4"/>
     </row>
     <row r="678">
-      <c r="B678" s="12"/>
+      <c r="B678" s="11"/>
       <c r="D678" s="4"/>
-      <c r="F678" s="12"/>
+      <c r="F678" s="11"/>
       <c r="H678" s="4"/>
     </row>
     <row r="679">
-      <c r="B679" s="12"/>
+      <c r="B679" s="11"/>
       <c r="D679" s="4"/>
-      <c r="F679" s="12"/>
+      <c r="F679" s="11"/>
       <c r="H679" s="4"/>
     </row>
     <row r="680">
-      <c r="B680" s="12"/>
+      <c r="B680" s="11"/>
       <c r="D680" s="4"/>
-      <c r="F680" s="12"/>
+      <c r="F680" s="11"/>
       <c r="H680" s="4"/>
     </row>
     <row r="681">
-      <c r="B681" s="12"/>
+      <c r="B681" s="11"/>
       <c r="D681" s="4"/>
-      <c r="F681" s="12"/>
+      <c r="F681" s="11"/>
       <c r="H681" s="4"/>
     </row>
     <row r="682">
-      <c r="B682" s="12"/>
+      <c r="B682" s="11"/>
       <c r="D682" s="4"/>
-      <c r="F682" s="12"/>
+      <c r="F682" s="11"/>
       <c r="H682" s="4"/>
     </row>
     <row r="683">
-      <c r="B683" s="12"/>
+      <c r="B683" s="11"/>
       <c r="D683" s="4"/>
-      <c r="F683" s="12"/>
+      <c r="F683" s="11"/>
       <c r="H683" s="4"/>
     </row>
     <row r="684">
-      <c r="B684" s="12"/>
+      <c r="B684" s="11"/>
       <c r="D684" s="4"/>
-      <c r="F684" s="12"/>
+      <c r="F684" s="11"/>
       <c r="H684" s="4"/>
     </row>
     <row r="685">
-      <c r="B685" s="12"/>
+      <c r="B685" s="11"/>
       <c r="D685" s="4"/>
-      <c r="F685" s="12"/>
+      <c r="F685" s="11"/>
       <c r="H685" s="4"/>
     </row>
     <row r="686">
-      <c r="B686" s="12"/>
+      <c r="B686" s="11"/>
       <c r="D686" s="4"/>
-      <c r="F686" s="12"/>
+      <c r="F686" s="11"/>
       <c r="H686" s="4"/>
     </row>
     <row r="687">
-      <c r="B687" s="12"/>
+      <c r="B687" s="11"/>
       <c r="D687" s="4"/>
-      <c r="F687" s="12"/>
+      <c r="F687" s="11"/>
       <c r="H687" s="4"/>
     </row>
     <row r="688">
-      <c r="B688" s="12"/>
+      <c r="B688" s="11"/>
       <c r="D688" s="4"/>
-      <c r="F688" s="12"/>
+      <c r="F688" s="11"/>
       <c r="H688" s="4"/>
     </row>
     <row r="689">
-      <c r="B689" s="12"/>
+      <c r="B689" s="11"/>
       <c r="D689" s="4"/>
-      <c r="F689" s="12"/>
+      <c r="F689" s="11"/>
       <c r="H689" s="4"/>
     </row>
     <row r="690">
-      <c r="B690" s="12"/>
+      <c r="B690" s="11"/>
       <c r="D690" s="4"/>
-      <c r="F690" s="12"/>
+      <c r="F690" s="11"/>
       <c r="H690" s="4"/>
     </row>
     <row r="691">
-      <c r="B691" s="12"/>
+      <c r="B691" s="11"/>
       <c r="D691" s="4"/>
-      <c r="F691" s="12"/>
+      <c r="F691" s="11"/>
       <c r="H691" s="4"/>
     </row>
     <row r="692">
-      <c r="B692" s="12"/>
+      <c r="B692" s="11"/>
       <c r="D692" s="4"/>
-      <c r="F692" s="12"/>
+      <c r="F692" s="11"/>
       <c r="H692" s="4"/>
     </row>
     <row r="693">
-      <c r="B693" s="12"/>
+      <c r="B693" s="11"/>
       <c r="D693" s="4"/>
-      <c r="F693" s="12"/>
+      <c r="F693" s="11"/>
       <c r="H693" s="4"/>
     </row>
     <row r="694">
-      <c r="B694" s="12"/>
+      <c r="B694" s="11"/>
       <c r="D694" s="4"/>
-      <c r="F694" s="12"/>
+      <c r="F694" s="11"/>
       <c r="H694" s="4"/>
     </row>
     <row r="695">
-      <c r="B695" s="12"/>
+      <c r="B695" s="11"/>
       <c r="D695" s="4"/>
-      <c r="F695" s="12"/>
+      <c r="F695" s="11"/>
       <c r="H695" s="4"/>
     </row>
     <row r="696">
-      <c r="B696" s="12"/>
+      <c r="B696" s="11"/>
       <c r="D696" s="4"/>
-      <c r="F696" s="12"/>
+      <c r="F696" s="11"/>
       <c r="H696" s="4"/>
     </row>
     <row r="697">
-      <c r="B697" s="12"/>
+      <c r="B697" s="11"/>
       <c r="D697" s="4"/>
-      <c r="F697" s="12"/>
+      <c r="F697" s="11"/>
       <c r="H697" s="4"/>
     </row>
     <row r="698">
-      <c r="B698" s="12"/>
+      <c r="B698" s="11"/>
       <c r="D698" s="4"/>
-      <c r="F698" s="12"/>
+      <c r="F698" s="11"/>
       <c r="H698" s="4"/>
     </row>
     <row r="699">
-      <c r="B699" s="12"/>
+      <c r="B699" s="11"/>
       <c r="D699" s="4"/>
-      <c r="F699" s="12"/>
+      <c r="F699" s="11"/>
       <c r="H699" s="4"/>
     </row>
     <row r="700">
-      <c r="B700" s="12"/>
+      <c r="B700" s="11"/>
       <c r="D700" s="4"/>
-      <c r="F700" s="12"/>
+      <c r="F700" s="11"/>
       <c r="H700" s="4"/>
     </row>
     <row r="701">
-      <c r="B701" s="12"/>
+      <c r="B701" s="11"/>
       <c r="D701" s="4"/>
-      <c r="F701" s="12"/>
+      <c r="F701" s="11"/>
       <c r="H701" s="4"/>
     </row>
     <row r="702">
-      <c r="B702" s="12"/>
+      <c r="B702" s="11"/>
       <c r="D702" s="4"/>
-      <c r="F702" s="12"/>
+      <c r="F702" s="11"/>
       <c r="H702" s="4"/>
     </row>
     <row r="703">
-      <c r="B703" s="12"/>
+      <c r="B703" s="11"/>
       <c r="D703" s="4"/>
-      <c r="F703" s="12"/>
+      <c r="F703" s="11"/>
       <c r="H703" s="4"/>
     </row>
     <row r="704">
-      <c r="B704" s="12"/>
+      <c r="B704" s="11"/>
       <c r="D704" s="4"/>
-      <c r="F704" s="12"/>
+      <c r="F704" s="11"/>
       <c r="H704" s="4"/>
     </row>
     <row r="705">
-      <c r="B705" s="12"/>
+      <c r="B705" s="11"/>
       <c r="D705" s="4"/>
-      <c r="F705" s="12"/>
+      <c r="F705" s="11"/>
       <c r="H705" s="4"/>
     </row>
     <row r="706">
-      <c r="B706" s="12"/>
+      <c r="B706" s="11"/>
       <c r="D706" s="4"/>
-      <c r="F706" s="12"/>
+      <c r="F706" s="11"/>
       <c r="H706" s="4"/>
     </row>
     <row r="707">
-      <c r="B707" s="12"/>
+      <c r="B707" s="11"/>
       <c r="D707" s="4"/>
-      <c r="F707" s="12"/>
+      <c r="F707" s="11"/>
       <c r="H707" s="4"/>
     </row>
     <row r="708">
-      <c r="B708" s="12"/>
+      <c r="B708" s="11"/>
       <c r="D708" s="4"/>
-      <c r="F708" s="12"/>
+      <c r="F708" s="11"/>
       <c r="H708" s="4"/>
     </row>
     <row r="709">
-      <c r="B709" s="12"/>
+      <c r="B709" s="11"/>
       <c r="D709" s="4"/>
-      <c r="F709" s="12"/>
+      <c r="F709" s="11"/>
       <c r="H709" s="4"/>
     </row>
     <row r="710">
-      <c r="B710" s="12"/>
+      <c r="B710" s="11"/>
       <c r="D710" s="4"/>
-      <c r="F710" s="12"/>
+      <c r="F710" s="11"/>
       <c r="H710" s="4"/>
     </row>
     <row r="711">
-      <c r="B711" s="12"/>
+      <c r="B711" s="11"/>
       <c r="D711" s="4"/>
-      <c r="F711" s="12"/>
+      <c r="F711" s="11"/>
       <c r="H711" s="4"/>
     </row>
     <row r="712">
-      <c r="B712" s="12"/>
+      <c r="B712" s="11"/>
       <c r="D712" s="4"/>
-      <c r="F712" s="12"/>
+      <c r="F712" s="11"/>
       <c r="H712" s="4"/>
     </row>
     <row r="713">
-      <c r="B713" s="12"/>
+      <c r="B713" s="11"/>
       <c r="D713" s="4"/>
-      <c r="F713" s="12"/>
+      <c r="F713" s="11"/>
       <c r="H713" s="4"/>
     </row>
     <row r="714">
-      <c r="B714" s="12"/>
+      <c r="B714" s="11"/>
       <c r="D714" s="4"/>
-      <c r="F714" s="12"/>
+      <c r="F714" s="11"/>
       <c r="H714" s="4"/>
     </row>
     <row r="715">
-      <c r="B715" s="12"/>
+      <c r="B715" s="11"/>
       <c r="D715" s="4"/>
-      <c r="F715" s="12"/>
+      <c r="F715" s="11"/>
       <c r="H715" s="4"/>
     </row>
     <row r="716">
-      <c r="B716" s="12"/>
+      <c r="B716" s="11"/>
       <c r="D716" s="4"/>
-      <c r="F716" s="12"/>
+      <c r="F716" s="11"/>
       <c r="H716" s="4"/>
     </row>
     <row r="717">
-      <c r="B717" s="12"/>
+      <c r="B717" s="11"/>
       <c r="D717" s="4"/>
-      <c r="F717" s="12"/>
+      <c r="F717" s="11"/>
       <c r="H717" s="4"/>
     </row>
     <row r="718">
-      <c r="B718" s="12"/>
+      <c r="B718" s="11"/>
       <c r="D718" s="4"/>
-      <c r="F718" s="12"/>
+      <c r="F718" s="11"/>
       <c r="H718" s="4"/>
     </row>
     <row r="719">
-      <c r="B719" s="12"/>
+      <c r="B719" s="11"/>
       <c r="D719" s="4"/>
-      <c r="F719" s="12"/>
+      <c r="F719" s="11"/>
       <c r="H719" s="4"/>
     </row>
     <row r="720">
-      <c r="B720" s="12"/>
+      <c r="B720" s="11"/>
       <c r="D720" s="4"/>
-      <c r="F720" s="12"/>
+      <c r="F720" s="11"/>
       <c r="H720" s="4"/>
     </row>
     <row r="721">
-      <c r="B721" s="12"/>
+      <c r="B721" s="11"/>
       <c r="D721" s="4"/>
-      <c r="F721" s="12"/>
+      <c r="F721" s="11"/>
       <c r="H721" s="4"/>
     </row>
     <row r="722">
-      <c r="B722" s="12"/>
+      <c r="B722" s="11"/>
       <c r="D722" s="4"/>
-      <c r="F722" s="12"/>
+      <c r="F722" s="11"/>
       <c r="H722" s="4"/>
     </row>
     <row r="723">
-      <c r="B723" s="12"/>
+      <c r="B723" s="11"/>
       <c r="D723" s="4"/>
-      <c r="F723" s="12"/>
+      <c r="F723" s="11"/>
       <c r="H723" s="4"/>
     </row>
     <row r="724">
-      <c r="B724" s="12"/>
+      <c r="B724" s="11"/>
       <c r="D724" s="4"/>
-      <c r="F724" s="12"/>
+      <c r="F724" s="11"/>
       <c r="H724" s="4"/>
     </row>
     <row r="725">
-      <c r="B725" s="12"/>
+      <c r="B725" s="11"/>
       <c r="D725" s="4"/>
-      <c r="F725" s="12"/>
+      <c r="F725" s="11"/>
       <c r="H725" s="4"/>
     </row>
     <row r="726">
-      <c r="B726" s="12"/>
+      <c r="B726" s="11"/>
       <c r="D726" s="4"/>
-      <c r="F726" s="12"/>
+      <c r="F726" s="11"/>
       <c r="H726" s="4"/>
     </row>
     <row r="727">
-      <c r="B727" s="12"/>
+      <c r="B727" s="11"/>
       <c r="D727" s="4"/>
-      <c r="F727" s="12"/>
+      <c r="F727" s="11"/>
       <c r="H727" s="4"/>
     </row>
     <row r="728">
-      <c r="B728" s="12"/>
+      <c r="B728" s="11"/>
       <c r="D728" s="4"/>
-      <c r="F728" s="12"/>
+      <c r="F728" s="11"/>
       <c r="H728" s="4"/>
     </row>
     <row r="729">
-      <c r="B729" s="12"/>
+      <c r="B729" s="11"/>
       <c r="D729" s="4"/>
-      <c r="F729" s="12"/>
+      <c r="F729" s="11"/>
       <c r="H729" s="4"/>
     </row>
     <row r="730">
-      <c r="B730" s="12"/>
+      <c r="B730" s="11"/>
       <c r="D730" s="4"/>
-      <c r="F730" s="12"/>
+      <c r="F730" s="11"/>
       <c r="H730" s="4"/>
     </row>
     <row r="731">
-      <c r="B731" s="12"/>
+      <c r="B731" s="11"/>
       <c r="D731" s="4"/>
-      <c r="F731" s="12"/>
+      <c r="F731" s="11"/>
       <c r="H731" s="4"/>
     </row>
     <row r="732">
-      <c r="B732" s="12"/>
+      <c r="B732" s="11"/>
       <c r="D732" s="4"/>
-      <c r="F732" s="12"/>
+      <c r="F732" s="11"/>
       <c r="H732" s="4"/>
     </row>
     <row r="733">
-      <c r="B733" s="12"/>
+      <c r="B733" s="11"/>
       <c r="D733" s="4"/>
-      <c r="F733" s="12"/>
+      <c r="F733" s="11"/>
       <c r="H733" s="4"/>
     </row>
     <row r="734">
-      <c r="B734" s="12"/>
+      <c r="B734" s="11"/>
       <c r="D734" s="4"/>
-      <c r="F734" s="12"/>
+      <c r="F734" s="11"/>
       <c r="H734" s="4"/>
     </row>
     <row r="735">
-      <c r="B735" s="12"/>
+      <c r="B735" s="11"/>
       <c r="D735" s="4"/>
-      <c r="F735" s="12"/>
+      <c r="F735" s="11"/>
       <c r="H735" s="4"/>
     </row>
     <row r="736">
-      <c r="B736" s="12"/>
+      <c r="B736" s="11"/>
       <c r="D736" s="4"/>
-      <c r="F736" s="12"/>
+      <c r="F736" s="11"/>
       <c r="H736" s="4"/>
     </row>
     <row r="737">
-      <c r="B737" s="12"/>
+      <c r="B737" s="11"/>
       <c r="D737" s="4"/>
-      <c r="F737" s="12"/>
+      <c r="F737" s="11"/>
       <c r="H737" s="4"/>
     </row>
     <row r="738">
-      <c r="B738" s="12"/>
+      <c r="B738" s="11"/>
       <c r="D738" s="4"/>
-      <c r="F738" s="12"/>
+      <c r="F738" s="11"/>
       <c r="H738" s="4"/>
     </row>
     <row r="739">
-      <c r="B739" s="12"/>
+      <c r="B739" s="11"/>
       <c r="D739" s="4"/>
-      <c r="F739" s="12"/>
+      <c r="F739" s="11"/>
       <c r="H739" s="4"/>
     </row>
     <row r="740">
-      <c r="B740" s="12"/>
+      <c r="B740" s="11"/>
       <c r="D740" s="4"/>
-      <c r="F740" s="12"/>
+      <c r="F740" s="11"/>
       <c r="H740" s="4"/>
     </row>
     <row r="741">
-      <c r="B741" s="12"/>
+      <c r="B741" s="11"/>
       <c r="D741" s="4"/>
-      <c r="F741" s="12"/>
+      <c r="F741" s="11"/>
       <c r="H741" s="4"/>
     </row>
     <row r="742">
-      <c r="B742" s="12"/>
+      <c r="B742" s="11"/>
       <c r="D742" s="4"/>
-      <c r="F742" s="12"/>
+      <c r="F742" s="11"/>
       <c r="H742" s="4"/>
     </row>
     <row r="743">
-      <c r="B743" s="12"/>
+      <c r="B743" s="11"/>
       <c r="D743" s="4"/>
-      <c r="F743" s="12"/>
+      <c r="F743" s="11"/>
       <c r="H743" s="4"/>
     </row>
     <row r="744">
-      <c r="B744" s="12"/>
+      <c r="B744" s="11"/>
       <c r="D744" s="4"/>
-      <c r="F744" s="12"/>
+      <c r="F744" s="11"/>
       <c r="H744" s="4"/>
     </row>
     <row r="745">
-      <c r="B745" s="12"/>
+      <c r="B745" s="11"/>
       <c r="D745" s="4"/>
-      <c r="F745" s="12"/>
+      <c r="F745" s="11"/>
       <c r="H745" s="4"/>
     </row>
     <row r="746">
-      <c r="B746" s="12"/>
+      <c r="B746" s="11"/>
       <c r="D746" s="4"/>
-      <c r="F746" s="12"/>
+      <c r="F746" s="11"/>
       <c r="H746" s="4"/>
     </row>
     <row r="747">
-      <c r="B747" s="12"/>
+      <c r="B747" s="11"/>
       <c r="D747" s="4"/>
-      <c r="F747" s="12"/>
+      <c r="F747" s="11"/>
       <c r="H747" s="4"/>
     </row>
     <row r="748">
-      <c r="B748" s="12"/>
+      <c r="B748" s="11"/>
       <c r="D748" s="4"/>
-      <c r="F748" s="12"/>
+      <c r="F748" s="11"/>
       <c r="H748" s="4"/>
     </row>
     <row r="749">
-      <c r="B749" s="12"/>
+      <c r="B749" s="11"/>
       <c r="D749" s="4"/>
-      <c r="F749" s="12"/>
+      <c r="F749" s="11"/>
       <c r="H749" s="4"/>
     </row>
     <row r="750">
-      <c r="B750" s="12"/>
+      <c r="B750" s="11"/>
       <c r="D750" s="4"/>
-      <c r="F750" s="12"/>
+      <c r="F750" s="11"/>
       <c r="H750" s="4"/>
     </row>
     <row r="751">
-      <c r="B751" s="12"/>
+      <c r="B751" s="11"/>
       <c r="D751" s="4"/>
-      <c r="F751" s="12"/>
+      <c r="F751" s="11"/>
       <c r="H751" s="4"/>
     </row>
     <row r="752">
-      <c r="B752" s="12"/>
+      <c r="B752" s="11"/>
       <c r="D752" s="4"/>
-      <c r="F752" s="12"/>
+      <c r="F752" s="11"/>
       <c r="H752" s="4"/>
     </row>
     <row r="753">
-      <c r="B753" s="12"/>
+      <c r="B753" s="11"/>
       <c r="D753" s="4"/>
-      <c r="F753" s="12"/>
+      <c r="F753" s="11"/>
       <c r="H753" s="4"/>
     </row>
     <row r="754">
-      <c r="B754" s="12"/>
+      <c r="B754" s="11"/>
       <c r="D754" s="4"/>
-      <c r="F754" s="12"/>
+      <c r="F754" s="11"/>
       <c r="H754" s="4"/>
     </row>
     <row r="755">
-      <c r="B755" s="12"/>
+      <c r="B755" s="11"/>
       <c r="D755" s="4"/>
-      <c r="F755" s="12"/>
+      <c r="F755" s="11"/>
       <c r="H755" s="4"/>
     </row>
     <row r="756">
-      <c r="B756" s="12"/>
+      <c r="B756" s="11"/>
       <c r="D756" s="4"/>
-      <c r="F756" s="12"/>
+      <c r="F756" s="11"/>
       <c r="H756" s="4"/>
     </row>
     <row r="757">
-      <c r="B757" s="12"/>
+      <c r="B757" s="11"/>
       <c r="D757" s="4"/>
-      <c r="F757" s="12"/>
+      <c r="F757" s="11"/>
       <c r="H757" s="4"/>
     </row>
     <row r="758">
-      <c r="B758" s="12"/>
+      <c r="B758" s="11"/>
       <c r="D758" s="4"/>
-      <c r="F758" s="12"/>
+      <c r="F758" s="11"/>
       <c r="H758" s="4"/>
     </row>
     <row r="759">
-      <c r="B759" s="12"/>
+      <c r="B759" s="11"/>
       <c r="D759" s="4"/>
-      <c r="F759" s="12"/>
+      <c r="F759" s="11"/>
       <c r="H759" s="4"/>
     </row>
     <row r="760">
-      <c r="B760" s="12"/>
+      <c r="B760" s="11"/>
       <c r="D760" s="4"/>
-      <c r="F760" s="12"/>
+      <c r="F760" s="11"/>
       <c r="H760" s="4"/>
     </row>
     <row r="761">
-      <c r="B761" s="12"/>
+      <c r="B761" s="11"/>
       <c r="D761" s="4"/>
-      <c r="F761" s="12"/>
+      <c r="F761" s="11"/>
       <c r="H761" s="4"/>
     </row>
     <row r="762">
-      <c r="B762" s="12"/>
+      <c r="B762" s="11"/>
       <c r="D762" s="4"/>
-      <c r="F762" s="12"/>
+      <c r="F762" s="11"/>
       <c r="H762" s="4"/>
     </row>
     <row r="763">
-      <c r="B763" s="12"/>
+      <c r="B763" s="11"/>
       <c r="D763" s="4"/>
-      <c r="F763" s="12"/>
+      <c r="F763" s="11"/>
       <c r="H763" s="4"/>
     </row>
     <row r="764">
-      <c r="B764" s="12"/>
+      <c r="B764" s="11"/>
       <c r="D764" s="4"/>
-      <c r="F764" s="12"/>
+      <c r="F764" s="11"/>
       <c r="H764" s="4"/>
     </row>
     <row r="765">
-      <c r="B765" s="12"/>
+      <c r="B765" s="11"/>
       <c r="D765" s="4"/>
-      <c r="F765" s="12"/>
+      <c r="F765" s="11"/>
       <c r="H765" s="4"/>
     </row>
     <row r="766">
-      <c r="B766" s="12"/>
+      <c r="B766" s="11"/>
       <c r="D766" s="4"/>
-      <c r="F766" s="12"/>
+      <c r="F766" s="11"/>
       <c r="H766" s="4"/>
     </row>
     <row r="767">
-      <c r="B767" s="12"/>
+      <c r="B767" s="11"/>
       <c r="D767" s="4"/>
-      <c r="F767" s="12"/>
+      <c r="F767" s="11"/>
       <c r="H767" s="4"/>
     </row>
     <row r="768">
-      <c r="B768" s="12"/>
+      <c r="B768" s="11"/>
       <c r="D768" s="4"/>
-      <c r="F768" s="12"/>
+      <c r="F768" s="11"/>
       <c r="H768" s="4"/>
     </row>
     <row r="769">
-      <c r="B769" s="12"/>
+      <c r="B769" s="11"/>
       <c r="D769" s="4"/>
-      <c r="F769" s="12"/>
+      <c r="F769" s="11"/>
       <c r="H769" s="4"/>
     </row>
     <row r="770">
-      <c r="B770" s="12"/>
+      <c r="B770" s="11"/>
       <c r="D770" s="4"/>
-      <c r="F770" s="12"/>
+      <c r="F770" s="11"/>
       <c r="H770" s="4"/>
     </row>
     <row r="771">
-      <c r="B771" s="12"/>
+      <c r="B771" s="11"/>
       <c r="D771" s="4"/>
-      <c r="F771" s="12"/>
+      <c r="F771" s="11"/>
       <c r="H771" s="4"/>
     </row>
     <row r="772">
-      <c r="B772" s="12"/>
+      <c r="B772" s="11"/>
       <c r="D772" s="4"/>
-      <c r="F772" s="12"/>
+      <c r="F772" s="11"/>
       <c r="H772" s="4"/>
     </row>
     <row r="773">
-      <c r="B773" s="12"/>
+      <c r="B773" s="11"/>
       <c r="D773" s="4"/>
-      <c r="F773" s="12"/>
+      <c r="F773" s="11"/>
       <c r="H773" s="4"/>
     </row>
     <row r="774">
-      <c r="B774" s="12"/>
+      <c r="B774" s="11"/>
       <c r="D774" s="4"/>
-      <c r="F774" s="12"/>
+      <c r="F774" s="11"/>
       <c r="H774" s="4"/>
     </row>
     <row r="775">
-      <c r="B775" s="12"/>
+      <c r="B775" s="11"/>
       <c r="D775" s="4"/>
-      <c r="F775" s="12"/>
+      <c r="F775" s="11"/>
       <c r="H775" s="4"/>
     </row>
     <row r="776">
-      <c r="B776" s="12"/>
+      <c r="B776" s="11"/>
       <c r="D776" s="4"/>
-      <c r="F776" s="12"/>
+      <c r="F776" s="11"/>
       <c r="H776" s="4"/>
     </row>
     <row r="777">
-      <c r="B777" s="12"/>
+      <c r="B777" s="11"/>
       <c r="D777" s="4"/>
-      <c r="F777" s="12"/>
+      <c r="F777" s="11"/>
       <c r="H777" s="4"/>
     </row>
     <row r="778">
-      <c r="B778" s="12"/>
+      <c r="B778" s="11"/>
       <c r="D778" s="4"/>
-      <c r="F778" s="12"/>
+      <c r="F778" s="11"/>
       <c r="H778" s="4"/>
     </row>
     <row r="779">
-      <c r="B779" s="12"/>
+      <c r="B779" s="11"/>
       <c r="D779" s="4"/>
-      <c r="F779" s="12"/>
+      <c r="F779" s="11"/>
       <c r="H779" s="4"/>
     </row>
     <row r="780">
-      <c r="B780" s="12"/>
+      <c r="B780" s="11"/>
       <c r="D780" s="4"/>
-      <c r="F780" s="12"/>
+      <c r="F780" s="11"/>
       <c r="H780" s="4"/>
     </row>
     <row r="781">
-      <c r="B781" s="12"/>
+      <c r="B781" s="11"/>
       <c r="D781" s="4"/>
-      <c r="F781" s="12"/>
+      <c r="F781" s="11"/>
       <c r="H781" s="4"/>
     </row>
     <row r="782">
-      <c r="B782" s="12"/>
+      <c r="B782" s="11"/>
       <c r="D782" s="4"/>
-      <c r="F782" s="12"/>
+      <c r="F782" s="11"/>
       <c r="H782" s="4"/>
     </row>
     <row r="783">
-      <c r="B783" s="12"/>
+      <c r="B783" s="11"/>
       <c r="D783" s="4"/>
-      <c r="F783" s="12"/>
+      <c r="F783" s="11"/>
       <c r="H783" s="4"/>
     </row>
     <row r="784">
-      <c r="B784" s="12"/>
+      <c r="B784" s="11"/>
       <c r="D784" s="4"/>
-      <c r="F784" s="12"/>
+      <c r="F784" s="11"/>
       <c r="H784" s="4"/>
     </row>
     <row r="785">
-      <c r="B785" s="12"/>
+      <c r="B785" s="11"/>
       <c r="D785" s="4"/>
-      <c r="F785" s="12"/>
+      <c r="F785" s="11"/>
       <c r="H785" s="4"/>
     </row>
     <row r="786">
-      <c r="B786" s="12"/>
+      <c r="B786" s="11"/>
       <c r="D786" s="4"/>
-      <c r="F786" s="12"/>
+      <c r="F786" s="11"/>
       <c r="H786" s="4"/>
     </row>
     <row r="787">
-      <c r="B787" s="12"/>
+      <c r="B787" s="11"/>
       <c r="D787" s="4"/>
-      <c r="F787" s="12"/>
+      <c r="F787" s="11"/>
       <c r="H787" s="4"/>
     </row>
     <row r="788">
-      <c r="B788" s="12"/>
+      <c r="B788" s="11"/>
       <c r="D788" s="4"/>
-      <c r="F788" s="12"/>
+      <c r="F788" s="11"/>
       <c r="H788" s="4"/>
     </row>
     <row r="789">
-      <c r="B789" s="12"/>
+      <c r="B789" s="11"/>
       <c r="D789" s="4"/>
-      <c r="F789" s="12"/>
+      <c r="F789" s="11"/>
       <c r="H789" s="4"/>
     </row>
     <row r="790">
-      <c r="B790" s="12"/>
+      <c r="B790" s="11"/>
       <c r="D790" s="4"/>
-      <c r="F790" s="12"/>
+      <c r="F790" s="11"/>
       <c r="H790" s="4"/>
     </row>
     <row r="791">
-      <c r="B791" s="12"/>
+      <c r="B791" s="11"/>
       <c r="D791" s="4"/>
-      <c r="F791" s="12"/>
+      <c r="F791" s="11"/>
       <c r="H791" s="4"/>
     </row>
     <row r="792">
-      <c r="B792" s="12"/>
+      <c r="B792" s="11"/>
       <c r="D792" s="4"/>
-      <c r="F792" s="12"/>
+      <c r="F792" s="11"/>
       <c r="H792" s="4"/>
     </row>
     <row r="793">
-      <c r="B793" s="12"/>
+      <c r="B793" s="11"/>
       <c r="D793" s="4"/>
-      <c r="F793" s="12"/>
+      <c r="F793" s="11"/>
       <c r="H793" s="4"/>
     </row>
     <row r="794">
-      <c r="B794" s="12"/>
+      <c r="B794" s="11"/>
       <c r="D794" s="4"/>
-      <c r="F794" s="12"/>
+      <c r="F794" s="11"/>
       <c r="H794" s="4"/>
     </row>
     <row r="795">
-      <c r="B795" s="12"/>
+      <c r="B795" s="11"/>
       <c r="D795" s="4"/>
-      <c r="F795" s="12"/>
+      <c r="F795" s="11"/>
       <c r="H795" s="4"/>
     </row>
     <row r="796">
-      <c r="B796" s="12"/>
+      <c r="B796" s="11"/>
       <c r="D796" s="4"/>
-      <c r="F796" s="12"/>
+      <c r="F796" s="11"/>
       <c r="H796" s="4"/>
     </row>
     <row r="797">
-      <c r="B797" s="12"/>
+      <c r="B797" s="11"/>
       <c r="D797" s="4"/>
-      <c r="F797" s="12"/>
+      <c r="F797" s="11"/>
       <c r="H797" s="4"/>
     </row>
     <row r="798">
-      <c r="B798" s="12"/>
+      <c r="B798" s="11"/>
       <c r="D798" s="4"/>
-      <c r="F798" s="12"/>
+      <c r="F798" s="11"/>
       <c r="H798" s="4"/>
     </row>
     <row r="799">
-      <c r="B799" s="12"/>
+      <c r="B799" s="11"/>
       <c r="D799" s="4"/>
-      <c r="F799" s="12"/>
+      <c r="F799" s="11"/>
       <c r="H799" s="4"/>
     </row>
     <row r="800">
-      <c r="B800" s="12"/>
+      <c r="B800" s="11"/>
       <c r="D800" s="4"/>
-      <c r="F800" s="12"/>
+      <c r="F800" s="11"/>
       <c r="H800" s="4"/>
     </row>
     <row r="801">
-      <c r="B801" s="12"/>
+      <c r="B801" s="11"/>
       <c r="D801" s="4"/>
-      <c r="F801" s="12"/>
+      <c r="F801" s="11"/>
       <c r="H801" s="4"/>
     </row>
     <row r="802">
-      <c r="B802" s="12"/>
+      <c r="B802" s="11"/>
       <c r="D802" s="4"/>
-      <c r="F802" s="12"/>
+      <c r="F802" s="11"/>
       <c r="H802" s="4"/>
     </row>
     <row r="803">
-      <c r="B803" s="12"/>
+      <c r="B803" s="11"/>
       <c r="D803" s="4"/>
-      <c r="F803" s="12"/>
+      <c r="F803" s="11"/>
       <c r="H803" s="4"/>
     </row>
     <row r="804">
-      <c r="B804" s="12"/>
+      <c r="B804" s="11"/>
       <c r="D804" s="4"/>
-      <c r="F804" s="12"/>
+      <c r="F804" s="11"/>
       <c r="H804" s="4"/>
     </row>
     <row r="805">
-      <c r="B805" s="12"/>
+      <c r="B805" s="11"/>
       <c r="D805" s="4"/>
-      <c r="F805" s="12"/>
+      <c r="F805" s="11"/>
       <c r="H805" s="4"/>
     </row>
     <row r="806">
-      <c r="B806" s="12"/>
+      <c r="B806" s="11"/>
       <c r="D806" s="4"/>
-      <c r="F806" s="12"/>
+      <c r="F806" s="11"/>
       <c r="H806" s="4"/>
     </row>
     <row r="807">
-      <c r="B807" s="12"/>
+      <c r="B807" s="11"/>
       <c r="D807" s="4"/>
-      <c r="F807" s="12"/>
+      <c r="F807" s="11"/>
       <c r="H807" s="4"/>
     </row>
     <row r="808">
-      <c r="B808" s="12"/>
+      <c r="B808" s="11"/>
       <c r="D808" s="4"/>
-      <c r="F808" s="12"/>
+      <c r="F808" s="11"/>
       <c r="H808" s="4"/>
     </row>
     <row r="809">
-      <c r="B809" s="12"/>
+      <c r="B809" s="11"/>
       <c r="D809" s="4"/>
-      <c r="F809" s="12"/>
+      <c r="F809" s="11"/>
       <c r="H809" s="4"/>
     </row>
     <row r="810">
-      <c r="B810" s="12"/>
+      <c r="B810" s="11"/>
       <c r="D810" s="4"/>
-      <c r="F810" s="12"/>
+      <c r="F810" s="11"/>
       <c r="H810" s="4"/>
     </row>
     <row r="811">
-      <c r="B811" s="12"/>
+      <c r="B811" s="11"/>
       <c r="D811" s="4"/>
-      <c r="F811" s="12"/>
+      <c r="F811" s="11"/>
       <c r="H811" s="4"/>
     </row>
     <row r="812">
-      <c r="B812" s="12"/>
+      <c r="B812" s="11"/>
       <c r="D812" s="4"/>
-      <c r="F812" s="12"/>
+      <c r="F812" s="11"/>
       <c r="H812" s="4"/>
     </row>
     <row r="813">
-      <c r="B813" s="12"/>
+      <c r="B813" s="11"/>
       <c r="D813" s="4"/>
-      <c r="F813" s="12"/>
+      <c r="F813" s="11"/>
       <c r="H813" s="4"/>
     </row>
     <row r="814">
-      <c r="B814" s="12"/>
+      <c r="B814" s="11"/>
       <c r="D814" s="4"/>
-      <c r="F814" s="12"/>
+      <c r="F814" s="11"/>
       <c r="H814" s="4"/>
     </row>
     <row r="815">
-      <c r="B815" s="12"/>
+      <c r="B815" s="11"/>
       <c r="D815" s="4"/>
-      <c r="F815" s="12"/>
+      <c r="F815" s="11"/>
       <c r="H815" s="4"/>
     </row>
     <row r="816">
-      <c r="B816" s="12"/>
+      <c r="B816" s="11"/>
       <c r="D816" s="4"/>
-      <c r="F816" s="12"/>
+      <c r="F816" s="11"/>
       <c r="H816" s="4"/>
     </row>
     <row r="817">
-      <c r="B817" s="12"/>
+      <c r="B817" s="11"/>
       <c r="D817" s="4"/>
-      <c r="F817" s="12"/>
+      <c r="F817" s="11"/>
       <c r="H817" s="4"/>
     </row>
     <row r="818">
-      <c r="B818" s="12"/>
+      <c r="B818" s="11"/>
       <c r="D818" s="4"/>
-      <c r="F818" s="12"/>
+      <c r="F818" s="11"/>
       <c r="H818" s="4"/>
     </row>
     <row r="819">
-      <c r="B819" s="12"/>
+      <c r="B819" s="11"/>
       <c r="D819" s="4"/>
-      <c r="F819" s="12"/>
+      <c r="F819" s="11"/>
       <c r="H819" s="4"/>
     </row>
     <row r="820">
-      <c r="B820" s="12"/>
+      <c r="B820" s="11"/>
       <c r="D820" s="4"/>
-      <c r="F820" s="12"/>
+      <c r="F820" s="11"/>
       <c r="H820" s="4"/>
     </row>
     <row r="821">
-      <c r="B821" s="12"/>
+      <c r="B821" s="11"/>
       <c r="D821" s="4"/>
-      <c r="F821" s="12"/>
+      <c r="F821" s="11"/>
       <c r="H821" s="4"/>
     </row>
     <row r="822">
-      <c r="B822" s="12"/>
+      <c r="B822" s="11"/>
       <c r="D822" s="4"/>
-      <c r="F822" s="12"/>
+      <c r="F822" s="11"/>
       <c r="H822" s="4"/>
     </row>
     <row r="823">
-      <c r="B823" s="12"/>
+      <c r="B823" s="11"/>
       <c r="D823" s="4"/>
-      <c r="F823" s="12"/>
+      <c r="F823" s="11"/>
       <c r="H823" s="4"/>
     </row>
     <row r="824">
-      <c r="B824" s="12"/>
+      <c r="B824" s="11"/>
       <c r="D824" s="4"/>
-      <c r="F824" s="12"/>
+      <c r="F824" s="11"/>
       <c r="H824" s="4"/>
     </row>
     <row r="825">
-      <c r="B825" s="12"/>
+      <c r="B825" s="11"/>
       <c r="D825" s="4"/>
-      <c r="F825" s="12"/>
+      <c r="F825" s="11"/>
       <c r="H825" s="4"/>
     </row>
     <row r="826">
-      <c r="B826" s="12"/>
+      <c r="B826" s="11"/>
       <c r="D826" s="4"/>
-      <c r="F826" s="12"/>
+      <c r="F826" s="11"/>
       <c r="H826" s="4"/>
     </row>
     <row r="827">
-      <c r="B827" s="12"/>
+      <c r="B827" s="11"/>
       <c r="D827" s="4"/>
-      <c r="F827" s="12"/>
+      <c r="F827" s="11"/>
       <c r="H827" s="4"/>
     </row>
     <row r="828">
-      <c r="B828" s="12"/>
+      <c r="B828" s="11"/>
       <c r="D828" s="4"/>
-      <c r="F828" s="12"/>
+      <c r="F828" s="11"/>
       <c r="H828" s="4"/>
     </row>
     <row r="829">
-      <c r="B829" s="12"/>
+      <c r="B829" s="11"/>
       <c r="D829" s="4"/>
-      <c r="F829" s="12"/>
+      <c r="F829" s="11"/>
       <c r="H829" s="4"/>
     </row>
     <row r="830">
-      <c r="B830" s="12"/>
+      <c r="B830" s="11"/>
       <c r="D830" s="4"/>
-      <c r="F830" s="12"/>
+      <c r="F830" s="11"/>
       <c r="H830" s="4"/>
     </row>
     <row r="831">
-      <c r="B831" s="12"/>
+      <c r="B831" s="11"/>
       <c r="D831" s="4"/>
-      <c r="F831" s="12"/>
+      <c r="F831" s="11"/>
       <c r="H831" s="4"/>
     </row>
     <row r="832">
-      <c r="B832" s="12"/>
+      <c r="B832" s="11"/>
       <c r="D832" s="4"/>
-      <c r="F832" s="12"/>
+      <c r="F832" s="11"/>
       <c r="H832" s="4"/>
     </row>
     <row r="833">
-      <c r="B833" s="12"/>
+      <c r="B833" s="11"/>
       <c r="D833" s="4"/>
-      <c r="F833" s="12"/>
+      <c r="F833" s="11"/>
       <c r="H833" s="4"/>
     </row>
     <row r="834">
-      <c r="B834" s="12"/>
+      <c r="B834" s="11"/>
       <c r="D834" s="4"/>
-      <c r="F834" s="12"/>
+      <c r="F834" s="11"/>
       <c r="H834" s="4"/>
     </row>
     <row r="835">
-      <c r="B835" s="12"/>
+      <c r="B835" s="11"/>
       <c r="D835" s="4"/>
-      <c r="F835" s="12"/>
+      <c r="F835" s="11"/>
       <c r="H835" s="4"/>
     </row>
     <row r="836">
-      <c r="B836" s="12"/>
+      <c r="B836" s="11"/>
       <c r="D836" s="4"/>
-      <c r="F836" s="12"/>
+      <c r="F836" s="11"/>
       <c r="H836" s="4"/>
     </row>
     <row r="837">
-      <c r="B837" s="12"/>
+      <c r="B837" s="11"/>
       <c r="D837" s="4"/>
-      <c r="F837" s="12"/>
+      <c r="F837" s="11"/>
       <c r="H837" s="4"/>
     </row>
     <row r="838">
-      <c r="B838" s="12"/>
+      <c r="B838" s="11"/>
       <c r="D838" s="4"/>
-      <c r="F838" s="12"/>
+      <c r="F838" s="11"/>
       <c r="H838" s="4"/>
     </row>
     <row r="839">
-      <c r="B839" s="12"/>
+      <c r="B839" s="11"/>
       <c r="D839" s="4"/>
-      <c r="F839" s="12"/>
+      <c r="F839" s="11"/>
       <c r="H839" s="4"/>
     </row>
     <row r="840">
-      <c r="B840" s="12"/>
+      <c r="B840" s="11"/>
       <c r="D840" s="4"/>
-      <c r="F840" s="12"/>
+      <c r="F840" s="11"/>
       <c r="H840" s="4"/>
     </row>
     <row r="841">
-      <c r="B841" s="12"/>
+      <c r="B841" s="11"/>
       <c r="D841" s="4"/>
-      <c r="F841" s="12"/>
+      <c r="F841" s="11"/>
       <c r="H841" s="4"/>
     </row>
     <row r="842">
-      <c r="B842" s="12"/>
+      <c r="B842" s="11"/>
       <c r="D842" s="4"/>
-      <c r="F842" s="12"/>
+      <c r="F842" s="11"/>
       <c r="H842" s="4"/>
     </row>
     <row r="843">
-      <c r="B843" s="12"/>
+      <c r="B843" s="11"/>
       <c r="D843" s="4"/>
-      <c r="F843" s="12"/>
+      <c r="F843" s="11"/>
       <c r="H843" s="4"/>
     </row>
     <row r="844">
-      <c r="B844" s="12"/>
+      <c r="B844" s="11"/>
       <c r="D844" s="4"/>
-      <c r="F844" s="12"/>
+      <c r="F844" s="11"/>
       <c r="H844" s="4"/>
     </row>
     <row r="845">
-      <c r="B845" s="12"/>
+      <c r="B845" s="11"/>
       <c r="D845" s="4"/>
-      <c r="F845" s="12"/>
+      <c r="F845" s="11"/>
       <c r="H845" s="4"/>
     </row>
     <row r="846">
-      <c r="B846" s="12"/>
+      <c r="B846" s="11"/>
       <c r="D846" s="4"/>
-      <c r="F846" s="12"/>
+      <c r="F846" s="11"/>
       <c r="H846" s="4"/>
     </row>
     <row r="847">
-      <c r="B847" s="12"/>
+      <c r="B847" s="11"/>
       <c r="D847" s="4"/>
-      <c r="F847" s="12"/>
+      <c r="F847" s="11"/>
       <c r="H847" s="4"/>
     </row>
     <row r="848">
-      <c r="B848" s="12"/>
+      <c r="B848" s="11"/>
       <c r="D848" s="4"/>
-      <c r="F848" s="12"/>
+      <c r="F848" s="11"/>
       <c r="H848" s="4"/>
     </row>
     <row r="849">
-      <c r="B849" s="12"/>
+      <c r="B849" s="11"/>
       <c r="D849" s="4"/>
-      <c r="F849" s="12"/>
+      <c r="F849" s="11"/>
       <c r="H849" s="4"/>
     </row>
     <row r="850">
-      <c r="B850" s="12"/>
+      <c r="B850" s="11"/>
       <c r="D850" s="4"/>
-      <c r="F850" s="12"/>
+      <c r="F850" s="11"/>
       <c r="H850" s="4"/>
     </row>
     <row r="851">
-      <c r="B851" s="12"/>
+      <c r="B851" s="11"/>
       <c r="D851" s="4"/>
-      <c r="F851" s="12"/>
+      <c r="F851" s="11"/>
       <c r="H851" s="4"/>
     </row>
     <row r="852">
-      <c r="B852" s="12"/>
+      <c r="B852" s="11"/>
       <c r="D852" s="4"/>
-      <c r="F852" s="12"/>
+      <c r="F852" s="11"/>
       <c r="H852" s="4"/>
     </row>
     <row r="853">
-      <c r="B853" s="12"/>
+      <c r="B853" s="11"/>
       <c r="D853" s="4"/>
-      <c r="F853" s="12"/>
+      <c r="F853" s="11"/>
       <c r="H853" s="4"/>
     </row>
     <row r="854">
-      <c r="B854" s="12"/>
+      <c r="B854" s="11"/>
       <c r="D854" s="4"/>
-      <c r="F854" s="12"/>
+      <c r="F854" s="11"/>
       <c r="H854" s="4"/>
     </row>
     <row r="855">
-      <c r="B855" s="12"/>
+      <c r="B855" s="11"/>
       <c r="D855" s="4"/>
-      <c r="F855" s="12"/>
+      <c r="F855" s="11"/>
       <c r="H855" s="4"/>
     </row>
     <row r="856">
-      <c r="B856" s="12"/>
+      <c r="B856" s="11"/>
       <c r="D856" s="4"/>
-      <c r="F856" s="12"/>
+      <c r="F856" s="11"/>
       <c r="H856" s="4"/>
     </row>
     <row r="857">
-      <c r="B857" s="12"/>
+      <c r="B857" s="11"/>
       <c r="D857" s="4"/>
-      <c r="F857" s="12"/>
+      <c r="F857" s="11"/>
       <c r="H857" s="4"/>
     </row>
     <row r="858">
-      <c r="B858" s="12"/>
+      <c r="B858" s="11"/>
       <c r="D858" s="4"/>
-      <c r="F858" s="12"/>
+      <c r="F858" s="11"/>
       <c r="H858" s="4"/>
     </row>
     <row r="859">
-      <c r="B859" s="12"/>
+      <c r="B859" s="11"/>
       <c r="D859" s="4"/>
-      <c r="F859" s="12"/>
+      <c r="F859" s="11"/>
       <c r="H859" s="4"/>
     </row>
     <row r="860">
-      <c r="B860" s="12"/>
+      <c r="B860" s="11"/>
       <c r="D860" s="4"/>
-      <c r="F860" s="12"/>
+      <c r="F860" s="11"/>
       <c r="H860" s="4"/>
     </row>
     <row r="861">
-      <c r="B861" s="12"/>
+      <c r="B861" s="11"/>
       <c r="D861" s="4"/>
-      <c r="F861" s="12"/>
+      <c r="F861" s="11"/>
       <c r="H861" s="4"/>
     </row>
     <row r="862">
-      <c r="B862" s="12"/>
+      <c r="B862" s="11"/>
       <c r="D862" s="4"/>
-      <c r="F862" s="12"/>
+      <c r="F862" s="11"/>
       <c r="H862" s="4"/>
     </row>
     <row r="863">
-      <c r="B863" s="12"/>
+      <c r="B863" s="11"/>
       <c r="D863" s="4"/>
-      <c r="F863" s="12"/>
+      <c r="F863" s="11"/>
       <c r="H863" s="4"/>
     </row>
     <row r="864">
-      <c r="B864" s="12"/>
+      <c r="B864" s="11"/>
       <c r="D864" s="4"/>
-      <c r="F864" s="12"/>
+      <c r="F864" s="11"/>
       <c r="H864" s="4"/>
     </row>
     <row r="865">
-      <c r="B865" s="12"/>
+      <c r="B865" s="11"/>
       <c r="D865" s="4"/>
-      <c r="F865" s="12"/>
+      <c r="F865" s="11"/>
       <c r="H865" s="4"/>
     </row>
     <row r="866">
-      <c r="B866" s="12"/>
+      <c r="B866" s="11"/>
       <c r="D866" s="4"/>
-      <c r="F866" s="12"/>
+      <c r="F866" s="11"/>
       <c r="H866" s="4"/>
     </row>
     <row r="867">
-      <c r="B867" s="12"/>
+      <c r="B867" s="11"/>
       <c r="D867" s="4"/>
-      <c r="F867" s="12"/>
+      <c r="F867" s="11"/>
       <c r="H867" s="4"/>
     </row>
     <row r="868">
-      <c r="B868" s="12"/>
+      <c r="B868" s="11"/>
       <c r="D868" s="4"/>
-      <c r="F868" s="12"/>
+      <c r="F868" s="11"/>
       <c r="H868" s="4"/>
     </row>
     <row r="869">
-      <c r="B869" s="12"/>
+      <c r="B869" s="11"/>
       <c r="D869" s="4"/>
-      <c r="F869" s="12"/>
+      <c r="F869" s="11"/>
       <c r="H869" s="4"/>
     </row>
     <row r="870">
-      <c r="B870" s="12"/>
+      <c r="B870" s="11"/>
       <c r="D870" s="4"/>
-      <c r="F870" s="12"/>
+      <c r="F870" s="11"/>
       <c r="H870" s="4"/>
     </row>
     <row r="871">
-      <c r="B871" s="12"/>
+      <c r="B871" s="11"/>
       <c r="D871" s="4"/>
-      <c r="F871" s="12"/>
+      <c r="F871" s="11"/>
       <c r="H871" s="4"/>
     </row>
     <row r="872">
-      <c r="B872" s="12"/>
+      <c r="B872" s="11"/>
       <c r="D872" s="4"/>
-      <c r="F872" s="12"/>
+      <c r="F872" s="11"/>
       <c r="H872" s="4"/>
     </row>
     <row r="873">
-      <c r="B873" s="12"/>
+      <c r="B873" s="11"/>
       <c r="D873" s="4"/>
-      <c r="F873" s="12"/>
+      <c r="F873" s="11"/>
       <c r="H873" s="4"/>
     </row>
     <row r="874">
-      <c r="B874" s="12"/>
+      <c r="B874" s="11"/>
       <c r="D874" s="4"/>
-      <c r="F874" s="12"/>
+      <c r="F874" s="11"/>
       <c r="H874" s="4"/>
     </row>
     <row r="875">
-      <c r="B875" s="12"/>
+      <c r="B875" s="11"/>
       <c r="D875" s="4"/>
-      <c r="F875" s="12"/>
+      <c r="F875" s="11"/>
       <c r="H875" s="4"/>
     </row>
     <row r="876">
-      <c r="B876" s="12"/>
+      <c r="B876" s="11"/>
       <c r="D876" s="4"/>
-      <c r="F876" s="12"/>
+      <c r="F876" s="11"/>
       <c r="H876" s="4"/>
     </row>
     <row r="877">
-      <c r="B877" s="12"/>
+      <c r="B877" s="11"/>
       <c r="D877" s="4"/>
-      <c r="F877" s="12"/>
+      <c r="F877" s="11"/>
       <c r="H877" s="4"/>
     </row>
     <row r="878">
-      <c r="B878" s="12"/>
+      <c r="B878" s="11"/>
       <c r="D878" s="4"/>
-      <c r="F878" s="12"/>
+      <c r="F878" s="11"/>
       <c r="H878" s="4"/>
     </row>
     <row r="879">
-      <c r="B879" s="12"/>
+      <c r="B879" s="11"/>
       <c r="D879" s="4"/>
-      <c r="F879" s="12"/>
+      <c r="F879" s="11"/>
       <c r="H879" s="4"/>
     </row>
     <row r="880">
-      <c r="B880" s="12"/>
+      <c r="B880" s="11"/>
       <c r="D880" s="4"/>
-      <c r="F880" s="12"/>
+      <c r="F880" s="11"/>
       <c r="H880" s="4"/>
     </row>
     <row r="881">
-      <c r="B881" s="12"/>
+      <c r="B881" s="11"/>
       <c r="D881" s="4"/>
-      <c r="F881" s="12"/>
+      <c r="F881" s="11"/>
       <c r="H881" s="4"/>
     </row>
     <row r="882">
-      <c r="B882" s="12"/>
+      <c r="B882" s="11"/>
       <c r="D882" s="4"/>
-      <c r="F882" s="12"/>
+      <c r="F882" s="11"/>
       <c r="H882" s="4"/>
     </row>
     <row r="883">
-      <c r="B883" s="12"/>
+      <c r="B883" s="11"/>
       <c r="D883" s="4"/>
-      <c r="F883" s="12"/>
+      <c r="F883" s="11"/>
       <c r="H883" s="4"/>
     </row>
     <row r="884">
-      <c r="B884" s="12"/>
+      <c r="B884" s="11"/>
       <c r="D884" s="4"/>
-      <c r="F884" s="12"/>
+      <c r="F884" s="11"/>
       <c r="H884" s="4"/>
     </row>
     <row r="885">
-      <c r="B885" s="12"/>
+      <c r="B885" s="11"/>
       <c r="D885" s="4"/>
-      <c r="F885" s="12"/>
+      <c r="F885" s="11"/>
       <c r="H885" s="4"/>
     </row>
     <row r="886">
-      <c r="B886" s="12"/>
+      <c r="B886" s="11"/>
       <c r="D886" s="4"/>
-      <c r="F886" s="12"/>
+      <c r="F886" s="11"/>
       <c r="H886" s="4"/>
     </row>
     <row r="887">
-      <c r="B887" s="12"/>
+      <c r="B887" s="11"/>
       <c r="D887" s="4"/>
-      <c r="F887" s="12"/>
+      <c r="F887" s="11"/>
       <c r="H887" s="4"/>
     </row>
     <row r="888">
-      <c r="B888" s="12"/>
+      <c r="B888" s="11"/>
       <c r="D888" s="4"/>
-      <c r="F888" s="12"/>
+      <c r="F888" s="11"/>
       <c r="H888" s="4"/>
     </row>
     <row r="889">
-      <c r="B889" s="12"/>
+      <c r="B889" s="11"/>
       <c r="D889" s="4"/>
-      <c r="F889" s="12"/>
+      <c r="F889" s="11"/>
       <c r="H889" s="4"/>
     </row>
     <row r="890">
-      <c r="B890" s="12"/>
+      <c r="B890" s="11"/>
       <c r="D890" s="4"/>
-      <c r="F890" s="12"/>
+      <c r="F890" s="11"/>
       <c r="H890" s="4"/>
     </row>
     <row r="891">
-      <c r="B891" s="12"/>
+      <c r="B891" s="11"/>
       <c r="D891" s="4"/>
-      <c r="F891" s="12"/>
+      <c r="F891" s="11"/>
       <c r="H891" s="4"/>
     </row>
     <row r="892">
-      <c r="B892" s="12"/>
+      <c r="B892" s="11"/>
       <c r="D892" s="4"/>
-      <c r="F892" s="12"/>
+      <c r="F892" s="11"/>
       <c r="H892" s="4"/>
     </row>
     <row r="893">
-      <c r="B893" s="12"/>
+      <c r="B893" s="11"/>
       <c r="D893" s="4"/>
-      <c r="F893" s="12"/>
+      <c r="F893" s="11"/>
       <c r="H893" s="4"/>
     </row>
     <row r="894">
-      <c r="B894" s="12"/>
+      <c r="B894" s="11"/>
       <c r="D894" s="4"/>
-      <c r="F894" s="12"/>
+      <c r="F894" s="11"/>
       <c r="H894" s="4"/>
     </row>
     <row r="895">
-      <c r="B895" s="12"/>
+      <c r="B895" s="11"/>
       <c r="D895" s="4"/>
-      <c r="F895" s="12"/>
+      <c r="F895" s="11"/>
       <c r="H895" s="4"/>
     </row>
     <row r="896">
-      <c r="B896" s="12"/>
+      <c r="B896" s="11"/>
       <c r="D896" s="4"/>
-      <c r="F896" s="12"/>
+      <c r="F896" s="11"/>
       <c r="H896" s="4"/>
     </row>
     <row r="897">
-      <c r="B897" s="12"/>
+      <c r="B897" s="11"/>
       <c r="D897" s="4"/>
-      <c r="F897" s="12"/>
+      <c r="F897" s="11"/>
       <c r="H897" s="4"/>
     </row>
     <row r="898">
-      <c r="B898" s="12"/>
+      <c r="B898" s="11"/>
       <c r="D898" s="4"/>
-      <c r="F898" s="12"/>
+      <c r="F898" s="11"/>
       <c r="H898" s="4"/>
     </row>
     <row r="899">
-      <c r="B899" s="12"/>
+      <c r="B899" s="11"/>
       <c r="D899" s="4"/>
-      <c r="F899" s="12"/>
+      <c r="F899" s="11"/>
       <c r="H899" s="4"/>
     </row>
     <row r="900">
-      <c r="B900" s="12"/>
+      <c r="B900" s="11"/>
       <c r="D900" s="4"/>
-      <c r="F900" s="12"/>
+      <c r="F900" s="11"/>
       <c r="H900" s="4"/>
     </row>
     <row r="901">
-      <c r="B901" s="12"/>
+      <c r="B901" s="11"/>
       <c r="D901" s="4"/>
-      <c r="F901" s="12"/>
+      <c r="F901" s="11"/>
       <c r="H901" s="4"/>
     </row>
     <row r="902">
-      <c r="B902" s="12"/>
+      <c r="B902" s="11"/>
       <c r="D902" s="4"/>
-      <c r="F902" s="12"/>
+      <c r="F902" s="11"/>
       <c r="H902" s="4"/>
     </row>
     <row r="903">
-      <c r="B903" s="12"/>
+      <c r="B903" s="11"/>
       <c r="D903" s="4"/>
-      <c r="F903" s="12"/>
+      <c r="F903" s="11"/>
       <c r="H903" s="4"/>
     </row>
     <row r="904">
-      <c r="B904" s="12"/>
+      <c r="B904" s="11"/>
       <c r="D904" s="4"/>
-      <c r="F904" s="12"/>
+      <c r="F904" s="11"/>
       <c r="H904" s="4"/>
     </row>
     <row r="905">
-      <c r="B905" s="12"/>
+      <c r="B905" s="11"/>
       <c r="D905" s="4"/>
-      <c r="F905" s="12"/>
+      <c r="F905" s="11"/>
       <c r="H905" s="4"/>
     </row>
     <row r="906">
-      <c r="B906" s="12"/>
+      <c r="B906" s="11"/>
       <c r="D906" s="4"/>
-      <c r="F906" s="12"/>
+      <c r="F906" s="11"/>
       <c r="H906" s="4"/>
     </row>
     <row r="907">
-      <c r="B907" s="12"/>
+      <c r="B907" s="11"/>
       <c r="D907" s="4"/>
-      <c r="F907" s="12"/>
+      <c r="F907" s="11"/>
       <c r="H907" s="4"/>
     </row>
     <row r="908">
-      <c r="B908" s="12"/>
+      <c r="B908" s="11"/>
       <c r="D908" s="4"/>
-      <c r="F908" s="12"/>
+      <c r="F908" s="11"/>
       <c r="H908" s="4"/>
     </row>
     <row r="909">
-      <c r="B909" s="12"/>
+      <c r="B909" s="11"/>
       <c r="D909" s="4"/>
-      <c r="F909" s="12"/>
+      <c r="F909" s="11"/>
       <c r="H909" s="4"/>
     </row>
     <row r="910">
-      <c r="B910" s="12"/>
+      <c r="B910" s="11"/>
       <c r="D910" s="4"/>
-      <c r="F910" s="12"/>
+      <c r="F910" s="11"/>
       <c r="H910" s="4"/>
     </row>
     <row r="911">
-      <c r="B911" s="12"/>
+      <c r="B911" s="11"/>
       <c r="D911" s="4"/>
-      <c r="F911" s="12"/>
+      <c r="F911" s="11"/>
       <c r="H911" s="4"/>
     </row>
     <row r="912">
-      <c r="B912" s="12"/>
+      <c r="B912" s="11"/>
       <c r="D912" s="4"/>
-      <c r="F912" s="12"/>
+      <c r="F912" s="11"/>
       <c r="H912" s="4"/>
     </row>
     <row r="913">
-      <c r="B913" s="12"/>
+      <c r="B913" s="11"/>
       <c r="D913" s="4"/>
-      <c r="F913" s="12"/>
+      <c r="F913" s="11"/>
       <c r="H913" s="4"/>
     </row>
     <row r="914">
-      <c r="B914" s="12"/>
+      <c r="B914" s="11"/>
       <c r="D914" s="4"/>
-      <c r="F914" s="12"/>
+      <c r="F914" s="11"/>
       <c r="H914" s="4"/>
     </row>
     <row r="915">
-      <c r="B915" s="12"/>
+      <c r="B915" s="11"/>
       <c r="D915" s="4"/>
-      <c r="F915" s="12"/>
+      <c r="F915" s="11"/>
       <c r="H915" s="4"/>
     </row>
     <row r="916">
-      <c r="B916" s="12"/>
+      <c r="B916" s="11"/>
       <c r="D916" s="4"/>
-      <c r="F916" s="12"/>
+      <c r="F916" s="11"/>
       <c r="H916" s="4"/>
     </row>
     <row r="917">
-      <c r="B917" s="12"/>
+      <c r="B917" s="11"/>
       <c r="D917" s="4"/>
-      <c r="F917" s="12"/>
+      <c r="F917" s="11"/>
       <c r="H917" s="4"/>
     </row>
     <row r="918">
-      <c r="B918" s="12"/>
+      <c r="B918" s="11"/>
       <c r="D918" s="4"/>
-      <c r="F918" s="12"/>
+      <c r="F918" s="11"/>
       <c r="H918" s="4"/>
     </row>
     <row r="919">
-      <c r="B919" s="12"/>
+      <c r="B919" s="11"/>
       <c r="D919" s="4"/>
-      <c r="F919" s="12"/>
+      <c r="F919" s="11"/>
       <c r="H919" s="4"/>
     </row>
     <row r="920">
-      <c r="B920" s="12"/>
+      <c r="B920" s="11"/>
       <c r="D920" s="4"/>
-      <c r="F920" s="12"/>
+      <c r="F920" s="11"/>
       <c r="H920" s="4"/>
     </row>
     <row r="921">
-      <c r="B921" s="12"/>
+      <c r="B921" s="11"/>
       <c r="D921" s="4"/>
-      <c r="F921" s="12"/>
+      <c r="F921" s="11"/>
       <c r="H921" s="4"/>
     </row>
     <row r="922">
-      <c r="B922" s="12"/>
+      <c r="B922" s="11"/>
       <c r="D922" s="4"/>
-      <c r="F922" s="12"/>
+      <c r="F922" s="11"/>
       <c r="H922" s="4"/>
     </row>
     <row r="923">
-      <c r="B923" s="12"/>
+      <c r="B923" s="11"/>
       <c r="D923" s="4"/>
-      <c r="F923" s="12"/>
+      <c r="F923" s="11"/>
       <c r="H923" s="4"/>
     </row>
     <row r="924">
-      <c r="B924" s="12"/>
+      <c r="B924" s="11"/>
       <c r="D924" s="4"/>
-      <c r="F924" s="12"/>
+      <c r="F924" s="11"/>
       <c r="H924" s="4"/>
     </row>
     <row r="925">
-      <c r="B925" s="12"/>
+      <c r="B925" s="11"/>
       <c r="D925" s="4"/>
-      <c r="F925" s="12"/>
+      <c r="F925" s="11"/>
       <c r="H925" s="4"/>
     </row>
     <row r="926">
-      <c r="B926" s="12"/>
+      <c r="B926" s="11"/>
       <c r="D926" s="4"/>
-      <c r="F926" s="12"/>
+      <c r="F926" s="11"/>
       <c r="H926" s="4"/>
     </row>
     <row r="927">
-      <c r="B927" s="12"/>
+      <c r="B927" s="11"/>
       <c r="D927" s="4"/>
-      <c r="F927" s="12"/>
+      <c r="F927" s="11"/>
       <c r="H927" s="4"/>
     </row>
     <row r="928">
-      <c r="B928" s="12"/>
+      <c r="B928" s="11"/>
       <c r="D928" s="4"/>
-      <c r="F928" s="12"/>
+      <c r="F928" s="11"/>
       <c r="H928" s="4"/>
     </row>
     <row r="929">
-      <c r="B929" s="12"/>
+      <c r="B929" s="11"/>
       <c r="D929" s="4"/>
-      <c r="F929" s="12"/>
+      <c r="F929" s="11"/>
       <c r="H929" s="4"/>
     </row>
     <row r="930">
-      <c r="B930" s="12"/>
+      <c r="B930" s="11"/>
       <c r="D930" s="4"/>
-      <c r="F930" s="12"/>
+      <c r="F930" s="11"/>
       <c r="H930" s="4"/>
     </row>
     <row r="931">
-      <c r="B931" s="12"/>
+      <c r="B931" s="11"/>
       <c r="D931" s="4"/>
-      <c r="F931" s="12"/>
+      <c r="F931" s="11"/>
       <c r="H931" s="4"/>
     </row>
     <row r="932">
-      <c r="B932" s="12"/>
+      <c r="B932" s="11"/>
       <c r="D932" s="4"/>
-      <c r="F932" s="12"/>
+      <c r="F932" s="11"/>
       <c r="H932" s="4"/>
     </row>
     <row r="933">
-      <c r="B933" s="12"/>
+      <c r="B933" s="11"/>
       <c r="D933" s="4"/>
-      <c r="F933" s="12"/>
+      <c r="F933" s="11"/>
       <c r="H933" s="4"/>
     </row>
     <row r="934">
-      <c r="B934" s="12"/>
+      <c r="B934" s="11"/>
       <c r="D934" s="4"/>
-      <c r="F934" s="12"/>
+      <c r="F934" s="11"/>
       <c r="H934" s="4"/>
     </row>
     <row r="935">
-      <c r="B935" s="12"/>
+      <c r="B935" s="11"/>
       <c r="D935" s="4"/>
-      <c r="F935" s="12"/>
+      <c r="F935" s="11"/>
       <c r="H935" s="4"/>
     </row>
     <row r="936">
-      <c r="B936" s="12"/>
+      <c r="B936" s="11"/>
       <c r="D936" s="4"/>
-      <c r="F936" s="12"/>
+      <c r="F936" s="11"/>
       <c r="H936" s="4"/>
     </row>
     <row r="937">
-      <c r="B937" s="12"/>
+      <c r="B937" s="11"/>
       <c r="D937" s="4"/>
-      <c r="F937" s="12"/>
+      <c r="F937" s="11"/>
       <c r="H937" s="4"/>
     </row>
     <row r="938">
-      <c r="B938" s="12"/>
+      <c r="B938" s="11"/>
       <c r="D938" s="4"/>
-      <c r="F938" s="12"/>
+      <c r="F938" s="11"/>
       <c r="H938" s="4"/>
     </row>
     <row r="939">
-      <c r="B939" s="12"/>
+      <c r="B939" s="11"/>
       <c r="D939" s="4"/>
-      <c r="F939" s="12"/>
+      <c r="F939" s="11"/>
       <c r="H939" s="4"/>
     </row>
     <row r="940">
-      <c r="B940" s="12"/>
+      <c r="B940" s="11"/>
       <c r="D940" s="4"/>
-      <c r="F940" s="12"/>
+      <c r="F940" s="11"/>
       <c r="H940" s="4"/>
     </row>
     <row r="941">
-      <c r="B941" s="12"/>
+      <c r="B941" s="11"/>
       <c r="D941" s="4"/>
-      <c r="F941" s="12"/>
+      <c r="F941" s="11"/>
       <c r="H941" s="4"/>
     </row>
     <row r="942">
-      <c r="B942" s="12"/>
+      <c r="B942" s="11"/>
       <c r="D942" s="4"/>
-      <c r="F942" s="12"/>
+      <c r="F942" s="11"/>
       <c r="H942" s="4"/>
     </row>
     <row r="943">
-      <c r="B943" s="12"/>
+      <c r="B943" s="11"/>
       <c r="D943" s="4"/>
-      <c r="F943" s="12"/>
+      <c r="F943" s="11"/>
       <c r="H943" s="4"/>
     </row>
     <row r="944">
-      <c r="B944" s="12"/>
+      <c r="B944" s="11"/>
       <c r="D944" s="4"/>
-      <c r="F944" s="12"/>
+      <c r="F944" s="11"/>
       <c r="H944" s="4"/>
     </row>
     <row r="945">
-      <c r="B945" s="12"/>
+      <c r="B945" s="11"/>
       <c r="D945" s="4"/>
-      <c r="F945" s="12"/>
+      <c r="F945" s="11"/>
       <c r="H945" s="4"/>
     </row>
     <row r="946">
-      <c r="B946" s="12"/>
+      <c r="B946" s="11"/>
       <c r="D946" s="4"/>
-      <c r="F946" s="12"/>
+      <c r="F946" s="11"/>
       <c r="H946" s="4"/>
     </row>
     <row r="947">
-      <c r="B947" s="12"/>
+      <c r="B947" s="11"/>
       <c r="D947" s="4"/>
-      <c r="F947" s="12"/>
+      <c r="F947" s="11"/>
       <c r="H947" s="4"/>
     </row>
     <row r="948">
-      <c r="B948" s="12"/>
+      <c r="B948" s="11"/>
       <c r="D948" s="4"/>
-      <c r="F948" s="12"/>
+      <c r="F948" s="11"/>
       <c r="H948" s="4"/>
     </row>
     <row r="949">
-      <c r="B949" s="12"/>
+      <c r="B949" s="11"/>
       <c r="D949" s="4"/>
-      <c r="F949" s="12"/>
+      <c r="F949" s="11"/>
       <c r="H949" s="4"/>
     </row>
     <row r="950">
-      <c r="B950" s="12"/>
+      <c r="B950" s="11"/>
       <c r="D950" s="4"/>
-      <c r="F950" s="12"/>
+      <c r="F950" s="11"/>
       <c r="H950" s="4"/>
     </row>
     <row r="951">
-      <c r="B951" s="12"/>
+      <c r="B951" s="11"/>
       <c r="D951" s="4"/>
-      <c r="F951" s="12"/>
+      <c r="F951" s="11"/>
       <c r="H951" s="4"/>
     </row>
     <row r="952">
-      <c r="B952" s="12"/>
+      <c r="B952" s="11"/>
       <c r="D952" s="4"/>
-      <c r="F952" s="12"/>
+      <c r="F952" s="11"/>
       <c r="H952" s="4"/>
     </row>
     <row r="953">
-      <c r="B953" s="12"/>
+      <c r="B953" s="11"/>
       <c r="D953" s="4"/>
-      <c r="F953" s="12"/>
+      <c r="F953" s="11"/>
       <c r="H953" s="4"/>
     </row>
     <row r="954">
-      <c r="B954" s="12"/>
+      <c r="B954" s="11"/>
       <c r="D954" s="4"/>
-      <c r="F954" s="12"/>
+      <c r="F954" s="11"/>
       <c r="H954" s="4"/>
     </row>
     <row r="955">
-      <c r="B955" s="12"/>
+      <c r="B955" s="11"/>
       <c r="D955" s="4"/>
-      <c r="F955" s="12"/>
+      <c r="F955" s="11"/>
       <c r="H955" s="4"/>
     </row>
     <row r="956">
-      <c r="B956" s="12"/>
+      <c r="B956" s="11"/>
       <c r="D956" s="4"/>
-      <c r="F956" s="12"/>
+      <c r="F956" s="11"/>
       <c r="H956" s="4"/>
     </row>
     <row r="957">
-      <c r="B957" s="12"/>
+      <c r="B957" s="11"/>
       <c r="D957" s="4"/>
-      <c r="F957" s="12"/>
+      <c r="F957" s="11"/>
       <c r="H957" s="4"/>
     </row>
     <row r="958">
-      <c r="B958" s="12"/>
+      <c r="B958" s="11"/>
       <c r="D958" s="4"/>
-      <c r="F958" s="12"/>
+      <c r="F958" s="11"/>
       <c r="H958" s="4"/>
     </row>
     <row r="959">
-      <c r="B959" s="12"/>
+      <c r="B959" s="11"/>
       <c r="D959" s="4"/>
-      <c r="F959" s="12"/>
+      <c r="F959" s="11"/>
       <c r="H959" s="4"/>
     </row>
     <row r="960">
-      <c r="B960" s="12"/>
+      <c r="B960" s="11"/>
       <c r="D960" s="4"/>
-      <c r="F960" s="12"/>
+      <c r="F960" s="11"/>
       <c r="H960" s="4"/>
     </row>
     <row r="961">
-      <c r="B961" s="12"/>
+      <c r="B961" s="11"/>
       <c r="D961" s="4"/>
-      <c r="F961" s="12"/>
+      <c r="F961" s="11"/>
       <c r="H961" s="4"/>
     </row>
     <row r="962">
-      <c r="B962" s="12"/>
+      <c r="B962" s="11"/>
       <c r="D962" s="4"/>
-      <c r="F962" s="12"/>
+      <c r="F962" s="11"/>
       <c r="H962" s="4"/>
     </row>
     <row r="963">
-      <c r="B963" s="12"/>
+      <c r="B963" s="11"/>
       <c r="D963" s="4"/>
-      <c r="F963" s="12"/>
+      <c r="F963" s="11"/>
       <c r="H963" s="4"/>
     </row>
     <row r="964">
-      <c r="B964" s="12"/>
+      <c r="B964" s="11"/>
       <c r="D964" s="4"/>
-      <c r="F964" s="12"/>
+      <c r="F964" s="11"/>
       <c r="H964" s="4"/>
     </row>
     <row r="965">
-      <c r="B965" s="12"/>
+      <c r="B965" s="11"/>
       <c r="D965" s="4"/>
-      <c r="F965" s="12"/>
+      <c r="F965" s="11"/>
       <c r="H965" s="4"/>
     </row>
     <row r="966">
-      <c r="B966" s="12"/>
+      <c r="B966" s="11"/>
       <c r="D966" s="4"/>
-      <c r="F966" s="12"/>
+      <c r="F966" s="11"/>
       <c r="H966" s="4"/>
     </row>
     <row r="967">
-      <c r="B967" s="12"/>
+      <c r="B967" s="11"/>
       <c r="D967" s="4"/>
-      <c r="F967" s="12"/>
+      <c r="F967" s="11"/>
       <c r="H967" s="4"/>
     </row>
     <row r="968">
-      <c r="B968" s="12"/>
+      <c r="B968" s="11"/>
       <c r="D968" s="4"/>
-      <c r="F968" s="12"/>
+      <c r="F968" s="11"/>
       <c r="H968" s="4"/>
     </row>
     <row r="969">
-      <c r="B969" s="12"/>
+      <c r="B969" s="11"/>
       <c r="D969" s="4"/>
-      <c r="F969" s="12"/>
+      <c r="F969" s="11"/>
       <c r="H969" s="4"/>
     </row>
     <row r="970">
-      <c r="B970" s="12"/>
+      <c r="B970" s="11"/>
       <c r="D970" s="4"/>
-      <c r="F970" s="12"/>
+      <c r="F970" s="11"/>
       <c r="H970" s="4"/>
     </row>
     <row r="971">
-      <c r="B971" s="12"/>
+      <c r="B971" s="11"/>
       <c r="D971" s="4"/>
-      <c r="F971" s="12"/>
+      <c r="F971" s="11"/>
       <c r="H971" s="4"/>
     </row>
     <row r="972">
-      <c r="B972" s="12"/>
+      <c r="B972" s="11"/>
       <c r="D972" s="4"/>
-      <c r="F972" s="12"/>
+      <c r="F972" s="11"/>
       <c r="H972" s="4"/>
     </row>
     <row r="973">
-      <c r="B973" s="12"/>
+      <c r="B973" s="11"/>
       <c r="D973" s="4"/>
-      <c r="F973" s="12"/>
+      <c r="F973" s="11"/>
       <c r="H973" s="4"/>
     </row>
     <row r="974">
-      <c r="B974" s="12"/>
+      <c r="B974" s="11"/>
       <c r="D974" s="4"/>
-      <c r="F974" s="12"/>
+      <c r="F974" s="11"/>
       <c r="H974" s="4"/>
     </row>
     <row r="975">
-      <c r="B975" s="12"/>
+      <c r="B975" s="11"/>
       <c r="D975" s="4"/>
-      <c r="F975" s="12"/>
+      <c r="F975" s="11"/>
       <c r="H975" s="4"/>
     </row>
     <row r="976">
-      <c r="B976" s="12"/>
+      <c r="B976" s="11"/>
       <c r="D976" s="4"/>
-      <c r="F976" s="12"/>
+      <c r="F976" s="11"/>
       <c r="H976" s="4"/>
     </row>
     <row r="977">
-      <c r="B977" s="12"/>
+      <c r="B977" s="11"/>
       <c r="D977" s="4"/>
-      <c r="F977" s="12"/>
+      <c r="F977" s="11"/>
       <c r="H977" s="4"/>
     </row>
     <row r="978">
-      <c r="B978" s="12"/>
+      <c r="B978" s="11"/>
       <c r="D978" s="4"/>
-      <c r="F978" s="12"/>
+      <c r="F978" s="11"/>
       <c r="H978" s="4"/>
     </row>
     <row r="979">
-      <c r="B979" s="12"/>
+      <c r="B979" s="11"/>
       <c r="D979" s="4"/>
-      <c r="F979" s="12"/>
+      <c r="F979" s="11"/>
       <c r="H979" s="4"/>
     </row>
     <row r="980">
-      <c r="B980" s="12"/>
+      <c r="B980" s="11"/>
       <c r="D980" s="4"/>
-      <c r="F980" s="12"/>
+      <c r="F980" s="11"/>
       <c r="H980" s="4"/>
     </row>
     <row r="981">
-      <c r="B981" s="12"/>
+      <c r="B981" s="11"/>
       <c r="D981" s="4"/>
-      <c r="F981" s="12"/>
+      <c r="F981" s="11"/>
       <c r="H981" s="4"/>
     </row>
     <row r="982">
-      <c r="B982" s="12"/>
+      <c r="B982" s="11"/>
       <c r="D982" s="4"/>
-      <c r="F982" s="12"/>
+      <c r="F982" s="11"/>
       <c r="H982" s="4"/>
     </row>
     <row r="983">
-      <c r="B983" s="12"/>
+      <c r="B983" s="11"/>
       <c r="D983" s="4"/>
-      <c r="F983" s="12"/>
+      <c r="F983" s="11"/>
       <c r="H983" s="4"/>
     </row>
     <row r="984">
-      <c r="B984" s="12"/>
+      <c r="B984" s="11"/>
       <c r="D984" s="4"/>
-      <c r="F984" s="12"/>
+      <c r="F984" s="11"/>
       <c r="H984" s="4"/>
     </row>
     <row r="985">
-      <c r="B985" s="12"/>
+      <c r="B985" s="11"/>
       <c r="D985" s="4"/>
-      <c r="F985" s="12"/>
+      <c r="F985" s="11"/>
       <c r="H985" s="4"/>
     </row>
     <row r="986">
-      <c r="B986" s="12"/>
+      <c r="B986" s="11"/>
       <c r="D986" s="4"/>
-      <c r="F986" s="12"/>
+      <c r="F986" s="11"/>
       <c r="H986" s="4"/>
     </row>
     <row r="987">
-      <c r="B987" s="12"/>
+      <c r="B987" s="11"/>
       <c r="D987" s="4"/>
-      <c r="F987" s="12"/>
+      <c r="F987" s="11"/>
       <c r="H987" s="4"/>
     </row>
     <row r="988">
-      <c r="B988" s="12"/>
+      <c r="B988" s="11"/>
       <c r="D988" s="4"/>
-      <c r="F988" s="12"/>
+      <c r="F988" s="11"/>
       <c r="H988" s="4"/>
     </row>
     <row r="989">
-      <c r="B989" s="12"/>
+      <c r="B989" s="11"/>
       <c r="D989" s="4"/>
-      <c r="F989" s="12"/>
+      <c r="F989" s="11"/>
       <c r="H989" s="4"/>
     </row>
     <row r="990">
-      <c r="B990" s="12"/>
+      <c r="B990" s="11"/>
       <c r="D990" s="4"/>
-      <c r="F990" s="12"/>
+      <c r="F990" s="11"/>
       <c r="H990" s="4"/>
     </row>
   </sheetData>
@@ -7628,54 +8157,54 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
+      <c r="A2" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="4">
         <f>sumif(Zeiterfassung!$C$3:$C$200,A2,Zeiterfassung!$B$3:$B$200)</f>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C2" s="4">
         <f>sumif(Zeiterfassung!$G$3:$G$200,A2,Zeiterfassung!$F$3:$F$200)</f>
-        <v>45</v>
+        <v>48.5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
+      <c r="A3" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B3" s="4">
         <f>sumif(Zeiterfassung!$C$3:$C$200,A3,Zeiterfassung!$B$3:$B$200)</f>
-        <v>7.5</v>
+        <v>17.5</v>
       </c>
       <c r="C3" s="4">
         <f>sumif(Zeiterfassung!$G$3:$G$200,A3,Zeiterfassung!$F$3:$F$200)</f>
-        <v>9.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
+      <c r="A4" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B4" s="4">
         <f>sumif(Zeiterfassung!$C$3:$C$200,A4,Zeiterfassung!$B$3:$B$200)</f>
-        <v>18.5</v>
+        <v>51</v>
       </c>
       <c r="C4" s="4">
         <f>sumif(Zeiterfassung!$G$3:$G$200,A4,Zeiterfassung!$F$3:$F$200)</f>
-        <v>44</v>
+        <v>93.5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
+      <c r="A5" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B5" s="4">
         <f>sumif(Zeiterfassung!$C$3:$C$200,A5,Zeiterfassung!$B$3:$B$200)</f>
@@ -7687,12 +8216,12 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
+      <c r="A6" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B6" s="4">
         <f>sumif(Zeiterfassung!$C$3:$C$200,A6,Zeiterfassung!$B$3:$B$200)</f>
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="C6" s="4">
         <f>sumif(Zeiterfassung!$G$3:$G$200,A6,Zeiterfassung!$F$3:$F$200)</f>
@@ -7701,15 +8230,15 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="11">
+        <v>19</v>
+      </c>
+      <c r="B7" s="12">
         <f t="shared" ref="B7:C7" si="1">sum(B2:B6)</f>
-        <v>91.5</v>
-      </c>
-      <c r="C7" s="11">
+        <v>144.5</v>
+      </c>
+      <c r="C7" s="12">
         <f t="shared" si="1"/>
-        <v>99.5</v>
+        <v>157.5</v>
       </c>
     </row>
   </sheetData>
